--- a/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
@@ -2030,7 +2030,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>26</v>
+            <v>49</v>
           </cell>
         </row>
         <row r="7">
@@ -2345,36 +2345,36 @@
       <sheetData sheetId="28">
         <row r="6">
           <cell r="D6">
-            <v>42153</v>
+            <v>42157</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>42152</v>
+            <v>42156</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="29">
         <row r="6">
           <cell r="D6">
-            <v>42153</v>
+            <v>42157</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>42152</v>
+            <v>42156</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="30">
         <row r="6">
           <cell r="D6">
-            <v>42156</v>
+            <v>42158</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>42153</v>
+            <v>42157</v>
           </cell>
         </row>
       </sheetData>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="D17" s="8">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdjust(Calendar,EvaluationDate,"f",Trigger),"2D","f")</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="E17" s="212"/>
       <c r="G17" s="225"/>
@@ -2978,7 +2978,7 @@
         <v>21</v>
       </c>
       <c r="I17" s="233">
-        <v>42156.751331018517</v>
+        <v>42158.73951388889</v>
       </c>
       <c r="J17" s="111"/>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="I18" s="33">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42156</v>
+        <v>42158</v>
       </c>
       <c r="J18" s="111"/>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="D19" s="25" t="str">
         <f>_xll.qlInterpolation(,BasisInterpolation,'1YSynthDepo'!E5:E17,'1YSynthDepo'!I5:I17)</f>
-        <v>obj_005db#0025</v>
+        <v>obj_005dd#0048</v>
       </c>
       <c r="E19" s="212"/>
       <c r="G19" s="225"/>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="I19" s="34">
         <f>[1]!TriggerCounter</f>
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J19" s="111"/>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="D28" s="36" t="str">
         <f>_xll.qlEuribor(,"1M",D34,,Trigger)</f>
-        <v>obj_005df#0000</v>
+        <v>obj_005dc#0000</v>
       </c>
       <c r="E28" s="212"/>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="D34" s="52" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,2,Calendar,_xll.ohPack('1MSynthDepo'!G13:G21),"actual/365",,,,D31,D32,,Trigger)</f>
-        <v>obj_005de#0000</v>
+        <v>obj_005db#0000</v>
       </c>
       <c r="E34" s="212"/>
     </row>
@@ -3181,7 +3181,7 @@
       <c r="B37" s="211"/>
       <c r="C37" s="26">
         <f>_xll.qlTermStructureReferenceDate(D34)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="D37" s="37">
         <f>_xll.qlYieldTSDiscount(D34,C37,,Trigger)</f>
@@ -3193,11 +3193,11 @@
       <c r="B38" s="211"/>
       <c r="C38" s="27">
         <f>_xll.qlTermStructureMaxDate(D34)</f>
-        <v>42373</v>
+        <v>42374</v>
       </c>
       <c r="D38" s="38">
         <f>_xll.qlYieldTSDiscount(D34,C38,,Trigger)</f>
-        <v>1.0003764380866382</v>
+        <v>1.0003746866902303</v>
       </c>
       <c r="E38" s="229"/>
     </row>
@@ -3246,7 +3246,7 @@
   <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="K3" s="310" t="str">
         <f>_xll.qlDepositRateHelper(,J3,K1,,Trigger)</f>
-        <v>obj_005c8#0000</v>
+        <v>obj_005c0#0000</v>
       </c>
       <c r="L3" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -3421,21 +3421,21 @@
       </c>
       <c r="R3" s="331">
         <f>SettlementDate</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="S3" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R3,Trigger)</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="T3" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R3,Trigger),TRUE,AllTriggers)</f>
-        <v>-5.7000000000106965E-4</v>
+        <v>-6.1000000000103083E-4</v>
       </c>
       <c r="U3" s="239"/>
       <c r="V3" s="239"/>
       <c r="W3" s="190">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R3,Trigger)</f>
-        <v>6.3549954047648072E-4</v>
+        <v>5.7933786369105289E-4</v>
       </c>
       <c r="X3" s="239"/>
       <c r="Y3" s="239"/>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="K4" s="158" t="str">
         <f>_xll.qlSwapRateHelper2(,$J4,,C4,Calendar,$F4,$G4,$H4,$K$1,$I4,B4,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059a#0000</v>
+        <v>obj_00597#0000</v>
       </c>
       <c r="L4" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -3514,35 +3514,35 @@
       </c>
       <c r="R4" s="294">
         <f>SettlementDate</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="S4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R4,Trigger)</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="T4" s="190">
         <f>_xll.qlQuoteValue(Q4,LastFixingsTrigger)</f>
-        <v>-5.7000000000000009E-4</v>
+        <v>-6.0999999999999997E-4</v>
       </c>
       <c r="U4" s="190">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R4),,AllTriggers)</f>
-        <v>-1.2054995404775504E-3</v>
+        <v>-1.1893378636920837E-3</v>
       </c>
       <c r="V4" s="258">
         <f>T4-U4</f>
-        <v>6.3549954047755028E-4</v>
+        <v>5.7933786369208375E-4</v>
       </c>
       <c r="W4" s="186">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R4,Trigger)</f>
-        <v>6.3549954047648072E-4</v>
+        <v>5.7933786369105289E-4</v>
       </c>
       <c r="X4" s="187">
         <f>Y4*10000</f>
-        <v>1.0695654431569501E-11</v>
+        <v>1.0308594255992176E-11</v>
       </c>
       <c r="Y4" s="278">
         <f>V4-W4</f>
-        <v>1.0695654431569501E-15</v>
+        <v>1.0308594255992176E-15</v>
       </c>
       <c r="Z4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R4,,,Trigger)</f>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="K5" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,,C5,Calendar,$F5,$G5,$H5,$K$1,$I5,B5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059b#0000</v>
+        <v>obj_00598#0000</v>
       </c>
       <c r="L5" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -3617,27 +3617,27 @@
       </c>
       <c r="R5" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N5&amp;"M","mf",,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="S5" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R5,Trigger)</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="T5" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R5,Trigger),TRUE,AllTriggers)</f>
-        <v>-5.7000000000106965E-4</v>
+        <v>-6.1000000000103083E-4</v>
       </c>
       <c r="U5" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R5),,AllTriggers)</f>
-        <v>-1.2054995404775504E-3</v>
+        <v>-1.1893378636920837E-3</v>
       </c>
       <c r="V5" s="265">
         <f>T5-U5</f>
-        <v>6.3549954047648072E-4</v>
+        <v>5.7933786369105289E-4</v>
       </c>
       <c r="W5" s="67">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R5,Trigger)</f>
-        <v>6.3549954047648072E-4</v>
+        <v>5.7933786369105289E-4</v>
       </c>
       <c r="X5" s="240">
         <f>Y5*10000</f>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="K6" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,,C6,Calendar,$F6,$G6,$H6,$K$1,$I6,B6,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059c#0000</v>
+        <v>obj_0059a#0000</v>
       </c>
       <c r="L6" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -3722,27 +3722,27 @@
       </c>
       <c r="R6" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N6&amp;"M","mf",,Trigger)</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="S6" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R6,Trigger)</f>
-        <v>42219</v>
+        <v>42222</v>
       </c>
       <c r="T6" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R6,Trigger),TRUE,AllTriggers)</f>
-        <v>-6.6844746190231064E-4</v>
+        <v>-7.1282420212546234E-4</v>
       </c>
       <c r="U6" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R6),,AllTriggers)</f>
-        <v>-1.2708447715228674E-3</v>
+        <v>-1.251363903573116E-3</v>
       </c>
       <c r="V6" s="265">
         <f>T6-U6</f>
-        <v>6.023973096205568E-4</v>
+        <v>5.3853970144765364E-4</v>
       </c>
       <c r="W6" s="62">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R6,Trigger)</f>
-        <v>6.0239730962055669E-4</v>
+        <v>5.3853970144765353E-4</v>
       </c>
       <c r="X6" s="188">
         <f t="shared" ref="X6:X8" si="1">Y6*10000</f>
@@ -3754,11 +3754,11 @@
       </c>
       <c r="Z6" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R6,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="AA6" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R6,,AllTriggers)</f>
-        <v>1.0001071357577196</v>
+        <v>1.0001090930777232</v>
       </c>
       <c r="AB6" s="237" t="b">
         <v>1</v>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="AE6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($Z$5:$Z$8,$AB$5:$AB$8),_xll.ohFilter($V$5:$V$8,$AB$5:$AB$8),_xll.ohFilter($AA$5:$AA$8,$AB$5:$AB$8),_xll.ohFilter(AG13:AG17,AF13:AF17),,,,,Trigger)</f>
-        <v>obj_005e0#0026</v>
+        <v>obj_005e0#0048</v>
       </c>
       <c r="AF6" s="54"/>
       <c r="AG6" s="55"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K7" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,,C7,Calendar,$F7,$G7,$H7,$K$1,$I7,B7,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00597#0000</v>
+        <v>obj_00599#0000</v>
       </c>
       <c r="L7" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -3830,27 +3830,27 @@
       </c>
       <c r="R7" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N7&amp;"M","mf",,Trigger)</f>
-        <v>42219</v>
+        <v>42221</v>
       </c>
       <c r="S7" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R7,Trigger)</f>
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="T7" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R7,Trigger),TRUE,AllTriggers)</f>
-        <v>-7.0916673347751831E-4</v>
+        <v>-7.456017740039365E-4</v>
       </c>
       <c r="U7" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R7),,AllTriggers)</f>
-        <v>-1.2800409632497006E-3</v>
+        <v>-1.316499709901432E-3</v>
       </c>
       <c r="V7" s="265">
         <f>T7-U7</f>
-        <v>5.7087422977218226E-4</v>
+        <v>5.7089793589749547E-4</v>
       </c>
       <c r="W7" s="62">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R7,Trigger)</f>
-        <v>5.7087422977218237E-4</v>
+        <v>5.7089793589749558E-4</v>
       </c>
       <c r="X7" s="188">
         <f t="shared" si="1"/>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="AA7" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R7,,AllTriggers)</f>
-        <v>1.0002165933156868</v>
+        <v>1.0002131875539613</v>
       </c>
       <c r="AB7" s="237" t="b">
         <v>1</v>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="K8" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,,C8,Calendar,$F8,$G8,$H8,$K$1,$I8,B8,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00598#0000</v>
+        <v>obj_0059b#0000</v>
       </c>
       <c r="L8" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -3938,27 +3938,27 @@
       </c>
       <c r="R8" s="332">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N8&amp;"M","mf",,Trigger)</f>
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="S8" s="332">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R8,Trigger)</f>
-        <v>42282</v>
+        <v>42284</v>
       </c>
       <c r="T8" s="65">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R8,Trigger),TRUE,AllTriggers)</f>
-        <v>-6.8896532811835165E-4</v>
+        <v>-6.8694351185794034E-4</v>
       </c>
       <c r="U8" s="65">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R8),,AllTriggers)</f>
-        <v>-1.2962896801896329E-3</v>
+        <v>-1.281663742396244E-3</v>
       </c>
       <c r="V8" s="260">
         <f>T8-U8</f>
-        <v>6.0732435207128121E-4</v>
+        <v>5.947202305383037E-4</v>
       </c>
       <c r="W8" s="65">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R8,Trigger)</f>
-        <v>6.0732435207128121E-4</v>
+        <v>5.9472023053830402E-4</v>
       </c>
       <c r="X8" s="189">
         <f t="shared" si="1"/>
@@ -3970,11 +3970,11 @@
       </c>
       <c r="Z8" s="60">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R8,,,Trigger)</f>
-        <v>0.25205479452054796</v>
+        <v>0.25753424657534246</v>
       </c>
       <c r="AA8" s="60">
         <f>_xll.qlYieldTSDiscount(Discounting,R8,,AllTriggers)</f>
-        <v>1.0003268550931477</v>
+        <v>1.000333906989644</v>
       </c>
       <c r="AB8" s="238" t="b">
         <v>1</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="K9" s="162" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,,C9,Calendar,$F9,$G9,$H9,$K$1,$I9,B9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00599#0000</v>
+        <v>obj_0059c#0000</v>
       </c>
       <c r="L9" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="AE9" s="190">
         <f>_xll.qlPolynomialCalibrationError(AE6,)</f>
-        <v>8.8524628342376661E-20</v>
+        <v>2.0762310571429667E-19</v>
       </c>
       <c r="AF9" s="54"/>
       <c r="AG9" s="55"/>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="AE10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(AE6,)</f>
-        <v>1.0842021724855044E-19</v>
+        <v>3.2526065174565133E-19</v>
       </c>
       <c r="AF10" s="54"/>
       <c r="AG10" s="55"/>
@@ -4084,15 +4084,15 @@
       </c>
       <c r="T11" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="U11" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S11,"Following",,Trigger)</f>
-        <v>42159</v>
+        <v>42163</v>
       </c>
       <c r="V11" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T11,U11,AllTriggers)</f>
-        <v>-5.9073182157920456E-4</v>
+        <v>-5.8082196471076486E-4</v>
       </c>
       <c r="AD11" s="54"/>
       <c r="AE11" s="54"/>
@@ -4127,15 +4127,15 @@
       </c>
       <c r="T12" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="U12" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S12,"Following",,Trigger)</f>
-        <v>42165</v>
+        <v>42167</v>
       </c>
       <c r="V12" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T12,U12,AllTriggers)</f>
-        <v>-5.8946434709383766E-4</v>
+        <v>-5.9187099444381525E-4</v>
       </c>
       <c r="AD12" s="261" t="s">
         <v>111</v>
@@ -4151,7 +4151,7 @@
     <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="309" t="str">
         <f t="array" ref="G13:G21">_xll.ohFilter(K3:K9,M3:M9)</f>
-        <v>obj_005c8#0000</v>
+        <v>obj_005c0#0000</v>
       </c>
       <c r="H13" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G13,Trigger)</f>
@@ -4167,36 +4167,36 @@
       </c>
       <c r="K13" s="329">
         <f>_xll.qlRateHelperEarliestDate(G13,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="L13" s="329">
         <f>_xll.qlRateHelperLatestDate(G13,Trigger)</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="M13" s="196">
-        <v>1.0000475022563573</v>
+        <v>1.0000525305370902</v>
       </c>
       <c r="S13" s="63" t="s">
         <v>40</v>
       </c>
       <c r="T13" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="U13" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S13,"Following",,Trigger)</f>
-        <v>42172</v>
+        <v>42174</v>
       </c>
       <c r="V13" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T13,U13,AllTriggers)</f>
-        <v>-5.5928301386692122E-4</v>
+        <v>-5.7876069573716189E-4</v>
       </c>
       <c r="AD13" s="277" t="s">
         <v>113</v>
       </c>
       <c r="AE13" s="190">
         <f t="array" ref="AE13:AE17">_xll.qlPolynomialCalibrationCoefficients($AE$6,$AE$6)</f>
-        <v>6.3549954047648072E-4</v>
+        <v>5.7933786369105289E-4</v>
       </c>
       <c r="AF13" s="190" t="b">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G14" s="202" t="str">
-        <v>obj_0059a#0000</v>
+        <v>obj_00597#0000</v>
       </c>
       <c r="H14" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G14,Trigger)</f>
@@ -4223,35 +4223,35 @@
       </c>
       <c r="K14" s="329">
         <f>_xll.qlRateHelperEarliestDate(G14,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="L14" s="329">
         <f>_xll.qlRateHelperLatestDate(G14,Trigger)</f>
-        <v>42219</v>
+        <v>42221</v>
       </c>
       <c r="M14" s="196">
-        <v>1.0001050690578752</v>
+        <v>1.0001118481931626</v>
       </c>
       <c r="S14" s="63" t="s">
         <v>41</v>
       </c>
       <c r="T14" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="U14" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S14,"Following",,Trigger)</f>
-        <v>42179</v>
+        <v>42181</v>
       </c>
       <c r="V14" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T14,U14,AllTriggers)</f>
-        <v>-5.5030575293800259E-4</v>
+        <v>-5.9272830149202454E-4</v>
       </c>
       <c r="AD14" s="277" t="s">
         <v>114</v>
       </c>
       <c r="AE14" s="190">
-        <v>-1.7180909492636967E-4</v>
+        <v>-1.2543875443594731E-3</v>
       </c>
       <c r="AF14" s="190" t="b">
         <v>1</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G15" s="202" t="str">
-        <v>obj_0059b#0000</v>
+        <v>obj_00598#0000</v>
       </c>
       <c r="H15" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G15,Trigger)</f>
@@ -4278,35 +4278,35 @@
       </c>
       <c r="K15" s="329">
         <f>_xll.qlRateHelperEarliestDate(G15,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="L15" s="329">
         <f>_xll.qlRateHelperLatestDate(G15,Trigger)</f>
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="M15" s="196">
-        <v>1.000166146339339</v>
+        <v>1.0001802073390464</v>
       </c>
       <c r="S15" s="267" t="s">
         <v>35</v>
       </c>
       <c r="T15" s="276">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="U15" s="337">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S15,"mf",TRUE,Trigger)</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="V15" s="338">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T15,U15,AllTriggers)</f>
-        <v>-5.7858972055324642E-4</v>
+        <v>-6.1743165474681752E-4</v>
       </c>
       <c r="AD15" s="277" t="s">
         <v>115</v>
       </c>
       <c r="AE15" s="190">
-        <v>-4.2844750409139869E-3</v>
+        <v>1.1087052969944142E-2</v>
       </c>
       <c r="AF15" s="190" t="b">
         <v>1</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="202" t="str">
-        <v>obj_0059c#0000</v>
+        <v>obj_0059a#0000</v>
       </c>
       <c r="H16" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G16,Trigger)</f>
@@ -4333,20 +4333,20 @@
       </c>
       <c r="K16" s="329">
         <f>_xll.qlRateHelperEarliestDate(G16,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="L16" s="329">
         <f>_xll.qlRateHelperLatestDate(G16,Trigger)</f>
         <v>42282</v>
       </c>
       <c r="M16" s="196">
-        <v>1.000227401628224</v>
+        <v>1.0002339044989244</v>
       </c>
       <c r="AD16" s="277" t="s">
         <v>116</v>
       </c>
       <c r="AE16" s="190">
-        <v>1.7943027165827498E-2</v>
+        <v>-2.3237161279127921E-2</v>
       </c>
       <c r="AF16" s="190" t="b">
         <v>1</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="17" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="202" t="str">
-        <v>obj_00597#0000</v>
+        <v>obj_00599#0000</v>
       </c>
       <c r="H17" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G17,Trigger)</f>
@@ -4373,14 +4373,14 @@
       </c>
       <c r="K17" s="329">
         <f>_xll.qlRateHelperEarliestDate(G17,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="L17" s="329">
         <f>_xll.qlRateHelperLatestDate(G17,Trigger)</f>
-        <v>42311</v>
+        <v>42313</v>
       </c>
       <c r="M17" s="196">
-        <v>1.0002806069902574</v>
+        <v>1.0002891126864983</v>
       </c>
       <c r="AD17" s="277" t="s">
         <v>117</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="18" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="202" t="str">
-        <v>obj_00598#0000</v>
+        <v>obj_0059b#0000</v>
       </c>
       <c r="H18" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G18,Trigger)</f>
@@ -4413,28 +4413,28 @@
       </c>
       <c r="K18" s="329">
         <f>_xll.qlRateHelperEarliestDate(G18,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="L18" s="329">
         <f>_xll.qlRateHelperLatestDate(G18,Trigger)</f>
-        <v>42341</v>
+        <v>42345</v>
       </c>
       <c r="M18" s="196">
-        <v>1.0003407409611167</v>
+        <v>1.0003547518051366</v>
       </c>
       <c r="AD18" s="277" t="s">
         <v>118</v>
       </c>
       <c r="AE18" s="190" t="str">
-        <f>_xll.qlPolynomialTenorBasis(,SettlementDate,PROPER(Currency)&amp;IborType&amp;$S1,Discounting,TRUE,_xll.ohFilter(AE13:AE17,AF13:AF17),,Trigger)</f>
-        <v>obj_005e3#0026</v>
+        <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$S1,Discounting,SettlementDate,TRUE,_xll.ohFilter(AE13:AE17,AF13:AF17),,Trigger)</f>
+        <v>obj_00842#0035</v>
       </c>
       <c r="AF18" s="54"/>
       <c r="AG18" s="55"/>
     </row>
     <row r="19" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G19" s="202" t="str">
-        <v>obj_00599#0000</v>
+        <v>obj_0059c#0000</v>
       </c>
       <c r="H19" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G19,Trigger)</f>
@@ -4450,14 +4450,14 @@
       </c>
       <c r="K19" s="329">
         <f>_xll.qlRateHelperEarliestDate(G19,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="L19" s="329">
         <f>_xll.qlRateHelperLatestDate(G19,Trigger)</f>
-        <v>42373</v>
+        <v>42374</v>
       </c>
       <c r="M19" s="196">
-        <v>1.0003824338593201</v>
+        <v>1.0003925463393821</v>
       </c>
       <c r="X19" s="54"/>
       <c r="Y19" s="54"/>
@@ -4680,21 +4680,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>-4.3154237215535952E-5</v>
+        <v>-7.5316707330642593E-5</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>1.2093474798235784E-3</v>
+        <v>1.1775256435781487E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="283">
@@ -4730,31 +4730,31 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
-        <v>42341</v>
+        <v>42345</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>-1.3000000000000002E-4</v>
+        <v>-1.3999999999999999E-4</v>
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E4),,AllTriggers)</f>
-        <v>-1.2525017170391143E-3</v>
+        <v>-1.2528423509087913E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>1.1225017170391144E-3</v>
+        <v>1.1128423509087913E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>1.2093474798235784E-3</v>
+        <v>1.1775256435781487E-3</v>
       </c>
       <c r="K4" s="187">
         <f>M4*10000</f>
-        <v>-0.86845762784463953</v>
+        <v>-0.6468329266935734</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -4762,7 +4762,7 @@
       </c>
       <c r="M4" s="278">
         <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>-8.6845762784463956E-5</v>
+        <v>-6.468329266935734E-5</v>
       </c>
       <c r="N4" s="281">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
@@ -4790,43 +4790,43 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
-        <v>42373</v>
+        <v>42375</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>-1.0000000000000009E-5</v>
+        <v>-4.9999999999999996E-5</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E5),,AllTriggers)</f>
-        <v>-1.2823965299013876E-3</v>
+        <v>-1.2830668792568577E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" si="0"/>
-        <v>1.2723965299013876E-3</v>
+        <v>1.2330668792568578E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>1.2532310694692624E-3</v>
+        <v>1.2282383897058507E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>0.19165460432125175</v>
+        <v>4.8284895510070612E-2</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="M5" s="279">
         <f t="shared" si="1"/>
-        <v>1.9165460432125176E-5</v>
+        <v>4.8284895510070612E-6</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001071357577196</v>
+        <v>1.0001090930777232</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>0</v>
@@ -4855,31 +4855,31 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42219</v>
+        <v>42221</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
-        <v>42403</v>
+        <v>42405</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>2.9999999999999974E-5</v>
+        <v>1.0000000000000009E-5</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E6),,AllTriggers)</f>
-        <v>-1.2912037135058504E-3</v>
+        <v>-1.2894354805701254E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="0"/>
-        <v>1.3212037135058505E-3</v>
+        <v>1.2994354805701254E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>1.2927862150628174E-3</v>
+        <v>1.2698186206950759E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>0.2841749844303314</v>
+        <v>0.29616859875049523</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
@@ -4887,11 +4887,11 @@
       </c>
       <c r="M6" s="234">
         <f t="shared" si="1"/>
-        <v>2.8417498443033141E-5</v>
+        <v>2.9616859875049523E-5</v>
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002165933156868</v>
+        <v>1.0002131875539613</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>0</v>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_00844#0024</v>
+        <v>obj_00841#0046</v>
       </c>
       <c r="T6" s="55"/>
       <c r="X6" s="57"/>
@@ -4924,43 +4924,43 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
-        <v>42432</v>
+        <v>42436</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>4.9999999999999996E-5</v>
+        <v>3.9999999999999983E-5</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E7),,AllTriggers)</f>
-        <v>-1.294621091851831E-3</v>
+        <v>-1.2711927887578056E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="0"/>
-        <v>1.3446210918518309E-3</v>
+        <v>1.3111927887578055E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>1.3268723777307052E-3</v>
+        <v>1.3076465253435768E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>0.17748714121125669</v>
+        <v>3.5462634142286856E-2</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
-        <v>0.25205479452054796</v>
+        <v>0.25753424657534246</v>
       </c>
       <c r="M7" s="234">
         <f t="shared" si="1"/>
-        <v>1.7748714121125671E-5</v>
+        <v>3.5462634142286852E-6</v>
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003268550931477</v>
+        <v>1.000333906989644</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>0</v>
@@ -5001,35 +5001,35 @@
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>7.9999999999999979E-5</v>
+        <v>8.9999999999999979E-5</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E8),,AllTriggers)</f>
-        <v>-1.2806549094859909E-3</v>
+        <v>-1.1956350904227821E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="0"/>
-        <v>1.3606549094859908E-3</v>
+        <v>1.2856350904227821E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>1.356768739354864E-3</v>
+        <v>1.333726401158732E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>3.8861701311268884E-2</v>
+        <v>-0.48091310735949883</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
-        <v>0.33972602739726027</v>
+        <v>0.33424657534246577</v>
       </c>
       <c r="M8" s="234">
         <f t="shared" si="1"/>
-        <v>3.8861701311268884E-6</v>
+        <v>-4.8091310735949881E-5</v>
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004421317874643</v>
+        <v>1.0004335031961453</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>0</v>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="R8" s="282" t="str">
         <f>_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
-        <v>StationaryFunctionValue</v>
+        <v>None</v>
       </c>
       <c r="T8" s="55"/>
       <c r="X8" s="57"/>
@@ -5062,31 +5062,31 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42311</v>
+        <v>42313</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
-        <v>42493</v>
+        <v>42495</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>9.9999999999999991E-5</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E9),,AllTriggers)</f>
-        <v>-1.2681575673526618E-3</v>
+        <v>-1.2059132620517964E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="0"/>
-        <v>1.3681575673526619E-3</v>
+        <v>1.3359132620517963E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>1.3796049890570851E-3</v>
+        <v>1.3566798376002326E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>-0.11447421704423268</v>
+        <v>-0.20766575548436356</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
@@ -5094,11 +5094,11 @@
       </c>
       <c r="M9" s="234">
         <f t="shared" si="1"/>
-        <v>-1.1447421704423267E-5</v>
+        <v>-2.0766575548436354E-5</v>
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005467480108097</v>
+        <v>1.0005428888485881</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>0</v>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>1.0250214250354349E-5</v>
+        <v>9.1330137921664169E-5</v>
       </c>
       <c r="T9" s="55"/>
       <c r="X9" s="57"/>
@@ -5131,43 +5131,43 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42341</v>
+        <v>42345</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
-        <v>42524</v>
+        <v>42528</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>1.2999999999999999E-4</v>
+        <v>1.7999999999999998E-4</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E10),,AllTriggers)</f>
-        <v>-1.264740572951769E-3</v>
+        <v>-1.166525899309073E-3</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="0"/>
-        <v>1.3947405729517689E-3</v>
+        <v>1.3465258993090731E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>1.3993489778082535E-3</v>
+        <v>1.3744168183358414E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>-4.6084048564846214E-2</v>
+        <v>-0.27890919026768346</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50136986301369868</v>
+        <v>0.50684931506849318</v>
       </c>
       <c r="M10" s="234">
         <f t="shared" si="1"/>
-        <v>-4.608404856484621E-6</v>
+        <v>-2.7890919026768348E-5</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006543206631913</v>
+        <v>1.0006554468921967</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>0</v>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>1.8222063581872002E-5</v>
+        <v>1.946664469327391E-4</v>
       </c>
       <c r="T10" s="55"/>
       <c r="X10" s="57"/>
@@ -5205,35 +5205,35 @@
       </c>
       <c r="G11" s="67">
         <f>1-_xll.qlQuoteValue(D11,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C11&amp;"ConvAdj_Quote")</f>
-        <v>-2.4999999999941735E-5</v>
+        <v>-7.4999999999825206E-5</v>
       </c>
       <c r="H11" s="67">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E11),,AllTriggers)</f>
-        <v>-1.2679446093900931E-3</v>
+        <v>-1.2678736618839622E-3</v>
       </c>
       <c r="I11" s="280">
         <f t="shared" si="0"/>
-        <v>1.2429446093901514E-3</v>
+        <v>1.192873661884137E-3</v>
       </c>
       <c r="J11" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>1.2305373323989849E-3</v>
+        <v>1.1981250498955905E-3</v>
       </c>
       <c r="K11" s="240">
         <f t="shared" si="4"/>
-        <v>0.12407276991166419</v>
+        <v>-5.2513880114534325E-2</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>3.8356164383561646E-2</v>
+        <v>3.287671232876712E-2</v>
       </c>
       <c r="M11" s="279">
         <f t="shared" si="1"/>
-        <v>1.2407276991166418E-5</v>
+        <v>-5.2513880114534329E-6</v>
       </c>
       <c r="N11" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0000529469280481</v>
+        <v>1.0000461685747972</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -5264,35 +5264,35 @@
       </c>
       <c r="G12" s="62">
         <f>1-_xll.qlQuoteValue(D12,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C12&amp;"ConvAdj_Quote")</f>
-        <v>0</v>
+        <v>-4.9999999999883471E-5</v>
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E12),,AllTriggers)</f>
-        <v>-1.2865856613338785E-3</v>
+        <v>-1.2833495849895943E-3</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="0"/>
-        <v>1.2865856613338785E-3</v>
+        <v>1.2333495849897109E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>1.2692184009845313E-3</v>
+        <v>1.241463245449947E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>0.17367260349347236</v>
+        <v>-8.1136604602361106E-2</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
-        <v>0.11506849315068493</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="M12" s="234">
         <f t="shared" si="1"/>
-        <v>1.7367260349347236E-5</v>
+        <v>-8.1136604602361113E-6</v>
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0001493113500661</v>
+        <v>1.0001416634364066</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -5336,31 +5336,31 @@
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E13),,AllTriggers)</f>
-        <v>-1.2914335346749404E-3</v>
+        <v>-1.2778238652171633E-3</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="0"/>
-        <v>1.3664335346748767E-3</v>
+        <v>1.3528238652170995E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>1.3396401843694514E-3</v>
+        <v>1.316609417981346E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>0.2679335030542529</v>
+        <v>0.3621444723575355</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
-        <v>0.28767123287671231</v>
+        <v>0.28219178082191781</v>
       </c>
       <c r="M13" s="234">
         <f t="shared" si="1"/>
-        <v>2.6793350305425291E-5</v>
+        <v>3.6214447235753547E-5</v>
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0003734866227683</v>
+        <v>1.0003666728733038</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="R13" s="190">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,)</f>
-        <v>1.2093474798235784E-3</v>
+        <v>1.1775256435781487E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -5403,35 +5403,35 @@
       </c>
       <c r="G14" s="62">
         <f>1-_xll.qlQuoteValue(D14,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C14&amp;"ConvAdj_Quote")</f>
-        <v>1.2500000000004174E-4</v>
+        <v>1.7500000000003624E-4</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E14),,AllTriggers)</f>
-        <v>-1.2663902378452485E-3</v>
+        <v>-1.1693788233335667E-3</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>1.3913902378452903E-3</v>
+        <v>1.3443788233336029E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>1.4067743750445514E-3</v>
+        <v>1.378397447033665E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>-0.1538413719926108</v>
+        <v>-0.34018623700062106</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.53698630136986303</v>
+        <v>0.53150684931506853</v>
       </c>
       <c r="M14" s="234">
         <f t="shared" si="1"/>
-        <v>-1.5384137199261081E-5</v>
+        <v>-3.4018623700062109E-5</v>
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0007001608863211</v>
+        <v>1.0006899011922086</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>5.6902754313964399E-4</v>
+        <v>6.4559510975873043E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -5472,35 +5472,35 @@
       </c>
       <c r="G15" s="62">
         <f>1-_xll.qlQuoteValue(D15,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C15&amp;"ConvAdj_Quote")</f>
-        <v>1.7500000000003624E-4</v>
+        <v>3.2500000000001972E-4</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E15),,AllTriggers)</f>
-        <v>-1.2337339462181983E-3</v>
+        <v>-1.082086628271685E-3</v>
       </c>
       <c r="I15" s="265">
         <f t="shared" si="0"/>
-        <v>1.4087339462182345E-3</v>
+        <v>1.4070866282717047E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>1.4426074272068197E-3</v>
+        <v>1.3975167088186573E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>-0.33873480988585136</v>
+        <v>9.5699194530474069E-2</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.78630136986301369</v>
+        <v>0.78082191780821919</v>
       </c>
       <c r="M15" s="234">
         <f t="shared" si="1"/>
-        <v>-3.3873480988585135E-5</v>
+        <v>9.5699194530474065E-6</v>
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0010206029070592</v>
+        <v>1.000985785563844</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -5509,7 +5509,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>-4.3660782585958248E-4</v>
+        <v>-5.837840385730219E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -5541,35 +5541,35 @@
       </c>
       <c r="G16" s="62">
         <f>1-_xll.qlQuoteValue(D16,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C16&amp;"ConvAdj_Quote")</f>
-        <v>2.2500000000003073E-4</v>
+        <v>4.750000000000032E-4</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E16),,AllTriggers)</f>
-        <v>-1.1993145132865627E-3</v>
+        <v>-9.1472414133947604E-4</v>
       </c>
       <c r="I16" s="265">
         <f t="shared" si="0"/>
-        <v>1.4243145132865934E-3</v>
+        <v>1.3897241413394794E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>1.4578068636387901E-3</v>
+        <v>1.3879947751024341E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>-0.33492350352196676</v>
+        <v>1.729366237045258E-2</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
-        <v>1.0356164383561643</v>
+        <v>1.0301369863013699</v>
       </c>
       <c r="M16" s="234">
         <f t="shared" si="1"/>
-        <v>-3.3492350352196673E-5</v>
+        <v>1.729366237045258E-6</v>
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0013329273010187</v>
+        <v>1.0012597695619512</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -5578,7 +5578,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>1.147272926255198E-4</v>
+        <v>1.5086401628980001E-4</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -5610,35 +5610,35 @@
       </c>
       <c r="G17" s="62">
         <f>1-_xll.qlQuoteValue(D17,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C17&amp;"ConvAdj_Quote")</f>
-        <v>3.7499999999990319E-4</v>
+        <v>7.7499999999997016E-4</v>
       </c>
       <c r="H17" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E17),,AllTriggers)</f>
-        <v>-1.1616258084357922E-3</v>
+        <v>-7.022035106791707E-4</v>
       </c>
       <c r="I17" s="265">
         <f t="shared" si="0"/>
-        <v>1.5366258084356954E-3</v>
+        <v>1.4772035106791408E-3</v>
       </c>
       <c r="J17" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>1.4633358714497536E-3</v>
+        <v>1.3617995854490555E-3</v>
       </c>
       <c r="K17" s="188">
         <f t="shared" si="4"/>
-        <v>0.73289936985941784</v>
+        <v>1.1540392523008529</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>1.3041095890410959</v>
+        <v>1.2986301369863014</v>
       </c>
       <c r="M17" s="234">
         <f t="shared" si="1"/>
-        <v>7.328993698594178E-5</v>
+        <v>1.1540392523008529E-4</v>
       </c>
       <c r="N17" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0016603458265958</v>
+        <v>1.0015070157664578</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -5679,35 +5679,35 @@
       </c>
       <c r="G18" s="62">
         <f>1-_xll.qlQuoteValue(D18,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C18&amp;"ConvAdj_Quote")</f>
-        <v>6.7499999999998117E-4</v>
+        <v>1.1750000000000371E-3</v>
       </c>
       <c r="H18" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E18),,AllTriggers)</f>
-        <v>-9.0656719738158031E-4</v>
+        <v>-2.9885435772403213E-4</v>
       </c>
       <c r="I18" s="265">
         <f t="shared" si="0"/>
-        <v>1.5815671973815615E-3</v>
+        <v>1.4738543577240693E-3</v>
       </c>
       <c r="J18" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>1.4697664509659486E-3</v>
+        <v>1.3376139187906604E-3</v>
       </c>
       <c r="K18" s="188">
         <f t="shared" si="4"/>
-        <v>1.1180074641561293</v>
+        <v>1.3624043893340887</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
-        <v>1.5534246575342465</v>
+        <v>1.547945205479452</v>
       </c>
       <c r="M18" s="234">
         <f t="shared" si="1"/>
-        <v>1.1180074641561292E-4</v>
+        <v>1.3624043893340886E-4</v>
       </c>
       <c r="N18" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.0019545529386769</v>
+        <v>1.0016848162667535</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -5716,8 +5716,8 @@
         <v>118</v>
       </c>
       <c r="R18" s="190" t="str">
-        <f>_xll.qlPolynomialTenorBasis(,SettlementDate,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_00845#0025</v>
+        <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
+        <v>obj_00843#0029</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -5744,35 +5744,35 @@
       </c>
       <c r="G19" s="62">
         <f>1-_xll.qlQuoteValue(D19,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C19&amp;"ConvAdj_Quote")</f>
-        <v>9.7499999999994813E-4</v>
+        <v>1.6750000000000931E-3</v>
       </c>
       <c r="H19" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E19),,AllTriggers)</f>
-        <v>-7.0196001319155566E-4</v>
+        <v>1.2576151015792516E-4</v>
       </c>
       <c r="I19" s="265">
         <f t="shared" si="0"/>
-        <v>1.6769600131915038E-3</v>
+        <v>1.549238489842168E-3</v>
       </c>
       <c r="J19" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>1.4862787063782564E-3</v>
+        <v>1.3278575186075748E-3</v>
       </c>
       <c r="K19" s="188">
         <f t="shared" si="4"/>
-        <v>1.906813068132474</v>
+        <v>2.2138097123459315</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
-        <v>1.7835616438356163</v>
+        <v>1.7780821917808218</v>
       </c>
       <c r="M19" s="234">
         <f t="shared" si="1"/>
-        <v>1.9068130681324739E-4</v>
+        <v>2.2138097123459315E-4</v>
       </c>
       <c r="N19" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0021680337169827</v>
+        <v>1.0017568865164084</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -5802,35 +5802,35 @@
       </c>
       <c r="G20" s="62">
         <f>1-_xll.qlQuoteValue(D20,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C20&amp;"ConvAdj_Quote")</f>
-        <v>1.3750000000000151E-3</v>
+        <v>2.3250000000000215E-3</v>
       </c>
       <c r="H20" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E20),,AllTriggers)</f>
-        <v>-3.284781182477176E-4</v>
+        <v>7.2261987182976471E-4</v>
       </c>
       <c r="I20" s="265">
         <f t="shared" si="0"/>
-        <v>1.7034781182477328E-3</v>
+        <v>1.6023801281702568E-3</v>
       </c>
       <c r="J20" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>1.529863726659524E-3</v>
+        <v>1.3468318485773529E-3</v>
       </c>
       <c r="K20" s="188">
         <f t="shared" si="4"/>
-        <v>1.7361439158820879</v>
+        <v>2.5554827959290392</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
-        <v>2.0520547945205481</v>
+        <v>2.0465753424657533</v>
       </c>
       <c r="M20" s="234">
         <f t="shared" si="1"/>
-        <v>1.7361439158820879E-4</v>
+        <v>2.5554827959290392E-4</v>
       </c>
       <c r="N20" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0023568024620977</v>
+        <v>1.0017176919894981</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -5860,35 +5860,35 @@
       </c>
       <c r="G21" s="62">
         <f>1-_xll.qlQuoteValue(D21,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C21&amp;"ConvAdj_Quote")</f>
-        <v>1.8250000000000766E-3</v>
+        <v>2.9749999999999499E-3</v>
       </c>
       <c r="H21" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E21),,AllTriggers)</f>
-        <v>1.0452974699617344E-4</v>
+        <v>1.3859854206290999E-3</v>
       </c>
       <c r="I21" s="265">
         <f t="shared" si="0"/>
-        <v>1.7204702530039032E-3</v>
+        <v>1.58901457937085E-3</v>
       </c>
       <c r="J21" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>1.6048654684019739E-3</v>
+        <v>1.408290588554662E-3</v>
       </c>
       <c r="K21" s="188">
         <f t="shared" si="4"/>
-        <v>1.1560478460192927</v>
+        <v>1.8072399081618804</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
-        <v>2.3013698630136985</v>
+        <v>2.2958904109589042</v>
       </c>
       <c r="M21" s="234">
         <f t="shared" si="1"/>
-        <v>1.1560478460192927E-4</v>
+        <v>1.8072399081618803E-4</v>
       </c>
       <c r="N21" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0024406099152734</v>
+        <v>1.0015356076156656</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -5918,35 +5918,35 @@
       </c>
       <c r="G22" s="65">
         <f>1-_xll.qlQuoteValue(D22,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C22&amp;"ConvAdj_Quote")</f>
-        <v>2.274999999999916E-3</v>
+        <v>3.7249999999999783E-3</v>
       </c>
       <c r="H22" s="65">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E22),,AllTriggers)</f>
-        <v>6.0910702822969398E-4</v>
+        <v>2.1987773291902712E-3</v>
       </c>
       <c r="I22" s="260">
         <f t="shared" si="0"/>
-        <v>1.665892971770222E-3</v>
+        <v>1.5262226708097071E-3</v>
       </c>
       <c r="J22" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>1.7240593097849098E-3</v>
+        <v>1.5263526076094267E-3</v>
       </c>
       <c r="K22" s="189">
         <f t="shared" si="4"/>
-        <v>-0.58166338014687757</v>
+        <v>-1.2993679971958286E-3</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
-        <v>2.5506849315068494</v>
+        <v>2.5452054794520547</v>
       </c>
       <c r="M22" s="235">
         <f t="shared" si="1"/>
-        <v>-5.8166338014687758E-5</v>
+        <v>-1.2993679971958286E-7</v>
       </c>
       <c r="N22" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.0024141233302251</v>
+        <v>1.001184846194509</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -5990,15 +5990,15 @@
       </c>
       <c r="G25" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H25" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
-        <v>42159</v>
+        <v>42163</v>
       </c>
       <c r="I25" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G25,H25,AllTriggers)</f>
-        <v>-1.0271029750708038E-4</v>
+        <v>-1.3505198438235055E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6008,15 +6008,15 @@
       </c>
       <c r="G26" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H26" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
-        <v>42165</v>
+        <v>42167</v>
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G26,H26,AllTriggers)</f>
-        <v>-9.7219193735398335E-5</v>
+        <v>-1.307744631156333E-4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6026,15 +6026,15 @@
       </c>
       <c r="G27" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H27" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
-        <v>42172</v>
+        <v>42174</v>
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G27,H27,AllTriggers)</f>
-        <v>-6.093281876205582E-5</v>
+        <v>-9.3422520025690913E-5</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6044,15 +6044,15 @@
       </c>
       <c r="G28" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H28" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
-        <v>42179</v>
+        <v>42181</v>
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G28,H28,AllTriggers)</f>
-        <v>-4.4760301796437875E-5</v>
+        <v>-8.622357393596656E-5</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6062,15 +6062,15 @@
       </c>
       <c r="G29" s="272">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H29" s="273">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="I29" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G29,H29,AllTriggers)</f>
-        <v>-6.2492089720311839E-5</v>
+        <v>-8.5539265429578025E-5</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6080,15 +6080,15 @@
       </c>
       <c r="G30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H30" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42219</v>
+        <v>42221</v>
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G30,H30,AllTriggers)</f>
-        <v>-7.0270523250751243E-5</v>
+        <v>-8.6490719934248007E-5</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6098,15 +6098,15 @@
       </c>
       <c r="G31" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H31" s="275">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="I31" s="291">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G31,H31,AllTriggers)</f>
-        <v>-6.0840496784477494E-5</v>
+        <v>-9.2702532836066103E-5</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6374,21 +6374,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42341</v>
+        <v>42345</v>
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>5.8523967021275615E-4</v>
+        <v>5.5085266648787325E-4</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>1.8584799330034713E-3</v>
+        <v>1.8125168973955959E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="283">
@@ -6422,31 +6422,31 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
-        <v>42341</v>
+        <v>42345</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>4.8999999999999998E-4</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E4),,AllTriggers)</f>
-        <v>-1.2732402627907151E-3</v>
+        <v>-1.2616642309077226E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>1.7632402627907151E-3</v>
+        <v>1.7416642309077226E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>1.8584799330034713E-3</v>
+        <v>1.8125168973955959E-3</v>
       </c>
       <c r="K4" s="187">
         <f>M4*10000</f>
-        <v>-0.95239670212756167</v>
+        <v>-0.70852666487873295</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="M4" s="278">
         <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>-9.5239670212756171E-5</v>
+        <v>-7.0852666487873292E-5</v>
       </c>
       <c r="N4" s="281">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
@@ -6481,43 +6481,43 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
-        <v>42373</v>
+        <v>42375</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>6.6E-4</v>
+        <v>6.4000000000000005E-4</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E5),,AllTriggers)</f>
-        <v>-1.2814961883928155E-3</v>
+        <v>-1.2396060573981124E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" si="0"/>
-        <v>1.9414961883928155E-3</v>
+        <v>1.8796060573981126E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>1.9153719187088693E-3</v>
+        <v>1.88227580104405E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>0.26124269683946166</v>
+        <v>-2.669743645937429E-2</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="M5" s="279">
         <f t="shared" si="1"/>
-        <v>2.6124269683946164E-5</v>
+        <v>-2.669743645937429E-6</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001071357577196</v>
+        <v>1.0001090930777232</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -6544,31 +6544,31 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42219</v>
+        <v>42221</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
-        <v>42403</v>
+        <v>42405</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>7.2000000000000005E-4</v>
+        <v>7.1000000000000013E-4</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E6),,AllTriggers)</f>
-        <v>-1.2794714107376402E-3</v>
+        <v>-1.2474756835944641E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="0"/>
-        <v>1.9994714107376401E-3</v>
+        <v>1.9574756835944642E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>1.9672460658851925E-3</v>
+        <v>1.9405412887412625E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>0.3222534485244769</v>
+        <v>0.16934394853201701</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
@@ -6576,11 +6576,11 @@
       </c>
       <c r="M6" s="234">
         <f t="shared" si="1"/>
-        <v>3.2225344852447688E-5</v>
+        <v>1.69343948532017E-5</v>
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002165933156868</v>
+        <v>1.0002131875539613</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_005dc#0025</v>
+        <v>obj_005df#0048</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6611,11 +6611,11 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
-        <v>42432</v>
+        <v>42436</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
@@ -6623,31 +6623,31 @@
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E7),,AllTriggers)</f>
-        <v>-1.279473888313341E-3</v>
+        <v>-1.218671924564923E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="0"/>
-        <v>2.0494738883133413E-3</v>
+        <v>1.9886719245649233E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>2.012665102094391E-3</v>
+        <v>1.9951094919362306E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>0.3680878621895034</v>
+        <v>-6.4375673713072512E-2</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
-        <v>0.25205479452054796</v>
+        <v>0.25753424657534246</v>
       </c>
       <c r="M7" s="234">
         <f t="shared" si="1"/>
-        <v>3.680878621895034E-5</v>
+        <v>-6.4375673713072505E-6</v>
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003268550931477</v>
+        <v>1.000333906989644</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -6690,31 +6690,31 @@
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E8),,AllTriggers)</f>
-        <v>-1.2711693322528391E-3</v>
+        <v>-1.1998390140418827E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="0"/>
-        <v>2.0911693322528393E-3</v>
+        <v>2.0198390140418829E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>2.0533919822109102E-3</v>
+        <v>2.0343625019798159E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>0.37777350041929159</v>
+        <v>-0.14523487937932905</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
-        <v>0.33972602739726027</v>
+        <v>0.33424657534246577</v>
       </c>
       <c r="M8" s="234">
         <f t="shared" si="1"/>
-        <v>3.7777350041929159E-5</v>
+        <v>-1.4523487937932907E-5</v>
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004421317874643</v>
+        <v>1.0004335031961453</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -6745,31 +6745,31 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42311</v>
+        <v>42313</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
-        <v>42493</v>
+        <v>42495</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>8.6000000000000009E-4</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E9),,AllTriggers)</f>
-        <v>-1.2609079967968689E-3</v>
+        <v>-1.1699647628269751E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="0"/>
-        <v>2.120907996796869E-3</v>
+        <v>2.0599647628269753E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>2.0854247243620241E-3</v>
+        <v>2.0711158564610151E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>0.35483272434844865</v>
+        <v>-0.11151093634039801</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
@@ -6777,11 +6777,11 @@
       </c>
       <c r="M9" s="234">
         <f t="shared" si="1"/>
-        <v>3.5483272434844865E-5</v>
+        <v>-1.1151093634039801E-5</v>
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005467480108097</v>
+        <v>1.0005428888485881</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>7.3812388995808134E-6</v>
+        <v>2.2600622176017148E-5</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6812,43 +6812,43 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42341</v>
+        <v>42345</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
-        <v>42524</v>
+        <v>42528</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>9.1E-4</v>
+        <v>9.6000000000000002E-4</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E10),,AllTriggers)</f>
-        <v>-1.2525972100330494E-3</v>
+        <v>-1.1410248094649602E-3</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="0"/>
-        <v>2.1625972100330496E-3</v>
+        <v>2.1010248094649603E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>2.1142047655212464E-3</v>
+        <v>2.1025810302542788E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>0.48392444511803201</v>
+        <v>-1.5562207893184653E-2</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50136986301369868</v>
+        <v>0.50684931506849318</v>
       </c>
       <c r="M10" s="234">
         <f t="shared" si="1"/>
-        <v>4.83924445118032E-5</v>
+        <v>-1.5562207893184653E-6</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006543206631913</v>
+        <v>1.0006554468921967</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>1.5764897319801938E-5</v>
+        <v>2.342386506663666E-5</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6879,43 +6879,43 @@
       </c>
       <c r="E11" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
-        <v>42373</v>
+        <v>42374</v>
       </c>
       <c r="F11" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E11)</f>
-        <v>42555</v>
+        <v>42556</v>
       </c>
       <c r="G11" s="67">
         <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
-        <v>9.3999999999999997E-4</v>
+        <v>1.01E-3</v>
       </c>
       <c r="H11" s="67">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E11),,AllTriggers)</f>
-        <v>-1.2454124175171571E-3</v>
+        <v>-1.1396532062374161E-3</v>
       </c>
       <c r="I11" s="280">
         <f t="shared" si="0"/>
-        <v>2.185412417517157E-3</v>
+        <v>2.1496532062374161E-3</v>
       </c>
       <c r="J11" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>2.1406039045131927E-3</v>
+        <v>2.1262293411707794E-3</v>
       </c>
       <c r="K11" s="240">
         <f t="shared" si="4"/>
-        <v>0.44808513003964312</v>
+        <v>0.23423865066636659</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>0.58904109589041098</v>
+        <v>0.58630136986301373</v>
       </c>
       <c r="M11" s="279">
         <f t="shared" si="1"/>
-        <v>4.4808513003964309E-5</v>
+        <v>2.342386506663666E-5</v>
       </c>
       <c r="N11" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0007661869799589</v>
+        <v>1.0007392802738873</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -6939,31 +6939,31 @@
       </c>
       <c r="E12" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
-        <v>42403</v>
+        <v>42405</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E12)</f>
-        <v>42585</v>
+        <v>42587</v>
       </c>
       <c r="G12" s="62">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>9.6000000000000002E-4</v>
+        <v>1.07E-3</v>
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E12),,AllTriggers)</f>
-        <v>-1.2343366098854537E-3</v>
+        <v>-1.0786933427168396E-3</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="0"/>
-        <v>2.1943366098854536E-3</v>
+        <v>2.1486933427168394E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>2.1618762572705747E-3</v>
+        <v>2.147246658701675E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>0.32460352614878918</v>
+        <v>1.4466840151643873E-2</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
@@ -6971,11 +6971,11 @@
       </c>
       <c r="M12" s="234">
         <f t="shared" si="1"/>
-        <v>3.2460352614878916E-5</v>
+        <v>1.4466840151643873E-6</v>
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0008711150375322</v>
+        <v>1.0008513290429637</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -7009,43 +7009,43 @@
       </c>
       <c r="E13" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
-        <v>42432</v>
+        <v>42436</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E13)</f>
-        <v>42618</v>
+        <v>42620</v>
       </c>
       <c r="G13" s="62">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>9.7999999999999997E-4</v>
+        <v>1.14E-3</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E13),,AllTriggers)</f>
-        <v>-1.2207137213054102E-3</v>
+        <v>-1.0264446067802669E-3</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="0"/>
-        <v>2.2007137213054103E-3</v>
+        <v>2.1664446067802667E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>2.1797453012485403E-3</v>
+        <v>2.1647343653300563E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>0.20968420056870046</v>
+        <v>1.710241450210339E-2</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
-        <v>0.75068493150684934</v>
+        <v>0.75616438356164384</v>
       </c>
       <c r="M13" s="234">
         <f t="shared" si="1"/>
-        <v>2.0968420056870045E-5</v>
+        <v>1.710241450210339E-6</v>
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0009743304664924</v>
+        <v>1.0009505990216121</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="R13" s="190">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,)</f>
-        <v>1.8584799330034713E-3</v>
+        <v>1.8125168973955959E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -7082,43 +7082,43 @@
       </c>
       <c r="E14" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
-        <v>42464</v>
+        <v>42465</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E14)</f>
-        <v>42647</v>
+        <v>42648</v>
       </c>
       <c r="G14" s="62">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>1.01E-3</v>
+        <v>1.2099999999999999E-3</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E14),,AllTriggers)</f>
-        <v>-1.2157748315225704E-3</v>
+        <v>-9.6785364361050405E-4</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>2.2257748315225702E-3</v>
+        <v>2.1778536436105039E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>2.1969642366057498E-3</v>
+        <v>2.1786900194601514E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>0.28810594916820442</v>
+        <v>-8.3637584964756442E-3</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.83835616438356164</v>
+        <v>0.83561643835616439</v>
       </c>
       <c r="M14" s="234">
         <f t="shared" si="1"/>
-        <v>2.8810594916820441E-5</v>
+        <v>-8.3637584964756442E-7</v>
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0010855926004159</v>
+        <v>1.0010440581516491</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>7.3438583964840934E-4</v>
+        <v>8.8195615344818378E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -7154,31 +7154,31 @@
       </c>
       <c r="E15" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
-        <v>42493</v>
+        <v>42495</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E15)</f>
-        <v>42677</v>
+        <v>42681</v>
       </c>
       <c r="G15" s="62">
         <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>1.0400000000000001E-3</v>
+        <v>1.2900000000000001E-3</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E15),,AllTriggers)</f>
-        <v>-1.2121524187789273E-3</v>
+        <v>-9.0424413386079182E-4</v>
       </c>
       <c r="I15" s="265">
         <f t="shared" si="0"/>
-        <v>2.2521524187789277E-3</v>
+        <v>2.194244133860792E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>2.210819962135882E-3</v>
+        <v>2.1914780118209545E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>0.41332456643045684</v>
+        <v>2.7661220398374035E-2</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
@@ -7186,11 +7186,11 @@
       </c>
       <c r="M15" s="234">
         <f t="shared" si="1"/>
-        <v>4.1332456643045686E-5</v>
+        <v>2.7661220398374035E-6</v>
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.001184962418644</v>
+        <v>1.0011350423915941</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -7199,7 +7199,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>-5.2637314717053553E-4</v>
+        <v>-7.341781049223508E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -7226,43 +7226,43 @@
       </c>
       <c r="E16" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
-        <v>42524</v>
+        <v>42527</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E16)</f>
-        <v>42709</v>
+        <v>42710</v>
       </c>
       <c r="G16" s="62">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>1.0800000000000002E-3</v>
+        <v>1.3600000000000001E-3</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E16),,AllTriggers)</f>
-        <v>-1.1954608250271078E-3</v>
+        <v>-8.3368058355862823E-4</v>
       </c>
       <c r="I16" s="265">
         <f t="shared" si="0"/>
-        <v>2.2754608250271082E-3</v>
+        <v>2.1936805835586284E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>2.2243463608055195E-3</v>
+        <v>2.204172857800417E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>0.51114464221588796</v>
+        <v>-0.10492274241788532</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
-        <v>1.0027397260273974</v>
+        <v>1.0054794520547945</v>
       </c>
       <c r="M16" s="234">
         <f t="shared" si="1"/>
-        <v>5.1114464221588794E-5</v>
+        <v>-1.0492274241788533E-5</v>
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0012918801660831</v>
+        <v>1.001233119777003</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -7271,7 +7271,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>1.5743239353164766E-4</v>
+        <v>2.4309508617599053E-4</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -7298,43 +7298,43 @@
       </c>
       <c r="E17" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A17&amp;"M","mf",,Trigger)</f>
-        <v>42555</v>
+        <v>42556</v>
       </c>
       <c r="F17" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E17)</f>
-        <v>42739</v>
+        <v>42740</v>
       </c>
       <c r="G17" s="62">
         <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>1.14E-3</v>
+        <v>1.47E-3</v>
       </c>
       <c r="H17" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E17),,AllTriggers)</f>
-        <v>-1.1658606330405589E-3</v>
+        <v>-7.0226353624911289E-4</v>
       </c>
       <c r="I17" s="265">
         <f t="shared" si="0"/>
-        <v>2.3058606330405591E-3</v>
+        <v>2.1722635362491126E-3</v>
       </c>
       <c r="J17" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>2.2371112882253008E-3</v>
+        <v>2.2156391239184885E-3</v>
       </c>
       <c r="K17" s="188">
         <f t="shared" si="4"/>
-        <v>0.68749344815258273</v>
+        <v>-0.43375587669375848</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>1.0876712328767124</v>
+        <v>1.0849315068493151</v>
       </c>
       <c r="M17" s="234">
         <f t="shared" si="1"/>
-        <v>6.8749344815258271E-5</v>
+        <v>-4.3375587669375847E-5</v>
       </c>
       <c r="N17" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0013966915387353</v>
+        <v>1.001316196620933</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -7370,31 +7370,31 @@
       </c>
       <c r="E18" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A18&amp;"M","mf",,Trigger)</f>
-        <v>42585</v>
+        <v>42587</v>
       </c>
       <c r="F18" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E18)</f>
-        <v>42769</v>
+        <v>42772</v>
       </c>
       <c r="G18" s="62">
         <f>_xll.qlQuoteValue(D18,AllTriggers)</f>
-        <v>1.1999999999999999E-3</v>
+        <v>1.58E-3</v>
       </c>
       <c r="H18" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E18),,AllTriggers)</f>
-        <v>-1.1250050230085156E-3</v>
+        <v>-6.3266772171674318E-4</v>
       </c>
       <c r="I18" s="265">
         <f t="shared" si="0"/>
-        <v>2.3250050230085154E-3</v>
+        <v>2.2126677217167434E-3</v>
       </c>
       <c r="J18" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>2.2492844944279715E-3</v>
+        <v>2.2287112089916274E-3</v>
       </c>
       <c r="K18" s="188">
         <f t="shared" si="4"/>
-        <v>0.75720528580543955</v>
+        <v>-0.16043487274883944</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
@@ -7402,11 +7402,11 @@
       </c>
       <c r="M18" s="234">
         <f t="shared" si="1"/>
-        <v>7.5720528580543959E-5</v>
+        <v>-1.6043487274883944E-5</v>
       </c>
       <c r="N18" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.001496074356979</v>
+        <v>1.0013974305290583</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -7415,8 +7415,8 @@
         <v>118</v>
       </c>
       <c r="R18" s="190" t="str">
-        <f>_xll.qlPolynomialTenorBasis(,SettlementDate,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_005e1#0026</v>
+        <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
+        <v>obj_00844#0023</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -7446,35 +7446,35 @@
       </c>
       <c r="G19" s="62">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
-        <v>1.2700000000000001E-3</v>
+        <v>1.6799999999999999E-3</v>
       </c>
       <c r="H19" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E19),,AllTriggers)</f>
-        <v>-1.0681118943384499E-3</v>
+        <v>-5.5249594183176608E-4</v>
       </c>
       <c r="I19" s="265">
         <f t="shared" si="0"/>
-        <v>2.33811189433845E-3</v>
+        <v>2.2324959418317659E-3</v>
       </c>
       <c r="J19" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>2.2631032869920241E-3</v>
+        <v>2.2434998683022143E-3</v>
       </c>
       <c r="K19" s="188">
         <f t="shared" si="4"/>
-        <v>0.7500860734642586</v>
+        <v>-0.11003926470448416</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
-        <v>1.2602739726027397</v>
+        <v>1.2547945205479452</v>
       </c>
       <c r="M19" s="234">
         <f t="shared" si="1"/>
-        <v>7.5008607346425862E-5</v>
+        <v>-1.1003926470448417E-5</v>
       </c>
       <c r="N19" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.001606045492081</v>
+        <v>1.0014714618017775</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -7499,31 +7499,31 @@
       </c>
       <c r="E20" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A20&amp;"M","mf",,Trigger)</f>
-        <v>42646</v>
+        <v>42648</v>
       </c>
       <c r="F20" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E20)</f>
-        <v>42828</v>
+        <v>42830</v>
       </c>
       <c r="G20" s="62">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.83E-3</v>
       </c>
       <c r="H20" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E20),,AllTriggers)</f>
-        <v>-1.0051678386224904E-3</v>
+        <v>-4.4727296132126356E-4</v>
       </c>
       <c r="I20" s="265">
         <f t="shared" si="0"/>
-        <v>2.3551678386224905E-3</v>
+        <v>2.2772729613212634E-3</v>
       </c>
       <c r="J20" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>2.2756833691085668E-3</v>
+        <v>2.2602875410429471E-3</v>
       </c>
       <c r="K20" s="188">
         <f t="shared" si="4"/>
-        <v>0.79484469513923728</v>
+        <v>0.16985420278316232</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
@@ -7531,11 +7531,11 @@
       </c>
       <c r="M20" s="234">
         <f t="shared" si="1"/>
-        <v>7.9484469513923725E-5</v>
+        <v>1.6985420278316232E-5</v>
       </c>
       <c r="N20" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0017012582761144</v>
+        <v>1.0015368065174097</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -7560,43 +7560,43 @@
       </c>
       <c r="E21" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A21&amp;"M","mf",,Trigger)</f>
-        <v>42677</v>
+        <v>42681</v>
       </c>
       <c r="F21" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E21)</f>
-        <v>42858</v>
+        <v>42863</v>
       </c>
       <c r="G21" s="62">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>1.4499999999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H21" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E21),,AllTriggers)</f>
-        <v>-9.2681546496249342E-4</v>
+        <v>-3.0228307900232446E-4</v>
       </c>
       <c r="I21" s="265">
         <f t="shared" si="0"/>
-        <v>2.3768154649624934E-3</v>
+        <v>2.3022830790023247E-3</v>
       </c>
       <c r="J21" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>2.2910717121046682E-3</v>
+        <v>2.2825439225649634E-3</v>
       </c>
       <c r="K21" s="188">
         <f t="shared" si="4"/>
-        <v>0.85743752857825228</v>
+        <v>0.19739156437361283</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
-        <v>1.4219178082191781</v>
+        <v>1.4273972602739726</v>
       </c>
       <c r="M21" s="234">
         <f t="shared" si="1"/>
-        <v>8.574375285782523E-5</v>
+        <v>1.9739156437361283E-5</v>
       </c>
       <c r="N21" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0018056256538106</v>
+        <v>1.0016029840967213</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -7629,35 +7629,35 @@
       </c>
       <c r="G22" s="65">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>1.56E-3</v>
+        <v>2.15E-3</v>
       </c>
       <c r="H22" s="65">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E22),,AllTriggers)</f>
-        <v>-8.3802270682523745E-4</v>
+        <v>-1.5670461689100854E-4</v>
       </c>
       <c r="I22" s="260">
         <f t="shared" si="0"/>
-        <v>2.3980227068252373E-3</v>
+        <v>2.3067046168910085E-3</v>
       </c>
       <c r="J22" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>2.3091601080397275E-3</v>
+        <v>2.3053187574723021E-3</v>
       </c>
       <c r="K22" s="189">
         <f t="shared" si="4"/>
-        <v>0.88862598785509772</v>
+        <v>1.385859418706354E-2</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
-        <v>1.5095890410958903</v>
+        <v>1.5041095890410958</v>
       </c>
       <c r="M22" s="235">
         <f t="shared" si="1"/>
-        <v>8.8862598785509773E-5</v>
+        <v>1.385859418706354E-6</v>
       </c>
       <c r="N22" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.0019073859732879</v>
+        <v>1.0016557667862784</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -7698,15 +7698,15 @@
       </c>
       <c r="G25" s="298">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H25" s="295">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
-        <v>42159</v>
+        <v>42163</v>
       </c>
       <c r="I25" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G25,H25,AllTriggers)</f>
-        <v>4.0792836996317305E-4</v>
+        <v>3.2750721412178052E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7715,15 +7715,15 @@
       </c>
       <c r="G26" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H26" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
-        <v>42165</v>
+        <v>42167</v>
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G26,H26,AllTriggers)</f>
-        <v>4.1614088411761382E-4</v>
+        <v>3.3439618567879644E-4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7732,15 +7732,15 @@
       </c>
       <c r="G27" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H27" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
-        <v>42172</v>
+        <v>42174</v>
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G27,H27,AllTriggers)</f>
-        <v>4.5556619901608385E-4</v>
+        <v>3.7626677468617837E-4</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7749,15 +7749,15 @@
       </c>
       <c r="G28" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H28" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
-        <v>42179</v>
+        <v>42181</v>
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G28,H28,AllTriggers)</f>
-        <v>4.7483862602274281E-4</v>
+        <v>3.8791881952374548E-4</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7766,15 +7766,15 @@
       </c>
       <c r="G29" s="300">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H29" s="301">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="I29" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G29,H29,AllTriggers)</f>
-        <v>4.6103442661671323E-4</v>
+        <v>3.9485298415683237E-4</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="G30" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H30" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42219</v>
+        <v>42221</v>
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G30,H30,AllTriggers)</f>
-        <v>4.6630880362953902E-4</v>
+        <v>4.118898886290669E-4</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7800,15 +7800,15 @@
       </c>
       <c r="G31" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H31" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="I31" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G31,H31,AllTriggers)</f>
-        <v>4.8808392657007582E-4</v>
+        <v>4.2421685789268684E-4</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="G32" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H32" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
@@ -7825,7 +7825,7 @@
       </c>
       <c r="I32" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G32,H32,AllTriggers)</f>
-        <v>5.1090445593181581E-4</v>
+        <v>4.5434777872524067E-4</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7834,15 +7834,15 @@
       </c>
       <c r="G33" s="302">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H33" s="297">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42313</v>
       </c>
       <c r="I33" s="290">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G33,H33,AllTriggers)</f>
-        <v>5.3304015210328844E-4</v>
+        <v>4.8912701611356242E-4</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7851,15 +7851,15 @@
       </c>
       <c r="G34" s="303">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H34" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
-        <v>42341</v>
+        <v>42345</v>
       </c>
       <c r="I34" s="291">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G34,H34,AllTriggers)</f>
-        <v>5.5722465423791801E-4</v>
+        <v>5.2304913276806156E-4</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8054,21 +8054,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42524</v>
+        <v>42527</v>
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>2.9266639631714856E-3</v>
+        <v>2.8830282817084076E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="239"/>
@@ -8103,35 +8103,35 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E4)</f>
-        <v>42524</v>
+        <v>42527</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>1.6099999999999997E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E4),,AllTriggers)</f>
-        <v>-1.2625133768733785E-3</v>
+        <v>-1.201578548745798E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I14" si="0">G4-H4</f>
-        <v>2.8725133768733781E-3</v>
+        <v>2.8015785487457978E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>2.9266639631714856E-3</v>
+        <v>2.8830282817084076E-3</v>
       </c>
       <c r="K4" s="187">
         <f>L4*10000</f>
-        <v>-0.54150586298107495</v>
+        <v>-0.81449732962609811</v>
       </c>
       <c r="L4" s="278">
         <f t="shared" ref="L4:L16" si="1">I4-J4</f>
-        <v>-5.4150586298107491E-5</v>
+        <v>-8.1449732962609808E-5</v>
       </c>
       <c r="M4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -8162,43 +8162,43 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E5)</f>
-        <v>42555</v>
+        <v>42557</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>1.7399999999999998E-3</v>
+        <v>1.7799999999999999E-3</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E5),,AllTriggers)</f>
-        <v>-1.2631950553796353E-3</v>
+        <v>-1.1884397701471649E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" ref="I5:I13" si="3">G5-H5</f>
-        <v>3.0031950553796351E-3</v>
+        <v>2.9684397701471646E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>2.9771727041667073E-3</v>
+        <v>2.9121963926155127E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K16" si="4">L5*10000</f>
-        <v>0.26022351212927775</v>
+        <v>0.56243377531651861</v>
       </c>
       <c r="L5" s="279">
         <f t="shared" si="1"/>
-        <v>2.6022351212927775E-5</v>
+        <v>5.6243377531651866E-5</v>
       </c>
       <c r="M5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001071357577196</v>
+        <v>1.0001090930777232</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -8226,35 +8226,35 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42219</v>
+        <v>42221</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E6)</f>
-        <v>42585</v>
+        <v>42587</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>1.7799999999999999E-3</v>
+        <v>1.83E-3</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E6),,AllTriggers)</f>
-        <v>-1.2566259364148386E-3</v>
+        <v>-1.1632036595278028E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="3"/>
-        <v>3.0366259364148383E-3</v>
+        <v>2.9932036595278029E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>3.0248196202537219E-3</v>
+        <v>2.9412252332714044E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>0.1180631616111644</v>
+        <v>0.51978426256398502</v>
       </c>
       <c r="L6" s="234">
         <f t="shared" si="1"/>
-        <v>1.180631616111644E-5</v>
+        <v>5.1978426256398501E-5</v>
       </c>
       <c r="M6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
@@ -8262,7 +8262,7 @@
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002165933156868</v>
+        <v>1.0002131875539613</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -8272,7 +8272,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($M$4:$M$17,$O$4:$O$17),_xll.ohFilter($I$4:$I$17,$O$4:$O$17),_xll.ohFilter($N$4:$N$17,$O$4:$O$17),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_005dd#0025</v>
+        <v>obj_005de#0048</v>
       </c>
       <c r="T6" s="55"/>
     </row>
@@ -8294,43 +8294,43 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E7)</f>
-        <v>42618</v>
+        <v>42620</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>1.82E-3</v>
+        <v>1.8799999999999999E-3</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E7),,AllTriggers)</f>
-        <v>-1.2493753583378445E-3</v>
+        <v>-1.1217151270293173E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="3"/>
-        <v>3.0693753583378447E-3</v>
+        <v>3.001715127029317E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>3.0682045625595148E-3</v>
+        <v>2.9738980882789813E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>1.1707957783299409E-2</v>
+        <v>0.27817038750335699</v>
       </c>
       <c r="L7" s="234">
         <f t="shared" si="1"/>
-        <v>1.1707957783299409E-6</v>
+        <v>2.7817038750335699E-5</v>
       </c>
       <c r="M7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
-        <v>0.25205479452054796</v>
+        <v>0.25753424657534246</v>
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003268550931477</v>
+        <v>1.000333906989644</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -8370,35 +8370,35 @@
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>1.8599999999999999E-3</v>
+        <v>1.9300000000000001E-3</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E8),,AllTriggers)</f>
-        <v>-1.243062435504988E-3</v>
+        <v>-1.0835511730667973E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="3"/>
-        <v>3.1030624355049882E-3</v>
+        <v>3.0135511730667976E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>3.108902266203827E-3</v>
+        <v>3.0020945123844429E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>-5.8398306988388139E-2</v>
+        <v>0.11456660682354711</v>
       </c>
       <c r="L8" s="234">
         <f t="shared" si="1"/>
-        <v>-5.8398306988388139E-6</v>
+        <v>1.1456660682354711E-5</v>
       </c>
       <c r="M8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
-        <v>0.33972602739726027</v>
+        <v>0.33424657534246577</v>
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004421317874643</v>
+        <v>1.0004335031961453</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -8430,35 +8430,35 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42311</v>
+        <v>42313</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E9)</f>
-        <v>42677</v>
+        <v>42681</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>1.9E-3</v>
+        <v>1.99E-3</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E9),,AllTriggers)</f>
-        <v>-1.2360085358704225E-3</v>
+        <v>-1.0353899855799198E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="3"/>
-        <v>3.1360085358704227E-3</v>
+        <v>3.0253899855799196E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>3.1425280091624047E-3</v>
+        <v>3.0336735483678066E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>-6.5194732919819642E-2</v>
+        <v>-8.2835627878870277E-2</v>
       </c>
       <c r="L9" s="234">
         <f t="shared" si="1"/>
-        <v>-6.5194732919819642E-6</v>
+        <v>-8.2835627878870277E-6</v>
       </c>
       <c r="M9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
@@ -8466,7 +8466,7 @@
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005467480108097</v>
+        <v>1.0005428888485881</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>1.9317821112102636E-5</v>
+        <v>1.0495970077009605E-4</v>
       </c>
       <c r="T9" s="55"/>
     </row>
@@ -8498,43 +8498,43 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42341</v>
+        <v>42345</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E10)</f>
-        <v>42709</v>
+        <v>42711</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>1.9500000000000001E-3</v>
+        <v>2.0499999999999997E-3</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E10),,AllTriggers)</f>
-        <v>-1.2234910901333688E-3</v>
+        <v>-9.8590829280935767E-4</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="3"/>
-        <v>3.1734910901333692E-3</v>
+        <v>3.0359082928093574E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>3.1743809650531898E-3</v>
+        <v>3.066510602116958E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>-8.8987491982063169E-3</v>
+        <v>-0.306023093076006</v>
       </c>
       <c r="L10" s="234">
         <f t="shared" si="1"/>
-        <v>-8.8987491982063169E-7</v>
+        <v>-3.0602309307600599E-5</v>
       </c>
       <c r="M10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50136986301369868</v>
+        <v>0.50684931506849318</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006543206631913</v>
+        <v>1.0006554468921967</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -8544,7 +8544,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>5.4150586298107491E-5</v>
+        <v>1.4494759016539039E-4</v>
       </c>
       <c r="T10" s="55"/>
     </row>
@@ -8566,43 +8566,43 @@
       </c>
       <c r="E11" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
-        <v>42373</v>
+        <v>42374</v>
       </c>
       <c r="F11" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E11)</f>
-        <v>42739</v>
+        <v>42740</v>
       </c>
       <c r="G11" s="62">
         <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
-        <v>2E-3</v>
+        <v>2.1400000000000004E-3</v>
       </c>
       <c r="H11" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E11),,AllTriggers)</f>
-        <v>-1.2050501374635133E-3</v>
+        <v>-9.1955990461468429E-4</v>
       </c>
       <c r="I11" s="265">
         <f t="shared" si="3"/>
-        <v>3.2050501374635133E-3</v>
+        <v>3.0595599046146847E-3</v>
       </c>
       <c r="J11" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>3.2054361525449115E-3</v>
+        <v>3.0963379724769664E-3</v>
       </c>
       <c r="K11" s="188">
         <f t="shared" si="4"/>
-        <v>-3.8601508139815902E-3</v>
+        <v>-0.36778067862281666</v>
       </c>
       <c r="L11" s="234">
         <f t="shared" si="1"/>
-        <v>-3.8601508139815902E-7</v>
+        <v>-3.6778067862281664E-5</v>
       </c>
       <c r="M11" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>0.58904109589041098</v>
+        <v>0.58630136986301373</v>
       </c>
       <c r="N11" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0007661869799589</v>
+        <v>1.0007392802738873</v>
       </c>
       <c r="O11" s="237" t="b">
         <v>1</v>
@@ -8627,35 +8627,35 @@
       </c>
       <c r="E12" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
-        <v>42403</v>
+        <v>42405</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E12)</f>
-        <v>42769</v>
+        <v>42772</v>
       </c>
       <c r="G12" s="62">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>2.0499999999999997E-3</v>
+        <v>2.2500000000000003E-3</v>
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E12),,AllTriggers)</f>
-        <v>-1.1790191621031294E-3</v>
+        <v>-8.5368361973573879E-4</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="3"/>
-        <v>3.2290191621031292E-3</v>
+        <v>3.1036836197357392E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>3.2321581164857873E-3</v>
+        <v>3.1281462421315943E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>-3.138954382658158E-2</v>
+        <v>-0.24462622395855174</v>
       </c>
       <c r="L12" s="234">
         <f t="shared" si="1"/>
-        <v>-3.138954382658158E-6</v>
+        <v>-2.4462622395855175E-5</v>
       </c>
       <c r="M12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0008711150375322</v>
+        <v>1.0008513290429637</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -8697,43 +8697,43 @@
       </c>
       <c r="E13" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
-        <v>42432</v>
+        <v>42436</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E13)</f>
-        <v>42797</v>
+        <v>42801</v>
       </c>
       <c r="G13" s="62">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>2.0899999999999998E-3</v>
+        <v>2.3599999999999997E-3</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E13),,AllTriggers)</f>
-        <v>-1.1474044437974086E-3</v>
+        <v>-7.8902116148222732E-4</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="3"/>
-        <v>3.2374044437974087E-3</v>
+        <v>3.149021161482227E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>3.2561039396851029E-3</v>
+        <v>3.1597240407141023E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>-0.18699495887694248</v>
+        <v>-0.10702879231875261</v>
       </c>
       <c r="L13" s="234">
         <f t="shared" si="1"/>
-        <v>-1.8699495887694248E-5</v>
+        <v>-1.0702879231875261E-5</v>
       </c>
       <c r="M13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
-        <v>0.75068493150684934</v>
+        <v>0.75616438356164384</v>
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0009743304664924</v>
+        <v>1.0009505990216121</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -8743,7 +8743,7 @@
       </c>
       <c r="R13" s="190">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,$R$6)</f>
-        <v>2.9266639631714856E-3</v>
+        <v>2.8830282817084076E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -8770,43 +8770,43 @@
       </c>
       <c r="E14" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
-        <v>42464</v>
+        <v>42465</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E14)</f>
-        <v>42829</v>
+        <v>42830</v>
       </c>
       <c r="G14" s="62">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>2.1600000000000005E-3</v>
+        <v>2.48E-3</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E14),,AllTriggers)</f>
-        <v>-1.1092383916937059E-3</v>
+        <v>-7.0816670071369961E-4</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>3.2692383916937064E-3</v>
+        <v>3.1881667007136998E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>3.280735569610992E-3</v>
+        <v>3.1889185149665965E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>-0.11497177917285575</v>
+        <v>-7.5181425289666884E-3</v>
       </c>
       <c r="L14" s="234">
         <f t="shared" si="1"/>
-        <v>-1.1497177917285575E-5</v>
+        <v>-7.5181425289666884E-7</v>
       </c>
       <c r="M14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.83835616438356164</v>
+        <v>0.83561643835616439</v>
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0010855926004159</v>
+        <v>1.0010440581516491</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -8815,7 +8815,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>6.4219614391665956E-4</v>
+        <v>3.3787548046855683E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -8842,35 +8842,35 @@
       </c>
       <c r="E15" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
-        <v>42493</v>
+        <v>42495</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E15)</f>
-        <v>42858</v>
+        <v>42860</v>
       </c>
       <c r="G15" s="62">
         <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>2.2300000000000002E-3</v>
+        <v>2.63E-3</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E15),,AllTriggers)</f>
-        <v>-1.0703718174852408E-3</v>
+        <v>-6.1290213869100662E-4</v>
       </c>
       <c r="I15" s="265">
         <f>G15-H15</f>
-        <v>3.3003718174852408E-3</v>
+        <v>3.2429021386910064E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>3.3017569063872403E-3</v>
+        <v>3.218629448921948E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>-1.3850889019994921E-2</v>
+        <v>0.24272689769058373</v>
       </c>
       <c r="L15" s="234">
         <f t="shared" si="1"/>
-        <v>-1.3850889019994921E-6</v>
+        <v>2.4272689769058373E-5</v>
       </c>
       <c r="M15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.001184962418644</v>
+        <v>1.0011350423915941</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -8887,7 +8887,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>-3.4478140344458048E-4</v>
+        <v>6.8995361343242951E-5</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -8914,43 +8914,43 @@
       </c>
       <c r="E16" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
-        <v>42524</v>
+        <v>42527</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E16)</f>
-        <v>42891</v>
+        <v>42892</v>
       </c>
       <c r="G16" s="62">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>2.31E-3</v>
+        <v>2.7800000000000004E-3</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E16),,AllTriggers)</f>
-        <v>-1.0179473759228778E-3</v>
+        <v>-4.9331305854211918E-4</v>
       </c>
       <c r="I16" s="265">
         <f>G16-H16</f>
-        <v>3.3279473759228778E-3</v>
+        <v>3.2733130585421194E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>3.3232064265819737E-3</v>
+        <v>3.2496149252739925E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>4.7409493409041048E-2</v>
+        <v>0.2369813326812695</v>
       </c>
       <c r="L16" s="234">
         <f t="shared" si="1"/>
-        <v>4.7409493409041048E-6</v>
+        <v>2.3698133268126951E-5</v>
       </c>
       <c r="M16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
-        <v>1.0027397260273974</v>
+        <v>1.0054794520547945</v>
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0012918801660831</v>
+        <v>1.001233119777003</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -8959,7 +8959,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>9.8448696292782983E-5</v>
+        <v>-4.2196310161562246E-5</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -8992,35 +8992,35 @@
       </c>
       <c r="G17" s="65">
         <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>3.9100000000000003E-3</v>
+        <v>5.2300000000000003E-3</v>
       </c>
       <c r="H17" s="65">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E17),,AllTriggers)</f>
-        <v>3.0937834386182201E-4</v>
+        <v>1.7349519372277229E-3</v>
       </c>
       <c r="I17" s="260">
         <f>G17-H17</f>
-        <v>3.6006216561381781E-3</v>
+        <v>3.4950480627722776E-3</v>
       </c>
       <c r="J17" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>3.6231899285615317E-3</v>
+        <v>3.49748334721253E-3</v>
       </c>
       <c r="K17" s="189">
         <f t="shared" ref="K17" si="7">L17*10000</f>
-        <v>-0.22568272423353561</v>
+        <v>-2.4352844402524519E-2</v>
       </c>
       <c r="L17" s="235">
         <f t="shared" ref="L17" si="8">I17-J17</f>
-        <v>-2.2568272423353561E-5</v>
+        <v>-2.4352844402524519E-6</v>
       </c>
       <c r="M17" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>2.0082191780821916</v>
+        <v>2.0027397260273974</v>
       </c>
       <c r="N17" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0023320410173087</v>
+        <v>1.0017351271377146</v>
       </c>
       <c r="O17" s="238" t="b">
         <v>1</v>
@@ -9054,8 +9054,8 @@
         <v>118</v>
       </c>
       <c r="R18" s="190" t="str">
-        <f>_xll.qlPolynomialTenorBasis(,SettlementDate,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_005e2#0026</v>
+        <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
+        <v>obj_00845#0018</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -9087,15 +9087,15 @@
       </c>
       <c r="G20" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H20" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F20,"Following",,Trigger)</f>
-        <v>42159</v>
+        <v>42163</v>
       </c>
       <c r="I20" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G20,H20,AllTriggers)</f>
-        <v>1.2874101301019181E-3</v>
+        <v>1.4764517005527722E-3</v>
       </c>
       <c r="T20" s="55"/>
     </row>
@@ -9105,15 +9105,15 @@
       </c>
       <c r="G21" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H21" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F21,"Following",,Trigger)</f>
-        <v>42165</v>
+        <v>42167</v>
       </c>
       <c r="I21" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G21,H21,AllTriggers)</f>
-        <v>1.295825755841053E-3</v>
+        <v>1.4778043448274555E-3</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9122,15 +9122,15 @@
       </c>
       <c r="G22" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H22" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F22,"Following",,Trigger)</f>
-        <v>42172</v>
+        <v>42174</v>
       </c>
       <c r="I22" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G22,H22,AllTriggers)</f>
-        <v>1.3355227950796942E-3</v>
+        <v>1.5101854782478036E-3</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9139,15 +9139,15 @@
       </c>
       <c r="G23" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H23" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F23,"Following",,Trigger)</f>
-        <v>42179</v>
+        <v>42181</v>
       </c>
       <c r="I23" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G23,H23,AllTriggers)</f>
-        <v>1.3551026855829207E-3</v>
+        <v>1.5125965757561183E-3</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9156,15 +9156,15 @@
       </c>
       <c r="G24" s="272">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H24" s="273">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F24,"mf",TRUE,Trigger)</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="I24" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G24,H24,AllTriggers)</f>
-        <v>1.3417430010322917E-3</v>
+        <v>1.506754834099319E-3</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9173,15 +9173,15 @@
       </c>
       <c r="G25" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H25" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"mf",TRUE,Trigger)</f>
-        <v>42219</v>
+        <v>42221</v>
       </c>
       <c r="I25" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G25,H25,AllTriggers)</f>
-        <v>1.3489740869340237E-3</v>
+        <v>1.4883884719828688E-3</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9190,15 +9190,15 @@
       </c>
       <c r="G26" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H26" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"mf",TRUE,Trigger)</f>
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G26,H26,AllTriggers)</f>
-        <v>1.3733244822814027E-3</v>
+        <v>1.4666190189284E-3</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9207,7 +9207,7 @@
       </c>
       <c r="G27" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H27" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"mf",TRUE,Trigger)</f>
@@ -9215,7 +9215,7 @@
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G27,H27,AllTriggers)</f>
-        <v>1.3993945727118439E-3</v>
+        <v>1.4715856604616863E-3</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9224,15 +9224,15 @@
       </c>
       <c r="G28" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H28" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42313</v>
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G28,H28,AllTriggers)</f>
-        <v>1.4249459921047165E-3</v>
+        <v>1.4822917116486631E-3</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9241,15 +9241,15 @@
       </c>
       <c r="G29" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H29" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42341</v>
+        <v>42345</v>
       </c>
       <c r="I29" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G29,H29,AllTriggers)</f>
-        <v>1.4530873450746733E-3</v>
+        <v>1.495272877750576E-3</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9258,15 +9258,15 @@
       </c>
       <c r="G30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42373</v>
+        <v>42374</v>
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G30,AllTriggers)</f>
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9275,15 +9275,15 @@
       </c>
       <c r="G31" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H31" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42403</v>
+        <v>42405</v>
       </c>
       <c r="I31" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G31,AllTriggers)</f>
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9292,15 +9292,15 @@
       </c>
       <c r="G32" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H32" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
-        <v>42432</v>
+        <v>42436</v>
       </c>
       <c r="I32" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G32,AllTriggers)</f>
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9309,15 +9309,15 @@
       </c>
       <c r="G33" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H33" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
-        <v>42464</v>
+        <v>42465</v>
       </c>
       <c r="I33" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G33,AllTriggers)</f>
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9326,15 +9326,15 @@
       </c>
       <c r="G34" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H34" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
-        <v>42493</v>
+        <v>42495</v>
       </c>
       <c r="I34" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G34,AllTriggers)</f>
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9343,15 +9343,15 @@
       </c>
       <c r="G35" s="303">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H35" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F35,"mf",TRUE,Trigger)</f>
-        <v>42524</v>
+        <v>42527</v>
       </c>
       <c r="I35" s="291">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G35,AllTriggers)</f>
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
     </row>
     <row r="36" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9504,27 +9504,27 @@
       </c>
       <c r="B3" s="74">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C3)</f>
-        <v>42156</v>
+        <v>42158</v>
       </c>
       <c r="C3" s="74">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A3&amp;"M","mf")</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="D3" s="74">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C3)</f>
-        <v>42524</v>
+        <v>42527</v>
       </c>
       <c r="E3" s="75">
         <f>_xll.qlIndexFixing(ON_12M_index,B3,,AllTriggers)</f>
-        <v>-1.2625133768733785E-3</v>
+        <v>-1.201578548745798E-3</v>
       </c>
       <c r="F3" s="76">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C3,TRUE,E3)</f>
-        <v>2.9708332256248196E-3</v>
+        <v>2.9431831228639454E-3</v>
       </c>
       <c r="G3" s="75">
         <f t="shared" ref="G3:G27" si="0">E3+F3</f>
-        <v>1.7083198487514411E-3</v>
+        <v>1.7416045741181474E-3</v>
       </c>
       <c r="Z3" s="71"/>
       <c r="AA3" s="71"/>
@@ -9536,27 +9536,27 @@
       </c>
       <c r="B4" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C4)</f>
-        <v>42186</v>
+        <v>42187</v>
       </c>
       <c r="C4" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A4&amp;"M","mf")</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="D4" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C4)</f>
-        <v>42555</v>
+        <v>42557</v>
       </c>
       <c r="E4" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B4,,AllTriggers)</f>
-        <v>-1.2631950553796353E-3</v>
+        <v>-1.1884397701471649E-3</v>
       </c>
       <c r="F4" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C4,TRUE,E4)</f>
-        <v>3.0031950553796351E-3</v>
+        <v>2.9684397701471646E-3</v>
       </c>
       <c r="G4" s="79">
         <f t="shared" si="0"/>
-        <v>1.7399999999999998E-3</v>
+        <v>1.7799999999999997E-3</v>
       </c>
       <c r="Z4" s="71"/>
       <c r="AA4" s="71"/>
@@ -9568,27 +9568,27 @@
       </c>
       <c r="B5" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C5)</f>
-        <v>42215</v>
+        <v>42219</v>
       </c>
       <c r="C5" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A5&amp;"M","mf")</f>
-        <v>42219</v>
+        <v>42221</v>
       </c>
       <c r="D5" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C5)</f>
-        <v>42585</v>
+        <v>42587</v>
       </c>
       <c r="E5" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B5,,AllTriggers)</f>
-        <v>-1.2566259364148386E-3</v>
+        <v>-1.1632036595278028E-3</v>
       </c>
       <c r="F5" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C5,TRUE,E5)</f>
-        <v>3.0366259364148383E-3</v>
+        <v>2.9932036595278029E-3</v>
       </c>
       <c r="G5" s="79">
         <f t="shared" si="0"/>
-        <v>1.7799999999999997E-3</v>
+        <v>1.83E-3</v>
       </c>
       <c r="Z5" s="71"/>
       <c r="AA5" s="71"/>
@@ -9600,27 +9600,27 @@
       </c>
       <c r="B6" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C6)</f>
-        <v>42248</v>
+        <v>42250</v>
       </c>
       <c r="C6" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A6&amp;"M","mf")</f>
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="D6" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C6)</f>
-        <v>42618</v>
+        <v>42620</v>
       </c>
       <c r="E6" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B6,,AllTriggers)</f>
-        <v>-1.2493753583378445E-3</v>
+        <v>-1.1217151270293173E-3</v>
       </c>
       <c r="F6" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C6,TRUE,E6)</f>
-        <v>3.0693753583378447E-3</v>
+        <v>3.001715127029317E-3</v>
       </c>
       <c r="G6" s="79">
         <f t="shared" si="0"/>
-        <v>1.8200000000000002E-3</v>
+        <v>1.8799999999999997E-3</v>
       </c>
       <c r="Z6" s="71"/>
       <c r="AA6" s="71"/>
@@ -9644,15 +9644,15 @@
       </c>
       <c r="E7" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B7,,AllTriggers)</f>
-        <v>-1.243062435504988E-3</v>
+        <v>-1.0835511730667973E-3</v>
       </c>
       <c r="F7" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C7,TRUE,E7)</f>
-        <v>3.1030624355049882E-3</v>
+        <v>3.0135511730667976E-3</v>
       </c>
       <c r="G7" s="79">
         <f t="shared" si="0"/>
-        <v>1.8600000000000001E-3</v>
+        <v>1.9300000000000003E-3</v>
       </c>
       <c r="Z7" s="71"/>
       <c r="AA7" s="71"/>
@@ -9664,27 +9664,27 @@
       </c>
       <c r="B8" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C8)</f>
-        <v>42307</v>
+        <v>42311</v>
       </c>
       <c r="C8" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A8&amp;"M","mf")</f>
-        <v>42311</v>
+        <v>42313</v>
       </c>
       <c r="D8" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C8)</f>
-        <v>42677</v>
+        <v>42681</v>
       </c>
       <c r="E8" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B8,,AllTriggers)</f>
-        <v>-1.2360085358704225E-3</v>
+        <v>-1.0353899855799198E-3</v>
       </c>
       <c r="F8" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C8,TRUE,E8)</f>
-        <v>3.1360085358704227E-3</v>
+        <v>3.0253899855799196E-3</v>
       </c>
       <c r="G8" s="79">
         <f t="shared" si="0"/>
-        <v>1.9000000000000002E-3</v>
+        <v>1.9899999999999996E-3</v>
       </c>
       <c r="Z8" s="71"/>
       <c r="AA8" s="71"/>
@@ -9696,27 +9696,27 @@
       </c>
       <c r="B9" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C9)</f>
-        <v>42339</v>
+        <v>42341</v>
       </c>
       <c r="C9" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A9&amp;"M","mf")</f>
-        <v>42341</v>
+        <v>42345</v>
       </c>
       <c r="D9" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C9)</f>
-        <v>42709</v>
+        <v>42711</v>
       </c>
       <c r="E9" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B9,,AllTriggers)</f>
-        <v>-1.2234910901333688E-3</v>
+        <v>-9.8590829280935767E-4</v>
       </c>
       <c r="F9" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C9,TRUE,E9)</f>
-        <v>3.1734910901333692E-3</v>
+        <v>3.0359082928093574E-3</v>
       </c>
       <c r="G9" s="79">
         <f t="shared" si="0"/>
-        <v>1.9500000000000003E-3</v>
+        <v>2.0499999999999997E-3</v>
       </c>
       <c r="Z9" s="71"/>
       <c r="AA9" s="71"/>
@@ -9728,27 +9728,27 @@
       </c>
       <c r="B10" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C10)</f>
-        <v>42368</v>
+        <v>42369</v>
       </c>
       <c r="C10" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A10&amp;"M","mf")</f>
-        <v>42373</v>
+        <v>42374</v>
       </c>
       <c r="D10" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C10)</f>
-        <v>42739</v>
+        <v>42740</v>
       </c>
       <c r="E10" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B10,,AllTriggers)</f>
-        <v>-1.2050501374635133E-3</v>
+        <v>-9.1955990461468429E-4</v>
       </c>
       <c r="F10" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C10,TRUE,E10)</f>
-        <v>3.2050501374635133E-3</v>
+        <v>3.0595599046146847E-3</v>
       </c>
       <c r="G10" s="79">
         <f t="shared" si="0"/>
-        <v>2E-3</v>
+        <v>2.1400000000000004E-3</v>
       </c>
       <c r="H10" s="72"/>
       <c r="Z10" s="71"/>
@@ -9761,27 +9761,27 @@
       </c>
       <c r="B11" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C11)</f>
-        <v>42401</v>
+        <v>42403</v>
       </c>
       <c r="C11" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A11&amp;"M","mf")</f>
-        <v>42403</v>
+        <v>42405</v>
       </c>
       <c r="D11" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C11)</f>
-        <v>42769</v>
+        <v>42772</v>
       </c>
       <c r="E11" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B11,,AllTriggers)</f>
-        <v>-1.1790191621031294E-3</v>
+        <v>-8.5368361973573879E-4</v>
       </c>
       <c r="F11" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C11,TRUE,E11)</f>
-        <v>3.2290191621031292E-3</v>
+        <v>3.1036836197357392E-3</v>
       </c>
       <c r="G11" s="79">
         <f t="shared" si="0"/>
-        <v>2.0499999999999997E-3</v>
+        <v>2.2500000000000003E-3</v>
       </c>
       <c r="H11" s="72"/>
       <c r="Z11" s="71"/>
@@ -9794,27 +9794,27 @@
       </c>
       <c r="B12" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C12)</f>
-        <v>42430</v>
+        <v>42432</v>
       </c>
       <c r="C12" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>42432</v>
+        <v>42436</v>
       </c>
       <c r="D12" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C12)</f>
-        <v>42797</v>
+        <v>42801</v>
       </c>
       <c r="E12" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B12,,AllTriggers)</f>
-        <v>-1.1474044437974086E-3</v>
+        <v>-7.8902116148222732E-4</v>
       </c>
       <c r="F12" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C12,TRUE,E12)</f>
-        <v>3.2374044437974087E-3</v>
+        <v>3.149021161482227E-3</v>
       </c>
       <c r="G12" s="79">
         <f t="shared" si="0"/>
-        <v>2.0899999999999998E-3</v>
+        <v>2.3599999999999997E-3</v>
       </c>
       <c r="H12" s="72"/>
       <c r="Z12" s="71"/>
@@ -9827,27 +9827,27 @@
       </c>
       <c r="B13" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C13)</f>
-        <v>42460</v>
+        <v>42461</v>
       </c>
       <c r="C13" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>42464</v>
+        <v>42465</v>
       </c>
       <c r="D13" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C13)</f>
-        <v>42829</v>
+        <v>42830</v>
       </c>
       <c r="E13" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B13,,AllTriggers)</f>
-        <v>-1.1092383916937059E-3</v>
+        <v>-7.0816670071369961E-4</v>
       </c>
       <c r="F13" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C13,TRUE,E13)</f>
-        <v>3.2692383916937064E-3</v>
+        <v>3.1881667007136998E-3</v>
       </c>
       <c r="G13" s="79">
         <f t="shared" si="0"/>
-        <v>2.1600000000000005E-3</v>
+        <v>2.4800000000000004E-3</v>
       </c>
       <c r="H13" s="72"/>
       <c r="Z13" s="71"/>
@@ -9860,27 +9860,27 @@
       </c>
       <c r="B14" s="82">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C14)</f>
-        <v>42489</v>
+        <v>42493</v>
       </c>
       <c r="C14" s="82">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>42493</v>
+        <v>42495</v>
       </c>
       <c r="D14" s="82">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C14)</f>
-        <v>42858</v>
+        <v>42860</v>
       </c>
       <c r="E14" s="83">
         <f>_xll.qlIndexFixing(ON_12M_index,B14,,AllTriggers)</f>
-        <v>-1.0703718174852408E-3</v>
+        <v>-6.1290213869100662E-4</v>
       </c>
       <c r="F14" s="84">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C14,TRUE,E14)</f>
-        <v>3.3003718174852408E-3</v>
+        <v>3.2429021386910064E-3</v>
       </c>
       <c r="G14" s="83">
         <f t="shared" si="0"/>
-        <v>2.2300000000000002E-3</v>
+        <v>2.6299999999999995E-3</v>
       </c>
       <c r="H14" s="72"/>
       <c r="Z14" s="71"/>
@@ -9893,27 +9893,27 @@
       </c>
       <c r="B15" s="74">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C15)</f>
-        <v>42522</v>
+        <v>42523</v>
       </c>
       <c r="C15" s="74">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A15&amp;"M","mf")</f>
-        <v>42524</v>
+        <v>42527</v>
       </c>
       <c r="D15" s="74">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C15)</f>
-        <v>42891</v>
+        <v>42892</v>
       </c>
       <c r="E15" s="75">
         <f>_xll.qlIndexFixing(ON_12M_index,B15,,AllTriggers)</f>
-        <v>-1.0179473759228778E-3</v>
+        <v>-4.9331305854211918E-4</v>
       </c>
       <c r="F15" s="76">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C15,TRUE,E15)</f>
-        <v>3.3279473759228778E-3</v>
+        <v>3.2733130585421194E-3</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" si="0"/>
-        <v>2.31E-3</v>
+        <v>2.7800000000000004E-3</v>
       </c>
       <c r="H15" s="72"/>
       <c r="Z15" s="71"/>
@@ -9926,27 +9926,27 @@
       </c>
       <c r="B16" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C16)</f>
-        <v>42551</v>
+        <v>42552</v>
       </c>
       <c r="C16" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A16&amp;"M","mf")</f>
-        <v>42555</v>
+        <v>42556</v>
       </c>
       <c r="D16" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C16)</f>
-        <v>42920</v>
+        <v>42921</v>
       </c>
       <c r="E16" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B16,,AllTriggers)</f>
-        <v>-9.6245624250948785E-4</v>
+        <v>-3.7704931098093199E-4</v>
       </c>
       <c r="F16" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C16,TRUE,E16)</f>
-        <v>3.3536848367838952E-3</v>
+        <v>3.2924654825945859E-3</v>
       </c>
       <c r="G16" s="79">
         <f t="shared" si="0"/>
-        <v>2.3912285942744075E-3</v>
+        <v>2.9154161716136539E-3</v>
       </c>
       <c r="H16" s="72"/>
       <c r="Z16" s="71"/>
@@ -9959,27 +9959,27 @@
       </c>
       <c r="B17" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C17)</f>
-        <v>42583</v>
+        <v>42585</v>
       </c>
       <c r="C17" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A17&amp;"M","mf")</f>
-        <v>42585</v>
+        <v>42587</v>
       </c>
       <c r="D17" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C17)</f>
-        <v>42950</v>
+        <v>42954</v>
       </c>
       <c r="E17" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B17,,AllTriggers)</f>
-        <v>-8.9824167270996741E-4</v>
+        <v>-2.3986266715202213E-4</v>
       </c>
       <c r="F17" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C17,TRUE,E17)</f>
-        <v>3.3779099416571018E-3</v>
+        <v>3.312530327486833E-3</v>
       </c>
       <c r="G17" s="79">
         <f t="shared" si="0"/>
-        <v>2.4796682689471345E-3</v>
+        <v>3.072667660334811E-3</v>
       </c>
       <c r="H17" s="72"/>
       <c r="Z17" s="71"/>
@@ -10004,15 +10004,15 @@
       </c>
       <c r="E18" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B18,,AllTriggers)</f>
-        <v>-8.1452893236337684E-4</v>
+        <v>-1.0315508320850111E-4</v>
       </c>
       <c r="F18" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C18,TRUE,E18)</f>
-        <v>3.4038548227561705E-3</v>
+        <v>3.332211413577168E-3</v>
       </c>
       <c r="G18" s="79">
         <f t="shared" si="0"/>
-        <v>2.5893258903927937E-3</v>
+        <v>3.229056330368667E-3</v>
       </c>
       <c r="H18" s="72"/>
       <c r="Z18" s="71"/>
@@ -10025,27 +10025,27 @@
       </c>
       <c r="B19" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C19)</f>
-        <v>42642</v>
+        <v>42646</v>
       </c>
       <c r="C19" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>42646</v>
+        <v>42648</v>
       </c>
       <c r="D19" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C19)</f>
-        <v>43011</v>
+        <v>43013</v>
       </c>
       <c r="E19" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B19,,AllTriggers)</f>
-        <v>-7.3078736985722318E-4</v>
+        <v>4.5685514266988993E-5</v>
       </c>
       <c r="F19" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C19,TRUE,E19)</f>
-        <v>3.425348748329394E-3</v>
+        <v>3.3509290958951385E-3</v>
       </c>
       <c r="G19" s="79">
         <f t="shared" si="0"/>
-        <v>2.694561378472171E-3</v>
+        <v>3.3966146101621275E-3</v>
       </c>
       <c r="H19" s="72"/>
       <c r="Z19" s="71"/>
@@ -10058,27 +10058,27 @@
       </c>
       <c r="B20" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C20)</f>
-        <v>42675</v>
+        <v>42677</v>
       </c>
       <c r="C20" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>42677</v>
+        <v>42681</v>
       </c>
       <c r="D20" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C20)</f>
-        <v>43042</v>
+        <v>43046</v>
       </c>
       <c r="E20" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B20,,AllTriggers)</f>
-        <v>-6.2682263753329891E-4</v>
+        <v>2.2551194524019603E-4</v>
       </c>
       <c r="F20" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C20,TRUE,E20)</f>
-        <v>3.4486510101941368E-3</v>
+        <v>3.3711880998827646E-3</v>
       </c>
       <c r="G20" s="79">
         <f t="shared" si="0"/>
-        <v>2.8218283726608381E-3</v>
+        <v>3.5967000451229605E-3</v>
       </c>
       <c r="H20" s="72"/>
       <c r="Z20" s="71"/>
@@ -10103,15 +10103,15 @@
       </c>
       <c r="E21" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B21,,AllTriggers)</f>
-        <v>-5.1111020670673273E-4</v>
+        <v>3.9391805587752862E-4</v>
       </c>
       <c r="F21" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C21,TRUE,E21)</f>
-        <v>3.4722275780556039E-3</v>
+        <v>3.3881401080600657E-3</v>
       </c>
       <c r="G21" s="79">
         <f t="shared" si="0"/>
-        <v>2.961117371348871E-3</v>
+        <v>3.7820581639375944E-3</v>
       </c>
       <c r="H21" s="72"/>
       <c r="Z21" s="71"/>
@@ -10124,27 +10124,27 @@
       </c>
       <c r="B22" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C22)</f>
-        <v>42734</v>
+        <v>42738</v>
       </c>
       <c r="C22" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>42738</v>
+        <v>42740</v>
       </c>
       <c r="D22" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C22)</f>
-        <v>43103</v>
+        <v>43105</v>
       </c>
       <c r="E22" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B22,,AllTriggers)</f>
-        <v>-4.0151606396115808E-4</v>
+        <v>5.6437606049824227E-4</v>
       </c>
       <c r="F22" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C22,TRUE,E22)</f>
-        <v>3.4932350730094894E-3</v>
+        <v>3.4066909707264749E-3</v>
       </c>
       <c r="G22" s="79">
         <f t="shared" si="0"/>
-        <v>3.0917190090483312E-3</v>
+        <v>3.9710670312247173E-3</v>
       </c>
       <c r="H22" s="72"/>
       <c r="Z22" s="71"/>
@@ -10157,27 +10157,27 @@
       </c>
       <c r="B23" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C23)</f>
-        <v>42767</v>
+        <v>42768</v>
       </c>
       <c r="C23" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>42769</v>
+        <v>42772</v>
       </c>
       <c r="D23" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C23)</f>
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="E23" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B23,,AllTriggers)</f>
-        <v>-2.7300228331498589E-4</v>
+        <v>7.9239095104370095E-4</v>
       </c>
       <c r="F23" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C23,TRUE,E23)</f>
-        <v>3.5153773498440384E-3</v>
+        <v>3.4256407500675525E-3</v>
       </c>
       <c r="G23" s="79">
         <f t="shared" si="0"/>
-        <v>3.2423750665290527E-3</v>
+        <v>4.2180317011112538E-3</v>
       </c>
       <c r="H23" s="72"/>
       <c r="Z23" s="71"/>
@@ -10190,27 +10190,27 @@
       </c>
       <c r="B24" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C24)</f>
-        <v>42795</v>
+        <v>42796</v>
       </c>
       <c r="C24" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>42797</v>
+        <v>42800</v>
       </c>
       <c r="D24" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C24)</f>
-        <v>43164</v>
+        <v>43165</v>
       </c>
       <c r="E24" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B24,,AllTriggers)</f>
-        <v>-1.5293234149000911E-4</v>
+        <v>1.0014910471708635E-3</v>
       </c>
       <c r="F24" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C24,TRUE,E24)</f>
-        <v>3.5351516342154174E-3</v>
+        <v>3.44208902884153E-3</v>
       </c>
       <c r="G24" s="79">
         <f t="shared" si="0"/>
-        <v>3.3822192927254083E-3</v>
+        <v>4.4435800760123934E-3</v>
       </c>
       <c r="H24" s="72"/>
       <c r="Z24" s="71"/>
@@ -10223,27 +10223,27 @@
       </c>
       <c r="B25" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C25)</f>
-        <v>42824</v>
+        <v>42828</v>
       </c>
       <c r="C25" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A25&amp;"M","mf")</f>
-        <v>42828</v>
+        <v>42830</v>
       </c>
       <c r="D25" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C25)</f>
-        <v>43193</v>
+        <v>43195</v>
       </c>
       <c r="E25" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B25,,AllTriggers)</f>
-        <v>-1.4529678639966709E-5</v>
+        <v>1.2324956161628288E-3</v>
       </c>
       <c r="F25" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C25,TRUE,E25)</f>
-        <v>3.5568560823204085E-3</v>
+        <v>3.4596089492655046E-3</v>
       </c>
       <c r="G25" s="79">
         <f t="shared" si="0"/>
-        <v>3.5423264036804417E-3</v>
+        <v>4.6921045654283334E-3</v>
       </c>
       <c r="H25" s="72"/>
       <c r="Z25" s="71"/>
@@ -10256,27 +10256,27 @@
       </c>
       <c r="B26" s="82">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C26)</f>
-        <v>42853</v>
+        <v>42858</v>
       </c>
       <c r="C26" s="82">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A26&amp;"M","mf")</f>
-        <v>42858</v>
+        <v>42860</v>
       </c>
       <c r="D26" s="82">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C26)</f>
-        <v>43223</v>
+        <v>43227</v>
       </c>
       <c r="E26" s="83">
         <f>_xll.qlIndexFixing(ON_12M_index,B26,,AllTriggers)</f>
-        <v>1.3473326385333141E-4</v>
+        <v>1.4822007169898116E-3</v>
       </c>
       <c r="F26" s="84">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C26,TRUE,E26)</f>
-        <v>3.5777319410413865E-3</v>
+        <v>3.4770567533419757E-3</v>
       </c>
       <c r="G26" s="83">
         <f t="shared" si="0"/>
-        <v>3.7124652048947178E-3</v>
+        <v>4.9592574703317873E-3</v>
       </c>
       <c r="H26" s="72"/>
       <c r="Z26" s="71"/>
@@ -10301,15 +10301,15 @@
       </c>
       <c r="E27" s="341">
         <f>_xll.qlIndexFixing(ON_12M_index,B27,,AllTriggers)</f>
-        <v>3.0937834386182201E-4</v>
+        <v>1.7349519372277229E-3</v>
       </c>
       <c r="F27" s="342">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C27,TRUE,E27)</f>
-        <v>3.6006216561381781E-3</v>
+        <v>3.4950480627722776E-3</v>
       </c>
       <c r="G27" s="341">
         <f t="shared" si="0"/>
-        <v>3.9100000000000003E-3</v>
+        <v>5.2300000000000003E-3</v>
       </c>
       <c r="H27" s="72"/>
       <c r="Z27" s="71"/>
@@ -10420,7 +10420,7 @@
       </c>
       <c r="N2" s="102">
         <f>_xll.ohTrigger(M3:M7)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="H3" s="139">
         <f>'1MSynthDepo'!V11</f>
-        <v>-5.9073182157920456E-4</v>
+        <v>-5.8082196471076486E-4</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>56</v>
@@ -10459,7 +10459,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="120">
         <f t="array" ref="L3:L63">QuoteLive</f>
-        <v>-5.9073182157920456E-4</v>
+        <v>-5.8082196471076486E-4</v>
       </c>
       <c r="M3" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND($L3,6),EvaluationDate)</f>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="H4" s="139">
         <f>'1MSynthDepo'!V12</f>
-        <v>-5.8946434709383766E-4</v>
+        <v>-5.9187099444381525E-4</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>56</v>
@@ -10503,7 +10503,7 @@
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="120">
-        <v>-5.8946434709383766E-4</v>
+        <v>-5.9187099444381525E-4</v>
       </c>
       <c r="M4" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND($L4,6),EvaluationDate)</f>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="H5" s="139">
         <f>'1MSynthDepo'!V13</f>
-        <v>-5.5928301386692122E-4</v>
+        <v>-5.7876069573716189E-4</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>56</v>
@@ -10544,7 +10544,7 @@
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="120">
-        <v>-5.5928301386692122E-4</v>
+        <v>-5.7876069573716189E-4</v>
       </c>
       <c r="M5" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND($L5,6),EvaluationDate)</f>
@@ -10575,7 +10575,7 @@
       </c>
       <c r="H6" s="139">
         <f>'1MSynthDepo'!V14</f>
-        <v>-5.5030575293800259E-4</v>
+        <v>-5.9272830149202454E-4</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>56</v>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="122">
-        <v>-5.5030575293800259E-4</v>
+        <v>-5.9272830149202454E-4</v>
       </c>
       <c r="M6" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND($L6,6),EvaluationDate)</f>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="H7" s="142">
         <f>'1MSynthDepo'!V15</f>
-        <v>-5.7858972055324642E-4</v>
+        <v>-6.1743165474681752E-4</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>56</v>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="124">
-        <v>-5.7858972055324642E-4</v>
+        <v>-6.1743165474681752E-4</v>
       </c>
       <c r="M7" s="125">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND($L7,6),EvaluationDate)</f>
@@ -10656,7 +10656,7 @@
       </c>
       <c r="H8" s="144">
         <f>'3MSynthDepo'!I25</f>
-        <v>-1.0271029750708038E-4</v>
+        <v>-1.3505198438235055E-4</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="132">
@@ -10664,15 +10664,15 @@
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="120">
-        <v>-1.0271029750708038E-4</v>
+        <v>-1.3505198438235055E-4</v>
       </c>
       <c r="M8" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND($L8,6),EvaluationDate)</f>
-        <v>-2.4999999999999998E-5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="108">
         <f>_xll.ohTrigger(M8:M14)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -10698,7 +10698,7 @@
       </c>
       <c r="H9" s="139">
         <f>'3MSynthDepo'!I26</f>
-        <v>-9.7219193735398335E-5</v>
+        <v>-1.307744631156333E-4</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="132">
@@ -10706,11 +10706,11 @@
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="120">
-        <v>-9.7219193735398335E-5</v>
+        <v>-1.307744631156333E-4</v>
       </c>
       <c r="M9" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND($L9,6),EvaluationDate)</f>
-        <v>-2.4000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="N9" s="104"/>
     </row>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="H10" s="139">
         <f>'3MSynthDepo'!I27</f>
-        <v>-6.093281876205582E-5</v>
+        <v>-9.3422520025690913E-5</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="132">
@@ -10742,11 +10742,11 @@
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="120">
-        <v>-6.093281876205582E-5</v>
+        <v>-9.3422520025690913E-5</v>
       </c>
       <c r="M10" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND($L10,6),EvaluationDate)</f>
-        <v>-2.4000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="N10" s="104"/>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="H11" s="147">
         <f>'3MSynthDepo'!I28</f>
-        <v>-4.4760301796437875E-5</v>
+        <v>-8.622357393596656E-5</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="133">
@@ -10778,11 +10778,11 @@
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="122">
-        <v>-4.4760301796437875E-5</v>
+        <v>-8.622357393596656E-5</v>
       </c>
       <c r="M11" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND($L11,6),EvaluationDate)</f>
-        <v>-2.4000000000000004E-5</v>
+        <v>0</v>
       </c>
       <c r="N11" s="104"/>
     </row>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="H12" s="139">
         <f>'3MSynthDepo'!I29</f>
-        <v>-6.2492089720311839E-5</v>
+        <v>-8.5539265429578025E-5</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="132">
@@ -10814,11 +10814,11 @@
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="120">
-        <v>-6.2492089720311839E-5</v>
+        <v>-8.5539265429578025E-5</v>
       </c>
       <c r="M12" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND($L12,6),EvaluationDate)</f>
-        <v>-2.3000000000000003E-5</v>
+        <v>0</v>
       </c>
       <c r="N12" s="104"/>
     </row>
@@ -10842,7 +10842,7 @@
       </c>
       <c r="H13" s="139">
         <f>'3MSynthDepo'!I30</f>
-        <v>-7.0270523250751243E-5</v>
+        <v>-8.6490719934248007E-5</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="132">
@@ -10850,11 +10850,11 @@
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="120">
-        <v>-7.0270523250751243E-5</v>
+        <v>-8.6490719934248007E-5</v>
       </c>
       <c r="M13" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND($L13,6),EvaluationDate)</f>
-        <v>-2.1999999999999993E-5</v>
+        <v>0</v>
       </c>
       <c r="N13" s="104"/>
     </row>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="H14" s="147">
         <f>'3MSynthDepo'!I31</f>
-        <v>-6.0840496784477494E-5</v>
+        <v>-9.2702532836066103E-5</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="133">
@@ -10886,11 +10886,11 @@
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="122">
-        <v>-6.0840496784477494E-5</v>
+        <v>-9.2702532836066103E-5</v>
       </c>
       <c r="M14" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND($L14,6),EvaluationDate)</f>
-        <v>-2.0999999999999995E-5</v>
+        <v>0</v>
       </c>
       <c r="N14" s="104"/>
     </row>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="H15" s="144">
         <f>'6MSynthDepo'!I25</f>
-        <v>4.0792836996317305E-4</v>
+        <v>3.2750721412178052E-4</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="132">
@@ -10927,15 +10927,15 @@
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="120">
-        <v>4.0792836996317305E-4</v>
+        <v>3.2750721412178052E-4</v>
       </c>
       <c r="M15" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND($L15,6),EvaluationDate)</f>
-        <v>7.0000000000000075E-6</v>
+        <v>0</v>
       </c>
       <c r="N15" s="110">
         <f>_xll.ohTrigger(M15:M24)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -10964,7 +10964,7 @@
       </c>
       <c r="H16" s="139">
         <f>'6MSynthDepo'!I26</f>
-        <v>4.1614088411761382E-4</v>
+        <v>3.3439618567879644E-4</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="132">
@@ -10972,11 +10972,11 @@
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="120">
-        <v>4.1614088411761382E-4</v>
+        <v>3.3439618567879644E-4</v>
       </c>
       <c r="M16" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND($L16,6),EvaluationDate)</f>
-        <v>5.9999999999999832E-6</v>
+        <v>0</v>
       </c>
       <c r="N16" s="111"/>
     </row>
@@ -11003,7 +11003,7 @@
       </c>
       <c r="H17" s="139">
         <f>'6MSynthDepo'!I27</f>
-        <v>4.5556619901608385E-4</v>
+        <v>3.7626677468617837E-4</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="132">
@@ -11011,11 +11011,11 @@
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="120">
-        <v>4.5556619901608385E-4</v>
+        <v>3.7626677468617837E-4</v>
       </c>
       <c r="M17" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND($L17,6),EvaluationDate)</f>
-        <v>5.0000000000000131E-6</v>
+        <v>0</v>
       </c>
       <c r="N17" s="111"/>
     </row>
@@ -11042,7 +11042,7 @@
       </c>
       <c r="H18" s="139">
         <f>'6MSynthDepo'!I28</f>
-        <v>4.7483862602274281E-4</v>
+        <v>3.8791881952374548E-4</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="132">
@@ -11050,11 +11050,11 @@
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="120">
-        <v>4.7483862602274281E-4</v>
+        <v>3.8791881952374548E-4</v>
       </c>
       <c r="M18" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND($L18,6),EvaluationDate)</f>
-        <v>3.0000000000000187E-6</v>
+        <v>0</v>
       </c>
       <c r="N18" s="111"/>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="H19" s="144">
         <f>'6MSynthDepo'!I29</f>
-        <v>4.6103442661671323E-4</v>
+        <v>3.9485298415683237E-4</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="135">
@@ -11089,11 +11089,11 @@
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="126">
-        <v>4.6103442661671323E-4</v>
+        <v>3.9485298415683237E-4</v>
       </c>
       <c r="M19" s="127">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND($L19,6),EvaluationDate)</f>
-        <v>9.999999999999701E-7</v>
+        <v>0</v>
       </c>
       <c r="N19" s="111"/>
     </row>
@@ -11120,7 +11120,7 @@
       </c>
       <c r="H20" s="139">
         <f>'6MSynthDepo'!I30</f>
-        <v>4.6630880362953902E-4</v>
+        <v>4.118898886290669E-4</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="132">
@@ -11128,11 +11128,11 @@
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="120">
-        <v>4.6630880362953902E-4</v>
+        <v>4.118898886290669E-4</v>
       </c>
       <c r="M20" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND($L20,6),EvaluationDate)</f>
-        <v>-5.9999999999999832E-6</v>
+        <v>0</v>
       </c>
       <c r="N20" s="111"/>
     </row>
@@ -11159,7 +11159,7 @@
       </c>
       <c r="H21" s="139">
         <f>'6MSynthDepo'!I31</f>
-        <v>4.8808392657007582E-4</v>
+        <v>4.2421685789268684E-4</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="132">
@@ -11167,11 +11167,11 @@
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="120">
-        <v>4.8808392657007582E-4</v>
+        <v>4.2421685789268684E-4</v>
       </c>
       <c r="M21" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND($L21,6),EvaluationDate)</f>
-        <v>-9.999999999999972E-6</v>
+        <v>0</v>
       </c>
       <c r="N21" s="111"/>
     </row>
@@ -11198,7 +11198,7 @@
       </c>
       <c r="H22" s="139">
         <f>'6MSynthDepo'!I32</f>
-        <v>5.1090445593181581E-4</v>
+        <v>4.5434777872524067E-4</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="132">
@@ -11206,11 +11206,11 @@
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="120">
-        <v>5.1090445593181581E-4</v>
+        <v>4.5434777872524067E-4</v>
       </c>
       <c r="M22" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND($L22,6),EvaluationDate)</f>
-        <v>-1.5000000000000039E-5</v>
+        <v>0</v>
       </c>
       <c r="N22" s="111"/>
     </row>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="H23" s="139">
         <f>'6MSynthDepo'!I33</f>
-        <v>5.3304015210328844E-4</v>
+        <v>4.8912701611356242E-4</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="132">
@@ -11245,11 +11245,11 @@
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="120">
-        <v>5.3304015210328844E-4</v>
+        <v>4.8912701611356242E-4</v>
       </c>
       <c r="M23" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND($L23,6),EvaluationDate)</f>
-        <v>-1.7999999999999895E-5</v>
+        <v>0</v>
       </c>
       <c r="N23" s="111"/>
     </row>
@@ -11276,7 +11276,7 @@
       </c>
       <c r="H24" s="147">
         <f>'6MSynthDepo'!I34</f>
-        <v>5.5722465423791801E-4</v>
+        <v>5.2304913276806156E-4</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="133">
@@ -11284,11 +11284,11 @@
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="122">
-        <v>5.5722465423791801E-4</v>
+        <v>5.2304913276806156E-4</v>
       </c>
       <c r="M24" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND($L24,6),EvaluationDate)</f>
-        <v>-2.0999999999999968E-5</v>
+        <v>0</v>
       </c>
       <c r="N24" s="111"/>
     </row>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="H25" s="144">
         <f>'1YSynthDepo'!I20</f>
-        <v>1.2874101301019181E-3</v>
+        <v>1.4764517005527722E-3</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="132">
@@ -11325,15 +11325,15 @@
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="120">
-        <v>1.2874101301019181E-3</v>
+        <v>1.4764517005527722E-3</v>
       </c>
       <c r="M25" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND($L25,6),EvaluationDate)</f>
-        <v>7.499999999999998E-5</v>
+        <v>0</v>
       </c>
       <c r="N25" s="110">
         <f>_xll.ohTrigger(M25:M40)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -11362,7 +11362,7 @@
       </c>
       <c r="H26" s="139">
         <f>'1YSynthDepo'!I21</f>
-        <v>1.295825755841053E-3</v>
+        <v>1.4778043448274555E-3</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="132">
@@ -11370,11 +11370,11 @@
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="120">
-        <v>1.295825755841053E-3</v>
+        <v>1.4778043448274555E-3</v>
       </c>
       <c r="M26" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND($L26,6),EvaluationDate)</f>
-        <v>7.4000000000000064E-5</v>
+        <v>0</v>
       </c>
       <c r="N26" s="111"/>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="H27" s="139">
         <f>'1YSynthDepo'!I22</f>
-        <v>1.3355227950796942E-3</v>
+        <v>1.5101854782478036E-3</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="132">
@@ -11409,11 +11409,11 @@
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="120">
-        <v>1.3355227950796942E-3</v>
+        <v>1.5101854782478036E-3</v>
       </c>
       <c r="M27" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND($L27,6),EvaluationDate)</f>
-        <v>7.2000000000000015E-5</v>
+        <v>0</v>
       </c>
       <c r="N27" s="111"/>
     </row>
@@ -11440,7 +11440,7 @@
       </c>
       <c r="H28" s="139">
         <f>'1YSynthDepo'!I23</f>
-        <v>1.3551026855829207E-3</v>
+        <v>1.5125965757561183E-3</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="132">
@@ -11448,11 +11448,11 @@
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="120">
-        <v>1.3551026855829207E-3</v>
+        <v>1.5125965757561183E-3</v>
       </c>
       <c r="M28" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND($L28,6),EvaluationDate)</f>
-        <v>7.0000000000000184E-5</v>
+        <v>0</v>
       </c>
       <c r="N28" s="111"/>
     </row>
@@ -11479,7 +11479,7 @@
       </c>
       <c r="H29" s="147">
         <f>'1YSynthDepo'!I24</f>
-        <v>1.3417430010322917E-3</v>
+        <v>1.506754834099319E-3</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="133">
@@ -11487,11 +11487,11 @@
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="122">
-        <v>1.3417430010322917E-3</v>
+        <v>1.506754834099319E-3</v>
       </c>
       <c r="M29" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND($L29,6),EvaluationDate)</f>
-        <v>6.8000000000000135E-5</v>
+        <v>0</v>
       </c>
       <c r="N29" s="111"/>
     </row>
@@ -11518,7 +11518,7 @@
       </c>
       <c r="H30" s="139">
         <f>'1YSynthDepo'!I25</f>
-        <v>1.3489740869340237E-3</v>
+        <v>1.4883884719828688E-3</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="132">
@@ -11526,11 +11526,11 @@
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="120">
-        <v>1.3489740869340237E-3</v>
+        <v>1.4883884719828688E-3</v>
       </c>
       <c r="M30" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND($L30,6),EvaluationDate)</f>
-        <v>5.9999999999999941E-5</v>
+        <v>0</v>
       </c>
       <c r="N30" s="110"/>
     </row>
@@ -11557,7 +11557,7 @@
       </c>
       <c r="H31" s="139">
         <f>'1YSynthDepo'!I26</f>
-        <v>1.3733244822814027E-3</v>
+        <v>1.4666190189284E-3</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="132">
@@ -11565,11 +11565,11 @@
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="120">
-        <v>1.3733244822814027E-3</v>
+        <v>1.4666190189284E-3</v>
       </c>
       <c r="M31" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND($L31,6),EvaluationDate)</f>
-        <v>5.3000000000000096E-5</v>
+        <v>0</v>
       </c>
       <c r="N31" s="111"/>
     </row>
@@ -11596,7 +11596,7 @@
       </c>
       <c r="H32" s="139">
         <f>'1YSynthDepo'!I27</f>
-        <v>1.3993945727118439E-3</v>
+        <v>1.4715856604616863E-3</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="132">
@@ -11604,11 +11604,11 @@
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="120">
-        <v>1.3993945727118439E-3</v>
+        <v>1.4715856604616863E-3</v>
       </c>
       <c r="M32" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND($L32,6),EvaluationDate)</f>
-        <v>4.6000000000000034E-5</v>
+        <v>0</v>
       </c>
       <c r="N32" s="111"/>
     </row>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="H33" s="139">
         <f>'1YSynthDepo'!I28</f>
-        <v>1.4249459921047165E-3</v>
+        <v>1.4822917116486631E-3</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="132">
@@ -11643,11 +11643,11 @@
       </c>
       <c r="K33" s="16"/>
       <c r="L33" s="120">
-        <v>1.4249459921047165E-3</v>
+        <v>1.4822917116486631E-3</v>
       </c>
       <c r="M33" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND($L33,6),EvaluationDate)</f>
-        <v>4.1000000000000021E-5</v>
+        <v>0</v>
       </c>
       <c r="N33" s="111"/>
     </row>
@@ -11674,7 +11674,7 @@
       </c>
       <c r="H34" s="139">
         <f>'1YSynthDepo'!I29</f>
-        <v>1.4530873450746733E-3</v>
+        <v>1.495272877750576E-3</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="132">
@@ -11682,11 +11682,11 @@
       </c>
       <c r="K34" s="16"/>
       <c r="L34" s="120">
-        <v>1.4530873450746733E-3</v>
+        <v>1.495272877750576E-3</v>
       </c>
       <c r="M34" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND($L34,6),EvaluationDate)</f>
-        <v>3.6000000000000008E-5</v>
+        <v>0</v>
       </c>
       <c r="N34" s="111"/>
     </row>
@@ -11713,7 +11713,7 @@
       </c>
       <c r="H35" s="139">
         <f>'1YSynthDepo'!I30</f>
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="132">
@@ -11721,11 +11721,11 @@
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="120">
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
       <c r="M35" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND($L35,6),EvaluationDate)</f>
-        <v>1.6999999999999871E-5</v>
+        <v>0</v>
       </c>
       <c r="N35" s="111"/>
     </row>
@@ -11752,7 +11752,7 @@
       </c>
       <c r="H36" s="139">
         <f>'1YSynthDepo'!I31</f>
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="132">
@@ -11760,11 +11760,11 @@
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="120">
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
       <c r="M36" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND($L36,6),EvaluationDate)</f>
-        <v>1.6999999999999871E-5</v>
+        <v>0</v>
       </c>
       <c r="N36" s="111"/>
     </row>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="H37" s="139">
         <f>'1YSynthDepo'!I32</f>
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="132">
@@ -11799,11 +11799,11 @@
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="120">
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
       <c r="M37" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND($L37,6),EvaluationDate)</f>
-        <v>1.6999999999999871E-5</v>
+        <v>0</v>
       </c>
       <c r="N37" s="111"/>
     </row>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="H38" s="139">
         <f>'1YSynthDepo'!I33</f>
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="132">
@@ -11838,11 +11838,11 @@
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="120">
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
       <c r="M38" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND($L38,6),EvaluationDate)</f>
-        <v>1.6999999999999871E-5</v>
+        <v>0</v>
       </c>
       <c r="N38" s="111"/>
     </row>
@@ -11869,7 +11869,7 @@
       </c>
       <c r="H39" s="139">
         <f>'1YSynthDepo'!I34</f>
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="132">
@@ -11877,11 +11877,11 @@
       </c>
       <c r="K39" s="16"/>
       <c r="L39" s="120">
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
       <c r="M39" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND($L39,6),EvaluationDate)</f>
-        <v>1.6999999999999871E-5</v>
+        <v>0</v>
       </c>
       <c r="N39" s="111"/>
     </row>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="H40" s="147">
         <f>'1YSynthDepo'!I35</f>
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="133">
@@ -11916,11 +11916,11 @@
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="122">
-        <v>1.6641505862981072E-3</v>
+        <v>1.6814497329626097E-3</v>
       </c>
       <c r="M40" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND($L40,6),EvaluationDate)</f>
-        <v>1.6999999999999871E-5</v>
+        <v>0</v>
       </c>
       <c r="N40" s="110"/>
     </row>
@@ -11953,7 +11953,7 @@
       </c>
       <c r="H41" s="152">
         <f>SynthFra!G4</f>
-        <v>1.7399999999999998E-3</v>
+        <v>1.7799999999999997E-3</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="136">
@@ -11961,7 +11961,7 @@
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="128">
-        <v>1.7399999999999998E-3</v>
+        <v>1.7799999999999997E-3</v>
       </c>
       <c r="M41" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(L41,6),EvaluationDate)</f>
@@ -11969,7 +11969,7 @@
       </c>
       <c r="N41" s="110">
         <f>_xll.ohTrigger(M41:M63)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="H42" s="154">
         <f>SynthFra!G5</f>
-        <v>1.7799999999999997E-3</v>
+        <v>1.83E-3</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="136">
@@ -12009,7 +12009,7 @@
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="128">
-        <v>1.7799999999999997E-3</v>
+        <v>1.83E-3</v>
       </c>
       <c r="M42" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D42,ROUND(L42,6),EvaluationDate)</f>
@@ -12046,7 +12046,7 @@
       </c>
       <c r="H43" s="154">
         <f>SynthFra!G6</f>
-        <v>1.8200000000000002E-3</v>
+        <v>1.8799999999999997E-3</v>
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="136">
@@ -12054,7 +12054,7 @@
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="128">
-        <v>1.8200000000000002E-3</v>
+        <v>1.8799999999999997E-3</v>
       </c>
       <c r="M43" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D43,ROUND(L43,6),EvaluationDate)</f>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="H44" s="154">
         <f>SynthFra!G7</f>
-        <v>1.8600000000000001E-3</v>
+        <v>1.9300000000000003E-3</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="136">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="K44" s="19"/>
       <c r="L44" s="128">
-        <v>1.8600000000000001E-3</v>
+        <v>1.9300000000000003E-3</v>
       </c>
       <c r="M44" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(L44,6),EvaluationDate)</f>
@@ -12136,7 +12136,7 @@
       </c>
       <c r="H45" s="154">
         <f>SynthFra!G8</f>
-        <v>1.9000000000000002E-3</v>
+        <v>1.9899999999999996E-3</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="136">
@@ -12144,7 +12144,7 @@
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="128">
-        <v>1.9000000000000002E-3</v>
+        <v>1.9899999999999996E-3</v>
       </c>
       <c r="M45" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D45,ROUND(L45,6),EvaluationDate)</f>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="H46" s="154">
         <f>SynthFra!G9</f>
-        <v>1.9500000000000003E-3</v>
+        <v>2.0499999999999997E-3</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="136">
@@ -12189,7 +12189,7 @@
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="128">
-        <v>1.9500000000000003E-3</v>
+        <v>2.0499999999999997E-3</v>
       </c>
       <c r="M46" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(L46,6),EvaluationDate)</f>
@@ -12226,7 +12226,7 @@
       </c>
       <c r="H47" s="154">
         <f>SynthFra!G10</f>
-        <v>2E-3</v>
+        <v>2.1400000000000004E-3</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="136">
@@ -12234,7 +12234,7 @@
       </c>
       <c r="K47" s="19"/>
       <c r="L47" s="128">
-        <v>2E-3</v>
+        <v>2.1400000000000004E-3</v>
       </c>
       <c r="M47" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D47,ROUND(L47,6),EvaluationDate)</f>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="H48" s="154">
         <f>SynthFra!G11</f>
-        <v>2.0499999999999997E-3</v>
+        <v>2.2500000000000003E-3</v>
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="136">
@@ -12279,7 +12279,7 @@
       </c>
       <c r="K48" s="19"/>
       <c r="L48" s="128">
-        <v>2.0499999999999997E-3</v>
+        <v>2.2500000000000003E-3</v>
       </c>
       <c r="M48" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D48,ROUND(L48,6),EvaluationDate)</f>
@@ -12316,7 +12316,7 @@
       </c>
       <c r="H49" s="154">
         <f>SynthFra!G12</f>
-        <v>2.0899999999999998E-3</v>
+        <v>2.3599999999999997E-3</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="136">
@@ -12324,7 +12324,7 @@
       </c>
       <c r="K49" s="19"/>
       <c r="L49" s="128">
-        <v>2.0899999999999998E-3</v>
+        <v>2.3599999999999997E-3</v>
       </c>
       <c r="M49" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(L49,6),EvaluationDate)</f>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="H50" s="154">
         <f>SynthFra!G13</f>
-        <v>2.1600000000000005E-3</v>
+        <v>2.4800000000000004E-3</v>
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="136">
@@ -12369,7 +12369,7 @@
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="128">
-        <v>2.1600000000000005E-3</v>
+        <v>2.4800000000000004E-3</v>
       </c>
       <c r="M50" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D50,ROUND(L50,6),EvaluationDate)</f>
@@ -12406,7 +12406,7 @@
       </c>
       <c r="H51" s="154">
         <f>SynthFra!G14</f>
-        <v>2.2300000000000002E-3</v>
+        <v>2.6299999999999995E-3</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="136">
@@ -12414,7 +12414,7 @@
       </c>
       <c r="K51" s="19"/>
       <c r="L51" s="128">
-        <v>2.2300000000000002E-3</v>
+        <v>2.6299999999999995E-3</v>
       </c>
       <c r="M51" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(L51,6),EvaluationDate)</f>
@@ -12451,7 +12451,7 @@
       </c>
       <c r="H52" s="154">
         <f>SynthFra!G16</f>
-        <v>2.3912285942744075E-3</v>
+        <v>2.9154161716136539E-3</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="136">
@@ -12459,7 +12459,7 @@
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="128">
-        <v>2.3912285942744075E-3</v>
+        <v>2.9154161716136539E-3</v>
       </c>
       <c r="M52" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(L52,6),EvaluationDate)</f>
@@ -12496,7 +12496,7 @@
       </c>
       <c r="H53" s="154">
         <f>SynthFra!G17</f>
-        <v>2.4796682689471345E-3</v>
+        <v>3.072667660334811E-3</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="136">
@@ -12504,7 +12504,7 @@
       </c>
       <c r="K53" s="19"/>
       <c r="L53" s="128">
-        <v>2.4796682689471345E-3</v>
+        <v>3.072667660334811E-3</v>
       </c>
       <c r="M53" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(L53,6),EvaluationDate)</f>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="H54" s="154">
         <f>SynthFra!G18</f>
-        <v>2.5893258903927937E-3</v>
+        <v>3.229056330368667E-3</v>
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="136">
@@ -12549,7 +12549,7 @@
       </c>
       <c r="K54" s="19"/>
       <c r="L54" s="128">
-        <v>2.5893258903927937E-3</v>
+        <v>3.229056330368667E-3</v>
       </c>
       <c r="M54" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(L54,6),EvaluationDate)</f>
@@ -12586,7 +12586,7 @@
       </c>
       <c r="H55" s="154">
         <f>SynthFra!G19</f>
-        <v>2.694561378472171E-3</v>
+        <v>3.3966146101621275E-3</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="136">
@@ -12594,7 +12594,7 @@
       </c>
       <c r="K55" s="19"/>
       <c r="L55" s="128">
-        <v>2.694561378472171E-3</v>
+        <v>3.3966146101621275E-3</v>
       </c>
       <c r="M55" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(L55,6),EvaluationDate)</f>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="H56" s="154">
         <f>SynthFra!G20</f>
-        <v>2.8218283726608381E-3</v>
+        <v>3.5967000451229605E-3</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="136">
@@ -12639,7 +12639,7 @@
       </c>
       <c r="K56" s="19"/>
       <c r="L56" s="128">
-        <v>2.8218283726608381E-3</v>
+        <v>3.5967000451229605E-3</v>
       </c>
       <c r="M56" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D56,ROUND(L56,6),EvaluationDate)</f>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="H57" s="154">
         <f>SynthFra!G21</f>
-        <v>2.961117371348871E-3</v>
+        <v>3.7820581639375944E-3</v>
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="136">
@@ -12684,7 +12684,7 @@
       </c>
       <c r="K57" s="19"/>
       <c r="L57" s="128">
-        <v>2.961117371348871E-3</v>
+        <v>3.7820581639375944E-3</v>
       </c>
       <c r="M57" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D57,ROUND(L57,6),EvaluationDate)</f>
@@ -12721,7 +12721,7 @@
       </c>
       <c r="H58" s="154">
         <f>SynthFra!G22</f>
-        <v>3.0917190090483312E-3</v>
+        <v>3.9710670312247173E-3</v>
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="136">
@@ -12729,7 +12729,7 @@
       </c>
       <c r="K58" s="19"/>
       <c r="L58" s="128">
-        <v>3.0917190090483312E-3</v>
+        <v>3.9710670312247173E-3</v>
       </c>
       <c r="M58" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D58,ROUND(L58,6),EvaluationDate)</f>
@@ -12766,7 +12766,7 @@
       </c>
       <c r="H59" s="154">
         <f>SynthFra!G23</f>
-        <v>3.2423750665290527E-3</v>
+        <v>4.2180317011112538E-3</v>
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="136">
@@ -12774,7 +12774,7 @@
       </c>
       <c r="K59" s="19"/>
       <c r="L59" s="128">
-        <v>3.2423750665290527E-3</v>
+        <v>4.2180317011112538E-3</v>
       </c>
       <c r="M59" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D59,ROUND(L59,6),EvaluationDate)</f>
@@ -12811,7 +12811,7 @@
       </c>
       <c r="H60" s="154">
         <f>SynthFra!G24</f>
-        <v>3.3822192927254083E-3</v>
+        <v>4.4435800760123934E-3</v>
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="136">
@@ -12819,7 +12819,7 @@
       </c>
       <c r="K60" s="19"/>
       <c r="L60" s="128">
-        <v>3.3822192927254083E-3</v>
+        <v>4.4435800760123934E-3</v>
       </c>
       <c r="M60" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D60,ROUND(L60,6),EvaluationDate)</f>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="H61" s="154">
         <f>SynthFra!G25</f>
-        <v>3.5423264036804417E-3</v>
+        <v>4.6921045654283334E-3</v>
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="136">
@@ -12864,7 +12864,7 @@
       </c>
       <c r="K61" s="19"/>
       <c r="L61" s="128">
-        <v>3.5423264036804417E-3</v>
+        <v>4.6921045654283334E-3</v>
       </c>
       <c r="M61" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D61,ROUND(L61,6),EvaluationDate)</f>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="H62" s="154">
         <f>SynthFra!G26</f>
-        <v>3.7124652048947178E-3</v>
+        <v>4.9592574703317873E-3</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="136">
@@ -12909,7 +12909,7 @@
       </c>
       <c r="K62" s="19"/>
       <c r="L62" s="128">
-        <v>3.7124652048947178E-3</v>
+        <v>4.9592574703317873E-3</v>
       </c>
       <c r="M62" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D62,ROUND(L62,6),EvaluationDate)</f>
@@ -12946,7 +12946,7 @@
       </c>
       <c r="H63" s="156">
         <f>SynthFra!G27</f>
-        <v>3.9100000000000003E-3</v>
+        <v>5.2300000000000003E-3</v>
       </c>
       <c r="I63" s="19"/>
       <c r="J63" s="137">
@@ -12954,7 +12954,7 @@
       </c>
       <c r="K63" s="19"/>
       <c r="L63" s="130">
-        <v>3.9100000000000003E-3</v>
+        <v>5.2300000000000003E-3</v>
       </c>
       <c r="M63" s="131">
         <f>_xll.qlSimpleQuoteSetValue(D63,ROUND(L63,6),EvaluationDate)</f>

--- a/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
@@ -2030,7 +2030,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>49</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="7">
@@ -2345,28 +2345,16 @@
       <sheetData sheetId="28">
         <row r="6">
           <cell r="D6">
-            <v>42157</v>
+            <v>42158</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>42156</v>
+            <v>42157</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="29">
-        <row r="6">
-          <cell r="D6">
-            <v>42157</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>42156</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="30">
         <row r="6">
           <cell r="D6">
             <v>42158</v>
@@ -2375,6 +2363,18 @@
         <row r="7">
           <cell r="D7">
             <v>42157</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="30">
+        <row r="6">
+          <cell r="D6">
+            <v>42159</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>42158</v>
           </cell>
         </row>
       </sheetData>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="D17" s="8">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdjust(Calendar,EvaluationDate,"f",Trigger),"2D","f")</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="E17" s="212"/>
       <c r="G17" s="225"/>
@@ -2978,7 +2978,7 @@
         <v>21</v>
       </c>
       <c r="I17" s="233">
-        <v>42158.73951388889</v>
+        <v>42159.757060185184</v>
       </c>
       <c r="J17" s="111"/>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="I18" s="33">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42158</v>
+        <v>42159</v>
       </c>
       <c r="J18" s="111"/>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="D19" s="25" t="str">
         <f>_xll.qlInterpolation(,BasisInterpolation,'1YSynthDepo'!E5:E17,'1YSynthDepo'!I5:I17)</f>
-        <v>obj_005dd#0048</v>
+        <v>obj_005dd#0024</v>
       </c>
       <c r="E19" s="212"/>
       <c r="G19" s="225"/>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="I19" s="34">
         <f>[1]!TriggerCounter</f>
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J19" s="111"/>
     </row>
@@ -3181,7 +3181,7 @@
       <c r="B37" s="211"/>
       <c r="C37" s="26">
         <f>_xll.qlTermStructureReferenceDate(D34)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="D37" s="37">
         <f>_xll.qlYieldTSDiscount(D34,C37,,Trigger)</f>
@@ -3193,11 +3193,11 @@
       <c r="B38" s="211"/>
       <c r="C38" s="27">
         <f>_xll.qlTermStructureMaxDate(D34)</f>
-        <v>42374</v>
+        <v>42377</v>
       </c>
       <c r="D38" s="38">
         <f>_xll.qlYieldTSDiscount(D34,C38,,Trigger)</f>
-        <v>1.0003746866902303</v>
+        <v>1.0003746867120111</v>
       </c>
       <c r="E38" s="229"/>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="K3" s="310" t="str">
         <f>_xll.qlDepositRateHelper(,J3,K1,,Trigger)</f>
-        <v>obj_005c0#0000</v>
+        <v>obj_005c4#0000</v>
       </c>
       <c r="L3" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -3421,21 +3421,21 @@
       </c>
       <c r="R3" s="331">
         <f>SettlementDate</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="S3" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R3,Trigger)</f>
-        <v>42191</v>
+        <v>42193</v>
       </c>
       <c r="T3" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R3,Trigger),TRUE,AllTriggers)</f>
-        <v>-6.1000000000103083E-4</v>
+        <v>-6.2000000000139721E-4</v>
       </c>
       <c r="U3" s="239"/>
       <c r="V3" s="239"/>
       <c r="W3" s="190">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R3,Trigger)</f>
-        <v>5.7933786369105289E-4</v>
+        <v>5.7451089661331167E-4</v>
       </c>
       <c r="X3" s="239"/>
       <c r="Y3" s="239"/>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="AA3" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R3,,AllTriggers)</f>
-        <v>1.0000066667000043</v>
+        <v>1.0000111112116115</v>
       </c>
       <c r="AB3" s="257"/>
       <c r="AD3" s="277" t="s">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="K4" s="158" t="str">
         <f>_xll.qlSwapRateHelper2(,$J4,,C4,Calendar,$F4,$G4,$H4,$K$1,$I4,B4,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00597#0000</v>
+        <v>obj_00598#0000</v>
       </c>
       <c r="L4" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -3514,35 +3514,35 @@
       </c>
       <c r="R4" s="294">
         <f>SettlementDate</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="S4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R4,Trigger)</f>
-        <v>42191</v>
+        <v>42193</v>
       </c>
       <c r="T4" s="190">
         <f>_xll.qlQuoteValue(Q4,LastFixingsTrigger)</f>
-        <v>-6.0999999999999997E-4</v>
+        <v>-6.2E-4</v>
       </c>
       <c r="U4" s="190">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R4),,AllTriggers)</f>
-        <v>-1.1893378636920837E-3</v>
+        <v>-1.1945108966147089E-3</v>
       </c>
       <c r="V4" s="258">
         <f>T4-U4</f>
-        <v>5.7933786369208375E-4</v>
+        <v>5.7451089661470888E-4</v>
       </c>
       <c r="W4" s="186">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R4,Trigger)</f>
-        <v>5.7933786369105289E-4</v>
+        <v>5.7451089661331167E-4</v>
       </c>
       <c r="X4" s="187">
         <f>Y4*10000</f>
-        <v>1.0308594255992176E-11</v>
+        <v>1.3972113396820696E-11</v>
       </c>
       <c r="Y4" s="278">
         <f>V4-W4</f>
-        <v>1.0308594255992176E-15</v>
+        <v>1.3972113396820696E-15</v>
       </c>
       <c r="Z4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R4,,,Trigger)</f>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="AA4" s="336">
         <f>_xll.qlYieldTSDiscount(Discounting,R4,,AllTriggers)</f>
-        <v>1.0000066667000043</v>
+        <v>1.0000111112116115</v>
       </c>
       <c r="AB4" s="241" t="b">
         <v>0</v>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="K5" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,,C5,Calendar,$F5,$G5,$H5,$K$1,$I5,B5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00598#0000</v>
+        <v>obj_0059c#0000</v>
       </c>
       <c r="L5" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -3617,27 +3617,27 @@
       </c>
       <c r="R5" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N5&amp;"M","mf",,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="S5" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R5,Trigger)</f>
-        <v>42191</v>
+        <v>42193</v>
       </c>
       <c r="T5" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R5,Trigger),TRUE,AllTriggers)</f>
-        <v>-6.1000000000103083E-4</v>
+        <v>-6.2000000000139721E-4</v>
       </c>
       <c r="U5" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R5),,AllTriggers)</f>
-        <v>-1.1893378636920837E-3</v>
+        <v>-1.1945108966147089E-3</v>
       </c>
       <c r="V5" s="265">
         <f>T5-U5</f>
-        <v>5.7933786369105289E-4</v>
+        <v>5.7451089661331167E-4</v>
       </c>
       <c r="W5" s="67">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R5,Trigger)</f>
-        <v>5.7933786369105289E-4</v>
+        <v>5.7451089661331167E-4</v>
       </c>
       <c r="X5" s="240">
         <f>Y5*10000</f>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="AA5" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R5,,AllTriggers)</f>
-        <v>1.0000066667000043</v>
+        <v>1.0000111112116115</v>
       </c>
       <c r="AB5" s="241" t="b">
         <v>1</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="K6" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,,C6,Calendar,$F6,$G6,$H6,$K$1,$I6,B6,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059a#0000</v>
+        <v>obj_00599#0000</v>
       </c>
       <c r="L6" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -3722,27 +3722,27 @@
       </c>
       <c r="R6" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N6&amp;"M","mf",,Trigger)</f>
-        <v>42191</v>
+        <v>42193</v>
       </c>
       <c r="S6" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R6,Trigger)</f>
-        <v>42222</v>
+        <v>42226</v>
       </c>
       <c r="T6" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R6,Trigger),TRUE,AllTriggers)</f>
-        <v>-7.1282420212546234E-4</v>
+        <v>-7.1551957077854353E-4</v>
       </c>
       <c r="U6" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R6),,AllTriggers)</f>
-        <v>-1.251363903573116E-3</v>
+        <v>-1.2585546559221426E-3</v>
       </c>
       <c r="V6" s="265">
         <f>T6-U6</f>
-        <v>5.3853970144765364E-4</v>
+        <v>5.4303508514359907E-4</v>
       </c>
       <c r="W6" s="62">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R6,Trigger)</f>
-        <v>5.3853970144765353E-4</v>
+        <v>5.4303508514359918E-4</v>
       </c>
       <c r="X6" s="188">
         <f t="shared" ref="X6:X8" si="1">Y6*10000</f>
@@ -3754,11 +3754,11 @@
       </c>
       <c r="Z6" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R6,,,Trigger)</f>
-        <v>8.4931506849315067E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="AA6" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R6,,AllTriggers)</f>
-        <v>1.0001090930777232</v>
+        <v>1.0001106648021887</v>
       </c>
       <c r="AB6" s="237" t="b">
         <v>1</v>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="AE6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($Z$5:$Z$8,$AB$5:$AB$8),_xll.ohFilter($V$5:$V$8,$AB$5:$AB$8),_xll.ohFilter($AA$5:$AA$8,$AB$5:$AB$8),_xll.ohFilter(AG13:AG17,AF13:AF17),,,,,Trigger)</f>
-        <v>obj_005e0#0048</v>
+        <v>obj_005de#0024</v>
       </c>
       <c r="AF6" s="54"/>
       <c r="AG6" s="55"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K7" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,,C7,Calendar,$F7,$G7,$H7,$K$1,$I7,B7,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00599#0000</v>
+        <v>obj_0059a#0000</v>
       </c>
       <c r="L7" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -3830,27 +3830,27 @@
       </c>
       <c r="R7" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N7&amp;"M","mf",,Trigger)</f>
-        <v>42221</v>
+        <v>42226</v>
       </c>
       <c r="S7" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R7,Trigger)</f>
-        <v>42254</v>
+        <v>42257</v>
       </c>
       <c r="T7" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R7,Trigger),TRUE,AllTriggers)</f>
-        <v>-7.456017740039365E-4</v>
+        <v>-7.6112488975690624E-4</v>
       </c>
       <c r="U7" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R7),,AllTriggers)</f>
-        <v>-1.316499709901432E-3</v>
+        <v>-1.3125535425984763E-3</v>
       </c>
       <c r="V7" s="265">
         <f>T7-U7</f>
-        <v>5.7089793589749547E-4</v>
+        <v>5.5142865284157005E-4</v>
       </c>
       <c r="W7" s="62">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R7,Trigger)</f>
-        <v>5.7089793589749558E-4</v>
+        <v>5.5142865284157016E-4</v>
       </c>
       <c r="X7" s="188">
         <f t="shared" si="1"/>
@@ -3862,11 +3862,11 @@
       </c>
       <c r="Z7" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R7,,,Trigger)</f>
-        <v>0.16712328767123288</v>
+        <v>0.17260273972602741</v>
       </c>
       <c r="AA7" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R7,,AllTriggers)</f>
-        <v>1.0002131875539613</v>
+        <v>1.0002260583921088</v>
       </c>
       <c r="AB7" s="237" t="b">
         <v>1</v>
@@ -3875,7 +3875,7 @@
         <v>127</v>
       </c>
       <c r="AE7" s="282" t="b">
-        <f>_xll.qlPolynomialCalibrationCompute($AE$6)</f>
+        <f>_xll.qlPolynomialCalibrationCompute($AE$6,AllTriggers)</f>
         <v>1</v>
       </c>
       <c r="AF7" s="54"/>
@@ -3938,27 +3938,27 @@
       </c>
       <c r="R8" s="332">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N8&amp;"M","mf",,Trigger)</f>
-        <v>42254</v>
+        <v>42255</v>
       </c>
       <c r="S8" s="332">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R8,Trigger)</f>
-        <v>42284</v>
+        <v>42285</v>
       </c>
       <c r="T8" s="65">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R8,Trigger),TRUE,AllTriggers)</f>
-        <v>-6.8694351185794034E-4</v>
+        <v>-7.002275399488056E-4</v>
       </c>
       <c r="U8" s="65">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R8),,AllTriggers)</f>
-        <v>-1.281663742396244E-3</v>
+        <v>-1.2719624587398393E-3</v>
       </c>
       <c r="V8" s="260">
         <f>T8-U8</f>
-        <v>5.947202305383037E-4</v>
+        <v>5.7173491879103366E-4</v>
       </c>
       <c r="W8" s="65">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R8,Trigger)</f>
-        <v>5.9472023053830402E-4</v>
+        <v>5.7173491879103366E-4</v>
       </c>
       <c r="X8" s="189">
         <f t="shared" si="1"/>
@@ -3970,11 +3970,11 @@
       </c>
       <c r="Z8" s="60">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R8,,,Trigger)</f>
-        <v>0.25753424657534246</v>
+        <v>0.25205479452054796</v>
       </c>
       <c r="AA8" s="60">
         <f>_xll.qlYieldTSDiscount(Discounting,R8,,AllTriggers)</f>
-        <v>1.000333906989644</v>
+        <v>1.0003318671850669</v>
       </c>
       <c r="AB8" s="238" t="b">
         <v>1</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="AE8" s="282" t="str">
         <f>_xll.qlPolynomialCalibrationEndCriteria(AE6,)</f>
-        <v>StationaryFunctionValue</v>
+        <v>None</v>
       </c>
       <c r="AF8" s="54"/>
       <c r="AG8" s="55"/>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="K9" s="162" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,,C9,Calendar,$F9,$G9,$H9,$K$1,$I9,B9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059c#0000</v>
+        <v>obj_00597#0000</v>
       </c>
       <c r="L9" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="AE9" s="190">
         <f>_xll.qlPolynomialCalibrationError(AE6,)</f>
-        <v>2.0762310571429667E-19</v>
+        <v>5.0555231468282793E-5</v>
       </c>
       <c r="AF9" s="54"/>
       <c r="AG9" s="55"/>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="AE10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(AE6,)</f>
-        <v>3.2526065174565133E-19</v>
+        <v>6.4126947188822346E-5</v>
       </c>
       <c r="AF10" s="54"/>
       <c r="AG10" s="55"/>
@@ -4084,15 +4084,15 @@
       </c>
       <c r="T11" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="U11" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S11,"Following",,Trigger)</f>
-        <v>42163</v>
+        <v>42164</v>
       </c>
       <c r="V11" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T11,U11,AllTriggers)</f>
-        <v>-5.8082196471076486E-4</v>
+        <v>-5.9043666484015489E-4</v>
       </c>
       <c r="AD11" s="54"/>
       <c r="AE11" s="54"/>
@@ -4127,15 +4127,15 @@
       </c>
       <c r="T12" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="U12" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S12,"Following",,Trigger)</f>
-        <v>42167</v>
+        <v>42170</v>
       </c>
       <c r="V12" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T12,U12,AllTriggers)</f>
-        <v>-5.9187099444381525E-4</v>
+        <v>-5.9885151029488118E-4</v>
       </c>
       <c r="AD12" s="261" t="s">
         <v>111</v>
@@ -4151,7 +4151,7 @@
     <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="309" t="str">
         <f t="array" ref="G13:G21">_xll.ohFilter(K3:K9,M3:M9)</f>
-        <v>obj_005c0#0000</v>
+        <v>obj_005c4#0000</v>
       </c>
       <c r="H13" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G13,Trigger)</f>
@@ -4167,36 +4167,36 @@
       </c>
       <c r="K13" s="329">
         <f>_xll.qlRateHelperEarliestDate(G13,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="L13" s="329">
         <f>_xll.qlRateHelperLatestDate(G13,Trigger)</f>
-        <v>42191</v>
+        <v>42193</v>
       </c>
       <c r="M13" s="196">
-        <v>1.0000525305370902</v>
+        <v>1.0000516693362491</v>
       </c>
       <c r="S13" s="63" t="s">
         <v>40</v>
       </c>
       <c r="T13" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="U13" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S13,"Following",,Trigger)</f>
-        <v>42174</v>
+        <v>42177</v>
       </c>
       <c r="V13" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T13,U13,AllTriggers)</f>
-        <v>-5.7876069573716189E-4</v>
+        <v>-5.8752678013267764E-4</v>
       </c>
       <c r="AD13" s="277" t="s">
         <v>113</v>
       </c>
       <c r="AE13" s="190">
-        <f t="array" ref="AE13:AE17">_xll.qlPolynomialCalibrationCoefficients($AE$6,$AE$6)</f>
-        <v>5.7933786369105289E-4</v>
+        <f t="array" ref="AE13:AE17">_xll.qlPolynomialCalibrationCoefficients($AE$6,AE7)</f>
+        <v>5.7451089661331167E-4</v>
       </c>
       <c r="AF13" s="190" t="b">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G14" s="202" t="str">
-        <v>obj_00597#0000</v>
+        <v>obj_00598#0000</v>
       </c>
       <c r="H14" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G14,Trigger)</f>
@@ -4223,35 +4223,35 @@
       </c>
       <c r="K14" s="329">
         <f>_xll.qlRateHelperEarliestDate(G14,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="L14" s="329">
         <f>_xll.qlRateHelperLatestDate(G14,Trigger)</f>
-        <v>42221</v>
+        <v>42226</v>
       </c>
       <c r="M14" s="196">
-        <v>1.0001118481931626</v>
+        <v>1.0001172663216524</v>
       </c>
       <c r="S14" s="63" t="s">
         <v>41</v>
       </c>
       <c r="T14" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="U14" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S14,"Following",,Trigger)</f>
-        <v>42181</v>
+        <v>42184</v>
       </c>
       <c r="V14" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T14,U14,AllTriggers)</f>
-        <v>-5.9272830149202454E-4</v>
+        <v>-6.0502935140022932E-4</v>
       </c>
       <c r="AD14" s="277" t="s">
         <v>114</v>
       </c>
       <c r="AE14" s="190">
-        <v>-1.2543875443594731E-3</v>
+        <v>-7.1075059440715903E-4</v>
       </c>
       <c r="AF14" s="190" t="b">
         <v>1</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G15" s="202" t="str">
-        <v>obj_00598#0000</v>
+        <v>obj_0059c#0000</v>
       </c>
       <c r="H15" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G15,Trigger)</f>
@@ -4278,35 +4278,35 @@
       </c>
       <c r="K15" s="329">
         <f>_xll.qlRateHelperEarliestDate(G15,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="L15" s="329">
         <f>_xll.qlRateHelperLatestDate(G15,Trigger)</f>
-        <v>42254</v>
+        <v>42255</v>
       </c>
       <c r="M15" s="196">
-        <v>1.0001802073390464</v>
+        <v>1.0001789286436884</v>
       </c>
       <c r="S15" s="267" t="s">
         <v>35</v>
       </c>
       <c r="T15" s="276">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="U15" s="337">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S15,"mf",TRUE,Trigger)</f>
-        <v>42191</v>
+        <v>42193</v>
       </c>
       <c r="V15" s="338">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T15,U15,AllTriggers)</f>
-        <v>-6.1743165474681752E-4</v>
+        <v>-6.2758270029439345E-4</v>
       </c>
       <c r="AD15" s="277" t="s">
         <v>115</v>
       </c>
       <c r="AE15" s="190">
-        <v>1.1087052969944142E-2</v>
+        <v>4.5746420303168422E-3</v>
       </c>
       <c r="AF15" s="190" t="b">
         <v>1</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="202" t="str">
-        <v>obj_0059a#0000</v>
+        <v>obj_00599#0000</v>
       </c>
       <c r="H16" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G16,Trigger)</f>
@@ -4333,20 +4333,20 @@
       </c>
       <c r="K16" s="329">
         <f>_xll.qlRateHelperEarliestDate(G16,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="L16" s="329">
         <f>_xll.qlRateHelperLatestDate(G16,Trigger)</f>
-        <v>42282</v>
+        <v>42285</v>
       </c>
       <c r="M16" s="196">
-        <v>1.0002339044989244</v>
+        <v>1.0002372947853795</v>
       </c>
       <c r="AD16" s="277" t="s">
         <v>116</v>
       </c>
       <c r="AE16" s="190">
-        <v>-2.3237161279127921E-2</v>
+        <v>-7.1353958361635916E-3</v>
       </c>
       <c r="AF16" s="190" t="b">
         <v>1</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="17" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="202" t="str">
-        <v>obj_00599#0000</v>
+        <v>obj_0059a#0000</v>
       </c>
       <c r="H17" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G17,Trigger)</f>
@@ -4373,14 +4373,14 @@
       </c>
       <c r="K17" s="329">
         <f>_xll.qlRateHelperEarliestDate(G17,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="L17" s="329">
         <f>_xll.qlRateHelperLatestDate(G17,Trigger)</f>
-        <v>42313</v>
+        <v>42317</v>
       </c>
       <c r="M17" s="196">
-        <v>1.0002891126864983</v>
+        <v>1.000299563311839</v>
       </c>
       <c r="AD17" s="277" t="s">
         <v>117</v>
@@ -4413,28 +4413,28 @@
       </c>
       <c r="K18" s="329">
         <f>_xll.qlRateHelperEarliestDate(G18,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="L18" s="329">
         <f>_xll.qlRateHelperLatestDate(G18,Trigger)</f>
-        <v>42345</v>
+        <v>42346</v>
       </c>
       <c r="M18" s="196">
-        <v>1.0003547518051366</v>
+        <v>1.000361089009117</v>
       </c>
       <c r="AD18" s="277" t="s">
         <v>118</v>
       </c>
       <c r="AE18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$S1,Discounting,SettlementDate,TRUE,_xll.ohFilter(AE13:AE17,AF13:AF17),,Trigger)</f>
-        <v>obj_00842#0035</v>
+        <v>obj_005e3#0023</v>
       </c>
       <c r="AF18" s="54"/>
       <c r="AG18" s="55"/>
     </row>
     <row r="19" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G19" s="202" t="str">
-        <v>obj_0059c#0000</v>
+        <v>obj_00597#0000</v>
       </c>
       <c r="H19" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G19,Trigger)</f>
@@ -4450,14 +4450,14 @@
       </c>
       <c r="K19" s="329">
         <f>_xll.qlRateHelperEarliestDate(G19,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="L19" s="329">
         <f>_xll.qlRateHelperLatestDate(G19,Trigger)</f>
-        <v>42374</v>
+        <v>42377</v>
       </c>
       <c r="M19" s="196">
-        <v>1.0003925463393821</v>
+        <v>1.000410394120663</v>
       </c>
       <c r="X19" s="54"/>
       <c r="Y19" s="54"/>
@@ -4680,21 +4680,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42254</v>
+        <v>42255</v>
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>-7.5316707330642593E-5</v>
+        <v>-1.1736446947011449E-4</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>1.1775256435781487E-3</v>
+        <v>1.1373512016151796E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="283">
@@ -4730,31 +4730,31 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
-        <v>42345</v>
+        <v>42346</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>-1.3999999999999999E-4</v>
+        <v>-1.3000000000000002E-4</v>
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E4),,AllTriggers)</f>
-        <v>-1.2528423509087913E-3</v>
+        <v>-1.2547156710852941E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>1.1128423509087913E-3</v>
+        <v>1.1247156710852942E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>1.1775256435781487E-3</v>
+        <v>1.1373512016151796E-3</v>
       </c>
       <c r="K4" s="187">
         <f>M4*10000</f>
-        <v>-0.6468329266935734</v>
+        <v>-0.12635530529885422</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -4762,11 +4762,11 @@
       </c>
       <c r="M4" s="278">
         <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>-6.468329266935734E-5</v>
+        <v>-1.2635530529885421E-5</v>
       </c>
       <c r="N4" s="281">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000066667000043</v>
+        <v>1.0000111112116115</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>0</v>
@@ -4790,43 +4790,43 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42191</v>
+        <v>42193</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
-        <v>42375</v>
+        <v>42377</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>-4.9999999999999996E-5</v>
+        <v>-6.0000000000000002E-5</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E5),,AllTriggers)</f>
-        <v>-1.2830668792568577E-3</v>
+        <v>-1.2799660304352312E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" si="0"/>
-        <v>1.2330668792568578E-3</v>
+        <v>1.2199660304352312E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>1.2282383897058507E-3</v>
+        <v>1.1853752726288034E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>4.8284895510070612E-2</v>
+        <v>0.34590757806427774</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.4931506849315067E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="M5" s="279">
         <f t="shared" si="1"/>
-        <v>4.8284895510070612E-6</v>
+        <v>3.4590757806427777E-5</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001090930777232</v>
+        <v>1.0001106648021887</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>0</v>
@@ -4855,43 +4855,43 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42221</v>
+        <v>42226</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
-        <v>42405</v>
+        <v>42410</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>1.0000000000000009E-5</v>
+        <v>-1.0000000000000009E-5</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E6),,AllTriggers)</f>
-        <v>-1.2894354805701254E-3</v>
+        <v>-1.2992983497784256E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="0"/>
-        <v>1.2994354805701254E-3</v>
+        <v>1.2892983497784255E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>1.2698186206950759E-3</v>
+        <v>1.230172166130715E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>0.29616859875049523</v>
+        <v>0.59126183647710595</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.16712328767123288</v>
+        <v>0.17260273972602741</v>
       </c>
       <c r="M6" s="234">
         <f t="shared" si="1"/>
-        <v>2.9616859875049523E-5</v>
+        <v>5.9126183647710594E-5</v>
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002131875539613</v>
+        <v>1.0002260583921088</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>0</v>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_00841#0046</v>
+        <v>obj_00844#0022</v>
       </c>
       <c r="T6" s="55"/>
       <c r="X6" s="57"/>
@@ -4924,43 +4924,43 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42254</v>
+        <v>42255</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
-        <v>42436</v>
+        <v>42437</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>3.9999999999999983E-5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E7),,AllTriggers)</f>
-        <v>-1.2711927887578056E-3</v>
+        <v>-1.2934759462484332E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="0"/>
-        <v>1.3111927887578055E-3</v>
+        <v>1.2934759462484332E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>1.3076465253435768E-3</v>
+        <v>1.2630991130362958E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>3.5462634142286856E-2</v>
+        <v>0.3037683321213745</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
-        <v>0.25753424657534246</v>
+        <v>0.25205479452054796</v>
       </c>
       <c r="M7" s="234">
         <f t="shared" si="1"/>
-        <v>3.5462634142286852E-6</v>
+        <v>3.0376833212137451E-5</v>
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.000333906989644</v>
+        <v>1.0003318671850669</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="R7" s="282" t="b">
-        <f>_xll.qlPolynomialCalibrationCompute($R$6)</f>
+        <f>_xll.qlPolynomialCalibrationCompute($R$6,AllTriggers)</f>
         <v>1</v>
       </c>
       <c r="T7" s="55"/>
@@ -4993,31 +4993,31 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42282</v>
+        <v>42285</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E8)</f>
-        <v>42465</v>
+        <v>42468</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>8.9999999999999979E-5</v>
+        <v>3.9999999999999983E-5</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E8),,AllTriggers)</f>
-        <v>-1.1956350904227821E-3</v>
+        <v>-1.2428793081029428E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="0"/>
-        <v>1.2856350904227821E-3</v>
+        <v>1.2828793081029427E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>1.333726401158732E-3</v>
+        <v>1.2913181650166697E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>-0.48091310735949883</v>
+        <v>-8.4388569137269775E-2</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
@@ -5025,11 +5025,11 @@
       </c>
       <c r="M8" s="234">
         <f t="shared" si="1"/>
-        <v>-4.8091310735949881E-5</v>
+        <v>-8.4388569137269775E-6</v>
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004335031961453</v>
+        <v>1.0004379104737688</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>0</v>
@@ -5062,43 +5062,43 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42313</v>
+        <v>42317</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
-        <v>42495</v>
+        <v>42499</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>1.2999999999999999E-4</v>
+        <v>7.9999999999999979E-5</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E9),,AllTriggers)</f>
-        <v>-1.2059132620517964E-3</v>
+        <v>-1.2433280090124142E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="0"/>
-        <v>1.3359132620517963E-3</v>
+        <v>1.3233280090124142E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>1.3566798376002326E-3</v>
+        <v>1.3154190963221551E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>-0.20766575548436356</v>
+        <v>7.9089126902591372E-2</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.41917808219178082</v>
+        <v>0.42191780821917807</v>
       </c>
       <c r="M9" s="234">
         <f t="shared" si="1"/>
-        <v>-2.0766575548436354E-5</v>
+        <v>7.9089126902591369E-6</v>
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005428888485881</v>
+        <v>1.0005545597248136</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>0</v>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>9.1330137921664169E-5</v>
+        <v>9.0835833190229179E-5</v>
       </c>
       <c r="T9" s="55"/>
       <c r="X9" s="57"/>
@@ -5131,43 +5131,43 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42345</v>
+        <v>42346</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
-        <v>42528</v>
+        <v>42529</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>1.7999999999999998E-4</v>
+        <v>1.1999999999999999E-4</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E10),,AllTriggers)</f>
-        <v>-1.166525899309073E-3</v>
+        <v>-1.2012494672821216E-3</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="0"/>
-        <v>1.3465258993090731E-3</v>
+        <v>1.3212494672821215E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>1.3744168183358414E-3</v>
+        <v>1.332402060481094E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>-0.27890919026768346</v>
+        <v>-0.11152593198972532</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50684931506849318</v>
+        <v>0.50136986301369868</v>
       </c>
       <c r="M10" s="234">
         <f t="shared" si="1"/>
-        <v>-2.7890919026768348E-5</v>
+        <v>-1.1152593198972532E-5</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006554468921967</v>
+        <v>1.0006590446429069</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>0</v>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>1.946664469327391E-4</v>
+        <v>1.1840412657839979E-4</v>
       </c>
       <c r="T10" s="55"/>
       <c r="X10" s="57"/>
@@ -5205,35 +5205,35 @@
       </c>
       <c r="G11" s="67">
         <f>1-_xll.qlQuoteValue(D11,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C11&amp;"ConvAdj_Quote")</f>
-        <v>-7.4999999999825206E-5</v>
+        <v>-1.2499999999993072E-4</v>
       </c>
       <c r="H11" s="67">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E11),,AllTriggers)</f>
-        <v>-1.2678736618839622E-3</v>
+        <v>-1.2660080829982408E-3</v>
       </c>
       <c r="I11" s="280">
         <f t="shared" si="0"/>
-        <v>1.192873661884137E-3</v>
+        <v>1.14100808299831E-3</v>
       </c>
       <c r="J11" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>1.1981250498955905E-3</v>
+        <v>1.1525194985213846E-3</v>
       </c>
       <c r="K11" s="240">
         <f t="shared" si="4"/>
-        <v>-5.2513880114534325E-2</v>
+        <v>-0.11511415523074572</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>3.287671232876712E-2</v>
+        <v>2.4657534246575342E-2</v>
       </c>
       <c r="M11" s="279">
         <f t="shared" si="1"/>
-        <v>-5.2513880114534329E-6</v>
+        <v>-1.1511415523074572E-5</v>
       </c>
       <c r="N11" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0000461685747972</v>
+        <v>1.0000406402405491</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -5264,35 +5264,35 @@
       </c>
       <c r="G12" s="62">
         <f>1-_xll.qlQuoteValue(D12,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C12&amp;"ConvAdj_Quote")</f>
-        <v>-4.9999999999883471E-5</v>
+        <v>-7.4999999999825206E-5</v>
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E12),,AllTriggers)</f>
-        <v>-1.2833495849895943E-3</v>
+        <v>-1.2794790482033001E-3</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="0"/>
-        <v>1.2333495849897109E-3</v>
+        <v>1.2044790482034749E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>1.241463245449947E-3</v>
+        <v>1.1955600417313363E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>-8.1136604602361106E-2</v>
+        <v>8.9190064721386075E-2</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
-        <v>0.1095890410958904</v>
+        <v>0.10136986301369863</v>
       </c>
       <c r="M12" s="234">
         <f t="shared" si="1"/>
-        <v>-8.1136604602361113E-6</v>
+        <v>8.9190064721386079E-6</v>
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0001416634364066</v>
+        <v>1.0001359548980997</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -5332,35 +5332,35 @@
       </c>
       <c r="G13" s="62">
         <f>1-_xll.qlQuoteValue(D13,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C13&amp;"ConvAdj_Quote")</f>
-        <v>7.4999999999936229E-5</v>
+        <v>-2.4999999999941735E-5</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E13),,AllTriggers)</f>
-        <v>-1.2778238652171633E-3</v>
+        <v>-1.3014906239984724E-3</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="0"/>
-        <v>1.3528238652170995E-3</v>
+        <v>1.2764906239985307E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>1.316609417981346E-3</v>
+        <v>1.2711853708794602E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>0.3621444723575355</v>
+        <v>5.3052531190705618E-2</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
-        <v>0.28219178082191781</v>
+        <v>0.27397260273972601</v>
       </c>
       <c r="M13" s="234">
         <f t="shared" si="1"/>
-        <v>3.6214447235753547E-5</v>
+        <v>5.3052531190705618E-6</v>
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0003666728733038</v>
+        <v>1.0003606975574753</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -5369,8 +5369,8 @@
         <v>113</v>
       </c>
       <c r="R13" s="190">
-        <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,)</f>
-        <v>1.1775256435781487E-3</v>
+        <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
+        <v>1.1373512016151796E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -5403,35 +5403,35 @@
       </c>
       <c r="G14" s="62">
         <f>1-_xll.qlQuoteValue(D14,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C14&amp;"ConvAdj_Quote")</f>
-        <v>1.7500000000003624E-4</v>
+        <v>1.4999999999998348E-4</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E14),,AllTriggers)</f>
-        <v>-1.1693788233335667E-3</v>
+        <v>-1.2009812777807455E-3</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>1.3443788233336029E-3</v>
+        <v>1.350981277780729E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>1.378397447033665E-3</v>
+        <v>1.3363363244019988E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>-0.34018623700062106</v>
+        <v>0.14644953378730199</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.53150684931506853</v>
+        <v>0.52328767123287667</v>
       </c>
       <c r="M14" s="234">
         <f t="shared" si="1"/>
-        <v>-3.4018623700062109E-5</v>
+        <v>1.46449533787302E-5</v>
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0006899011922086</v>
+        <v>1.0006899124380577</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>6.4559510975873043E-4</v>
+        <v>6.2868735994365502E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -5472,35 +5472,35 @@
       </c>
       <c r="G15" s="62">
         <f>1-_xll.qlQuoteValue(D15,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C15&amp;"ConvAdj_Quote")</f>
-        <v>3.2500000000001972E-4</v>
+        <v>2.7500000000002522E-4</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E15),,AllTriggers)</f>
-        <v>-1.082086628271685E-3</v>
+        <v>-1.0530182213731925E-3</v>
       </c>
       <c r="I15" s="265">
         <f t="shared" si="0"/>
-        <v>1.4070866282717047E-3</v>
+        <v>1.3280182213732178E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>1.3975167088186573E-3</v>
+        <v>1.3617560917457393E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>9.5699194530474069E-2</v>
+        <v>-0.337378703725215</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.78082191780821919</v>
+        <v>0.77260273972602744</v>
       </c>
       <c r="M15" s="234">
         <f t="shared" si="1"/>
-        <v>9.5699194530474065E-6</v>
+        <v>-3.3737870372521498E-5</v>
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.000985785563844</v>
+        <v>1.0009937955144201</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -5509,7 +5509,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>-5.837840385730219E-4</v>
+        <v>-5.5231727265848745E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -5545,31 +5545,31 @@
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E16),,AllTriggers)</f>
-        <v>-9.1472414133947604E-4</v>
+        <v>-9.028799615529643E-4</v>
       </c>
       <c r="I16" s="265">
         <f t="shared" si="0"/>
-        <v>1.3897241413394794E-3</v>
+        <v>1.3778799615529675E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>1.3879947751024341E-3</v>
+        <v>1.3612284055674203E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>1.729366237045258E-2</v>
+        <v>0.1665155598554722</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
-        <v>1.0301369863013699</v>
+        <v>1.021917808219178</v>
       </c>
       <c r="M16" s="234">
         <f t="shared" si="1"/>
-        <v>1.729366237045258E-6</v>
+        <v>1.665155598554722E-5</v>
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0012597695619512</v>
+        <v>1.0012603889303364</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -5578,7 +5578,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>1.5086401628980001E-4</v>
+        <v>1.4824157043946009E-4</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -5614,31 +5614,31 @@
       </c>
       <c r="H17" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E17),,AllTriggers)</f>
-        <v>-7.022035106791707E-4</v>
+        <v>-6.3984893502863106E-4</v>
       </c>
       <c r="I17" s="265">
         <f t="shared" si="0"/>
-        <v>1.4772035106791408E-3</v>
+        <v>1.4148489350286012E-3</v>
       </c>
       <c r="J17" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>1.3617995854490555E-3</v>
+        <v>1.3474521686504316E-3</v>
       </c>
       <c r="K17" s="188">
         <f t="shared" si="4"/>
-        <v>1.1540392523008529</v>
+        <v>0.67396766378169637</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>1.2986301369863014</v>
+        <v>1.2904109589041095</v>
       </c>
       <c r="M17" s="234">
         <f t="shared" si="1"/>
-        <v>1.1540392523008529E-4</v>
+        <v>6.7396766378169642E-5</v>
       </c>
       <c r="N17" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0015070157664578</v>
+        <v>1.0015040607956092</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -5679,35 +5679,35 @@
       </c>
       <c r="G18" s="62">
         <f>1-_xll.qlQuoteValue(D18,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C18&amp;"ConvAdj_Quote")</f>
-        <v>1.1750000000000371E-3</v>
+        <v>1.2000000000000899E-3</v>
       </c>
       <c r="H18" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E18),,AllTriggers)</f>
-        <v>-2.9885435772403213E-4</v>
+        <v>-2.2373818386567379E-4</v>
       </c>
       <c r="I18" s="265">
         <f t="shared" si="0"/>
-        <v>1.4738543577240693E-3</v>
+        <v>1.4237381838657637E-3</v>
       </c>
       <c r="J18" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>1.3376139187906604E-3</v>
+        <v>1.3370763135277092E-3</v>
       </c>
       <c r="K18" s="188">
         <f t="shared" si="4"/>
-        <v>1.3624043893340887</v>
+        <v>0.86661870338054481</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
-        <v>1.547945205479452</v>
+        <v>1.5397260273972602</v>
       </c>
       <c r="M18" s="234">
         <f t="shared" si="1"/>
-        <v>1.3624043893340886E-4</v>
+        <v>8.6661870338054477E-5</v>
       </c>
       <c r="N18" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.0016848162667535</v>
+        <v>1.0016660698569779</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="R18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_00843#0029</v>
+        <v>obj_00845#0022</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -5744,35 +5744,35 @@
       </c>
       <c r="G19" s="62">
         <f>1-_xll.qlQuoteValue(D19,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C19&amp;"ConvAdj_Quote")</f>
-        <v>1.6750000000000931E-3</v>
+        <v>1.7249999999999766E-3</v>
       </c>
       <c r="H19" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E19),,AllTriggers)</f>
-        <v>1.2576151015792516E-4</v>
+        <v>1.9609339663789993E-4</v>
       </c>
       <c r="I19" s="265">
         <f t="shared" si="0"/>
-        <v>1.549238489842168E-3</v>
+        <v>1.5289066033620767E-3</v>
       </c>
       <c r="J19" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>1.3278575186075748E-3</v>
+        <v>1.3417979524674895E-3</v>
       </c>
       <c r="K19" s="188">
         <f t="shared" si="4"/>
-        <v>2.2138097123459315</v>
+        <v>1.8710865089458721</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
-        <v>1.7780821917808218</v>
+        <v>1.7698630136986302</v>
       </c>
       <c r="M19" s="234">
         <f t="shared" si="1"/>
-        <v>2.2138097123459315E-4</v>
+        <v>1.8710865089458721E-4</v>
       </c>
       <c r="N19" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0017568865164084</v>
+        <v>1.0017206050325747</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -5802,35 +5802,35 @@
       </c>
       <c r="G20" s="62">
         <f>1-_xll.qlQuoteValue(D20,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C20&amp;"ConvAdj_Quote")</f>
-        <v>2.3250000000000215E-3</v>
+        <v>2.2999999999998577E-3</v>
       </c>
       <c r="H20" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E20),,AllTriggers)</f>
-        <v>7.2261987182976471E-4</v>
+        <v>7.4066595276283027E-4</v>
       </c>
       <c r="I20" s="265">
         <f t="shared" si="0"/>
-        <v>1.6023801281702568E-3</v>
+        <v>1.5593340472370276E-3</v>
       </c>
       <c r="J20" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>1.3468318485773529E-3</v>
+        <v>1.3795004306657948E-3</v>
       </c>
       <c r="K20" s="188">
         <f t="shared" si="4"/>
-        <v>2.5554827959290392</v>
+        <v>1.7983361657123278</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
-        <v>2.0465753424657533</v>
+        <v>2.0383561643835617</v>
       </c>
       <c r="M20" s="234">
         <f t="shared" si="1"/>
-        <v>2.5554827959290392E-4</v>
+        <v>1.7983361657123277E-4</v>
       </c>
       <c r="N20" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0017176919894981</v>
+        <v>1.0016625220341084</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -5860,35 +5860,35 @@
       </c>
       <c r="G21" s="62">
         <f>1-_xll.qlQuoteValue(D21,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C21&amp;"ConvAdj_Quote")</f>
-        <v>2.9749999999999499E-3</v>
+        <v>2.9250000000000664E-3</v>
       </c>
       <c r="H21" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E21),,AllTriggers)</f>
-        <v>1.3859854206290999E-3</v>
+        <v>1.3218346333841527E-3</v>
       </c>
       <c r="I21" s="265">
         <f t="shared" si="0"/>
-        <v>1.58901457937085E-3</v>
+        <v>1.6031653666159138E-3</v>
       </c>
       <c r="J21" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>1.408290588554662E-3</v>
+        <v>1.4598678682400791E-3</v>
       </c>
       <c r="K21" s="188">
         <f t="shared" si="4"/>
-        <v>1.8072399081618804</v>
+        <v>1.4329749837583465</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
-        <v>2.2958904109589042</v>
+        <v>2.2876712328767121</v>
       </c>
       <c r="M21" s="234">
         <f t="shared" si="1"/>
-        <v>1.8072399081618803E-4</v>
+        <v>1.4329749837583465E-4</v>
       </c>
       <c r="N21" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0015356076156656</v>
+        <v>1.0014757769563836</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -5918,35 +5918,35 @@
       </c>
       <c r="G22" s="65">
         <f>1-_xll.qlQuoteValue(D22,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C22&amp;"ConvAdj_Quote")</f>
-        <v>3.7249999999999783E-3</v>
+        <v>3.6249999999999893E-3</v>
       </c>
       <c r="H22" s="65">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E22),,AllTriggers)</f>
-        <v>2.1987773291902712E-3</v>
+        <v>2.027220858942691E-3</v>
       </c>
       <c r="I22" s="260">
         <f t="shared" si="0"/>
-        <v>1.5262226708097071E-3</v>
+        <v>1.5977791410572983E-3</v>
       </c>
       <c r="J22" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>1.5263526076094267E-3</v>
+        <v>1.5980505353601774E-3</v>
       </c>
       <c r="K22" s="189">
         <f t="shared" si="4"/>
-        <v>-1.2993679971958286E-3</v>
+        <v>-2.7139430287901473E-3</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
-        <v>2.5452054794520547</v>
+        <v>2.536986301369863</v>
       </c>
       <c r="M22" s="235">
         <f t="shared" si="1"/>
-        <v>-1.2993679971958286E-7</v>
+        <v>-2.7139430287901473E-7</v>
       </c>
       <c r="N22" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.001184846194509</v>
+        <v>1.0011412652037437</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -5990,15 +5990,15 @@
       </c>
       <c r="G25" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H25" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
-        <v>42163</v>
+        <v>42164</v>
       </c>
       <c r="I25" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G25,H25,AllTriggers)</f>
-        <v>-1.3505198438235055E-4</v>
+        <v>-1.5235886164699508E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6008,15 +6008,15 @@
       </c>
       <c r="G26" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H26" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
-        <v>42167</v>
+        <v>42170</v>
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G26,H26,AllTriggers)</f>
-        <v>-1.307744631156333E-4</v>
+        <v>-1.4615060688529167E-4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6026,15 +6026,15 @@
       </c>
       <c r="G27" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H27" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
-        <v>42174</v>
+        <v>42177</v>
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G27,H27,AllTriggers)</f>
-        <v>-9.3422520025690913E-5</v>
+        <v>-1.1905590967087321E-4</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6044,15 +6044,15 @@
       </c>
       <c r="G28" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H28" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
-        <v>42181</v>
+        <v>42184</v>
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G28,H28,AllTriggers)</f>
-        <v>-8.622357393596656E-5</v>
+        <v>-1.2210649579267953E-4</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6062,15 +6062,15 @@
       </c>
       <c r="G29" s="272">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H29" s="273">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42191</v>
+        <v>42193</v>
       </c>
       <c r="I29" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G29,H29,AllTriggers)</f>
-        <v>-8.5539265429578025E-5</v>
+        <v>-1.2789266630397478E-4</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6080,15 +6080,15 @@
       </c>
       <c r="G30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H30" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42221</v>
+        <v>42226</v>
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G30,H30,AllTriggers)</f>
-        <v>-8.6490719934248007E-5</v>
+        <v>-1.3135129780675724E-4</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6098,15 +6098,15 @@
       </c>
       <c r="G31" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H31" s="275">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42254</v>
+        <v>42255</v>
       </c>
       <c r="I31" s="291">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G31,H31,AllTriggers)</f>
-        <v>-9.2702532836066103E-5</v>
+        <v>-1.3414978244339639E-4</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6374,21 +6374,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42345</v>
+        <v>42346</v>
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>5.5085266648787325E-4</v>
+        <v>5.0796159643381458E-4</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>1.8125168973955959E-3</v>
+        <v>1.781745259666332E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="283">
@@ -6422,31 +6422,31 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
-        <v>42345</v>
+        <v>42346</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>4.8000000000000001E-4</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E4),,AllTriggers)</f>
-        <v>-1.2616642309077226E-3</v>
+        <v>-1.2737836632325174E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>1.7416642309077226E-3</v>
+        <v>1.7637836632325174E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>1.8125168973955959E-3</v>
+        <v>1.781745259666332E-3</v>
       </c>
       <c r="K4" s="187">
         <f>M4*10000</f>
-        <v>-0.70852666487873295</v>
+        <v>-0.17961596433814594</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -6454,11 +6454,11 @@
       </c>
       <c r="M4" s="278">
         <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>-7.0852666487873292E-5</v>
+        <v>-1.7961596433814595E-5</v>
       </c>
       <c r="N4" s="281">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000066667000043</v>
+        <v>1.0000111112116115</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>0</v>
@@ -6481,43 +6481,43 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42191</v>
+        <v>42193</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
-        <v>42375</v>
+        <v>42377</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>6.4000000000000005E-4</v>
+        <v>5.8E-4</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E5),,AllTriggers)</f>
-        <v>-1.2396060573981124E-3</v>
+        <v>-1.2612193948480957E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" si="0"/>
-        <v>1.8796060573981126E-3</v>
+        <v>1.8412193948480957E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>1.88227580104405E-3</v>
+        <v>1.8476373915875027E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>-2.669743645937429E-2</v>
+        <v>-6.4179967394070378E-2</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.4931506849315067E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="M5" s="279">
         <f t="shared" si="1"/>
-        <v>-2.669743645937429E-6</v>
+        <v>-6.4179967394070378E-6</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001090930777232</v>
+        <v>1.0001106648021887</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -6544,43 +6544,43 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42221</v>
+        <v>42226</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
-        <v>42405</v>
+        <v>42410</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>7.1000000000000013E-4</v>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E6),,AllTriggers)</f>
-        <v>-1.2474756835944641E-3</v>
+        <v>-1.2713463090453128E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="0"/>
-        <v>1.9574756835944642E-3</v>
+        <v>1.9213463090453128E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>1.9405412887412625E-3</v>
+        <v>1.9100868542743217E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>0.16934394853201701</v>
+        <v>0.11259454770991056</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.16712328767123288</v>
+        <v>0.17260273972602741</v>
       </c>
       <c r="M6" s="234">
         <f t="shared" si="1"/>
-        <v>1.69343948532017E-5</v>
+        <v>1.1259454770991056E-5</v>
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002131875539613</v>
+        <v>1.0002260583921088</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_005df#0048</v>
+        <v>obj_005e0#0024</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6611,43 +6611,43 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42254</v>
+        <v>42255</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
-        <v>42436</v>
+        <v>42437</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>7.7000000000000018E-4</v>
+        <v>7.1000000000000013E-4</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E7),,AllTriggers)</f>
-        <v>-1.218671924564923E-3</v>
+        <v>-1.2471663253159333E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="0"/>
-        <v>1.9886719245649233E-3</v>
+        <v>1.9571663253159337E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>1.9951094919362306E-3</v>
+        <v>1.9570716758657287E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>-6.4375673713072512E-2</v>
+        <v>9.4649450204948443E-4</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
-        <v>0.25753424657534246</v>
+        <v>0.25205479452054796</v>
       </c>
       <c r="M7" s="234">
         <f t="shared" si="1"/>
-        <v>-6.4375673713072505E-6</v>
+        <v>9.4649450204948443E-8</v>
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.000333906989644</v>
+        <v>1.0003318671850669</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -6656,7 +6656,7 @@
         <v>127</v>
       </c>
       <c r="R7" s="282" t="b">
-        <f>_xll.qlPolynomialCalibrationCompute($R$6)</f>
+        <f>_xll.qlPolynomialCalibrationCompute($R$6,AllTriggers)</f>
         <v>1</v>
       </c>
     </row>
@@ -6678,31 +6678,31 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42282</v>
+        <v>42285</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E8)</f>
-        <v>42465</v>
+        <v>42468</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>8.200000000000002E-4</v>
+        <v>7.8000000000000009E-4</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E8),,AllTriggers)</f>
-        <v>-1.1998390140418827E-3</v>
+        <v>-1.2188863600502994E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="0"/>
-        <v>2.0198390140418829E-3</v>
+        <v>1.9988863600502995E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>2.0343625019798159E-3</v>
+        <v>1.9986733932196312E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>-0.14523487937932905</v>
+        <v>2.1296683066834507E-3</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
@@ -6710,11 +6710,11 @@
       </c>
       <c r="M8" s="234">
         <f t="shared" si="1"/>
-        <v>-1.4523487937932907E-5</v>
+        <v>2.1296683066834507E-7</v>
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004335031961453</v>
+        <v>1.0004379104737688</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="R8" s="282" t="str">
         <f>_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
-        <v>StationaryFunctionValue</v>
+        <v>None</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6745,43 +6745,43 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42313</v>
+        <v>42317</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
-        <v>42495</v>
+        <v>42499</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>8.8999999999999995E-4</v>
+        <v>8.5000000000000006E-4</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E9),,AllTriggers)</f>
-        <v>-1.1699647628269751E-3</v>
+        <v>-1.1758696454302951E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="0"/>
-        <v>2.0599647628269753E-3</v>
+        <v>2.0258696454302952E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>2.0711158564610151E-3</v>
+        <v>2.0360509388013428E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>-0.11151093634039801</v>
+        <v>-0.10181293371047673</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.41917808219178082</v>
+        <v>0.42191780821917807</v>
       </c>
       <c r="M9" s="234">
         <f t="shared" si="1"/>
-        <v>-1.1151093634039801E-5</v>
+        <v>-1.0181293371047673E-5</v>
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005428888485881</v>
+        <v>1.0005545597248136</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>2.2600622176017148E-5</v>
+        <v>5.6448440012852806E-5</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6812,43 +6812,43 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42345</v>
+        <v>42346</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
-        <v>42528</v>
+        <v>42529</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>9.6000000000000002E-4</v>
+        <v>9.2000000000000003E-4</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E10),,AllTriggers)</f>
-        <v>-1.1410248094649602E-3</v>
+        <v>-1.1419431047384435E-3</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="0"/>
-        <v>2.1010248094649603E-3</v>
+        <v>2.0619431047384437E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>2.1025810302542788E-3</v>
+        <v>2.064445035325034E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>-1.5562207893184653E-2</v>
+        <v>-2.5019305865902307E-2</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50684931506849318</v>
+        <v>0.50136986301369868</v>
       </c>
       <c r="M10" s="234">
         <f t="shared" si="1"/>
-        <v>-1.5562207893184653E-6</v>
+        <v>-2.5019305865902307E-6</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006554468921967</v>
+        <v>1.0006590446429069</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>2.342386506663666E-5</v>
+        <v>7.4152523860773626E-5</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6879,31 +6879,31 @@
       </c>
       <c r="E11" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
-        <v>42374</v>
+        <v>42377</v>
       </c>
       <c r="F11" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E11)</f>
-        <v>42556</v>
+        <v>42559</v>
       </c>
       <c r="G11" s="67">
         <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
-        <v>1.01E-3</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="H11" s="67">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E11),,AllTriggers)</f>
-        <v>-1.1396532062374161E-3</v>
+        <v>-1.1230104452715755E-3</v>
       </c>
       <c r="I11" s="280">
         <f t="shared" si="0"/>
-        <v>2.1496532062374161E-3</v>
+        <v>2.1030104452715755E-3</v>
       </c>
       <c r="J11" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>2.1262293411707794E-3</v>
+        <v>2.0898440596130085E-3</v>
       </c>
       <c r="K11" s="240">
         <f t="shared" si="4"/>
-        <v>0.23423865066636659</v>
+        <v>0.13166385658566931</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
@@ -6911,11 +6911,11 @@
       </c>
       <c r="M11" s="279">
         <f t="shared" si="1"/>
-        <v>2.342386506663666E-5</v>
+        <v>1.3166385658566933E-5</v>
       </c>
       <c r="N11" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0007392802738873</v>
+        <v>1.0007557752387322</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -6939,31 +6939,31 @@
       </c>
       <c r="E12" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
-        <v>42405</v>
+        <v>42408</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E12)</f>
-        <v>42587</v>
+        <v>42590</v>
       </c>
       <c r="G12" s="62">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>1.07E-3</v>
+        <v>1.0500000000000002E-3</v>
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E12),,AllTriggers)</f>
-        <v>-1.0786933427168396E-3</v>
+        <v>-1.0578451458745394E-3</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="0"/>
-        <v>2.1486933427168394E-3</v>
+        <v>2.1078451458745396E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>2.147246658701675E-3</v>
+        <v>2.1109504259014056E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>1.4466840151643873E-2</v>
+        <v>-3.105280026866053E-2</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
@@ -6971,11 +6971,11 @@
       </c>
       <c r="M12" s="234">
         <f t="shared" si="1"/>
-        <v>1.4466840151643873E-6</v>
+        <v>-3.105280026866053E-6</v>
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0008513290429637</v>
+        <v>1.000868725609952</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -7009,43 +7009,43 @@
       </c>
       <c r="E13" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
-        <v>42436</v>
+        <v>42437</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E13)</f>
-        <v>42620</v>
+        <v>42621</v>
       </c>
       <c r="G13" s="62">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>1.14E-3</v>
+        <v>1.1200000000000001E-3</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E13),,AllTriggers)</f>
-        <v>-1.0264446067802669E-3</v>
+        <v>-1.0029806753152977E-3</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="0"/>
-        <v>2.1664446067802667E-3</v>
+        <v>2.1229806753152976E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>2.1647343653300563E-3</v>
+        <v>2.1275564636728762E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>1.710241450210339E-2</v>
+        <v>-4.575788357578589E-2</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
-        <v>0.75616438356164384</v>
+        <v>0.75068493150684934</v>
       </c>
       <c r="M13" s="234">
         <f t="shared" si="1"/>
-        <v>1.710241450210339E-6</v>
+        <v>-4.575788357578589E-6</v>
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0009505990216121</v>
+        <v>1.0009629862237717</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -7054,8 +7054,8 @@
         <v>113</v>
       </c>
       <c r="R13" s="190">
-        <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,)</f>
-        <v>1.8125168973955959E-3</v>
+        <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
+        <v>1.781745259666332E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -7082,31 +7082,31 @@
       </c>
       <c r="E14" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
-        <v>42465</v>
+        <v>42468</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E14)</f>
-        <v>42648</v>
+        <v>42653</v>
       </c>
       <c r="G14" s="62">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>1.2099999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E14),,AllTriggers)</f>
-        <v>-9.6785364361050405E-4</v>
+        <v>-9.4007823058665828E-4</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>2.1778536436105039E-3</v>
+        <v>2.1400782305866584E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>2.1786900194601514E-3</v>
+        <v>2.1427517615240925E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>-8.3637584964756442E-3</v>
+        <v>-2.6735309374341203E-2</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
@@ -7114,11 +7114,11 @@
       </c>
       <c r="M14" s="234">
         <f t="shared" si="1"/>
-        <v>-8.3637584964756442E-7</v>
+        <v>-2.6735309374341203E-6</v>
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0010440581516491</v>
+        <v>1.0010581666808025</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>8.8195615344818378E-4</v>
+        <v>8.5778196137636063E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -7154,11 +7154,11 @@
       </c>
       <c r="E15" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
-        <v>42495</v>
+        <v>42499</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E15)</f>
-        <v>42681</v>
+        <v>42683</v>
       </c>
       <c r="G15" s="62">
         <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
@@ -7166,31 +7166,31 @@
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E15),,AllTriggers)</f>
-        <v>-9.0424413386079182E-4</v>
+        <v>-8.734289927631758E-4</v>
       </c>
       <c r="I15" s="265">
         <f t="shared" si="0"/>
-        <v>2.194244133860792E-3</v>
+        <v>2.1634289927631757E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>2.1914780118209545E-3</v>
+        <v>2.1561316133231322E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>2.7661220398374035E-2</v>
+        <v>7.2973794400434805E-2</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.9178082191780822</v>
+        <v>0.92054794520547945</v>
       </c>
       <c r="M15" s="234">
         <f t="shared" si="1"/>
-        <v>2.7661220398374035E-6</v>
+        <v>7.2973794400434805E-6</v>
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0011350423915941</v>
+        <v>1.0011497106221909</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -7199,7 +7199,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>-7.341781049223508E-4</v>
+        <v>-7.0135056285013033E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -7226,43 +7226,43 @@
       </c>
       <c r="E16" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
-        <v>42527</v>
+        <v>42529</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E16)</f>
-        <v>42710</v>
+        <v>42712</v>
       </c>
       <c r="G16" s="62">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>1.3600000000000001E-3</v>
+        <v>1.3700000000000001E-3</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E16),,AllTriggers)</f>
-        <v>-8.3368058355862823E-4</v>
+        <v>-7.9569614773001825E-4</v>
       </c>
       <c r="I16" s="265">
         <f t="shared" si="0"/>
-        <v>2.1936805835586284E-3</v>
+        <v>2.1656961477300183E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>2.204172857800417E-3</v>
+        <v>2.1681461621500457E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>-0.10492274241788532</v>
+        <v>-2.4500144200274333E-2</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
-        <v>1.0054794520547945</v>
+        <v>1.0027397260273974</v>
       </c>
       <c r="M16" s="234">
         <f t="shared" si="1"/>
-        <v>-1.0492274241788533E-5</v>
+        <v>-2.4500144200274333E-6</v>
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.001233119777003</v>
+        <v>1.0012402523390991</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -7271,7 +7271,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>2.4309508617599053E-4</v>
+        <v>2.2957560046531553E-4</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -7298,31 +7298,31 @@
       </c>
       <c r="E17" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A17&amp;"M","mf",,Trigger)</f>
-        <v>42556</v>
+        <v>42559</v>
       </c>
       <c r="F17" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E17)</f>
-        <v>42740</v>
+        <v>42744</v>
       </c>
       <c r="G17" s="62">
         <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>1.47E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="H17" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E17),,AllTriggers)</f>
-        <v>-7.0226353624911289E-4</v>
+        <v>-6.5255104623203298E-4</v>
       </c>
       <c r="I17" s="265">
         <f t="shared" si="0"/>
-        <v>2.1722635362491126E-3</v>
+        <v>2.1525510462320329E-3</v>
       </c>
       <c r="J17" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>2.2156391239184885E-3</v>
+        <v>2.1800156457889002E-3</v>
       </c>
       <c r="K17" s="188">
         <f t="shared" si="4"/>
-        <v>-0.43375587669375848</v>
+        <v>-0.27464599556867308</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
@@ -7330,11 +7330,11 @@
       </c>
       <c r="M17" s="234">
         <f t="shared" si="1"/>
-        <v>-4.3375587669375847E-5</v>
+        <v>-2.7464599556867308E-5</v>
       </c>
       <c r="N17" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.001316196620933</v>
+        <v>1.0013242712555703</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -7370,31 +7370,31 @@
       </c>
       <c r="E18" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A18&amp;"M","mf",,Trigger)</f>
-        <v>42587</v>
+        <v>42590</v>
       </c>
       <c r="F18" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E18)</f>
-        <v>42772</v>
+        <v>42774</v>
       </c>
       <c r="G18" s="62">
         <f>_xll.qlQuoteValue(D18,AllTriggers)</f>
-        <v>1.58E-3</v>
+        <v>1.6099999999999997E-3</v>
       </c>
       <c r="H18" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E18),,AllTriggers)</f>
-        <v>-6.3266772171674318E-4</v>
+        <v>-5.7142293852804774E-4</v>
       </c>
       <c r="I18" s="265">
         <f t="shared" si="0"/>
-        <v>2.2126677217167434E-3</v>
+        <v>2.1814229385280475E-3</v>
       </c>
       <c r="J18" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>2.2287112089916274E-3</v>
+        <v>2.1929407988151473E-3</v>
       </c>
       <c r="K18" s="188">
         <f t="shared" si="4"/>
-        <v>-0.16043487274883944</v>
+        <v>-0.11517860287099754</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
@@ -7402,11 +7402,11 @@
       </c>
       <c r="M18" s="234">
         <f t="shared" si="1"/>
-        <v>-1.6043487274883944E-5</v>
+        <v>-1.1517860287099755E-5</v>
       </c>
       <c r="N18" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.0013974305290583</v>
+        <v>1.0014042761065125</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="R18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_00844#0023</v>
+        <v>obj_005e1#0025</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -7438,31 +7438,31 @@
       </c>
       <c r="E19" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A19&amp;"M","mf",,Trigger)</f>
-        <v>42618</v>
+        <v>42621</v>
       </c>
       <c r="F19" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E19)</f>
-        <v>42800</v>
+        <v>42802</v>
       </c>
       <c r="G19" s="62">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
-        <v>1.6799999999999999E-3</v>
+        <v>1.7299999999999998E-3</v>
       </c>
       <c r="H19" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E19),,AllTriggers)</f>
-        <v>-5.5249594183176608E-4</v>
+        <v>-4.7950303744178778E-4</v>
       </c>
       <c r="I19" s="265">
         <f t="shared" si="0"/>
-        <v>2.2324959418317659E-3</v>
+        <v>2.2095030374417873E-3</v>
       </c>
       <c r="J19" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>2.2434998683022143E-3</v>
+        <v>2.2073716031252933E-3</v>
       </c>
       <c r="K19" s="188">
         <f t="shared" si="4"/>
-        <v>-0.11003926470448416</v>
+        <v>2.1314343164940616E-2</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
@@ -7470,11 +7470,11 @@
       </c>
       <c r="M19" s="234">
         <f t="shared" si="1"/>
-        <v>-1.1003926470448417E-5</v>
+        <v>2.1314343164940616E-6</v>
       </c>
       <c r="N19" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0014714618017775</v>
+        <v>1.0014763776333644</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -7499,43 +7499,43 @@
       </c>
       <c r="E20" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A20&amp;"M","mf",,Trigger)</f>
-        <v>42648</v>
+        <v>42653</v>
       </c>
       <c r="F20" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E20)</f>
-        <v>42830</v>
+        <v>42835</v>
       </c>
       <c r="G20" s="62">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>1.83E-3</v>
+        <v>1.89E-3</v>
       </c>
       <c r="H20" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E20),,AllTriggers)</f>
-        <v>-4.4727296132126356E-4</v>
+        <v>-3.5488975786727859E-4</v>
       </c>
       <c r="I20" s="265">
         <f t="shared" si="0"/>
-        <v>2.2772729613212634E-3</v>
+        <v>2.2448897578672784E-3</v>
       </c>
       <c r="J20" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>2.2602875410429471E-3</v>
+        <v>2.2247418814503182E-3</v>
       </c>
       <c r="K20" s="188">
         <f t="shared" si="4"/>
-        <v>0.16985420278316232</v>
+        <v>0.20147876416960145</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
-        <v>1.3369863013698631</v>
+        <v>1.3424657534246576</v>
       </c>
       <c r="M20" s="234">
         <f t="shared" si="1"/>
-        <v>1.6985420278316232E-5</v>
+        <v>2.0147876416960146E-5</v>
       </c>
       <c r="N20" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0015368065174097</v>
+        <v>1.0015420073754082</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -7560,7 +7560,7 @@
       </c>
       <c r="E21" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A21&amp;"M","mf",,Trigger)</f>
-        <v>42681</v>
+        <v>42682</v>
       </c>
       <c r="F21" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E21)</f>
@@ -7568,35 +7568,35 @@
       </c>
       <c r="G21" s="62">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>2E-3</v>
+        <v>2.0400000000000001E-3</v>
       </c>
       <c r="H21" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E21),,AllTriggers)</f>
-        <v>-3.0228307900232446E-4</v>
+        <v>-2.252396820272476E-4</v>
       </c>
       <c r="I21" s="265">
         <f t="shared" si="0"/>
-        <v>2.3022830790023247E-3</v>
+        <v>2.2652396820272477E-3</v>
       </c>
       <c r="J21" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>2.2825439225649634E-3</v>
+        <v>2.2434229072262591E-3</v>
       </c>
       <c r="K21" s="188">
         <f t="shared" si="4"/>
-        <v>0.19739156437361283</v>
+        <v>0.21816774800988581</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
-        <v>1.4273972602739726</v>
+        <v>1.4219178082191781</v>
       </c>
       <c r="M21" s="234">
         <f t="shared" si="1"/>
-        <v>1.9739156437361283E-5</v>
+        <v>2.1816774800988582E-5</v>
       </c>
       <c r="N21" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0016029840967213</v>
+        <v>1.0015950999006336</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -7621,31 +7621,31 @@
       </c>
       <c r="E22" s="297">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A22&amp;"M","mf",,Trigger)</f>
-        <v>42709</v>
+        <v>42712</v>
       </c>
       <c r="F22" s="297">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E22)</f>
-        <v>42891</v>
+        <v>42894</v>
       </c>
       <c r="G22" s="65">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>2.15E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="H22" s="65">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E22),,AllTriggers)</f>
-        <v>-1.5670461689100854E-4</v>
+        <v>-6.6324583335551803E-5</v>
       </c>
       <c r="I22" s="260">
         <f t="shared" si="0"/>
-        <v>2.3067046168910085E-3</v>
+        <v>2.2663245833355519E-3</v>
       </c>
       <c r="J22" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>2.3053187574723021E-3</v>
+        <v>2.2664494133273877E-3</v>
       </c>
       <c r="K22" s="189">
         <f t="shared" si="4"/>
-        <v>1.385859418706354E-2</v>
+        <v>-1.2482999183589458E-3</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
@@ -7653,11 +7653,11 @@
       </c>
       <c r="M22" s="235">
         <f t="shared" si="1"/>
-        <v>1.385859418706354E-6</v>
+        <v>-1.2482999183589458E-7</v>
       </c>
       <c r="N22" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.0016557667862784</v>
+        <v>1.0016453967424186</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -7698,15 +7698,15 @@
       </c>
       <c r="G25" s="298">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H25" s="295">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
-        <v>42163</v>
+        <v>42164</v>
       </c>
       <c r="I25" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G25,H25,AllTriggers)</f>
-        <v>3.2750721412178052E-4</v>
+        <v>3.241783158713929E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7715,15 +7715,15 @@
       </c>
       <c r="G26" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H26" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
-        <v>42167</v>
+        <v>42170</v>
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G26,H26,AllTriggers)</f>
-        <v>3.3439618567879644E-4</v>
+        <v>3.3416013810873475E-4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7732,15 +7732,15 @@
       </c>
       <c r="G27" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H27" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
-        <v>42174</v>
+        <v>42177</v>
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G27,H27,AllTriggers)</f>
-        <v>3.7626677468617837E-4</v>
+        <v>3.6559869292534283E-4</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7749,15 +7749,15 @@
       </c>
       <c r="G28" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H28" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
-        <v>42181</v>
+        <v>42184</v>
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G28,H28,AllTriggers)</f>
-        <v>3.8791881952374548E-4</v>
+        <v>3.6682874906799966E-4</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7766,15 +7766,15 @@
       </c>
       <c r="G29" s="300">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H29" s="301">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42191</v>
+        <v>42193</v>
       </c>
       <c r="I29" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G29,H29,AllTriggers)</f>
-        <v>3.9485298415683237E-4</v>
+        <v>3.6645507358468166E-4</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="G30" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H30" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42221</v>
+        <v>42226</v>
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G30,H30,AllTriggers)</f>
-        <v>4.118898886290669E-4</v>
+        <v>3.81994436043444E-4</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7800,15 +7800,15 @@
       </c>
       <c r="G31" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H31" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42254</v>
+        <v>42255</v>
       </c>
       <c r="I31" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G31,H31,AllTriggers)</f>
-        <v>4.2421685789268684E-4</v>
+        <v>3.9484329466596776E-4</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7817,15 +7817,15 @@
       </c>
       <c r="G32" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H32" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
-        <v>42282</v>
+        <v>42285</v>
       </c>
       <c r="I32" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G32,H32,AllTriggers)</f>
-        <v>4.5434777872524067E-4</v>
+        <v>4.2839036714768179E-4</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7834,15 +7834,15 @@
       </c>
       <c r="G33" s="302">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H33" s="297">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
-        <v>42313</v>
+        <v>42317</v>
       </c>
       <c r="I33" s="290">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G33,H33,AllTriggers)</f>
-        <v>4.8912701611356242E-4</v>
+        <v>4.5430778824257596E-4</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7851,15 +7851,15 @@
       </c>
       <c r="G34" s="303">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H34" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
-        <v>42345</v>
+        <v>42346</v>
       </c>
       <c r="I34" s="291">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G34,H34,AllTriggers)</f>
-        <v>5.2304913276806156E-4</v>
+        <v>4.8065290598658667E-4</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8054,21 +8054,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42527</v>
+        <v>42529</v>
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772997037419E-3</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>2.8830282817084076E-3</v>
+        <v>2.8859709757861327E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="239"/>
@@ -8103,35 +8103,35 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E4)</f>
-        <v>42527</v>
+        <v>42529</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>1.6200000000000001E-3</v>
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E4),,AllTriggers)</f>
-        <v>-1.201578548745798E-3</v>
+        <v>-1.2074936760823908E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I14" si="0">G4-H4</f>
-        <v>2.8015785487457978E-3</v>
+        <v>2.827493676082391E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>2.8830282817084076E-3</v>
+        <v>2.8859709757861327E-3</v>
       </c>
       <c r="K4" s="187">
         <f>L4*10000</f>
-        <v>-0.81449732962609811</v>
+        <v>-0.58477299703741781</v>
       </c>
       <c r="L4" s="278">
         <f t="shared" ref="L4:L16" si="1">I4-J4</f>
-        <v>-8.1449732962609808E-5</v>
+        <v>-5.847729970374178E-5</v>
       </c>
       <c r="M4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -8139,7 +8139,7 @@
       </c>
       <c r="N4" s="281">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000066667000043</v>
+        <v>1.0000111112116115</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>1</v>
@@ -8162,43 +8162,43 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42191</v>
+        <v>42193</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E5)</f>
-        <v>42557</v>
+        <v>42559</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>1.7799999999999999E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E5),,AllTriggers)</f>
-        <v>-1.1884397701471649E-3</v>
+        <v>-1.1921325587408748E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" ref="I5:I13" si="3">G5-H5</f>
-        <v>2.9684397701471646E-3</v>
+        <v>2.9421325587408748E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>2.9121963926155127E-3</v>
+        <v>2.9021147022755562E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K16" si="4">L5*10000</f>
-        <v>0.56243377531651861</v>
+        <v>0.40017856465318635</v>
       </c>
       <c r="L5" s="279">
         <f t="shared" si="1"/>
-        <v>5.6243377531651866E-5</v>
+        <v>4.0017856465318635E-5</v>
       </c>
       <c r="M5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.4931506849315067E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001090930777232</v>
+        <v>1.0001106648021887</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -8226,43 +8226,43 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42221</v>
+        <v>42226</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E6)</f>
-        <v>42587</v>
+        <v>42592</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>1.83E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E6),,AllTriggers)</f>
-        <v>-1.1632036595278028E-3</v>
+        <v>-1.1620855295020765E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="3"/>
-        <v>2.9932036595278029E-3</v>
+        <v>2.9620855295020765E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>2.9412252332714044E-3</v>
+        <v>2.9233449638555054E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>0.51978426256398502</v>
+        <v>0.38740565646571029</v>
       </c>
       <c r="L6" s="234">
         <f t="shared" si="1"/>
-        <v>5.1978426256398501E-5</v>
+        <v>3.874056564657103E-5</v>
       </c>
       <c r="M6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.16712328767123288</v>
+        <v>0.17260273972602741</v>
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002131875539613</v>
+        <v>1.0002260583921088</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -8272,7 +8272,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($M$4:$M$17,$O$4:$O$17),_xll.ohFilter($I$4:$I$17,$O$4:$O$17),_xll.ohFilter($N$4:$N$17,$O$4:$O$17),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_005de#0048</v>
+        <v>obj_005df#0024</v>
       </c>
       <c r="T6" s="55"/>
     </row>
@@ -8294,43 +8294,43 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42254</v>
+        <v>42255</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E7)</f>
-        <v>42620</v>
+        <v>42621</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>1.8799999999999999E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E7),,AllTriggers)</f>
-        <v>-1.1217151270293173E-3</v>
+        <v>-1.1240884029558094E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="3"/>
-        <v>3.001715127029317E-3</v>
+        <v>2.9640884029558095E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>2.9738980882789813E-3</v>
+        <v>2.9447108336345439E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>0.27817038750335699</v>
+        <v>0.19377569321265586</v>
       </c>
       <c r="L7" s="234">
         <f t="shared" si="1"/>
-        <v>2.7817038750335699E-5</v>
+        <v>1.9377569321265588E-5</v>
       </c>
       <c r="M7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
-        <v>0.25753424657534246</v>
+        <v>0.25205479452054796</v>
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.000333906989644</v>
+        <v>1.0003318671850669</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -8339,7 +8339,7 @@
         <v>127</v>
       </c>
       <c r="R7" s="282" t="b">
-        <f>_xll.qlPolynomialCalibrationCompute($R$6)</f>
+        <f>_xll.qlPolynomialCalibrationCompute($R$6,AllTriggers)</f>
         <v>1</v>
       </c>
       <c r="T7" s="55"/>
@@ -8362,35 +8362,35 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42282</v>
+        <v>42285</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E8)</f>
-        <v>42648</v>
+        <v>42653</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>1.9300000000000001E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E8),,AllTriggers)</f>
-        <v>-1.0835511730667973E-3</v>
+        <v>-1.0784318452227667E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="3"/>
-        <v>3.0135511730667976E-3</v>
+        <v>2.9784318452227669E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>3.0020945123844429E-3</v>
+        <v>2.9691909332129509E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>0.11456660682354711</v>
+        <v>9.2409120098159603E-2</v>
       </c>
       <c r="L8" s="234">
         <f t="shared" si="1"/>
-        <v>1.1456660682354711E-5</v>
+        <v>9.240912009815961E-6</v>
       </c>
       <c r="M8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
@@ -8398,7 +8398,7 @@
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004335031961453</v>
+        <v>1.0004379104737688</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -8408,7 +8408,7 @@
       </c>
       <c r="R8" s="282" t="str">
         <f>_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
-        <v>StationaryFunctionValue</v>
+        <v>None</v>
       </c>
       <c r="T8" s="55"/>
     </row>
@@ -8430,43 +8430,43 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42313</v>
+        <v>42317</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E9)</f>
-        <v>42681</v>
+        <v>42683</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>1.99E-3</v>
+        <v>1.97E-3</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E9),,AllTriggers)</f>
-        <v>-1.0353899855799198E-3</v>
+        <v>-1.0235619473227329E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="3"/>
-        <v>3.0253899855799196E-3</v>
+        <v>2.9935619473227329E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>3.0336735483678066E-3</v>
+        <v>2.9976471962306589E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>-8.2835627878870277E-2</v>
+        <v>-4.0852489079259806E-2</v>
       </c>
       <c r="L9" s="234">
         <f t="shared" si="1"/>
-        <v>-8.2835627878870277E-6</v>
+        <v>-4.0852489079259806E-6</v>
       </c>
       <c r="M9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.41917808219178082</v>
+        <v>0.42191780821917807</v>
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005428888485881</v>
+        <v>1.0005545597248136</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>1.0495970077009605E-4</v>
+        <v>1.2836471234633424E-4</v>
       </c>
       <c r="T9" s="55"/>
     </row>
@@ -8498,43 +8498,43 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42345</v>
+        <v>42346</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E10)</f>
-        <v>42711</v>
+        <v>42712</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>2.0499999999999997E-3</v>
+        <v>2.0299999999999997E-3</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E10),,AllTriggers)</f>
-        <v>-9.8590829280935767E-4</v>
+        <v>-9.6858868030299953E-4</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="3"/>
-        <v>3.0359082928093574E-3</v>
+        <v>2.9985886803029992E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>3.066510602116958E-3</v>
+        <v>3.0252398075518937E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>-0.306023093076006</v>
+        <v>-0.26651127248894513</v>
       </c>
       <c r="L10" s="234">
         <f t="shared" si="1"/>
-        <v>-3.0602309307600599E-5</v>
+        <v>-2.6651127248894513E-5</v>
       </c>
       <c r="M10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50684931506849318</v>
+        <v>0.50136986301369868</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006554468921967</v>
+        <v>1.0006590446429069</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -8544,7 +8544,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>1.4494759016539039E-4</v>
+        <v>1.7883636286524906E-4</v>
       </c>
       <c r="T10" s="55"/>
     </row>
@@ -8566,11 +8566,11 @@
       </c>
       <c r="E11" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
-        <v>42374</v>
+        <v>42377</v>
       </c>
       <c r="F11" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E11)</f>
-        <v>42740</v>
+        <v>42744</v>
       </c>
       <c r="G11" s="62">
         <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
@@ -8578,23 +8578,23 @@
       </c>
       <c r="H11" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E11),,AllTriggers)</f>
-        <v>-9.1955990461468429E-4</v>
+        <v>-8.8567113191482573E-4</v>
       </c>
       <c r="I11" s="265">
         <f t="shared" si="3"/>
-        <v>3.0595599046146847E-3</v>
+        <v>3.025671131914826E-3</v>
       </c>
       <c r="J11" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>3.0963379724769664E-3</v>
+        <v>3.0563282654769283E-3</v>
       </c>
       <c r="K11" s="188">
         <f t="shared" si="4"/>
-        <v>-0.36778067862281666</v>
+        <v>-0.30657133562102257</v>
       </c>
       <c r="L11" s="234">
         <f t="shared" si="1"/>
-        <v>-3.6778067862281664E-5</v>
+        <v>-3.0657133562102257E-5</v>
       </c>
       <c r="M11" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
@@ -8602,7 +8602,7 @@
       </c>
       <c r="N11" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0007392802738873</v>
+        <v>1.0007557752387322</v>
       </c>
       <c r="O11" s="237" t="b">
         <v>1</v>
@@ -8627,35 +8627,35 @@
       </c>
       <c r="E12" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
-        <v>42405</v>
+        <v>42408</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E12)</f>
-        <v>42772</v>
+        <v>42774</v>
       </c>
       <c r="G12" s="62">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>2.2500000000000003E-3</v>
+        <v>2.2599999999999999E-3</v>
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E12),,AllTriggers)</f>
-        <v>-8.5368361973573879E-4</v>
+        <v>-8.1315138646498493E-4</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="3"/>
-        <v>3.1036836197357392E-3</v>
+        <v>3.0731513864649847E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>3.1281462421315943E-3</v>
+        <v>3.0887519870532588E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>-0.24462622395855174</v>
+        <v>-0.15600600588274155</v>
       </c>
       <c r="L12" s="234">
         <f t="shared" si="1"/>
-        <v>-2.4462622395855175E-5</v>
+        <v>-1.5600600588274154E-5</v>
       </c>
       <c r="M12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0008513290429637</v>
+        <v>1.000868725609952</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -8697,43 +8697,43 @@
       </c>
       <c r="E13" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
-        <v>42436</v>
+        <v>42437</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E13)</f>
-        <v>42801</v>
+        <v>42802</v>
       </c>
       <c r="G13" s="62">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>2.3599999999999997E-3</v>
+        <v>2.3700000000000001E-3</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E13),,AllTriggers)</f>
-        <v>-7.8902116148222732E-4</v>
+        <v>-7.432712396037201E-4</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="3"/>
-        <v>3.149021161482227E-3</v>
+        <v>3.1132712396037205E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>3.1597240407141023E-3</v>
+        <v>3.1200113629694672E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>-0.10702879231875261</v>
+        <v>-6.7401233657467419E-2</v>
       </c>
       <c r="L13" s="234">
         <f t="shared" si="1"/>
-        <v>-1.0702879231875261E-5</v>
+        <v>-6.7401233657467426E-6</v>
       </c>
       <c r="M13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
-        <v>0.75616438356164384</v>
+        <v>0.75068493150684934</v>
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0009505990216121</v>
+        <v>1.0009629862237717</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -8742,8 +8742,8 @@
         <v>113</v>
       </c>
       <c r="R13" s="190">
-        <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,$R$6)</f>
-        <v>2.8830282817084076E-3</v>
+        <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
+        <v>2.8859709757861327E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -8770,35 +8770,35 @@
       </c>
       <c r="E14" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
-        <v>42465</v>
+        <v>42468</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E14)</f>
-        <v>42830</v>
+        <v>42835</v>
       </c>
       <c r="G14" s="62">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>2.48E-3</v>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E14),,AllTriggers)</f>
-        <v>-7.0816670071369961E-4</v>
+        <v>-6.4979075058956915E-4</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>3.1881667007136998E-3</v>
+        <v>3.1597907505895692E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>3.1889185149665965E-3</v>
+        <v>3.154117314021257E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>-7.5181425289666884E-3</v>
+        <v>5.6734365683121929E-2</v>
       </c>
       <c r="L14" s="234">
         <f t="shared" si="1"/>
-        <v>-7.5181425289666884E-7</v>
+        <v>5.6734365683121929E-6</v>
       </c>
       <c r="M14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0010440581516491</v>
+        <v>1.0010581666808025</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -8815,7 +8815,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>3.3787548046855683E-4</v>
+        <v>1.7690198664969817E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -8842,43 +8842,43 @@
       </c>
       <c r="E15" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
-        <v>42495</v>
+        <v>42499</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E15)</f>
-        <v>42860</v>
+        <v>42864</v>
       </c>
       <c r="G15" s="62">
         <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>2.63E-3</v>
+        <v>2.66E-3</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E15),,AllTriggers)</f>
-        <v>-6.1290213869100662E-4</v>
+        <v>-5.4952239367591098E-4</v>
       </c>
       <c r="I15" s="265">
         <f>G15-H15</f>
-        <v>3.2429021386910064E-3</v>
+        <v>3.2095223936759111E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>3.218629448921948E-3</v>
+        <v>3.1886263052130592E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>0.24272689769058373</v>
+        <v>0.20896088462851908</v>
       </c>
       <c r="L15" s="234">
         <f t="shared" si="1"/>
-        <v>2.4272689769058373E-5</v>
+        <v>2.089608846285191E-5</v>
       </c>
       <c r="M15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.9178082191780822</v>
+        <v>0.92054794520547945</v>
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0011350423915941</v>
+        <v>1.0011497106221909</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -8887,7 +8887,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>6.8995361343242951E-5</v>
+        <v>2.4451331394233434E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -8914,43 +8914,43 @@
       </c>
       <c r="E16" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
-        <v>42527</v>
+        <v>42529</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E16)</f>
-        <v>42892</v>
+        <v>42894</v>
       </c>
       <c r="G16" s="62">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>2.7800000000000004E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E16),,AllTriggers)</f>
-        <v>-4.9331305854211918E-4</v>
+        <v>-4.3199612796486318E-4</v>
       </c>
       <c r="I16" s="265">
         <f>G16-H16</f>
-        <v>3.2733130585421194E-3</v>
+        <v>3.2319961279648635E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>3.2496149252739925E-3</v>
+        <v>3.2221067327678449E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>0.2369813326812695</v>
+        <v>9.8893951970186772E-2</v>
       </c>
       <c r="L16" s="234">
         <f t="shared" si="1"/>
-        <v>2.3698133268126951E-5</v>
+        <v>9.8893951970186779E-6</v>
       </c>
       <c r="M16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
-        <v>1.0054794520547945</v>
+        <v>1.0027397260273974</v>
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.001233119777003</v>
+        <v>1.0012402523390991</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -8959,7 +8959,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>-4.2196310161562246E-5</v>
+        <v>-8.6393807601144336E-5</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -8984,35 +8984,35 @@
       </c>
       <c r="E17" s="297">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A17&amp;"M","mf",,Trigger)</f>
-        <v>42891</v>
+        <v>42894</v>
       </c>
       <c r="F17" s="297">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E17)</f>
-        <v>43256</v>
+        <v>43259</v>
       </c>
       <c r="G17" s="65">
         <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>5.2300000000000003E-3</v>
+        <v>5.1700000000000001E-3</v>
       </c>
       <c r="H17" s="65">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E17),,AllTriggers)</f>
-        <v>1.7349519372277229E-3</v>
+        <v>1.6446242247501973E-3</v>
       </c>
       <c r="I17" s="260">
         <f>G17-H17</f>
-        <v>3.4950480627722776E-3</v>
+        <v>3.5253757752498026E-3</v>
       </c>
       <c r="J17" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>3.49748334721253E-3</v>
+        <v>3.526999603306082E-3</v>
       </c>
       <c r="K17" s="189">
         <f t="shared" ref="K17" si="7">L17*10000</f>
-        <v>-2.4352844402524519E-2</v>
+        <v>-1.6238280562794367E-2</v>
       </c>
       <c r="L17" s="235">
         <f t="shared" ref="L17" si="8">I17-J17</f>
-        <v>-2.4352844402524519E-6</v>
+        <v>-1.6238280562794367E-6</v>
       </c>
       <c r="M17" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="N17" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0017351271377146</v>
+        <v>1.0016789838015994</v>
       </c>
       <c r="O17" s="238" t="b">
         <v>1</v>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="R18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_00845#0018</v>
+        <v>obj_005e2#0024</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -9087,15 +9087,15 @@
       </c>
       <c r="G20" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H20" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F20,"Following",,Trigger)</f>
-        <v>42163</v>
+        <v>42164</v>
       </c>
       <c r="I20" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G20,H20,AllTriggers)</f>
-        <v>1.4764517005527722E-3</v>
+        <v>1.609122302923538E-3</v>
       </c>
       <c r="T20" s="55"/>
     </row>
@@ -9105,15 +9105,15 @@
       </c>
       <c r="G21" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H21" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F21,"Following",,Trigger)</f>
-        <v>42167</v>
+        <v>42170</v>
       </c>
       <c r="I21" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G21,H21,AllTriggers)</f>
-        <v>1.4778043448274555E-3</v>
+        <v>1.6082451892161587E-3</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9122,15 +9122,15 @@
       </c>
       <c r="G22" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H22" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F22,"Following",,Trigger)</f>
-        <v>42174</v>
+        <v>42177</v>
       </c>
       <c r="I22" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G22,H22,AllTriggers)</f>
-        <v>1.5101854782478036E-3</v>
+        <v>1.6272938688897754E-3</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9139,15 +9139,15 @@
       </c>
       <c r="G23" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H23" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F23,"Following",,Trigger)</f>
-        <v>42181</v>
+        <v>42184</v>
       </c>
       <c r="I23" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G23,H23,AllTriggers)</f>
-        <v>1.5125965757561183E-3</v>
+        <v>1.6164289598753964E-3</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9156,15 +9156,15 @@
       </c>
       <c r="G24" s="272">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H24" s="273">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F24,"mf",TRUE,Trigger)</f>
-        <v>42191</v>
+        <v>42193</v>
       </c>
       <c r="I24" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G24,H24,AllTriggers)</f>
-        <v>1.506754834099319E-3</v>
+        <v>1.6009335986062467E-3</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9173,15 +9173,15 @@
       </c>
       <c r="G25" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H25" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"mf",TRUE,Trigger)</f>
-        <v>42221</v>
+        <v>42226</v>
       </c>
       <c r="I25" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G25,H25,AllTriggers)</f>
-        <v>1.4883884719828688E-3</v>
+        <v>1.5650524683749217E-3</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9190,15 +9190,15 @@
       </c>
       <c r="G26" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H26" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"mf",TRUE,Trigger)</f>
-        <v>42254</v>
+        <v>42255</v>
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G26,H26,AllTriggers)</f>
-        <v>1.4666190189284E-3</v>
+        <v>1.5377312623009118E-3</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9207,15 +9207,15 @@
       </c>
       <c r="G27" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H27" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"mf",TRUE,Trigger)</f>
-        <v>42282</v>
+        <v>42285</v>
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G27,H27,AllTriggers)</f>
-        <v>1.4715856604616863E-3</v>
+        <v>1.5344112658990528E-3</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9224,15 +9224,15 @@
       </c>
       <c r="G28" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H28" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"mf",TRUE,Trigger)</f>
-        <v>42313</v>
+        <v>42317</v>
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G28,H28,AllTriggers)</f>
-        <v>1.4822917116486631E-3</v>
+        <v>1.5259618386373067E-3</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9241,15 +9241,15 @@
       </c>
       <c r="G29" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H29" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42345</v>
+        <v>42346</v>
       </c>
       <c r="I29" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G29,H29,AllTriggers)</f>
-        <v>1.495272877750576E-3</v>
+        <v>1.5253302475532371E-3</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9258,15 +9258,15 @@
       </c>
       <c r="G30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42374</v>
+        <v>42377</v>
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G30,AllTriggers)</f>
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9275,15 +9275,15 @@
       </c>
       <c r="G31" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H31" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42405</v>
+        <v>42408</v>
       </c>
       <c r="I31" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G31,AllTriggers)</f>
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9292,15 +9292,15 @@
       </c>
       <c r="G32" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H32" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
-        <v>42436</v>
+        <v>42437</v>
       </c>
       <c r="I32" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G32,AllTriggers)</f>
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9309,15 +9309,15 @@
       </c>
       <c r="G33" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H33" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
-        <v>42465</v>
+        <v>42468</v>
       </c>
       <c r="I33" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G33,AllTriggers)</f>
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9326,15 +9326,15 @@
       </c>
       <c r="G34" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H34" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
-        <v>42495</v>
+        <v>42499</v>
       </c>
       <c r="I34" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G34,AllTriggers)</f>
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9343,15 +9343,15 @@
       </c>
       <c r="G35" s="303">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="H35" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F35,"mf",TRUE,Trigger)</f>
-        <v>42527</v>
+        <v>42529</v>
       </c>
       <c r="I35" s="291">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G35,AllTriggers)</f>
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
     </row>
     <row r="36" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9504,27 +9504,27 @@
       </c>
       <c r="B3" s="74">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C3)</f>
-        <v>42158</v>
+        <v>42159</v>
       </c>
       <c r="C3" s="74">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A3&amp;"M","mf")</f>
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="D3" s="74">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C3)</f>
-        <v>42527</v>
+        <v>42529</v>
       </c>
       <c r="E3" s="75">
         <f>_xll.qlIndexFixing(ON_12M_index,B3,,AllTriggers)</f>
-        <v>-1.201578548745798E-3</v>
+        <v>-1.2074936760823908E-3</v>
       </c>
       <c r="F3" s="76">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C3,TRUE,E3)</f>
-        <v>2.9431831228639454E-3</v>
+        <v>2.9249878924715112E-3</v>
       </c>
       <c r="G3" s="75">
         <f t="shared" ref="G3:G27" si="0">E3+F3</f>
-        <v>1.7416045741181474E-3</v>
+        <v>1.7174942163891203E-3</v>
       </c>
       <c r="Z3" s="71"/>
       <c r="AA3" s="71"/>
@@ -9536,27 +9536,27 @@
       </c>
       <c r="B4" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C4)</f>
-        <v>42187</v>
+        <v>42191</v>
       </c>
       <c r="C4" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A4&amp;"M","mf")</f>
-        <v>42191</v>
+        <v>42193</v>
       </c>
       <c r="D4" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C4)</f>
-        <v>42557</v>
+        <v>42559</v>
       </c>
       <c r="E4" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B4,,AllTriggers)</f>
-        <v>-1.1884397701471649E-3</v>
+        <v>-1.1921325587408748E-3</v>
       </c>
       <c r="F4" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C4,TRUE,E4)</f>
-        <v>2.9684397701471646E-3</v>
+        <v>2.9421325587408748E-3</v>
       </c>
       <c r="G4" s="79">
         <f t="shared" si="0"/>
-        <v>1.7799999999999997E-3</v>
+        <v>1.75E-3</v>
       </c>
       <c r="Z4" s="71"/>
       <c r="AA4" s="71"/>
@@ -9568,27 +9568,27 @@
       </c>
       <c r="B5" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C5)</f>
-        <v>42219</v>
+        <v>42222</v>
       </c>
       <c r="C5" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A5&amp;"M","mf")</f>
-        <v>42221</v>
+        <v>42226</v>
       </c>
       <c r="D5" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C5)</f>
-        <v>42587</v>
+        <v>42592</v>
       </c>
       <c r="E5" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B5,,AllTriggers)</f>
-        <v>-1.1632036595278028E-3</v>
+        <v>-1.1620855295020765E-3</v>
       </c>
       <c r="F5" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C5,TRUE,E5)</f>
-        <v>2.9932036595278029E-3</v>
+        <v>2.9620855295020765E-3</v>
       </c>
       <c r="G5" s="79">
         <f t="shared" si="0"/>
-        <v>1.83E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="Z5" s="71"/>
       <c r="AA5" s="71"/>
@@ -9600,27 +9600,27 @@
       </c>
       <c r="B6" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C6)</f>
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="C6" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A6&amp;"M","mf")</f>
-        <v>42254</v>
+        <v>42255</v>
       </c>
       <c r="D6" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C6)</f>
-        <v>42620</v>
+        <v>42621</v>
       </c>
       <c r="E6" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B6,,AllTriggers)</f>
-        <v>-1.1217151270293173E-3</v>
+        <v>-1.1240884029558094E-3</v>
       </c>
       <c r="F6" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C6,TRUE,E6)</f>
-        <v>3.001715127029317E-3</v>
+        <v>2.9640884029558095E-3</v>
       </c>
       <c r="G6" s="79">
         <f t="shared" si="0"/>
-        <v>1.8799999999999997E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="Z6" s="71"/>
       <c r="AA6" s="71"/>
@@ -9632,27 +9632,27 @@
       </c>
       <c r="B7" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C7)</f>
-        <v>42278</v>
+        <v>42283</v>
       </c>
       <c r="C7" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A7&amp;"M","mf")</f>
-        <v>42282</v>
+        <v>42285</v>
       </c>
       <c r="D7" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C7)</f>
-        <v>42648</v>
+        <v>42653</v>
       </c>
       <c r="E7" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B7,,AllTriggers)</f>
-        <v>-1.0835511730667973E-3</v>
+        <v>-1.0784318452227667E-3</v>
       </c>
       <c r="F7" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C7,TRUE,E7)</f>
-        <v>3.0135511730667976E-3</v>
+        <v>2.9784318452227669E-3</v>
       </c>
       <c r="G7" s="79">
         <f t="shared" si="0"/>
-        <v>1.9300000000000003E-3</v>
+        <v>1.9000000000000002E-3</v>
       </c>
       <c r="Z7" s="71"/>
       <c r="AA7" s="71"/>
@@ -9664,27 +9664,27 @@
       </c>
       <c r="B8" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C8)</f>
-        <v>42311</v>
+        <v>42313</v>
       </c>
       <c r="C8" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A8&amp;"M","mf")</f>
-        <v>42313</v>
+        <v>42317</v>
       </c>
       <c r="D8" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C8)</f>
-        <v>42681</v>
+        <v>42683</v>
       </c>
       <c r="E8" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B8,,AllTriggers)</f>
-        <v>-1.0353899855799198E-3</v>
+        <v>-1.0235619473227329E-3</v>
       </c>
       <c r="F8" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C8,TRUE,E8)</f>
-        <v>3.0253899855799196E-3</v>
+        <v>2.9935619473227329E-3</v>
       </c>
       <c r="G8" s="79">
         <f t="shared" si="0"/>
-        <v>1.9899999999999996E-3</v>
+        <v>1.97E-3</v>
       </c>
       <c r="Z8" s="71"/>
       <c r="AA8" s="71"/>
@@ -9696,27 +9696,27 @@
       </c>
       <c r="B9" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C9)</f>
-        <v>42341</v>
+        <v>42342</v>
       </c>
       <c r="C9" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A9&amp;"M","mf")</f>
-        <v>42345</v>
+        <v>42346</v>
       </c>
       <c r="D9" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C9)</f>
-        <v>42711</v>
+        <v>42712</v>
       </c>
       <c r="E9" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B9,,AllTriggers)</f>
-        <v>-9.8590829280935767E-4</v>
+        <v>-9.6858868030299953E-4</v>
       </c>
       <c r="F9" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C9,TRUE,E9)</f>
-        <v>3.0359082928093574E-3</v>
+        <v>2.9985886803029992E-3</v>
       </c>
       <c r="G9" s="79">
         <f t="shared" si="0"/>
-        <v>2.0499999999999997E-3</v>
+        <v>2.0299999999999997E-3</v>
       </c>
       <c r="Z9" s="71"/>
       <c r="AA9" s="71"/>
@@ -9728,23 +9728,23 @@
       </c>
       <c r="B10" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C10)</f>
-        <v>42369</v>
+        <v>42375</v>
       </c>
       <c r="C10" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A10&amp;"M","mf")</f>
-        <v>42374</v>
+        <v>42377</v>
       </c>
       <c r="D10" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C10)</f>
-        <v>42740</v>
+        <v>42744</v>
       </c>
       <c r="E10" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B10,,AllTriggers)</f>
-        <v>-9.1955990461468429E-4</v>
+        <v>-8.8567113191482573E-4</v>
       </c>
       <c r="F10" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C10,TRUE,E10)</f>
-        <v>3.0595599046146847E-3</v>
+        <v>3.025671131914826E-3</v>
       </c>
       <c r="G10" s="79">
         <f t="shared" si="0"/>
@@ -9761,27 +9761,27 @@
       </c>
       <c r="B11" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C11)</f>
-        <v>42403</v>
+        <v>42404</v>
       </c>
       <c r="C11" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A11&amp;"M","mf")</f>
-        <v>42405</v>
+        <v>42408</v>
       </c>
       <c r="D11" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C11)</f>
-        <v>42772</v>
+        <v>42774</v>
       </c>
       <c r="E11" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B11,,AllTriggers)</f>
-        <v>-8.5368361973573879E-4</v>
+        <v>-8.1315138646498493E-4</v>
       </c>
       <c r="F11" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C11,TRUE,E11)</f>
-        <v>3.1036836197357392E-3</v>
+        <v>3.0731513864649847E-3</v>
       </c>
       <c r="G11" s="79">
         <f t="shared" si="0"/>
-        <v>2.2500000000000003E-3</v>
+        <v>2.2599999999999999E-3</v>
       </c>
       <c r="H11" s="72"/>
       <c r="Z11" s="71"/>
@@ -9794,27 +9794,27 @@
       </c>
       <c r="B12" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C12)</f>
-        <v>42432</v>
+        <v>42433</v>
       </c>
       <c r="C12" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>42436</v>
+        <v>42437</v>
       </c>
       <c r="D12" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C12)</f>
-        <v>42801</v>
+        <v>42802</v>
       </c>
       <c r="E12" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B12,,AllTriggers)</f>
-        <v>-7.8902116148222732E-4</v>
+        <v>-7.432712396037201E-4</v>
       </c>
       <c r="F12" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C12,TRUE,E12)</f>
-        <v>3.149021161482227E-3</v>
+        <v>3.1132712396037205E-3</v>
       </c>
       <c r="G12" s="79">
         <f t="shared" si="0"/>
-        <v>2.3599999999999997E-3</v>
+        <v>2.3700000000000006E-3</v>
       </c>
       <c r="H12" s="72"/>
       <c r="Z12" s="71"/>
@@ -9827,27 +9827,27 @@
       </c>
       <c r="B13" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C13)</f>
-        <v>42461</v>
+        <v>42466</v>
       </c>
       <c r="C13" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>42465</v>
+        <v>42468</v>
       </c>
       <c r="D13" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C13)</f>
-        <v>42830</v>
+        <v>42835</v>
       </c>
       <c r="E13" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B13,,AllTriggers)</f>
-        <v>-7.0816670071369961E-4</v>
+        <v>-6.4979075058956915E-4</v>
       </c>
       <c r="F13" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C13,TRUE,E13)</f>
-        <v>3.1881667007136998E-3</v>
+        <v>3.1597907505895692E-3</v>
       </c>
       <c r="G13" s="79">
         <f t="shared" si="0"/>
-        <v>2.4800000000000004E-3</v>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="H13" s="72"/>
       <c r="Z13" s="71"/>
@@ -9860,27 +9860,27 @@
       </c>
       <c r="B14" s="82">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C14)</f>
-        <v>42493</v>
+        <v>42495</v>
       </c>
       <c r="C14" s="82">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>42495</v>
+        <v>42499</v>
       </c>
       <c r="D14" s="82">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C14)</f>
-        <v>42860</v>
+        <v>42864</v>
       </c>
       <c r="E14" s="83">
         <f>_xll.qlIndexFixing(ON_12M_index,B14,,AllTriggers)</f>
-        <v>-6.1290213869100662E-4</v>
+        <v>-5.4952239367591098E-4</v>
       </c>
       <c r="F14" s="84">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C14,TRUE,E14)</f>
-        <v>3.2429021386910064E-3</v>
+        <v>3.2095223936759111E-3</v>
       </c>
       <c r="G14" s="83">
         <f t="shared" si="0"/>
-        <v>2.6299999999999995E-3</v>
+        <v>2.66E-3</v>
       </c>
       <c r="H14" s="72"/>
       <c r="Z14" s="71"/>
@@ -9893,27 +9893,27 @@
       </c>
       <c r="B15" s="74">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C15)</f>
-        <v>42523</v>
+        <v>42527</v>
       </c>
       <c r="C15" s="74">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A15&amp;"M","mf")</f>
-        <v>42527</v>
+        <v>42529</v>
       </c>
       <c r="D15" s="74">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C15)</f>
-        <v>42892</v>
+        <v>42894</v>
       </c>
       <c r="E15" s="75">
         <f>_xll.qlIndexFixing(ON_12M_index,B15,,AllTriggers)</f>
-        <v>-4.9331305854211918E-4</v>
+        <v>-4.3199612796486318E-4</v>
       </c>
       <c r="F15" s="76">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C15,TRUE,E15)</f>
-        <v>3.2733130585421194E-3</v>
+        <v>3.2319961279648635E-3</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" si="0"/>
-        <v>2.7800000000000004E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="H15" s="72"/>
       <c r="Z15" s="71"/>
@@ -9926,27 +9926,27 @@
       </c>
       <c r="B16" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C16)</f>
-        <v>42552</v>
+        <v>42557</v>
       </c>
       <c r="C16" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A16&amp;"M","mf")</f>
-        <v>42556</v>
+        <v>42559</v>
       </c>
       <c r="D16" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C16)</f>
-        <v>42921</v>
+        <v>42926</v>
       </c>
       <c r="E16" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B16,,AllTriggers)</f>
-        <v>-3.7704931098093199E-4</v>
+        <v>-3.034970565257806E-4</v>
       </c>
       <c r="F16" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C16,TRUE,E16)</f>
-        <v>3.2924654825945859E-3</v>
+        <v>3.2491099821507236E-3</v>
       </c>
       <c r="G16" s="79">
         <f t="shared" si="0"/>
-        <v>2.9154161716136539E-3</v>
+        <v>2.9456129256249432E-3</v>
       </c>
       <c r="H16" s="72"/>
       <c r="Z16" s="71"/>
@@ -9959,27 +9959,27 @@
       </c>
       <c r="B17" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C17)</f>
-        <v>42585</v>
+        <v>42586</v>
       </c>
       <c r="C17" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A17&amp;"M","mf")</f>
-        <v>42587</v>
+        <v>42590</v>
       </c>
       <c r="D17" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C17)</f>
-        <v>42954</v>
+        <v>42955</v>
       </c>
       <c r="E17" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B17,,AllTriggers)</f>
-        <v>-2.3986266715202213E-4</v>
+        <v>-1.7353360523490223E-4</v>
       </c>
       <c r="F17" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C17,TRUE,E17)</f>
-        <v>3.312530327486833E-3</v>
+        <v>3.2686832928084629E-3</v>
       </c>
       <c r="G17" s="79">
         <f t="shared" si="0"/>
-        <v>3.072667660334811E-3</v>
+        <v>3.0951496875735608E-3</v>
       </c>
       <c r="H17" s="72"/>
       <c r="Z17" s="71"/>
@@ -9992,27 +9992,27 @@
       </c>
       <c r="B18" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C18)</f>
-        <v>42614</v>
+        <v>42619</v>
       </c>
       <c r="C18" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A18&amp;"M","mf")</f>
-        <v>42618</v>
+        <v>42621</v>
       </c>
       <c r="D18" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C18)</f>
-        <v>42983</v>
+        <v>42986</v>
       </c>
       <c r="E18" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B18,,AllTriggers)</f>
-        <v>-1.0315508320850111E-4</v>
+        <v>-3.1316881745381079E-5</v>
       </c>
       <c r="F18" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C18,TRUE,E18)</f>
-        <v>3.332211413577168E-3</v>
+        <v>3.2900006325037633E-3</v>
       </c>
       <c r="G18" s="79">
         <f t="shared" si="0"/>
-        <v>3.229056330368667E-3</v>
+        <v>3.2586837507583822E-3</v>
       </c>
       <c r="H18" s="72"/>
       <c r="Z18" s="71"/>
@@ -10025,27 +10025,27 @@
       </c>
       <c r="B19" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C19)</f>
-        <v>42646</v>
+        <v>42649</v>
       </c>
       <c r="C19" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>42648</v>
+        <v>42653</v>
       </c>
       <c r="D19" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C19)</f>
-        <v>43013</v>
+        <v>43018</v>
       </c>
       <c r="E19" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B19,,AllTriggers)</f>
-        <v>4.5685514266988993E-5</v>
+        <v>1.2407591610514126E-4</v>
       </c>
       <c r="F19" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C19,TRUE,E19)</f>
-        <v>3.3509290958951385E-3</v>
+        <v>3.3136464044181205E-3</v>
       </c>
       <c r="G19" s="79">
         <f t="shared" si="0"/>
-        <v>3.3966146101621275E-3</v>
+        <v>3.4377223205232618E-3</v>
       </c>
       <c r="H19" s="72"/>
       <c r="Z19" s="71"/>
@@ -10058,27 +10058,27 @@
       </c>
       <c r="B20" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C20)</f>
-        <v>42677</v>
+        <v>42678</v>
       </c>
       <c r="C20" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>42681</v>
+        <v>42682</v>
       </c>
       <c r="D20" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C20)</f>
-        <v>43046</v>
+        <v>43047</v>
       </c>
       <c r="E20" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B20,,AllTriggers)</f>
-        <v>2.2551194524019603E-4</v>
+        <v>2.7488306561570971E-4</v>
       </c>
       <c r="F20" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C20,TRUE,E20)</f>
-        <v>3.3711880998827646E-3</v>
+        <v>3.336353205986979E-3</v>
       </c>
       <c r="G20" s="79">
         <f t="shared" si="0"/>
-        <v>3.5967000451229605E-3</v>
+        <v>3.6112362716026886E-3</v>
       </c>
       <c r="H20" s="72"/>
       <c r="Z20" s="71"/>
@@ -10091,27 +10091,27 @@
       </c>
       <c r="B21" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C21)</f>
-        <v>42705</v>
+        <v>42710</v>
       </c>
       <c r="C21" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>42709</v>
+        <v>42712</v>
       </c>
       <c r="D21" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C21)</f>
-        <v>43074</v>
+        <v>43077</v>
       </c>
       <c r="E21" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B21,,AllTriggers)</f>
-        <v>3.9391805587752862E-4</v>
+        <v>4.4373441001084954E-4</v>
       </c>
       <c r="F21" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C21,TRUE,E21)</f>
-        <v>3.3881401080600657E-3</v>
+        <v>3.3609612856669046E-3</v>
       </c>
       <c r="G21" s="79">
         <f t="shared" si="0"/>
-        <v>3.7820581639375944E-3</v>
+        <v>3.804695695677754E-3</v>
       </c>
       <c r="H21" s="72"/>
       <c r="Z21" s="71"/>
@@ -10124,27 +10124,27 @@
       </c>
       <c r="B22" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C22)</f>
-        <v>42738</v>
+        <v>42740</v>
       </c>
       <c r="C22" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>42740</v>
+        <v>42744</v>
       </c>
       <c r="D22" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C22)</f>
-        <v>43105</v>
+        <v>43109</v>
       </c>
       <c r="E22" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B22,,AllTriggers)</f>
-        <v>5.6437606049824227E-4</v>
+        <v>6.0629936131333356E-4</v>
       </c>
       <c r="F22" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C22,TRUE,E22)</f>
-        <v>3.4066909707264749E-3</v>
+        <v>3.3882837600152861E-3</v>
       </c>
       <c r="G22" s="79">
         <f t="shared" si="0"/>
-        <v>3.9710670312247173E-3</v>
+        <v>3.9945831213286194E-3</v>
       </c>
       <c r="H22" s="72"/>
       <c r="Z22" s="71"/>
@@ -10157,27 +10157,27 @@
       </c>
       <c r="B23" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C23)</f>
-        <v>42768</v>
+        <v>42772</v>
       </c>
       <c r="C23" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>42772</v>
+        <v>42774</v>
       </c>
       <c r="D23" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C23)</f>
-        <v>43137</v>
+        <v>43139</v>
       </c>
       <c r="E23" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B23,,AllTriggers)</f>
-        <v>7.9239095104370095E-4</v>
+        <v>8.018408858130869E-4</v>
       </c>
       <c r="F23" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C23,TRUE,E23)</f>
-        <v>3.4256407500675525E-3</v>
+        <v>3.4147350622349094E-3</v>
       </c>
       <c r="G23" s="79">
         <f t="shared" si="0"/>
-        <v>4.2180317011112538E-3</v>
+        <v>4.2165759480479962E-3</v>
       </c>
       <c r="H23" s="72"/>
       <c r="Z23" s="71"/>
@@ -10190,27 +10190,27 @@
       </c>
       <c r="B24" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C24)</f>
-        <v>42796</v>
+        <v>42800</v>
       </c>
       <c r="C24" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>42800</v>
+        <v>42802</v>
       </c>
       <c r="D24" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C24)</f>
-        <v>43165</v>
+        <v>43167</v>
       </c>
       <c r="E24" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B24,,AllTriggers)</f>
-        <v>1.0014910471708635E-3</v>
+        <v>9.9041708585097775E-4</v>
       </c>
       <c r="F24" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C24,TRUE,E24)</f>
-        <v>3.44208902884153E-3</v>
+        <v>3.4400078691739938E-3</v>
       </c>
       <c r="G24" s="79">
         <f t="shared" si="0"/>
-        <v>4.4435800760123934E-3</v>
+        <v>4.4304249550249711E-3</v>
       </c>
       <c r="H24" s="72"/>
       <c r="Z24" s="71"/>
@@ -10223,27 +10223,27 @@
       </c>
       <c r="B25" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C25)</f>
-        <v>42828</v>
+        <v>42831</v>
       </c>
       <c r="C25" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A25&amp;"M","mf")</f>
-        <v>42830</v>
+        <v>42835</v>
       </c>
       <c r="D25" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C25)</f>
-        <v>43195</v>
+        <v>43200</v>
       </c>
       <c r="E25" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B25,,AllTriggers)</f>
-        <v>1.2324956161628288E-3</v>
+        <v>1.216924080933587E-3</v>
       </c>
       <c r="F25" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C25,TRUE,E25)</f>
-        <v>3.4596089492655046E-3</v>
+        <v>3.4703364507519953E-3</v>
       </c>
       <c r="G25" s="79">
         <f t="shared" si="0"/>
-        <v>4.6921045654283334E-3</v>
+        <v>4.6872605316855822E-3</v>
       </c>
       <c r="H25" s="72"/>
       <c r="Z25" s="71"/>
@@ -10256,27 +10256,27 @@
       </c>
       <c r="B26" s="82">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C26)</f>
-        <v>42858</v>
+        <v>42859</v>
       </c>
       <c r="C26" s="82">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A26&amp;"M","mf")</f>
-        <v>42860</v>
+        <v>42863</v>
       </c>
       <c r="D26" s="82">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C26)</f>
-        <v>43227</v>
+        <v>43228</v>
       </c>
       <c r="E26" s="83">
         <f>_xll.qlIndexFixing(ON_12M_index,B26,,AllTriggers)</f>
-        <v>1.4822007169898116E-3</v>
+        <v>1.4150636088540642E-3</v>
       </c>
       <c r="F26" s="84">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C26,TRUE,E26)</f>
-        <v>3.4770567533419757E-3</v>
+        <v>3.4963790818891114E-3</v>
       </c>
       <c r="G26" s="83">
         <f t="shared" si="0"/>
-        <v>4.9592574703317873E-3</v>
+        <v>4.9114426907431756E-3</v>
       </c>
       <c r="H26" s="72"/>
       <c r="Z26" s="71"/>
@@ -10289,27 +10289,27 @@
       </c>
       <c r="B27" s="340">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C27)</f>
-        <v>42887</v>
+        <v>42892</v>
       </c>
       <c r="C27" s="340">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A27&amp;"M","mf")</f>
-        <v>42891</v>
+        <v>42894</v>
       </c>
       <c r="D27" s="340">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C27)</f>
-        <v>43256</v>
+        <v>43259</v>
       </c>
       <c r="E27" s="341">
         <f>_xll.qlIndexFixing(ON_12M_index,B27,,AllTriggers)</f>
-        <v>1.7349519372277229E-3</v>
+        <v>1.6446242247501973E-3</v>
       </c>
       <c r="F27" s="342">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C27,TRUE,E27)</f>
-        <v>3.4950480627722776E-3</v>
+        <v>3.5253757752498026E-3</v>
       </c>
       <c r="G27" s="341">
         <f t="shared" si="0"/>
-        <v>5.2300000000000003E-3</v>
+        <v>5.1700000000000001E-3</v>
       </c>
       <c r="H27" s="72"/>
       <c r="Z27" s="71"/>
@@ -10420,7 +10420,7 @@
       </c>
       <c r="N2" s="102">
         <f>_xll.ohTrigger(M3:M7)</f>
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="H3" s="139">
         <f>'1MSynthDepo'!V11</f>
-        <v>-5.8082196471076486E-4</v>
+        <v>-5.9043666484015489E-4</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>56</v>
@@ -10459,7 +10459,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="120">
         <f t="array" ref="L3:L63">QuoteLive</f>
-        <v>-5.8082196471076486E-4</v>
+        <v>-5.9043666484015489E-4</v>
       </c>
       <c r="M3" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND($L3,6),EvaluationDate)</f>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="H4" s="139">
         <f>'1MSynthDepo'!V12</f>
-        <v>-5.9187099444381525E-4</v>
+        <v>-5.9885151029488118E-4</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>56</v>
@@ -10503,7 +10503,7 @@
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="120">
-        <v>-5.9187099444381525E-4</v>
+        <v>-5.9885151029488118E-4</v>
       </c>
       <c r="M4" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND($L4,6),EvaluationDate)</f>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="H5" s="139">
         <f>'1MSynthDepo'!V13</f>
-        <v>-5.7876069573716189E-4</v>
+        <v>-5.8752678013267764E-4</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>56</v>
@@ -10544,7 +10544,7 @@
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="120">
-        <v>-5.7876069573716189E-4</v>
+        <v>-5.8752678013267764E-4</v>
       </c>
       <c r="M5" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND($L5,6),EvaluationDate)</f>
@@ -10575,7 +10575,7 @@
       </c>
       <c r="H6" s="139">
         <f>'1MSynthDepo'!V14</f>
-        <v>-5.9272830149202454E-4</v>
+        <v>-6.0502935140022932E-4</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>56</v>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="122">
-        <v>-5.9272830149202454E-4</v>
+        <v>-6.0502935140022932E-4</v>
       </c>
       <c r="M6" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND($L6,6),EvaluationDate)</f>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="H7" s="142">
         <f>'1MSynthDepo'!V15</f>
-        <v>-6.1743165474681752E-4</v>
+        <v>-6.2758270029439345E-4</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>56</v>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="124">
-        <v>-6.1743165474681752E-4</v>
+        <v>-6.2758270029439345E-4</v>
       </c>
       <c r="M7" s="125">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND($L7,6),EvaluationDate)</f>
@@ -10656,7 +10656,7 @@
       </c>
       <c r="H8" s="144">
         <f>'3MSynthDepo'!I25</f>
-        <v>-1.3505198438235055E-4</v>
+        <v>-1.5235886164699508E-4</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="132">
@@ -10664,15 +10664,15 @@
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="120">
-        <v>-1.3505198438235055E-4</v>
+        <v>-1.5235886164699508E-4</v>
       </c>
       <c r="M8" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND($L8,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>6.9999999999999804E-6</v>
       </c>
       <c r="N8" s="108">
         <f>_xll.ohTrigger(M8:M14)</f>
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -10698,7 +10698,7 @@
       </c>
       <c r="H9" s="139">
         <f>'3MSynthDepo'!I26</f>
-        <v>-1.307744631156333E-4</v>
+        <v>-1.4615060688529167E-4</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="132">
@@ -10706,11 +10706,11 @@
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="120">
-        <v>-1.307744631156333E-4</v>
+        <v>-1.4615060688529167E-4</v>
       </c>
       <c r="M9" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND($L9,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>6.0000000000000103E-6</v>
       </c>
       <c r="N9" s="104"/>
     </row>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="H10" s="139">
         <f>'3MSynthDepo'!I27</f>
-        <v>-9.3422520025690913E-5</v>
+        <v>-1.1905590967087321E-4</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="132">
@@ -10742,11 +10742,11 @@
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="120">
-        <v>-9.3422520025690913E-5</v>
+        <v>-1.1905590967087321E-4</v>
       </c>
       <c r="M10" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND($L10,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>5.9999999999999968E-6</v>
       </c>
       <c r="N10" s="104"/>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="H11" s="147">
         <f>'3MSynthDepo'!I28</f>
-        <v>-8.622357393596656E-5</v>
+        <v>-1.2210649579267953E-4</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="133">
@@ -10778,11 +10778,11 @@
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="122">
-        <v>-8.622357393596656E-5</v>
+        <v>-1.2210649579267953E-4</v>
       </c>
       <c r="M11" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND($L11,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>5.9999999999999968E-6</v>
       </c>
       <c r="N11" s="104"/>
     </row>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="H12" s="139">
         <f>'3MSynthDepo'!I29</f>
-        <v>-8.5539265429578025E-5</v>
+        <v>-1.2789266630397478E-4</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="132">
@@ -10814,11 +10814,11 @@
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="120">
-        <v>-8.5539265429578025E-5</v>
+        <v>-1.2789266630397478E-4</v>
       </c>
       <c r="M12" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND($L12,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>5.0000000000000131E-6</v>
       </c>
       <c r="N12" s="104"/>
     </row>
@@ -10842,7 +10842,7 @@
       </c>
       <c r="H13" s="139">
         <f>'3MSynthDepo'!I30</f>
-        <v>-8.6490719934248007E-5</v>
+        <v>-1.3135129780675724E-4</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="132">
@@ -10850,11 +10850,11 @@
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="120">
-        <v>-8.6490719934248007E-5</v>
+        <v>-1.3135129780675724E-4</v>
       </c>
       <c r="M13" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND($L13,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>3.9999999999999888E-6</v>
       </c>
       <c r="N13" s="104"/>
     </row>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="H14" s="147">
         <f>'3MSynthDepo'!I31</f>
-        <v>-9.2702532836066103E-5</v>
+        <v>-1.3414978244339639E-4</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="133">
@@ -10886,11 +10886,11 @@
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="122">
-        <v>-9.2702532836066103E-5</v>
+        <v>-1.3414978244339639E-4</v>
       </c>
       <c r="M14" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND($L14,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>2.9999999999999916E-6</v>
       </c>
       <c r="N14" s="104"/>
     </row>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="H15" s="144">
         <f>'6MSynthDepo'!I25</f>
-        <v>3.2750721412178052E-4</v>
+        <v>3.241783158713929E-4</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="132">
@@ -10927,15 +10927,15 @@
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="120">
-        <v>3.2750721412178052E-4</v>
+        <v>3.241783158713929E-4</v>
       </c>
       <c r="M15" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND($L15,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>2.6000000000000036E-5</v>
       </c>
       <c r="N15" s="110">
         <f>_xll.ohTrigger(M15:M24)</f>
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -10964,7 +10964,7 @@
       </c>
       <c r="H16" s="139">
         <f>'6MSynthDepo'!I26</f>
-        <v>3.3439618567879644E-4</v>
+        <v>3.3416013810873475E-4</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="132">
@@ -10972,11 +10972,11 @@
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="120">
-        <v>3.3439618567879644E-4</v>
+        <v>3.3416013810873475E-4</v>
       </c>
       <c r="M16" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND($L16,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>2.5000000000000011E-5</v>
       </c>
       <c r="N16" s="111"/>
     </row>
@@ -11003,7 +11003,7 @@
       </c>
       <c r="H17" s="139">
         <f>'6MSynthDepo'!I27</f>
-        <v>3.7626677468617837E-4</v>
+        <v>3.6559869292534283E-4</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="132">
@@ -11011,11 +11011,11 @@
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="120">
-        <v>3.7626677468617837E-4</v>
+        <v>3.6559869292534283E-4</v>
       </c>
       <c r="M17" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND($L17,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>2.5000000000000011E-5</v>
       </c>
       <c r="N17" s="111"/>
     </row>
@@ -11042,7 +11042,7 @@
       </c>
       <c r="H18" s="139">
         <f>'6MSynthDepo'!I28</f>
-        <v>3.8791881952374548E-4</v>
+        <v>3.6682874906799966E-4</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="132">
@@ -11050,11 +11050,11 @@
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="120">
-        <v>3.8791881952374548E-4</v>
+        <v>3.6682874906799966E-4</v>
       </c>
       <c r="M18" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND($L18,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>2.2999999999999963E-5</v>
       </c>
       <c r="N18" s="111"/>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="H19" s="144">
         <f>'6MSynthDepo'!I29</f>
-        <v>3.9485298415683237E-4</v>
+        <v>3.6645507358468166E-4</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="135">
@@ -11089,11 +11089,11 @@
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="126">
-        <v>3.9485298415683237E-4</v>
+        <v>3.6645507358468166E-4</v>
       </c>
       <c r="M19" s="127">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND($L19,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>2.1000000000000023E-5</v>
       </c>
       <c r="N19" s="111"/>
     </row>
@@ -11120,7 +11120,7 @@
       </c>
       <c r="H20" s="139">
         <f>'6MSynthDepo'!I30</f>
-        <v>4.118898886290669E-4</v>
+        <v>3.81994436043444E-4</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="132">
@@ -11128,11 +11128,11 @@
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="120">
-        <v>4.118898886290669E-4</v>
+        <v>3.81994436043444E-4</v>
       </c>
       <c r="M20" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND($L20,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.7000000000000034E-5</v>
       </c>
       <c r="N20" s="111"/>
     </row>
@@ -11159,7 +11159,7 @@
       </c>
       <c r="H21" s="139">
         <f>'6MSynthDepo'!I31</f>
-        <v>4.2421685789268684E-4</v>
+        <v>3.9484329466596776E-4</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="132">
@@ -11167,11 +11167,11 @@
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="120">
-        <v>4.2421685789268684E-4</v>
+        <v>3.9484329466596776E-4</v>
       </c>
       <c r="M21" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND($L21,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.4000000000000015E-5</v>
       </c>
       <c r="N21" s="111"/>
     </row>
@@ -11198,7 +11198,7 @@
       </c>
       <c r="H22" s="139">
         <f>'6MSynthDepo'!I32</f>
-        <v>4.5434777872524067E-4</v>
+        <v>4.2839036714768179E-4</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="132">
@@ -11206,11 +11206,11 @@
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="120">
-        <v>4.5434777872524067E-4</v>
+        <v>4.2839036714768179E-4</v>
       </c>
       <c r="M22" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND($L22,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.0999999999999996E-5</v>
       </c>
       <c r="N22" s="111"/>
     </row>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="H23" s="139">
         <f>'6MSynthDepo'!I33</f>
-        <v>4.8912701611356242E-4</v>
+        <v>4.5430778824257596E-4</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="132">
@@ -11245,11 +11245,11 @@
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="120">
-        <v>4.8912701611356242E-4</v>
+        <v>4.5430778824257596E-4</v>
       </c>
       <c r="M23" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND($L23,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>7.9999999999999776E-6</v>
       </c>
       <c r="N23" s="111"/>
     </row>
@@ -11276,7 +11276,7 @@
       </c>
       <c r="H24" s="147">
         <f>'6MSynthDepo'!I34</f>
-        <v>5.2304913276806156E-4</v>
+        <v>4.8065290598658667E-4</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="133">
@@ -11284,11 +11284,11 @@
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="122">
-        <v>5.2304913276806156E-4</v>
+        <v>4.8065290598658667E-4</v>
       </c>
       <c r="M24" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND($L24,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>7.0000000000000075E-6</v>
       </c>
       <c r="N24" s="111"/>
     </row>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="H25" s="144">
         <f>'1YSynthDepo'!I20</f>
-        <v>1.4764517005527722E-3</v>
+        <v>1.609122302923538E-3</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="132">
@@ -11325,15 +11325,15 @@
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="120">
-        <v>1.4764517005527722E-3</v>
+        <v>1.609122302923538E-3</v>
       </c>
       <c r="M25" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND($L25,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-3.6000000000000008E-5</v>
       </c>
       <c r="N25" s="110">
         <f>_xll.ohTrigger(M25:M40)</f>
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -11362,7 +11362,7 @@
       </c>
       <c r="H26" s="139">
         <f>'1YSynthDepo'!I21</f>
-        <v>1.4778043448274555E-3</v>
+        <v>1.6082451892161587E-3</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="132">
@@ -11370,11 +11370,11 @@
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="120">
-        <v>1.4778043448274555E-3</v>
+        <v>1.6082451892161587E-3</v>
       </c>
       <c r="M26" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND($L26,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-3.4999999999999875E-5</v>
       </c>
       <c r="N26" s="111"/>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="H27" s="139">
         <f>'1YSynthDepo'!I22</f>
-        <v>1.5101854782478036E-3</v>
+        <v>1.6272938688897754E-3</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="132">
@@ -11409,11 +11409,11 @@
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="120">
-        <v>1.5101854782478036E-3</v>
+        <v>1.6272938688897754E-3</v>
       </c>
       <c r="M27" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND($L27,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-3.3999999999999959E-5</v>
       </c>
       <c r="N27" s="111"/>
     </row>
@@ -11440,7 +11440,7 @@
       </c>
       <c r="H28" s="139">
         <f>'1YSynthDepo'!I23</f>
-        <v>1.5125965757561183E-3</v>
+        <v>1.6164289598753964E-3</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="132">
@@ -11448,11 +11448,11 @@
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="120">
-        <v>1.5125965757561183E-3</v>
+        <v>1.6164289598753964E-3</v>
       </c>
       <c r="M28" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND($L28,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-3.3000000000000043E-5</v>
       </c>
       <c r="N28" s="111"/>
     </row>
@@ -11479,7 +11479,7 @@
       </c>
       <c r="H29" s="147">
         <f>'1YSynthDepo'!I24</f>
-        <v>1.506754834099319E-3</v>
+        <v>1.6009335986062467E-3</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="133">
@@ -11487,11 +11487,11 @@
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="122">
-        <v>1.506754834099319E-3</v>
+        <v>1.6009335986062467E-3</v>
       </c>
       <c r="M29" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND($L29,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-3.0999999999999995E-5</v>
       </c>
       <c r="N29" s="111"/>
     </row>
@@ -11518,7 +11518,7 @@
       </c>
       <c r="H30" s="139">
         <f>'1YSynthDepo'!I25</f>
-        <v>1.4883884719828688E-3</v>
+        <v>1.5650524683749217E-3</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="132">
@@ -11526,11 +11526,11 @@
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="120">
-        <v>1.4883884719828688E-3</v>
+        <v>1.5650524683749217E-3</v>
       </c>
       <c r="M30" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND($L30,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-2.5999999999999981E-5</v>
       </c>
       <c r="N30" s="110"/>
     </row>
@@ -11557,7 +11557,7 @@
       </c>
       <c r="H31" s="139">
         <f>'1YSynthDepo'!I26</f>
-        <v>1.4666190189284E-3</v>
+        <v>1.5377312623009118E-3</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="132">
@@ -11565,11 +11565,11 @@
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="120">
-        <v>1.4666190189284E-3</v>
+        <v>1.5377312623009118E-3</v>
       </c>
       <c r="M31" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND($L31,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-2.1999999999999884E-5</v>
       </c>
       <c r="N31" s="111"/>
     </row>
@@ -11596,7 +11596,7 @@
       </c>
       <c r="H32" s="139">
         <f>'1YSynthDepo'!I27</f>
-        <v>1.4715856604616863E-3</v>
+        <v>1.5344112658990528E-3</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="132">
@@ -11604,11 +11604,11 @@
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="120">
-        <v>1.4715856604616863E-3</v>
+        <v>1.5344112658990528E-3</v>
       </c>
       <c r="M32" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND($L32,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-1.899999999999992E-5</v>
       </c>
       <c r="N32" s="111"/>
     </row>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="H33" s="139">
         <f>'1YSynthDepo'!I28</f>
-        <v>1.4822917116486631E-3</v>
+        <v>1.5259618386373067E-3</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="132">
@@ -11643,11 +11643,11 @@
       </c>
       <c r="K33" s="16"/>
       <c r="L33" s="120">
-        <v>1.4822917116486631E-3</v>
+        <v>1.5259618386373067E-3</v>
       </c>
       <c r="M33" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND($L33,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-1.5000000000000039E-5</v>
       </c>
       <c r="N33" s="111"/>
     </row>
@@ -11674,7 +11674,7 @@
       </c>
       <c r="H34" s="139">
         <f>'1YSynthDepo'!I29</f>
-        <v>1.495272877750576E-3</v>
+        <v>1.5253302475532371E-3</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="132">
@@ -11682,11 +11682,11 @@
       </c>
       <c r="K34" s="16"/>
       <c r="L34" s="120">
-        <v>1.495272877750576E-3</v>
+        <v>1.5253302475532371E-3</v>
       </c>
       <c r="M34" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND($L34,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-1.1999999999999858E-5</v>
       </c>
       <c r="N34" s="111"/>
     </row>
@@ -11713,7 +11713,7 @@
       </c>
       <c r="H35" s="139">
         <f>'1YSynthDepo'!I30</f>
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="132">
@@ -11721,11 +11721,11 @@
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="120">
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
       <c r="M35" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND($L35,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-9.9999999999991589E-7</v>
       </c>
       <c r="N35" s="111"/>
     </row>
@@ -11752,7 +11752,7 @@
       </c>
       <c r="H36" s="139">
         <f>'1YSynthDepo'!I31</f>
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="132">
@@ -11760,11 +11760,11 @@
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="120">
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
       <c r="M36" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND($L36,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-9.9999999999991589E-7</v>
       </c>
       <c r="N36" s="111"/>
     </row>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="H37" s="139">
         <f>'1YSynthDepo'!I32</f>
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="132">
@@ -11799,11 +11799,11 @@
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="120">
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
       <c r="M37" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND($L37,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-9.9999999999991589E-7</v>
       </c>
       <c r="N37" s="111"/>
     </row>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="H38" s="139">
         <f>'1YSynthDepo'!I33</f>
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="132">
@@ -11838,11 +11838,11 @@
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="120">
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
       <c r="M38" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND($L38,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-9.9999999999991589E-7</v>
       </c>
       <c r="N38" s="111"/>
     </row>
@@ -11869,7 +11869,7 @@
       </c>
       <c r="H39" s="139">
         <f>'1YSynthDepo'!I34</f>
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="132">
@@ -11877,11 +11877,11 @@
       </c>
       <c r="K39" s="16"/>
       <c r="L39" s="120">
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
       <c r="M39" s="121">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND($L39,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-9.9999999999991589E-7</v>
       </c>
       <c r="N39" s="111"/>
     </row>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="H40" s="147">
         <f>'1YSynthDepo'!I35</f>
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="133">
@@ -11916,11 +11916,11 @@
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="122">
-        <v>1.6814497329626097E-3</v>
+        <v>1.6784772998424289E-3</v>
       </c>
       <c r="M40" s="123">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND($L40,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-9.9999999999991589E-7</v>
       </c>
       <c r="N40" s="110"/>
     </row>
@@ -11953,7 +11953,7 @@
       </c>
       <c r="H41" s="152">
         <f>SynthFra!G4</f>
-        <v>1.7799999999999997E-3</v>
+        <v>1.75E-3</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="136">
@@ -11961,15 +11961,15 @@
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="128">
-        <v>1.7799999999999997E-3</v>
+        <v>1.75E-3</v>
       </c>
       <c r="M41" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(L41,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.0000000000000026E-5</v>
       </c>
       <c r="N41" s="110">
         <f>_xll.ohTrigger(M41:M63)</f>
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="H42" s="154">
         <f>SynthFra!G5</f>
-        <v>1.83E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="136">
@@ -12009,7 +12009,7 @@
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="128">
-        <v>1.83E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="M42" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D42,ROUND(L42,6),EvaluationDate)</f>
@@ -12046,7 +12046,7 @@
       </c>
       <c r="H43" s="154">
         <f>SynthFra!G6</f>
-        <v>1.8799999999999997E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="136">
@@ -12054,7 +12054,7 @@
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="128">
-        <v>1.8799999999999997E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="M43" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D43,ROUND(L43,6),EvaluationDate)</f>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="H44" s="154">
         <f>SynthFra!G7</f>
-        <v>1.9300000000000003E-3</v>
+        <v>1.9000000000000002E-3</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="136">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="K44" s="19"/>
       <c r="L44" s="128">
-        <v>1.9300000000000003E-3</v>
+        <v>1.9000000000000002E-3</v>
       </c>
       <c r="M44" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(L44,6),EvaluationDate)</f>
@@ -12136,7 +12136,7 @@
       </c>
       <c r="H45" s="154">
         <f>SynthFra!G8</f>
-        <v>1.9899999999999996E-3</v>
+        <v>1.97E-3</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="136">
@@ -12144,7 +12144,7 @@
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="128">
-        <v>1.9899999999999996E-3</v>
+        <v>1.97E-3</v>
       </c>
       <c r="M45" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D45,ROUND(L45,6),EvaluationDate)</f>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="H46" s="154">
         <f>SynthFra!G9</f>
-        <v>2.0499999999999997E-3</v>
+        <v>2.0299999999999997E-3</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="136">
@@ -12189,7 +12189,7 @@
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="128">
-        <v>2.0499999999999997E-3</v>
+        <v>2.0299999999999997E-3</v>
       </c>
       <c r="M46" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(L46,6),EvaluationDate)</f>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="H48" s="154">
         <f>SynthFra!G11</f>
-        <v>2.2500000000000003E-3</v>
+        <v>2.2599999999999999E-3</v>
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="136">
@@ -12279,11 +12279,11 @@
       </c>
       <c r="K48" s="19"/>
       <c r="L48" s="128">
-        <v>2.2500000000000003E-3</v>
+        <v>2.2599999999999999E-3</v>
       </c>
       <c r="M48" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D48,ROUND(L48,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.0000000000000026E-5</v>
       </c>
       <c r="N48" s="111"/>
     </row>
@@ -12316,7 +12316,7 @@
       </c>
       <c r="H49" s="154">
         <f>SynthFra!G12</f>
-        <v>2.3599999999999997E-3</v>
+        <v>2.3700000000000006E-3</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="136">
@@ -12324,11 +12324,11 @@
       </c>
       <c r="K49" s="19"/>
       <c r="L49" s="128">
-        <v>2.3599999999999997E-3</v>
+        <v>2.3700000000000006E-3</v>
       </c>
       <c r="M49" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(L49,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.0000000000000026E-5</v>
       </c>
       <c r="N49" s="111"/>
     </row>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="H50" s="154">
         <f>SynthFra!G13</f>
-        <v>2.4800000000000004E-3</v>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="136">
@@ -12369,7 +12369,7 @@
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="128">
-        <v>2.4800000000000004E-3</v>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="M50" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D50,ROUND(L50,6),EvaluationDate)</f>
@@ -12406,7 +12406,7 @@
       </c>
       <c r="H51" s="154">
         <f>SynthFra!G14</f>
-        <v>2.6299999999999995E-3</v>
+        <v>2.66E-3</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="136">
@@ -12414,11 +12414,11 @@
       </c>
       <c r="K51" s="19"/>
       <c r="L51" s="128">
-        <v>2.6299999999999995E-3</v>
+        <v>2.66E-3</v>
       </c>
       <c r="M51" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(L51,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.0000000000000026E-5</v>
       </c>
       <c r="N51" s="111"/>
     </row>
@@ -12451,7 +12451,7 @@
       </c>
       <c r="H52" s="154">
         <f>SynthFra!G16</f>
-        <v>2.9154161716136539E-3</v>
+        <v>2.9456129256249432E-3</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="136">
@@ -12459,11 +12459,11 @@
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="128">
-        <v>2.9154161716136539E-3</v>
+        <v>2.9456129256249432E-3</v>
       </c>
       <c r="M52" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(L52,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-1.2000000000000292E-5</v>
       </c>
       <c r="N52" s="111"/>
     </row>
@@ -12496,7 +12496,7 @@
       </c>
       <c r="H53" s="154">
         <f>SynthFra!G17</f>
-        <v>3.072667660334811E-3</v>
+        <v>3.0951496875735608E-3</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="136">
@@ -12504,11 +12504,11 @@
       </c>
       <c r="K53" s="19"/>
       <c r="L53" s="128">
-        <v>3.072667660334811E-3</v>
+        <v>3.0951496875735608E-3</v>
       </c>
       <c r="M53" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(L53,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-2.1999999999999884E-5</v>
       </c>
       <c r="N53" s="111"/>
     </row>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="H54" s="154">
         <f>SynthFra!G18</f>
-        <v>3.229056330368667E-3</v>
+        <v>3.2586837507583822E-3</v>
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="136">
@@ -12549,11 +12549,11 @@
       </c>
       <c r="K54" s="19"/>
       <c r="L54" s="128">
-        <v>3.229056330368667E-3</v>
+        <v>3.2586837507583822E-3</v>
       </c>
       <c r="M54" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(L54,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-2.6999999999999681E-5</v>
       </c>
       <c r="N54" s="111"/>
     </row>
@@ -12586,7 +12586,7 @@
       </c>
       <c r="H55" s="154">
         <f>SynthFra!G19</f>
-        <v>3.3966146101621275E-3</v>
+        <v>3.4377223205232618E-3</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="136">
@@ -12594,11 +12594,11 @@
       </c>
       <c r="K55" s="19"/>
       <c r="L55" s="128">
-        <v>3.3966146101621275E-3</v>
+        <v>3.4377223205232618E-3</v>
       </c>
       <c r="M55" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(L55,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-3.0999999999999778E-5</v>
       </c>
       <c r="N55" s="111"/>
     </row>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="H56" s="154">
         <f>SynthFra!G20</f>
-        <v>3.5967000451229605E-3</v>
+        <v>3.6112362716026886E-3</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="136">
@@ -12639,11 +12639,11 @@
       </c>
       <c r="K56" s="19"/>
       <c r="L56" s="128">
-        <v>3.5967000451229605E-3</v>
+        <v>3.6112362716026886E-3</v>
       </c>
       <c r="M56" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D56,ROUND(L56,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-3.199999999999991E-5</v>
       </c>
       <c r="N56" s="111"/>
     </row>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="H57" s="154">
         <f>SynthFra!G21</f>
-        <v>3.7820581639375944E-3</v>
+        <v>3.804695695677754E-3</v>
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="136">
@@ -12684,11 +12684,11 @@
       </c>
       <c r="K57" s="19"/>
       <c r="L57" s="128">
-        <v>3.7820581639375944E-3</v>
+        <v>3.804695695677754E-3</v>
       </c>
       <c r="M57" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D57,ROUND(L57,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-3.0000000000000079E-5</v>
       </c>
       <c r="N57" s="111"/>
     </row>
@@ -12721,7 +12721,7 @@
       </c>
       <c r="H58" s="154">
         <f>SynthFra!G22</f>
-        <v>3.9710670312247173E-3</v>
+        <v>3.9945831213286194E-3</v>
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="136">
@@ -12729,11 +12729,11 @@
       </c>
       <c r="K58" s="19"/>
       <c r="L58" s="128">
-        <v>3.9710670312247173E-3</v>
+        <v>3.9945831213286194E-3</v>
       </c>
       <c r="M58" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D58,ROUND(L58,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-2.3999999999999716E-5</v>
       </c>
       <c r="N58" s="111"/>
     </row>
@@ -12766,7 +12766,7 @@
       </c>
       <c r="H59" s="154">
         <f>SynthFra!G23</f>
-        <v>4.2180317011112538E-3</v>
+        <v>4.2165759480479962E-3</v>
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="136">
@@ -12774,11 +12774,11 @@
       </c>
       <c r="K59" s="19"/>
       <c r="L59" s="128">
-        <v>4.2180317011112538E-3</v>
+        <v>4.2165759480479962E-3</v>
       </c>
       <c r="M59" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D59,ROUND(L59,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-1.7999999999999787E-5</v>
       </c>
       <c r="N59" s="111"/>
     </row>
@@ -12811,7 +12811,7 @@
       </c>
       <c r="H60" s="154">
         <f>SynthFra!G24</f>
-        <v>4.4435800760123934E-3</v>
+        <v>4.4304249550249711E-3</v>
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="136">
@@ -12819,11 +12819,11 @@
       </c>
       <c r="K60" s="19"/>
       <c r="L60" s="128">
-        <v>4.4435800760123934E-3</v>
+        <v>4.4304249550249711E-3</v>
       </c>
       <c r="M60" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D60,ROUND(L60,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-1.2999999999999991E-5</v>
       </c>
       <c r="N60" s="111"/>
     </row>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="H61" s="154">
         <f>SynthFra!G25</f>
-        <v>4.6921045654283334E-3</v>
+        <v>4.6872605316855822E-3</v>
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="136">
@@ -12864,11 +12864,11 @@
       </c>
       <c r="K61" s="19"/>
       <c r="L61" s="128">
-        <v>4.6921045654283334E-3</v>
+        <v>4.6872605316855822E-3</v>
       </c>
       <c r="M61" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D61,ROUND(L61,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-8.0000000000001945E-6</v>
       </c>
       <c r="N61" s="111"/>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="H62" s="154">
         <f>SynthFra!G26</f>
-        <v>4.9592574703317873E-3</v>
+        <v>4.9114426907431756E-3</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="136">
@@ -12909,11 +12909,11 @@
       </c>
       <c r="K62" s="19"/>
       <c r="L62" s="128">
-        <v>4.9592574703317873E-3</v>
+        <v>4.9114426907431756E-3</v>
       </c>
       <c r="M62" s="129">
         <f>_xll.qlSimpleQuoteSetValue(D62,ROUND(L62,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-5.0000000000006636E-6</v>
       </c>
       <c r="N62" s="111"/>
     </row>
@@ -12946,7 +12946,7 @@
       </c>
       <c r="H63" s="156">
         <f>SynthFra!G27</f>
-        <v>5.2300000000000003E-3</v>
+        <v>5.1700000000000001E-3</v>
       </c>
       <c r="I63" s="19"/>
       <c r="J63" s="137">
@@ -12954,7 +12954,7 @@
       </c>
       <c r="K63" s="19"/>
       <c r="L63" s="130">
-        <v>5.2300000000000003E-3</v>
+        <v>5.1700000000000001E-3</v>
       </c>
       <c r="M63" s="131">
         <f>_xll.qlSimpleQuoteSetValue(D63,ROUND(L63,6),EvaluationDate)</f>

--- a/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="18600" windowHeight="13635" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="18600" windowHeight="13635" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="29" r:id="rId1"/>
@@ -2030,7 +2030,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>25</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="7">
@@ -2133,12 +2133,12 @@
       <sheetData sheetId="9">
         <row r="6">
           <cell r="D6" t="str">
-            <v>M5</v>
+            <v>Q5</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>N5</v>
+            <v>U5</v>
           </cell>
         </row>
       </sheetData>
@@ -2150,19 +2150,19 @@
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>M5</v>
+            <v>Q5</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="6">
           <cell r="D6" t="str">
-            <v>M5</v>
+            <v>Q5</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>N5</v>
+            <v>U5</v>
           </cell>
         </row>
       </sheetData>
@@ -2200,12 +2200,12 @@
       <sheetData sheetId="15">
         <row r="6">
           <cell r="D6" t="str">
-            <v>Z5</v>
+            <v>H6</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>H6</v>
+            <v>M6</v>
           </cell>
         </row>
       </sheetData>
@@ -2345,36 +2345,36 @@
       <sheetData sheetId="28">
         <row r="6">
           <cell r="D6">
-            <v>42158</v>
+            <v>42215</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>42157</v>
+            <v>42214</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="29">
         <row r="6">
           <cell r="D6">
-            <v>42158</v>
+            <v>42215</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>42157</v>
+            <v>42214</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="30">
         <row r="6">
           <cell r="D6">
-            <v>42159</v>
+            <v>42216</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>42158</v>
+            <v>42215</v>
           </cell>
         </row>
       </sheetData>
@@ -2692,7 +2692,7 @@
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B1" s="44" t="str">
         <f>_xll.qlxlVersion(TRUE,EvaluationDate)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Jun  1 2015 10:45:27</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Jul 27 2015 11:55:06</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2894,7 +2894,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="31">
-        <v>42121.73238425926</v>
+        <v>42216.718761574077</v>
       </c>
       <c r="E11" s="212"/>
       <c r="G11" s="219"/>
@@ -2912,7 +2912,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="212"/>
       <c r="G12" s="219"/>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="D17" s="8">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdjust(Calendar,EvaluationDate,"f",Trigger),"2D","f")</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="E17" s="212"/>
       <c r="G17" s="225"/>
@@ -2978,7 +2978,7 @@
         <v>21</v>
       </c>
       <c r="I17" s="233">
-        <v>42159.757060185184</v>
+        <v>42216.752581018518</v>
       </c>
       <c r="J17" s="111"/>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="I18" s="33">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42159</v>
+        <v>42216</v>
       </c>
       <c r="J18" s="111"/>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="D19" s="25" t="str">
         <f>_xll.qlInterpolation(,BasisInterpolation,'1YSynthDepo'!E5:E17,'1YSynthDepo'!I5:I17)</f>
-        <v>obj_005dd#0024</v>
+        <v>obj_005d5#0002</v>
       </c>
       <c r="E19" s="212"/>
       <c r="G19" s="225"/>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="I19" s="34">
         <f>[1]!TriggerCounter</f>
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J19" s="111"/>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="D28" s="36" t="str">
         <f>_xll.qlEuribor(,"1M",D34,,Trigger)</f>
-        <v>obj_005dc#0000</v>
+        <v>obj_005d4#0000</v>
       </c>
       <c r="E28" s="212"/>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="D34" s="52" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,2,Calendar,_xll.ohPack('1MSynthDepo'!G13:G21),"actual/365",,,,D31,D32,,Trigger)</f>
-        <v>obj_005db#0000</v>
+        <v>obj_005d3#0000</v>
       </c>
       <c r="E34" s="212"/>
     </row>
@@ -3181,7 +3181,7 @@
       <c r="B37" s="211"/>
       <c r="C37" s="26">
         <f>_xll.qlTermStructureReferenceDate(D34)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="D37" s="37">
         <f>_xll.qlYieldTSDiscount(D34,C37,,Trigger)</f>
@@ -3193,11 +3193,11 @@
       <c r="B38" s="211"/>
       <c r="C38" s="27">
         <f>_xll.qlTermStructureMaxDate(D34)</f>
-        <v>42377</v>
+        <v>42433</v>
       </c>
       <c r="D38" s="38">
         <f>_xll.qlYieldTSDiscount(D34,C38,,Trigger)</f>
-        <v>1.0003746867120111</v>
+        <v>1.0004973015338785</v>
       </c>
       <c r="E38" s="229"/>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="E1" s="167"/>
       <c r="K1" s="167" t="str">
         <f>_xll.qlEuribor(,S1,,,Trigger)</f>
-        <v>obj_00596#0000</v>
+        <v>obj_0058e#0000</v>
       </c>
       <c r="L1" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(K1)</f>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="K3" s="310" t="str">
         <f>_xll.qlDepositRateHelper(,J3,K1,,Trigger)</f>
-        <v>obj_005c4#0000</v>
+        <v>obj_005ad#0000</v>
       </c>
       <c r="L3" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -3421,21 +3421,21 @@
       </c>
       <c r="R3" s="331">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="S3" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R3,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="T3" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R3,Trigger),TRUE,AllTriggers)</f>
-        <v>-6.2000000000139721E-4</v>
+        <v>-7.5000000000040085E-4</v>
       </c>
       <c r="U3" s="239"/>
       <c r="V3" s="239"/>
       <c r="W3" s="190">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R3,Trigger)</f>
-        <v>5.7451089661331167E-4</v>
+        <v>4.7612808490441014E-4</v>
       </c>
       <c r="X3" s="239"/>
       <c r="Y3" s="239"/>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="AA3" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R3,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000113889931339</v>
       </c>
       <c r="AB3" s="257"/>
       <c r="AD3" s="277" t="s">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="AE3" s="190" t="str">
         <f>_xll.qlIborIndex(,,S1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00592#0000</v>
+        <v>obj_0058a#0000</v>
       </c>
       <c r="AF3" s="54"/>
       <c r="AG3" s="54"/>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="K4" s="158" t="str">
         <f>_xll.qlSwapRateHelper2(,$J4,,C4,Calendar,$F4,$G4,$H4,$K$1,$I4,B4,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00598#0000</v>
+        <v>obj_00592#0000</v>
       </c>
       <c r="L4" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -3514,35 +3514,35 @@
       </c>
       <c r="R4" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="S4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R4,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="T4" s="190">
         <f>_xll.qlQuoteValue(Q4,LastFixingsTrigger)</f>
-        <v>-6.2E-4</v>
+        <v>-7.5000000000000002E-4</v>
       </c>
       <c r="U4" s="190">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R4),,AllTriggers)</f>
-        <v>-1.1945108966147089E-3</v>
+        <v>-1.226128084904811E-3</v>
       </c>
       <c r="V4" s="258">
         <f>T4-U4</f>
-        <v>5.7451089661470888E-4</v>
+        <v>4.7612808490481097E-4</v>
       </c>
       <c r="W4" s="186">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R4,Trigger)</f>
-        <v>5.7451089661331167E-4</v>
+        <v>4.7612808490441014E-4</v>
       </c>
       <c r="X4" s="187">
         <f>Y4*10000</f>
-        <v>1.3972113396820696E-11</v>
+        <v>4.0082954316789099E-12</v>
       </c>
       <c r="Y4" s="278">
         <f>V4-W4</f>
-        <v>1.3972113396820696E-15</v>
+        <v>4.0082954316789099E-16</v>
       </c>
       <c r="Z4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R4,,,Trigger)</f>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="AA4" s="336">
         <f>_xll.qlYieldTSDiscount(Discounting,R4,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000113889931339</v>
       </c>
       <c r="AB4" s="241" t="b">
         <v>0</v>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="K5" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,,C5,Calendar,$F5,$G5,$H5,$K$1,$I5,B5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059c#0000</v>
+        <v>obj_00593#0000</v>
       </c>
       <c r="L5" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -3617,27 +3617,27 @@
       </c>
       <c r="R5" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N5&amp;"M","mf",,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="S5" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R5,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="T5" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R5,Trigger),TRUE,AllTriggers)</f>
-        <v>-6.2000000000139721E-4</v>
+        <v>-7.5000000000040085E-4</v>
       </c>
       <c r="U5" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R5),,AllTriggers)</f>
-        <v>-1.1945108966147089E-3</v>
+        <v>-1.226128084904811E-3</v>
       </c>
       <c r="V5" s="265">
         <f>T5-U5</f>
-        <v>5.7451089661331167E-4</v>
+        <v>4.7612808490441014E-4</v>
       </c>
       <c r="W5" s="67">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R5,Trigger)</f>
-        <v>5.7451089661331167E-4</v>
+        <v>4.7612808490441014E-4</v>
       </c>
       <c r="X5" s="240">
         <f>Y5*10000</f>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="AA5" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R5,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000113889931339</v>
       </c>
       <c r="AB5" s="241" t="b">
         <v>1</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="K6" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,,C6,Calendar,$F6,$G6,$H6,$K$1,$I6,B6,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00599#0000</v>
+        <v>obj_00590#0000</v>
       </c>
       <c r="L6" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -3722,27 +3722,27 @@
       </c>
       <c r="R6" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N6&amp;"M","mf",,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="S6" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R6,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="T6" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R6,Trigger),TRUE,AllTriggers)</f>
-        <v>-7.1551957077854353E-4</v>
+        <v>-8.100813775638047E-4</v>
       </c>
       <c r="U6" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R6),,AllTriggers)</f>
-        <v>-1.2585546559221426E-3</v>
+        <v>-1.2600396931024853E-3</v>
       </c>
       <c r="V6" s="265">
         <f>T6-U6</f>
-        <v>5.4303508514359907E-4</v>
+        <v>4.4995831553868056E-4</v>
       </c>
       <c r="W6" s="62">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R6,Trigger)</f>
-        <v>5.4303508514359918E-4</v>
+        <v>4.4995831553868056E-4</v>
       </c>
       <c r="X6" s="188">
         <f t="shared" ref="X6:X8" si="1">Y6*10000</f>
@@ -3754,11 +3754,11 @@
       </c>
       <c r="Z6" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R6,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="AA6" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R6,,AllTriggers)</f>
-        <v>1.0001106648021887</v>
+        <v>1.0001169845965037</v>
       </c>
       <c r="AB6" s="237" t="b">
         <v>1</v>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="AE6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($Z$5:$Z$8,$AB$5:$AB$8),_xll.ohFilter($V$5:$V$8,$AB$5:$AB$8),_xll.ohFilter($AA$5:$AA$8,$AB$5:$AB$8),_xll.ohFilter(AG13:AG17,AF13:AF17),,,,,Trigger)</f>
-        <v>obj_005de#0024</v>
+        <v>obj_005d9#0002</v>
       </c>
       <c r="AF6" s="54"/>
       <c r="AG6" s="55"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K7" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,,C7,Calendar,$F7,$G7,$H7,$K$1,$I7,B7,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059a#0000</v>
+        <v>obj_0058f#0000</v>
       </c>
       <c r="L7" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -3830,27 +3830,27 @@
       </c>
       <c r="R7" s="331">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N7&amp;"M","mf",,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="S7" s="331">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R7,Trigger)</f>
-        <v>42257</v>
+        <v>42313</v>
       </c>
       <c r="T7" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R7,Trigger),TRUE,AllTriggers)</f>
-        <v>-7.6112488975690624E-4</v>
+        <v>-8.1411017662204007E-4</v>
       </c>
       <c r="U7" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R7),,AllTriggers)</f>
-        <v>-1.3125535425984763E-3</v>
+        <v>-1.2900432603525323E-3</v>
       </c>
       <c r="V7" s="265">
         <f>T7-U7</f>
-        <v>5.5142865284157005E-4</v>
+        <v>4.7593308373049226E-4</v>
       </c>
       <c r="W7" s="62">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R7,Trigger)</f>
-        <v>5.5142865284157016E-4</v>
+        <v>4.7593308373049216E-4</v>
       </c>
       <c r="X7" s="188">
         <f t="shared" si="1"/>
@@ -3862,11 +3862,11 @@
       </c>
       <c r="Z7" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R7,,,Trigger)</f>
-        <v>0.17260273972602741</v>
+        <v>0.16986301369863013</v>
       </c>
       <c r="AA7" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R7,,AllTriggers)</f>
-        <v>1.0002260583921088</v>
+        <v>1.0002255124833961</v>
       </c>
       <c r="AB7" s="237" t="b">
         <v>1</v>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="K8" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,,C8,Calendar,$F8,$G8,$H8,$K$1,$I8,B8,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059b#0000</v>
+        <v>obj_00591#0000</v>
       </c>
       <c r="L8" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -3938,27 +3938,27 @@
       </c>
       <c r="R8" s="332">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N8&amp;"M","mf",,Trigger)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="S8" s="332">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R8,Trigger)</f>
-        <v>42285</v>
+        <v>42342</v>
       </c>
       <c r="T8" s="65">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R8,Trigger),TRUE,AllTriggers)</f>
-        <v>-7.002275399488056E-4</v>
+        <v>-9.1225630137969915E-4</v>
       </c>
       <c r="U8" s="65">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R8),,AllTriggers)</f>
-        <v>-1.2719624587398393E-3</v>
+        <v>-1.2695170140024636E-3</v>
       </c>
       <c r="V8" s="260">
         <f>T8-U8</f>
-        <v>5.7173491879103366E-4</v>
+        <v>3.5726071262276449E-4</v>
       </c>
       <c r="W8" s="65">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R8,Trigger)</f>
-        <v>5.7173491879103366E-4</v>
+        <v>3.5726071262276438E-4</v>
       </c>
       <c r="X8" s="189">
         <f t="shared" si="1"/>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="AA8" s="60">
         <f>_xll.qlYieldTSDiscount(Discounting,R8,,AllTriggers)</f>
-        <v>1.0003318671850669</v>
+        <v>1.0003328123674977</v>
       </c>
       <c r="AB8" s="238" t="b">
         <v>1</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="AE8" s="282" t="str">
         <f>_xll.qlPolynomialCalibrationEndCriteria(AE6,)</f>
-        <v>None</v>
+        <v>StationaryFunctionValue</v>
       </c>
       <c r="AF8" s="54"/>
       <c r="AG8" s="55"/>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="K9" s="162" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,,C9,Calendar,$F9,$G9,$H9,$K$1,$I9,B9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00597#0000</v>
+        <v>obj_00594#0000</v>
       </c>
       <c r="L9" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="AE9" s="190">
         <f>_xll.qlPolynomialCalibrationError(AE6,)</f>
-        <v>5.0555231468282793E-5</v>
+        <v>1.9884402377105194E-4</v>
       </c>
       <c r="AF9" s="54"/>
       <c r="AG9" s="55"/>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="AE10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(AE6,)</f>
-        <v>6.4126947188822346E-5</v>
+        <v>1.0842021724855044E-19</v>
       </c>
       <c r="AF10" s="54"/>
       <c r="AG10" s="55"/>
@@ -4084,15 +4084,15 @@
       </c>
       <c r="T11" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="U11" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S11,"Following",,Trigger)</f>
-        <v>42164</v>
+        <v>42221</v>
       </c>
       <c r="V11" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T11,U11,AllTriggers)</f>
-        <v>-5.9043666484015489E-4</v>
+        <v>-6.5251058204651713E-4</v>
       </c>
       <c r="AD11" s="54"/>
       <c r="AE11" s="54"/>
@@ -4127,15 +4127,15 @@
       </c>
       <c r="T12" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="U12" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S12,"Following",,Trigger)</f>
-        <v>42170</v>
+        <v>42227</v>
       </c>
       <c r="V12" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T12,U12,AllTriggers)</f>
-        <v>-5.9885151029488118E-4</v>
+        <v>-6.7529624861149633E-4</v>
       </c>
       <c r="AD12" s="261" t="s">
         <v>111</v>
@@ -4151,7 +4151,7 @@
     <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="309" t="str">
         <f t="array" ref="G13:G21">_xll.ohFilter(K3:K9,M3:M9)</f>
-        <v>obj_005c4#0000</v>
+        <v>obj_005ad#0000</v>
       </c>
       <c r="H13" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G13,Trigger)</f>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="I13" s="194">
         <f>_xll.qlRateHelperRate(G13,Trigger)</f>
-        <v>-4.8000000000000001E-4</v>
+        <v>-7.5000000000000002E-4</v>
       </c>
       <c r="J13" s="195" t="str">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G13),"--")</f>
@@ -4167,36 +4167,36 @@
       </c>
       <c r="K13" s="329">
         <f>_xll.qlRateHelperEarliestDate(G13,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="L13" s="329">
         <f>_xll.qlRateHelperLatestDate(G13,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="M13" s="196">
-        <v>1.0000516693362491</v>
+        <v>1.0000645875046097</v>
       </c>
       <c r="S13" s="63" t="s">
         <v>40</v>
       </c>
       <c r="T13" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="U13" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S13,"Following",,Trigger)</f>
-        <v>42177</v>
+        <v>42234</v>
       </c>
       <c r="V13" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T13,U13,AllTriggers)</f>
-        <v>-5.8752678013267764E-4</v>
+        <v>-7.068308441948723E-4</v>
       </c>
       <c r="AD13" s="277" t="s">
         <v>113</v>
       </c>
       <c r="AE13" s="190">
         <f t="array" ref="AE13:AE17">_xll.qlPolynomialCalibrationCoefficients($AE$6,AE7)</f>
-        <v>5.7451089661331167E-4</v>
+        <v>4.7612808490441014E-4</v>
       </c>
       <c r="AF13" s="190" t="b">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G14" s="202" t="str">
-        <v>obj_00598#0000</v>
+        <v>obj_00592#0000</v>
       </c>
       <c r="H14" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G14,Trigger)</f>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="I14" s="194">
         <f>_xll.qlRateHelperRate(G14,Trigger)</f>
-        <v>-5.5000000000000003E-4</v>
+        <v>-7.8000000000000009E-4</v>
       </c>
       <c r="J14" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G14),"--")</f>
@@ -4223,35 +4223,35 @@
       </c>
       <c r="K14" s="329">
         <f>_xll.qlRateHelperEarliestDate(G14,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="L14" s="329">
         <f>_xll.qlRateHelperLatestDate(G14,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="M14" s="196">
-        <v>1.0001172663216524</v>
+        <v>1.0001343538842471</v>
       </c>
       <c r="S14" s="63" t="s">
         <v>41</v>
       </c>
       <c r="T14" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="U14" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S14,"Following",,Trigger)</f>
-        <v>42184</v>
+        <v>42241</v>
       </c>
       <c r="V14" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T14,U14,AllTriggers)</f>
-        <v>-6.0502935140022932E-4</v>
+        <v>-7.2346852341301617E-4</v>
       </c>
       <c r="AD14" s="277" t="s">
         <v>114</v>
       </c>
       <c r="AE14" s="190">
-        <v>-7.1075059440715903E-4</v>
+        <v>-1.4212164601255109E-3</v>
       </c>
       <c r="AF14" s="190" t="b">
         <v>1</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G15" s="202" t="str">
-        <v>obj_0059c#0000</v>
+        <v>obj_00593#0000</v>
       </c>
       <c r="H15" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G15,Trigger)</f>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="I15" s="194">
         <f>_xll.qlRateHelperRate(G15,Trigger)</f>
-        <v>-5.8E-4</v>
+        <v>-7.9000000000000012E-4</v>
       </c>
       <c r="J15" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G15),"--")</f>
@@ -4278,35 +4278,35 @@
       </c>
       <c r="K15" s="329">
         <f>_xll.qlRateHelperEarliestDate(G15,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="L15" s="329">
         <f>_xll.qlRateHelperLatestDate(G15,Trigger)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="M15" s="196">
-        <v>1.0001789286436884</v>
+        <v>1.0002019374938675</v>
       </c>
       <c r="S15" s="267" t="s">
         <v>35</v>
       </c>
       <c r="T15" s="276">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="U15" s="337">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S15,"mf",TRUE,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="V15" s="338">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T15,U15,AllTriggers)</f>
-        <v>-6.2758270029439345E-4</v>
+        <v>-7.5602720849914584E-4</v>
       </c>
       <c r="AD15" s="277" t="s">
         <v>115</v>
       </c>
       <c r="AE15" s="190">
-        <v>4.5746420303168422E-3</v>
+        <v>1.7851359084110716E-2</v>
       </c>
       <c r="AF15" s="190" t="b">
         <v>1</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="202" t="str">
-        <v>obj_00599#0000</v>
+        <v>obj_00590#0000</v>
       </c>
       <c r="H16" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G16,Trigger)</f>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="I16" s="194">
         <f>_xll.qlRateHelperRate(G16,Trigger)</f>
-        <v>-5.8999999999999992E-4</v>
+        <v>-8.200000000000002E-4</v>
       </c>
       <c r="J16" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G16),"--")</f>
@@ -4333,20 +4333,20 @@
       </c>
       <c r="K16" s="329">
         <f>_xll.qlRateHelperEarliestDate(G16,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="L16" s="329">
         <f>_xll.qlRateHelperLatestDate(G16,Trigger)</f>
-        <v>42285</v>
+        <v>42342</v>
       </c>
       <c r="M16" s="196">
-        <v>1.0002372947853795</v>
+        <v>1.0002779799847319</v>
       </c>
       <c r="AD16" s="277" t="s">
         <v>116</v>
       </c>
       <c r="AE16" s="190">
-        <v>-7.1353958361635916E-3</v>
+        <v>-5.5876075506016594E-2</v>
       </c>
       <c r="AF16" s="190" t="b">
         <v>1</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="17" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="202" t="str">
-        <v>obj_0059a#0000</v>
+        <v>obj_0058f#0000</v>
       </c>
       <c r="H17" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G17,Trigger)</f>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="I17" s="194">
         <f>_xll.qlRateHelperRate(G17,Trigger)</f>
-        <v>-5.9999999999999995E-4</v>
+        <v>-7.9000000000000012E-4</v>
       </c>
       <c r="J17" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G17),"--")</f>
@@ -4373,14 +4373,14 @@
       </c>
       <c r="K17" s="329">
         <f>_xll.qlRateHelperEarliestDate(G17,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="L17" s="329">
         <f>_xll.qlRateHelperLatestDate(G17,Trigger)</f>
-        <v>42317</v>
+        <v>42373</v>
       </c>
       <c r="M17" s="196">
-        <v>1.000299563311839</v>
+        <v>1.0003358923464658</v>
       </c>
       <c r="AD17" s="277" t="s">
         <v>117</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="18" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="202" t="str">
-        <v>obj_0059b#0000</v>
+        <v>obj_00591#0000</v>
       </c>
       <c r="H18" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G18,Trigger)</f>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="I18" s="194">
         <f>_xll.qlRateHelperRate(G18,Trigger)</f>
-        <v>-5.9999999999999995E-4</v>
+        <v>-8.3000000000000001E-4</v>
       </c>
       <c r="J18" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G18),"--")</f>
@@ -4413,28 +4413,28 @@
       </c>
       <c r="K18" s="329">
         <f>_xll.qlRateHelperEarliestDate(G18,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="L18" s="329">
         <f>_xll.qlRateHelperLatestDate(G18,Trigger)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="M18" s="196">
-        <v>1.000361089009117</v>
+        <v>1.00042444072081</v>
       </c>
       <c r="AD18" s="277" t="s">
         <v>118</v>
       </c>
       <c r="AE18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$S1,Discounting,SettlementDate,TRUE,_xll.ohFilter(AE13:AE17,AF13:AF17),,Trigger)</f>
-        <v>obj_005e3#0023</v>
+        <v>obj_005db#0002</v>
       </c>
       <c r="AF18" s="54"/>
       <c r="AG18" s="55"/>
     </row>
     <row r="19" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G19" s="202" t="str">
-        <v>obj_00597#0000</v>
+        <v>obj_00594#0000</v>
       </c>
       <c r="H19" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G19,Trigger)</f>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="I19" s="194">
         <f>_xll.qlRateHelperRate(G19,Trigger)</f>
-        <v>-6.3000000000000003E-4</v>
+        <v>-8.4000000000000014E-4</v>
       </c>
       <c r="J19" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G19),"--")</f>
@@ -4450,14 +4450,14 @@
       </c>
       <c r="K19" s="329">
         <f>_xll.qlRateHelperEarliestDate(G19,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="L19" s="329">
         <f>_xll.qlRateHelperLatestDate(G19,Trigger)</f>
-        <v>42377</v>
+        <v>42433</v>
       </c>
       <c r="M19" s="196">
-        <v>1.000410394120663</v>
+        <v>1.0004973015338785</v>
       </c>
       <c r="X19" s="54"/>
       <c r="Y19" s="54"/>
@@ -4583,7 +4583,7 @@
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4680,21 +4680,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>-1.1736446947011449E-4</v>
+        <v>-2.2960218135219799E-4</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>1.1373512016151796E-3</v>
+        <v>1.0277230040911728E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="283">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="R3" s="190" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00595#0000</v>
+        <v>obj_0058d#0000</v>
       </c>
       <c r="X3" s="57"/>
     </row>
@@ -4730,31 +4730,31 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>-1.3000000000000002E-4</v>
+        <v>-2.3000000000000001E-4</v>
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E4),,AllTriggers)</f>
-        <v>-1.2547156710852941E-3</v>
+        <v>-1.2573251854433708E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>1.1247156710852942E-3</v>
+        <v>1.0273251854433709E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>1.1373512016151796E-3</v>
+        <v>1.0277230040911728E-3</v>
       </c>
       <c r="K4" s="187">
         <f>M4*10000</f>
-        <v>-0.12635530529885422</v>
+        <v>-3.9781864780196255E-3</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -4762,11 +4762,11 @@
       </c>
       <c r="M4" s="278">
         <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>-1.2635530529885421E-5</v>
+        <v>-3.9781864780196255E-7</v>
       </c>
       <c r="N4" s="281">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000113889931339</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>0</v>
@@ -4790,43 +4790,43 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
-        <v>42377</v>
+        <v>42433</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>-6.0000000000000002E-5</v>
+        <v>-2.5000000000000001E-4</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E5),,AllTriggers)</f>
-        <v>-1.2799660304352312E-3</v>
+        <v>-1.2719718741829897E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" si="0"/>
-        <v>1.2199660304352312E-3</v>
+        <v>1.0219718741829897E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>1.1853752726288034E-3</v>
+        <v>1.0429693297676244E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>0.34590757806427774</v>
+        <v>-0.20997455584634717</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="M5" s="279">
         <f t="shared" si="1"/>
-        <v>3.4590757806427777E-5</v>
+        <v>-2.0997455584634717E-5</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001106648021887</v>
+        <v>1.0001169845965037</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>0</v>
@@ -4855,43 +4855,43 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
-        <v>42410</v>
+        <v>42465</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>-1.0000000000000009E-5</v>
+        <v>-2.4000000000000001E-4</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E6),,AllTriggers)</f>
-        <v>-1.2992983497784256E-3</v>
+        <v>-1.2957610981216259E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="0"/>
-        <v>1.2892983497784255E-3</v>
+        <v>1.055761098121626E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>1.230172166130715E-3</v>
+        <v>1.0601866409776851E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>0.59126183647710595</v>
+        <v>-4.4255428560591087E-2</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.17260273972602741</v>
+        <v>0.16986301369863013</v>
       </c>
       <c r="M6" s="234">
         <f t="shared" si="1"/>
-        <v>5.9126183647710594E-5</v>
+        <v>-4.4255428560591083E-6</v>
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002260583921088</v>
+        <v>1.0002255124833961</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>0</v>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_00844#0022</v>
+        <v>obj_005d8#0002</v>
       </c>
       <c r="T6" s="55"/>
       <c r="X6" s="57"/>
@@ -4924,31 +4924,31 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
-        <v>42437</v>
+        <v>42494</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>0</v>
+        <v>-2.3000000000000001E-4</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E7),,AllTriggers)</f>
-        <v>-1.2934759462484332E-3</v>
+        <v>-1.3113693207798757E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="0"/>
-        <v>1.2934759462484332E-3</v>
+        <v>1.0813693207798757E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>1.2630991130362958E-3</v>
+        <v>1.0785749749840539E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>0.3037683321213745</v>
+        <v>2.7943457958218548E-2</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
@@ -4956,11 +4956,11 @@
       </c>
       <c r="M7" s="234">
         <f t="shared" si="1"/>
-        <v>3.0376833212137451E-5</v>
+        <v>2.7943457958218548E-6</v>
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003318671850669</v>
+        <v>1.0003328123674977</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>0</v>
@@ -4993,31 +4993,31 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42285</v>
+        <v>42342</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E8)</f>
-        <v>42468</v>
+        <v>42527</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>3.9999999999999983E-5</v>
+        <v>-2.3000000000000001E-4</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E8),,AllTriggers)</f>
-        <v>-1.2428793081029428E-3</v>
+        <v>-1.3438645850193766E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="0"/>
-        <v>1.2828793081029427E-3</v>
+        <v>1.1138645850193767E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>1.2913181650166697E-3</v>
+        <v>1.0985152748395721E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>-8.4388569137269775E-2</v>
+        <v>0.1534931017980459</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
@@ -5025,11 +5025,11 @@
       </c>
       <c r="M8" s="234">
         <f t="shared" si="1"/>
-        <v>-8.4388569137269775E-6</v>
+        <v>1.5349310179804589E-5</v>
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004379104737688</v>
+        <v>1.000438651858331</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>0</v>
@@ -5062,43 +5062,43 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42317</v>
+        <v>42373</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
-        <v>42499</v>
+        <v>42555</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>7.9999999999999979E-5</v>
+        <v>-2.3000000000000001E-4</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E9),,AllTriggers)</f>
-        <v>-1.2433280090124142E-3</v>
+        <v>-1.359889123310845E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="0"/>
-        <v>1.3233280090124142E-3</v>
+        <v>1.1298891233108451E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>1.3154190963221551E-3</v>
+        <v>1.1205971367834653E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>7.9089126902591372E-2</v>
+        <v>9.2919865273797822E-2</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.42191780821917807</v>
+        <v>0.41917808219178082</v>
       </c>
       <c r="M9" s="234">
         <f t="shared" si="1"/>
-        <v>7.9089126902591369E-6</v>
+        <v>9.2919865273797825E-6</v>
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005545597248136</v>
+        <v>1.000553166796166</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>0</v>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>9.0835833190229179E-5</v>
+        <v>2.1493267942934027E-4</v>
       </c>
       <c r="T9" s="55"/>
       <c r="X9" s="57"/>
@@ -5131,43 +5131,43 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>1.1999999999999999E-4</v>
+        <v>-2.0999999999999998E-4</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E10),,AllTriggers)</f>
-        <v>-1.2012494672821216E-3</v>
+        <v>-1.3761054589318533E-3</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="0"/>
-        <v>1.3212494672821215E-3</v>
+        <v>1.1661054589318534E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>1.332402060481094E-3</v>
+        <v>1.144022322484932E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>-0.11152593198972532</v>
+        <v>0.2208313644692147</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50136986301369868</v>
+        <v>0.50410958904109593</v>
       </c>
       <c r="M10" s="234">
         <f t="shared" si="1"/>
-        <v>-1.1152593198972532E-5</v>
+        <v>2.2083136446921468E-5</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006590446429069</v>
+        <v>1.0006681640030839</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>0</v>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>1.1840412657839979E-4</v>
+        <v>2.6253844883243832E-4</v>
       </c>
       <c r="T10" s="55"/>
       <c r="X10" s="57"/>
@@ -5189,51 +5189,51 @@
       <c r="B11" s="292"/>
       <c r="C11" s="252" t="str">
         <f>_xll.qlIMMNextCode(SettlementDate,A12)</f>
-        <v>M5</v>
+        <v>Q5</v>
       </c>
       <c r="D11" s="248" t="str">
         <f t="shared" ref="D11:D22" si="6">Currency&amp;"FUT"&amp;"3M"&amp;C11&amp;QuoteSuffix</f>
-        <v>EURFUT3MM5_Quote</v>
+        <v>EURFUT3MQ5_Quote</v>
       </c>
       <c r="E11" s="295">
         <f>_xll.qlIMMdate(C11,SettlementDate,Trigger)</f>
-        <v>42172</v>
+        <v>42235</v>
       </c>
       <c r="F11" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E11)</f>
-        <v>42355</v>
+        <v>42419</v>
       </c>
       <c r="G11" s="67">
         <f>1-_xll.qlQuoteValue(D11,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C11&amp;"ConvAdj_Quote")</f>
-        <v>-1.2499999999993072E-4</v>
+        <v>-2.2500000000014175E-4</v>
       </c>
       <c r="H11" s="67">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E11),,AllTriggers)</f>
-        <v>-1.2660080829982408E-3</v>
+        <v>-1.284439201906723E-3</v>
       </c>
       <c r="I11" s="280">
         <f t="shared" si="0"/>
-        <v>1.14100808299831E-3</v>
+        <v>1.0594392019065812E-3</v>
       </c>
       <c r="J11" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>1.1525194985213846E-3</v>
+        <v>1.0348440769428311E-3</v>
       </c>
       <c r="K11" s="240">
         <f t="shared" si="4"/>
-        <v>-0.11511415523074572</v>
+        <v>0.24595124963750153</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>2.4657534246575342E-2</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="M11" s="279">
         <f t="shared" si="1"/>
-        <v>-1.1511415523074572E-5</v>
+        <v>2.4595124963750154E-5</v>
       </c>
       <c r="N11" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0000406402405491</v>
+        <v>1.0000618088099358</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -5248,51 +5248,51 @@
       <c r="B12" s="56"/>
       <c r="C12" s="251" t="str">
         <f>_xll.qlIMMNextCode(C11,A12)</f>
-        <v>N5</v>
+        <v>U5</v>
       </c>
       <c r="D12" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MN5_Quote</v>
+        <v>EURFUT3MU5_Quote</v>
       </c>
       <c r="E12" s="296">
         <f>_xll.qlIMMdate(C12,SettlementDate,Trigger)</f>
-        <v>42200</v>
+        <v>42263</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E12)</f>
-        <v>42384</v>
+        <v>42445</v>
       </c>
       <c r="G12" s="62">
         <f>1-_xll.qlQuoteValue(D12,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C12&amp;"ConvAdj_Quote")</f>
-        <v>-7.4999999999825206E-5</v>
+        <v>-2.7500000000002522E-4</v>
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E12),,AllTriggers)</f>
-        <v>-1.2794790482033001E-3</v>
+        <v>-1.2829731530936963E-3</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="0"/>
-        <v>1.2044790482034749E-3</v>
+        <v>1.0079731530936711E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>1.1955600417313363E-3</v>
+        <v>1.0494090321310949E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>8.9190064721386075E-2</v>
+        <v>-0.41435879037423839</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
-        <v>0.10136986301369863</v>
+        <v>0.11780821917808219</v>
       </c>
       <c r="M12" s="234">
         <f t="shared" si="1"/>
-        <v>8.9190064721386079E-6</v>
+        <v>-4.1435879037423837E-5</v>
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0001359548980997</v>
+        <v>1.0001589939944568</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -5316,51 +5316,51 @@
       <c r="B13" s="56"/>
       <c r="C13" s="251" t="str">
         <f>_xll.qlIMMNextCode(C12,A13)</f>
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="D13" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MU5_Quote</v>
+        <v>EURFUT3MZ5_Quote</v>
       </c>
       <c r="E13" s="296">
         <f>_xll.qlIMMdate(C13,SettlementDate,Trigger)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E13)</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
       <c r="G13" s="62">
         <f>1-_xll.qlQuoteValue(D13,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C13&amp;"ConvAdj_Quote")</f>
-        <v>-2.4999999999941735E-5</v>
+        <v>-2.2500000000014175E-4</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E13),,AllTriggers)</f>
-        <v>-1.3014906239984724E-3</v>
+        <v>-1.3473669958370088E-3</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="0"/>
-        <v>1.2764906239985307E-3</v>
+        <v>1.122366995836867E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>1.2711853708794602E-3</v>
+        <v>1.1068935669044195E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>5.3052531190705618E-2</v>
+        <v>0.15473428932447508</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
-        <v>0.27397260273972601</v>
+        <v>0.36712328767123287</v>
       </c>
       <c r="M13" s="234">
         <f t="shared" si="1"/>
-        <v>5.3052531190705618E-6</v>
+        <v>1.5473428932447509E-5</v>
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0003606975574753</v>
+        <v>1.0004834578858706</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="R13" s="190">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>1.1373512016151796E-3</v>
+        <v>1.0277230040911728E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -5387,51 +5387,51 @@
       <c r="B14" s="56"/>
       <c r="C14" s="251" t="str">
         <f>_xll.qlIMMNextCode(C13,A14)</f>
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="D14" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MZ5_Quote</v>
+        <v>EURFUT3MH6_Quote</v>
       </c>
       <c r="E14" s="296">
         <f>_xll.qlIMMdate(C14,SettlementDate,Trigger)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E14)</f>
-        <v>42537</v>
+        <v>42629</v>
       </c>
       <c r="G14" s="62">
         <f>1-_xll.qlQuoteValue(D14,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C14&amp;"ConvAdj_Quote")</f>
-        <v>1.4999999999998348E-4</v>
+        <v>-1.7500000000003624E-4</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E14),,AllTriggers)</f>
-        <v>-1.2009812777807455E-3</v>
+        <v>-1.3838733784275689E-3</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>1.350981277780729E-3</v>
+        <v>1.2088733784275326E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>1.3363363244019988E-3</v>
+        <v>1.176795933927523E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>0.14644953378730199</v>
+        <v>0.32077444500009644</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.52328767123287667</v>
+        <v>0.61643835616438358</v>
       </c>
       <c r="M14" s="234">
         <f t="shared" si="1"/>
-        <v>1.46449533787302E-5</v>
+        <v>3.2077444500009647E-5</v>
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0006899124380577</v>
+        <v>1.0008243230725373</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>6.2868735994365502E-4</v>
+        <v>1.672838599862433E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -5456,51 +5456,51 @@
       <c r="B15" s="56"/>
       <c r="C15" s="251" t="str">
         <f>_xll.qlIMMNextCode(C14,A15)</f>
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="D15" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MH6_Quote</v>
+        <v>EURFUT3MM6_Quote</v>
       </c>
       <c r="E15" s="296">
         <f>_xll.qlIMMdate(C15,SettlementDate,Trigger)</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E15)</f>
-        <v>42629</v>
+        <v>42719</v>
       </c>
       <c r="G15" s="62">
         <f>1-_xll.qlQuoteValue(D15,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C15&amp;"ConvAdj_Quote")</f>
-        <v>2.7500000000002522E-4</v>
+        <v>-1.2499999999993072E-4</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E15),,AllTriggers)</f>
-        <v>-1.0530182213731925E-3</v>
+        <v>-1.3291939895117592E-3</v>
       </c>
       <c r="I15" s="265">
         <f t="shared" si="0"/>
-        <v>1.3280182213732178E-3</v>
+        <v>1.2041939895118285E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>1.3617560917457393E-3</v>
+        <v>1.2550818476011426E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>-0.337378703725215</v>
+        <v>-0.5088785808931412</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.77260273972602744</v>
+        <v>0.86575342465753424</v>
       </c>
       <c r="M15" s="234">
         <f t="shared" si="1"/>
-        <v>-3.3737870372521498E-5</v>
+        <v>-5.0887858089314125E-5</v>
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0009937955144201</v>
+        <v>1.0011745876018865</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -5509,7 +5509,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>-5.5231727265848745E-4</v>
+        <v>1.4767550137629741E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -5525,51 +5525,51 @@
       <c r="B16" s="56"/>
       <c r="C16" s="251" t="str">
         <f>_xll.qlIMMNextCode(C15,A16)</f>
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="D16" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MM6_Quote</v>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="E16" s="296">
         <f>_xll.qlIMMdate(C16,SettlementDate,Trigger)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E16)</f>
-        <v>42719</v>
+        <v>42815</v>
       </c>
       <c r="G16" s="62">
         <f>1-_xll.qlQuoteValue(D16,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C16&amp;"ConvAdj_Quote")</f>
-        <v>4.750000000000032E-4</v>
+        <v>7.4999999999936229E-5</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E16),,AllTriggers)</f>
-        <v>-9.028799615529643E-4</v>
+        <v>-1.2895930511502352E-3</v>
       </c>
       <c r="I16" s="265">
         <f t="shared" si="0"/>
-        <v>1.3778799615529675E-3</v>
+        <v>1.3645930511501714E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>1.3612284055674203E-3</v>
+        <v>1.3441380361136409E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>0.1665155598554722</v>
+        <v>0.20455015036530566</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
-        <v>1.021917808219178</v>
+        <v>1.1342465753424658</v>
       </c>
       <c r="M16" s="234">
         <f t="shared" si="1"/>
-        <v>1.665155598554722E-5</v>
+        <v>2.0455015036530567E-5</v>
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0012603889303364</v>
+        <v>1.0015364972674756</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -5578,7 +5578,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>1.4824157043946009E-4</v>
+        <v>-4.3388017435443523E-5</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -5594,51 +5594,51 @@
       <c r="B17" s="56"/>
       <c r="C17" s="251" t="str">
         <f>_xll.qlIMMNextCode(C16,A17)</f>
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="D17" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MU6_Quote</v>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="E17" s="296">
         <f>_xll.qlIMMdate(C17,SettlementDate,Trigger)</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="F17" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E17)</f>
-        <v>42815</v>
+        <v>42907</v>
       </c>
       <c r="G17" s="62">
         <f>1-_xll.qlQuoteValue(D17,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C17&amp;"ConvAdj_Quote")</f>
-        <v>7.7499999999997016E-4</v>
+        <v>3.2500000000001972E-4</v>
       </c>
       <c r="H17" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E17),,AllTriggers)</f>
-        <v>-6.3984893502863106E-4</v>
+        <v>-1.0720304466995678E-3</v>
       </c>
       <c r="I17" s="265">
         <f t="shared" si="0"/>
-        <v>1.4148489350286012E-3</v>
+        <v>1.3970304466995875E-3</v>
       </c>
       <c r="J17" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>1.3474521686504316E-3</v>
+        <v>1.4269453145844737E-3</v>
       </c>
       <c r="K17" s="188">
         <f t="shared" si="4"/>
-        <v>0.67396766378169637</v>
+        <v>-0.29914867884886165</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>1.2904109589041095</v>
+        <v>1.3835616438356164</v>
       </c>
       <c r="M17" s="234">
         <f t="shared" si="1"/>
-        <v>6.7396766378169642E-5</v>
+        <v>-2.9914867884886162E-5</v>
       </c>
       <c r="N17" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0015040607956092</v>
+        <v>1.0018630850625194</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -5663,51 +5663,51 @@
       <c r="B18" s="56"/>
       <c r="C18" s="251" t="str">
         <f>_xll.qlIMMNextCode(C17,A18)</f>
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="D18" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MZ6_Quote</v>
+        <v>EURFUT3MH7_Quote</v>
       </c>
       <c r="E18" s="296">
         <f>_xll.qlIMMdate(C18,SettlementDate,Trigger)</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="F18" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E18)</f>
-        <v>42907</v>
+        <v>42993</v>
       </c>
       <c r="G18" s="62">
         <f>1-_xll.qlQuoteValue(D18,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C18&amp;"ConvAdj_Quote")</f>
-        <v>1.2000000000000899E-3</v>
+        <v>6.7499999999998117E-4</v>
       </c>
       <c r="H18" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E18),,AllTriggers)</f>
-        <v>-2.2373818386567379E-4</v>
+        <v>-7.9129317388385153E-4</v>
       </c>
       <c r="I18" s="265">
         <f t="shared" si="0"/>
-        <v>1.4237381838657637E-3</v>
+        <v>1.4662931738838327E-3</v>
       </c>
       <c r="J18" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>1.3370763135277092E-3</v>
+        <v>1.4998980125324657E-3</v>
       </c>
       <c r="K18" s="188">
         <f t="shared" si="4"/>
-        <v>0.86661870338054481</v>
+        <v>-0.33604838648632973</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
-        <v>1.5397260273972602</v>
+        <v>1.6136986301369862</v>
       </c>
       <c r="M18" s="234">
         <f t="shared" si="1"/>
-        <v>8.6661870338054477E-5</v>
+        <v>-3.3604838648632973E-5</v>
       </c>
       <c r="N18" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.0016660698569779</v>
+        <v>1.0021159066453778</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="R18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_00845#0022</v>
+        <v>obj_005dc#0002</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -5728,51 +5728,51 @@
       <c r="B19" s="56"/>
       <c r="C19" s="251" t="str">
         <f>_xll.qlIMMNextCode(C18,A19)</f>
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="D19" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MH7_Quote</v>
+        <v>EURFUT3MM7_Quote</v>
       </c>
       <c r="E19" s="296">
         <f>_xll.qlIMMdate(C19,SettlementDate,Trigger)</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="F19" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E19)</f>
-        <v>42993</v>
+        <v>43090</v>
       </c>
       <c r="G19" s="62">
         <f>1-_xll.qlQuoteValue(D19,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C19&amp;"ConvAdj_Quote")</f>
-        <v>1.7249999999999766E-3</v>
+        <v>1.0750000000000481E-3</v>
       </c>
       <c r="H19" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E19),,AllTriggers)</f>
-        <v>1.9609339663789993E-4</v>
+        <v>-4.3369062265039368E-4</v>
       </c>
       <c r="I19" s="265">
         <f t="shared" si="0"/>
-        <v>1.5289066033620767E-3</v>
+        <v>1.5086906226504419E-3</v>
       </c>
       <c r="J19" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>1.3417979524674895E-3</v>
+        <v>1.5764366665006104E-3</v>
       </c>
       <c r="K19" s="188">
         <f t="shared" si="4"/>
-        <v>1.8710865089458721</v>
+        <v>-0.67746043850168547</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
-        <v>1.7698630136986302</v>
+        <v>1.8821917808219177</v>
       </c>
       <c r="M19" s="234">
         <f t="shared" si="1"/>
-        <v>1.8710865089458721E-4</v>
+        <v>-6.7746043850168544E-5</v>
       </c>
       <c r="N19" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0017206050325747</v>
+        <v>1.0023289777837487</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -5786,51 +5786,51 @@
       <c r="B20" s="56"/>
       <c r="C20" s="251" t="str">
         <f>_xll.qlIMMNextCode(C19,A20)</f>
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="D20" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MM7_Quote</v>
+        <v>EURFUT3MU7_Quote</v>
       </c>
       <c r="E20" s="296">
         <f>_xll.qlIMMdate(C20,SettlementDate,Trigger)</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="F20" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E20)</f>
-        <v>43090</v>
+        <v>43179</v>
       </c>
       <c r="G20" s="62">
         <f>1-_xll.qlQuoteValue(D20,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C20&amp;"ConvAdj_Quote")</f>
-        <v>2.2999999999998577E-3</v>
+        <v>1.5249999999999986E-3</v>
       </c>
       <c r="H20" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E20),,AllTriggers)</f>
-        <v>7.4066595276283027E-4</v>
+        <v>-3.4327363773490014E-5</v>
       </c>
       <c r="I20" s="265">
         <f t="shared" si="0"/>
-        <v>1.5593340472370276E-3</v>
+        <v>1.5593273637734887E-3</v>
       </c>
       <c r="J20" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>1.3795004306657948E-3</v>
+        <v>1.6350521687473881E-3</v>
       </c>
       <c r="K20" s="188">
         <f t="shared" si="4"/>
-        <v>1.7983361657123278</v>
+        <v>-0.75724804973899495</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
-        <v>2.0383561643835617</v>
+        <v>2.1315068493150684</v>
       </c>
       <c r="M20" s="234">
         <f t="shared" si="1"/>
-        <v>1.7983361657123277E-4</v>
+        <v>-7.572480497389949E-5</v>
       </c>
       <c r="N20" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0016625220341084</v>
+        <v>1.0024393932902402</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -5844,51 +5844,51 @@
       <c r="B21" s="56"/>
       <c r="C21" s="251" t="str">
         <f>_xll.qlIMMNextCode(C20,A21)</f>
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="D21" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MU7_Quote</v>
+        <v>EURFUT3MZ7_Quote</v>
       </c>
       <c r="E21" s="296">
         <f>_xll.qlIMMdate(C21,SettlementDate,Trigger)</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="F21" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E21)</f>
-        <v>43179</v>
+        <v>43271</v>
       </c>
       <c r="G21" s="62">
         <f>1-_xll.qlQuoteValue(D21,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C21&amp;"ConvAdj_Quote")</f>
-        <v>2.9250000000000664E-3</v>
+        <v>2.074999999999938E-3</v>
       </c>
       <c r="H21" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E21),,AllTriggers)</f>
-        <v>1.3218346333841527E-3</v>
+        <v>4.4841629037861708E-4</v>
       </c>
       <c r="I21" s="265">
         <f t="shared" si="0"/>
-        <v>1.6031653666159138E-3</v>
+        <v>1.6265837096213209E-3</v>
       </c>
       <c r="J21" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>1.4598678682400791E-3</v>
+        <v>1.6775351743876215E-3</v>
       </c>
       <c r="K21" s="188">
         <f t="shared" si="4"/>
-        <v>1.4329749837583465</v>
+        <v>-0.50951464766300569</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
-        <v>2.2876712328767121</v>
+        <v>2.3808219178082193</v>
       </c>
       <c r="M21" s="234">
         <f t="shared" si="1"/>
-        <v>1.4329749837583465E-4</v>
+        <v>-5.0951464766300567E-5</v>
       </c>
       <c r="N21" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0014757769563836</v>
+        <v>1.0024480917275405</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -5902,51 +5902,51 @@
       <c r="B22" s="246"/>
       <c r="C22" s="253" t="str">
         <f>_xll.qlIMMNextCode(C21,A22)</f>
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="D22" s="250" t="str">
         <f t="shared" si="6"/>
-        <v>EURFUT3MZ7_Quote</v>
+        <v>EURFUT3MH8_Quote</v>
       </c>
       <c r="E22" s="297">
         <f>_xll.qlIMMdate(C22,SettlementDate,Trigger)</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="F22" s="297">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E22)</f>
-        <v>43271</v>
+        <v>43364</v>
       </c>
       <c r="G22" s="65">
         <f>1-_xll.qlQuoteValue(D22,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C22&amp;"ConvAdj_Quote")</f>
-        <v>3.6249999999999893E-3</v>
+        <v>2.7250000000000885E-3</v>
       </c>
       <c r="H22" s="65">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E22),,AllTriggers)</f>
-        <v>2.027220858942691E-3</v>
+        <v>1.0254257436023103E-3</v>
       </c>
       <c r="I22" s="260">
         <f t="shared" si="0"/>
-        <v>1.5977791410572983E-3</v>
+        <v>1.6995742563977781E-3</v>
       </c>
       <c r="J22" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>1.5980505353601774E-3</v>
+        <v>1.6998513978220471E-3</v>
       </c>
       <c r="K22" s="189">
         <f t="shared" si="4"/>
-        <v>-2.7139430287901473E-3</v>
+        <v>-2.7714142426891325E-3</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
-        <v>2.536986301369863</v>
+        <v>2.6301369863013697</v>
       </c>
       <c r="M22" s="235">
         <f t="shared" si="1"/>
-        <v>-2.7139430287901473E-7</v>
+        <v>-2.7714142426891325E-7</v>
       </c>
       <c r="N22" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.0011412652037437</v>
+        <v>1.0023337229678335</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -5990,15 +5990,15 @@
       </c>
       <c r="G25" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H25" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
-        <v>42164</v>
+        <v>42221</v>
       </c>
       <c r="I25" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G25,H25,AllTriggers)</f>
-        <v>-1.5235886164699508E-4</v>
+        <v>-2.0569278220694542E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6008,15 +6008,15 @@
       </c>
       <c r="G26" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H26" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
-        <v>42170</v>
+        <v>42227</v>
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G26,H26,AllTriggers)</f>
-        <v>-1.4615060688529167E-4</v>
+        <v>-2.0463436774801176E-4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6026,15 +6026,15 @@
       </c>
       <c r="G27" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H27" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
-        <v>42177</v>
+        <v>42234</v>
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G27,H27,AllTriggers)</f>
-        <v>-1.1905590967087321E-4</v>
+        <v>-2.1337748068736166E-4</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6044,15 +6044,15 @@
       </c>
       <c r="G28" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H28" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
-        <v>42184</v>
+        <v>42241</v>
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G28,H28,AllTriggers)</f>
-        <v>-1.2210649579267953E-4</v>
+        <v>-2.120815898289306E-4</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6062,15 +6062,15 @@
       </c>
       <c r="G29" s="272">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H29" s="273">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="I29" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G29,H29,AllTriggers)</f>
-        <v>-1.2789266630397478E-4</v>
+        <v>-2.2629335085015107E-4</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6080,15 +6080,15 @@
       </c>
       <c r="G30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H30" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G30,H30,AllTriggers)</f>
-        <v>-1.3135129780675724E-4</v>
+        <v>-2.3675874691667545E-4</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6098,15 +6098,15 @@
       </c>
       <c r="G31" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H31" s="275">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="I31" s="291">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G31,H31,AllTriggers)</f>
-        <v>-1.3414978244339639E-4</v>
+        <v>-2.4418495743025822E-4</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6279,7 +6279,7 @@
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -6374,21 +6374,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>5.0796159643381458E-4</v>
+        <v>4.5185185741576368E-4</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>1.781745259666332E-3</v>
+        <v>1.7359884282687915E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="283">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="R3" s="190" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00594#0000</v>
+        <v>obj_0058c#0000</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6422,31 +6422,31 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>4.8999999999999998E-4</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E4),,AllTriggers)</f>
-        <v>-1.2737836632325174E-3</v>
+        <v>-1.2841365708530278E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>1.7637836632325174E-3</v>
+        <v>1.7641365708530277E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>1.781745259666332E-3</v>
+        <v>1.7359884282687915E-3</v>
       </c>
       <c r="K4" s="187">
         <f>M4*10000</f>
-        <v>-0.17961596433814594</v>
+        <v>0.28148142584236274</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -6454,11 +6454,11 @@
       </c>
       <c r="M4" s="278">
         <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>-1.7961596433814595E-5</v>
+        <v>2.8148142584236277E-5</v>
       </c>
       <c r="N4" s="281">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000113889931339</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>0</v>
@@ -6481,43 +6481,43 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
-        <v>42377</v>
+        <v>42433</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>5.8E-4</v>
+        <v>4.4000000000000007E-4</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E5),,AllTriggers)</f>
-        <v>-1.2612193948480957E-3</v>
+        <v>-1.3077021857484854E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" si="0"/>
-        <v>1.8412193948480957E-3</v>
+        <v>1.7477021857484855E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>1.8476373915875027E-3</v>
+        <v>1.7598628068123314E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>-6.4179967394070378E-2</v>
+        <v>-0.1216062106384596</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="M5" s="279">
         <f t="shared" si="1"/>
-        <v>-6.4179967394070378E-6</v>
+        <v>-1.216062106384596E-5</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001106648021887</v>
+        <v>1.0001169845965037</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -6544,43 +6544,43 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
-        <v>42410</v>
+        <v>42465</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>6.4999999999999997E-4</v>
+        <v>4.6000000000000001E-4</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E6),,AllTriggers)</f>
-        <v>-1.2713463090453128E-3</v>
+        <v>-1.327753591658731E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="0"/>
-        <v>1.9213463090453128E-3</v>
+        <v>1.7877535916587311E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>1.9100868542743217E-3</v>
+        <v>1.7890592220734195E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>0.11259454770991056</v>
+        <v>-1.3056304146883899E-2</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.17260273972602741</v>
+        <v>0.16986301369863013</v>
       </c>
       <c r="M6" s="234">
         <f t="shared" si="1"/>
-        <v>1.1259454770991056E-5</v>
+        <v>-1.3056304146883899E-6</v>
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002260583921088</v>
+        <v>1.0002255124833961</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_005e0#0024</v>
+        <v>obj_005d6#0002</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6611,31 +6611,31 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
-        <v>42437</v>
+        <v>42494</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>7.1000000000000013E-4</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E7),,AllTriggers)</f>
-        <v>-1.2471663253159333E-3</v>
+        <v>-1.3431536451567918E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="0"/>
-        <v>1.9571663253159337E-3</v>
+        <v>1.8331536451567918E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>1.9570716758657287E-3</v>
+        <v>1.8217004039202849E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>9.4649450204948443E-4</v>
+        <v>0.11453241236506927</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
@@ -6643,11 +6643,11 @@
       </c>
       <c r="M7" s="234">
         <f t="shared" si="1"/>
-        <v>9.4649450204948443E-8</v>
+        <v>1.1453241236506926E-5</v>
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003318671850669</v>
+        <v>1.0003328123674977</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -6678,31 +6678,31 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42285</v>
+        <v>42342</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E8)</f>
-        <v>42468</v>
+        <v>42527</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>7.8000000000000009E-4</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E8),,AllTriggers)</f>
-        <v>-1.2188863600502994E-3</v>
+        <v>-1.3634312793936426E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="0"/>
-        <v>1.9988863600502995E-3</v>
+        <v>1.8734312793936426E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>1.9986733932196312E-3</v>
+        <v>1.8579939962317636E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>2.1296683066834507E-3</v>
+        <v>0.15437283161879017</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
@@ -6710,11 +6710,11 @@
       </c>
       <c r="M8" s="234">
         <f t="shared" si="1"/>
-        <v>2.1296683066834507E-7</v>
+        <v>1.5437283161879017E-5</v>
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004379104737688</v>
+        <v>1.000438651858331</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -6745,43 +6745,43 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42317</v>
+        <v>42373</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
-        <v>42499</v>
+        <v>42555</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>8.5000000000000006E-4</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E9),,AllTriggers)</f>
-        <v>-1.1758696454302951E-3</v>
+        <v>-1.3695843491984578E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="0"/>
-        <v>2.0258696454302952E-3</v>
+        <v>1.9095843491984577E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>2.0360509388013428E-3</v>
+        <v>1.8986386891824908E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>-0.10181293371047673</v>
+        <v>0.10945660015966846</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.42191780821917807</v>
+        <v>0.41917808219178082</v>
       </c>
       <c r="M9" s="234">
         <f t="shared" si="1"/>
-        <v>-1.0181293371047673E-5</v>
+        <v>1.0945660015966845E-5</v>
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005545597248136</v>
+        <v>1.000553166796166</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>5.6448440012852806E-5</v>
+        <v>1.2295435718564604E-5</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6812,43 +6812,43 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>9.2000000000000003E-4</v>
+        <v>5.6999999999999998E-4</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E10),,AllTriggers)</f>
-        <v>-1.1419431047384435E-3</v>
+        <v>-1.3697681405197407E-3</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="0"/>
-        <v>2.0619431047384437E-3</v>
+        <v>1.9397681405197407E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>2.064445035325034E-3</v>
+        <v>1.9417612708745448E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>-2.5019305865902307E-2</v>
+        <v>-1.9931303548040378E-2</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50136986301369868</v>
+        <v>0.50410958904109593</v>
       </c>
       <c r="M10" s="234">
         <f t="shared" si="1"/>
-        <v>-2.5019305865902307E-6</v>
+        <v>-1.9931303548040378E-6</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006590446429069</v>
+        <v>1.0006681640030839</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>7.4152523860773626E-5</v>
+        <v>2.5781516711065756E-5</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6879,43 +6879,43 @@
       </c>
       <c r="E11" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
-        <v>42377</v>
+        <v>42433</v>
       </c>
       <c r="F11" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E11)</f>
-        <v>42559</v>
+        <v>42618</v>
       </c>
       <c r="G11" s="67">
         <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
-        <v>9.7999999999999997E-4</v>
+        <v>6.0999999999999997E-4</v>
       </c>
       <c r="H11" s="67">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E11),,AllTriggers)</f>
-        <v>-1.1230104452715755E-3</v>
+        <v>-1.35997472316278E-3</v>
       </c>
       <c r="I11" s="280">
         <f t="shared" si="0"/>
-        <v>2.1030104452715755E-3</v>
+        <v>1.9699747231627799E-3</v>
       </c>
       <c r="J11" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>2.0898440596130085E-3</v>
+        <v>1.9837048112502889E-3</v>
       </c>
       <c r="K11" s="240">
         <f t="shared" si="4"/>
-        <v>0.13166385658566931</v>
+        <v>-0.13730088087509068</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>0.58630136986301373</v>
+        <v>0.58356164383561648</v>
       </c>
       <c r="M11" s="279">
         <f t="shared" si="1"/>
-        <v>1.3166385658566933E-5</v>
+        <v>-1.3730088087509067E-5</v>
       </c>
       <c r="N11" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0007557752387322</v>
+        <v>1.0007786154567391</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -6939,43 +6939,43 @@
       </c>
       <c r="E12" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
-        <v>42408</v>
+        <v>42464</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E12)</f>
-        <v>42590</v>
+        <v>42647</v>
       </c>
       <c r="G12" s="62">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>1.0500000000000002E-3</v>
+        <v>6.7000000000000002E-4</v>
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E12),,AllTriggers)</f>
-        <v>-1.0578451458745394E-3</v>
+        <v>-1.3478315374855295E-3</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="0"/>
-        <v>2.1078451458745396E-3</v>
+        <v>2.0178315374855295E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>2.1109504259014056E-3</v>
+        <v>2.0295702860178128E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>-3.105280026866053E-2</v>
+        <v>-0.11738748532283319</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
-        <v>0.67123287671232879</v>
+        <v>0.66849315068493154</v>
       </c>
       <c r="M12" s="234">
         <f t="shared" si="1"/>
-        <v>-3.105280026866053E-6</v>
+        <v>-1.1738748532283318E-5</v>
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.000868725609952</v>
+        <v>1.0008972249676396</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -7009,31 +7009,31 @@
       </c>
       <c r="E13" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
-        <v>42437</v>
+        <v>42494</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E13)</f>
-        <v>42621</v>
+        <v>42678</v>
       </c>
       <c r="G13" s="62">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>1.1200000000000001E-3</v>
+        <v>7.3000000000000007E-4</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E13),,AllTriggers)</f>
-        <v>-1.0029806753152977E-3</v>
+        <v>-1.3335227954845649E-3</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="0"/>
-        <v>2.1229806753152976E-3</v>
+        <v>2.0635227954845649E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>2.1275564636728762E-3</v>
+        <v>2.0743030010108212E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>-4.575788357578589E-2</v>
+        <v>-0.10780205526256334</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
@@ -7041,11 +7041,11 @@
       </c>
       <c r="M13" s="234">
         <f t="shared" si="1"/>
-        <v>-4.575788357578589E-6</v>
+        <v>-1.0780205526256335E-5</v>
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0009629862237717</v>
+        <v>1.0010125387078277</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="R13" s="190">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>1.781745259666332E-3</v>
+        <v>1.7359884282687915E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -7082,43 +7082,43 @@
       </c>
       <c r="E14" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
-        <v>42468</v>
+        <v>42527</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E14)</f>
-        <v>42653</v>
+        <v>42710</v>
       </c>
       <c r="G14" s="62">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>1.1999999999999999E-3</v>
+        <v>8.0000000000000015E-4</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E14),,AllTriggers)</f>
-        <v>-9.4007823058665828E-4</v>
+        <v>-1.3159442194581609E-3</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>2.1400782305866584E-3</v>
+        <v>2.1159442194581611E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>2.1427517615240925E-3</v>
+        <v>2.1231128101101299E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>-2.6735309374341203E-2</v>
+        <v>-7.1685906519688453E-2</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.83561643835616439</v>
+        <v>0.84109589041095889</v>
       </c>
       <c r="M14" s="234">
         <f t="shared" si="1"/>
-        <v>-2.6735309374341203E-6</v>
+        <v>-7.168590651968846E-6</v>
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0010581666808025</v>
+        <v>1.0011401028591347</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>8.5778196137636063E-4</v>
+        <v>2.4693383154697089E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -7154,43 +7154,43 @@
       </c>
       <c r="E15" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
-        <v>42499</v>
+        <v>42555</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E15)</f>
-        <v>42683</v>
+        <v>42739</v>
       </c>
       <c r="G15" s="62">
         <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>1.2900000000000001E-3</v>
+        <v>8.7999999999999992E-4</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E15),,AllTriggers)</f>
-        <v>-8.734289927631758E-4</v>
+        <v>-1.2820204762174227E-3</v>
       </c>
       <c r="I15" s="265">
         <f t="shared" si="0"/>
-        <v>2.1634289927631757E-3</v>
+        <v>2.1620204762174229E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>2.1561316133231322E-3</v>
+        <v>2.1635732988881393E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>7.2973794400434805E-2</v>
+        <v>-1.5528226707164222E-2</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.92054794520547945</v>
+        <v>0.9178082191780822</v>
       </c>
       <c r="M15" s="234">
         <f t="shared" si="1"/>
-        <v>7.2973794400434805E-6</v>
+        <v>-1.5528226707164222E-6</v>
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0011497106221909</v>
+        <v>1.0012464308026101</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -7199,7 +7199,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>-7.0135056285013033E-4</v>
+        <v>4.1899540149830143E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -7226,31 +7226,31 @@
       </c>
       <c r="E16" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E16)</f>
-        <v>42712</v>
+        <v>42772</v>
       </c>
       <c r="G16" s="62">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>1.3700000000000001E-3</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E16),,AllTriggers)</f>
-        <v>-7.9569614773001825E-4</v>
+        <v>-1.2524485557760085E-3</v>
       </c>
       <c r="I16" s="265">
         <f t="shared" si="0"/>
-        <v>2.1656961477300183E-3</v>
+        <v>2.2324485557760083E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>2.1681461621500457E-3</v>
+        <v>2.2066670390649425E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>-2.4500144200274333E-2</v>
+        <v>0.25781516711065755</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
@@ -7258,11 +7258,11 @@
       </c>
       <c r="M16" s="234">
         <f t="shared" si="1"/>
-        <v>-2.4500144200274333E-6</v>
+        <v>2.5781516711065756E-5</v>
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0012402523390991</v>
+        <v>1.0013616007965833</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -7271,7 +7271,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>2.2957560046531553E-4</v>
+        <v>-1.9660579422364812E-4</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -7298,43 +7298,43 @@
       </c>
       <c r="E17" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A17&amp;"M","mf",,Trigger)</f>
-        <v>42559</v>
+        <v>42618</v>
       </c>
       <c r="F17" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E17)</f>
-        <v>42744</v>
+        <v>42800</v>
       </c>
       <c r="G17" s="62">
         <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>1.5E-3</v>
+        <v>1.06E-3</v>
       </c>
       <c r="H17" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E17),,AllTriggers)</f>
-        <v>-6.5255104623203298E-4</v>
+        <v>-1.2100434238428723E-3</v>
       </c>
       <c r="I17" s="265">
         <f t="shared" si="0"/>
-        <v>2.1525510462320329E-3</v>
+        <v>2.2700434238428725E-3</v>
       </c>
       <c r="J17" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>2.1800156457889002E-3</v>
+        <v>2.2485333674814156E-3</v>
       </c>
       <c r="K17" s="188">
         <f t="shared" si="4"/>
-        <v>-0.27464599556867308</v>
+        <v>0.21510056361456925</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>1.0849315068493151</v>
+        <v>1.0904109589041096</v>
       </c>
       <c r="M17" s="234">
         <f t="shared" si="1"/>
-        <v>-2.7464599556867308E-5</v>
+        <v>2.1510056361456927E-5</v>
       </c>
       <c r="N17" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0013242712555703</v>
+        <v>1.0014785246613946</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -7370,31 +7370,31 @@
       </c>
       <c r="E18" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A18&amp;"M","mf",,Trigger)</f>
-        <v>42590</v>
+        <v>42647</v>
       </c>
       <c r="F18" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E18)</f>
-        <v>42774</v>
+        <v>42829</v>
       </c>
       <c r="G18" s="62">
         <f>_xll.qlQuoteValue(D18,AllTriggers)</f>
-        <v>1.6099999999999997E-3</v>
+        <v>1.15E-3</v>
       </c>
       <c r="H18" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E18),,AllTriggers)</f>
-        <v>-5.7142293852804774E-4</v>
+        <v>-1.1517121198516751E-3</v>
       </c>
       <c r="I18" s="265">
         <f t="shared" si="0"/>
-        <v>2.1814229385280475E-3</v>
+        <v>2.3017121198516751E-3</v>
       </c>
       <c r="J18" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>2.1929407988151473E-3</v>
+        <v>2.2835198835107883E-3</v>
       </c>
       <c r="K18" s="188">
         <f t="shared" si="4"/>
-        <v>-0.11517860287099754</v>
+        <v>0.18192236340886739</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
@@ -7402,11 +7402,11 @@
       </c>
       <c r="M18" s="234">
         <f t="shared" si="1"/>
-        <v>-1.1517860287099755E-5</v>
+        <v>1.8192236340886739E-5</v>
       </c>
       <c r="N18" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.0014042761065125</v>
+        <v>1.0015834575681695</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="R18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_005e1#0025</v>
+        <v>obj_005da#0002</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -7438,31 +7438,31 @@
       </c>
       <c r="E19" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A19&amp;"M","mf",,Trigger)</f>
-        <v>42621</v>
+        <v>42678</v>
       </c>
       <c r="F19" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E19)</f>
-        <v>42802</v>
+        <v>42859</v>
       </c>
       <c r="G19" s="62">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
-        <v>1.7299999999999998E-3</v>
+        <v>1.2700000000000001E-3</v>
       </c>
       <c r="H19" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E19),,AllTriggers)</f>
-        <v>-4.7950303744178778E-4</v>
+        <v>-1.073277565895736E-3</v>
       </c>
       <c r="I19" s="265">
         <f t="shared" si="0"/>
-        <v>2.2095030374417873E-3</v>
+        <v>2.343277565895736E-3</v>
       </c>
       <c r="J19" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>2.2073716031252933E-3</v>
+        <v>2.3171205565985747E-3</v>
       </c>
       <c r="K19" s="188">
         <f t="shared" si="4"/>
-        <v>2.1314343164940616E-2</v>
+        <v>0.2615700929716131</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
@@ -7470,11 +7470,11 @@
       </c>
       <c r="M19" s="234">
         <f t="shared" si="1"/>
-        <v>2.1314343164940616E-6</v>
+        <v>2.6157009297161308E-5</v>
       </c>
       <c r="N19" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0014763776333644</v>
+        <v>1.0016952724864892</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -7499,43 +7499,43 @@
       </c>
       <c r="E20" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A20&amp;"M","mf",,Trigger)</f>
-        <v>42653</v>
+        <v>42709</v>
       </c>
       <c r="F20" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E20)</f>
-        <v>42835</v>
+        <v>42891</v>
       </c>
       <c r="G20" s="62">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>1.89E-3</v>
+        <v>1.3799999999999999E-3</v>
       </c>
       <c r="H20" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E20),,AllTriggers)</f>
-        <v>-3.5488975786727859E-4</v>
+        <v>-9.7450463166213108E-4</v>
       </c>
       <c r="I20" s="265">
         <f t="shared" si="0"/>
-        <v>2.2448897578672784E-3</v>
+        <v>2.3545046316621309E-3</v>
       </c>
       <c r="J20" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>2.2247418814503182E-3</v>
+        <v>2.3460887484871348E-3</v>
       </c>
       <c r="K20" s="188">
         <f t="shared" si="4"/>
-        <v>0.20147876416960145</v>
+        <v>8.4158831749961416E-2</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
-        <v>1.3424657534246576</v>
+        <v>1.3397260273972602</v>
       </c>
       <c r="M20" s="234">
         <f t="shared" si="1"/>
-        <v>2.0147876416960146E-5</v>
+        <v>8.4158831749961416E-6</v>
       </c>
       <c r="N20" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0015420073754082</v>
+        <v>1.0018066950712665</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -7560,31 +7560,31 @@
       </c>
       <c r="E21" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A21&amp;"M","mf",,Trigger)</f>
-        <v>42682</v>
+        <v>42739</v>
       </c>
       <c r="F21" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E21)</f>
-        <v>42863</v>
+        <v>42920</v>
       </c>
       <c r="G21" s="62">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>2.0400000000000001E-3</v>
+        <v>1.48E-3</v>
       </c>
       <c r="H21" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E21),,AllTriggers)</f>
-        <v>-2.252396820272476E-4</v>
+        <v>-8.8755310459209509E-4</v>
       </c>
       <c r="I21" s="265">
         <f t="shared" si="0"/>
-        <v>2.2652396820272477E-3</v>
+        <v>2.3675531045920951E-3</v>
       </c>
       <c r="J21" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>2.2434229072262591E-3</v>
+        <v>2.3690310420610549E-3</v>
       </c>
       <c r="K21" s="188">
         <f t="shared" si="4"/>
-        <v>0.21816774800988581</v>
+        <v>-1.4779374689598279E-2</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
@@ -7592,11 +7592,11 @@
       </c>
       <c r="M21" s="234">
         <f t="shared" si="1"/>
-        <v>2.1816774800988582E-5</v>
+        <v>-1.4779374689598279E-6</v>
       </c>
       <c r="N21" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0015950999006336</v>
+        <v>1.0019029326186186</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -7621,43 +7621,43 @@
       </c>
       <c r="E22" s="297">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A22&amp;"M","mf",,Trigger)</f>
-        <v>42712</v>
+        <v>42772</v>
       </c>
       <c r="F22" s="297">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E22)</f>
-        <v>42894</v>
+        <v>42954</v>
       </c>
       <c r="G22" s="65">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>2.2000000000000001E-3</v>
+        <v>1.6200000000000001E-3</v>
       </c>
       <c r="H22" s="65">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E22),,AllTriggers)</f>
-        <v>-6.6324583335551803E-5</v>
+        <v>-7.6450531885931706E-4</v>
       </c>
       <c r="I22" s="260">
         <f t="shared" si="0"/>
-        <v>2.2663245833355519E-3</v>
+        <v>2.3845053188593173E-3</v>
       </c>
       <c r="J22" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>2.2664494133273877E-3</v>
+        <v>2.3876932219572414E-3</v>
       </c>
       <c r="K22" s="189">
         <f t="shared" si="4"/>
-        <v>-1.2482999183589458E-3</v>
+        <v>-3.1879030979241156E-2</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
-        <v>1.5041095890410958</v>
+        <v>1.5123287671232877</v>
       </c>
       <c r="M22" s="235">
         <f t="shared" si="1"/>
-        <v>-1.2482999183589458E-7</v>
+        <v>-3.1879030979241156E-6</v>
       </c>
       <c r="N22" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.0016453967424186</v>
+        <v>1.0020099998848182</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -7698,15 +7698,15 @@
       </c>
       <c r="G25" s="298">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H25" s="295">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
-        <v>42164</v>
+        <v>42221</v>
       </c>
       <c r="I25" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G25,H25,AllTriggers)</f>
-        <v>3.241783158713929E-4</v>
+        <v>4.6795698028567756E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7715,15 +7715,15 @@
       </c>
       <c r="G26" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H26" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
-        <v>42170</v>
+        <v>42227</v>
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G26,H26,AllTriggers)</f>
-        <v>3.3416013810873475E-4</v>
+        <v>4.6808351169959545E-4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7732,15 +7732,15 @@
       </c>
       <c r="G27" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H27" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
-        <v>42177</v>
+        <v>42234</v>
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G27,H27,AllTriggers)</f>
-        <v>3.6559869292534283E-4</v>
+        <v>4.5834244227993537E-4</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7749,15 +7749,15 @@
       </c>
       <c r="G28" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H28" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
-        <v>42184</v>
+        <v>42241</v>
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G28,H28,AllTriggers)</f>
-        <v>3.6682874906799966E-4</v>
+        <v>4.5873537531651972E-4</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7766,15 +7766,15 @@
       </c>
       <c r="G29" s="300">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H29" s="301">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="I29" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G29,H29,AllTriggers)</f>
-        <v>3.6645507358468166E-4</v>
+        <v>4.4339414888070903E-4</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="G30" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H30" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G30,H30,AllTriggers)</f>
-        <v>3.81994436043444E-4</v>
+        <v>4.3058687618027872E-4</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7800,15 +7800,15 @@
       </c>
       <c r="G31" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H31" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="I31" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G31,H31,AllTriggers)</f>
-        <v>3.9484329466596776E-4</v>
+        <v>4.224615017985347E-4</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7817,15 +7817,15 @@
       </c>
       <c r="G32" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H32" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
-        <v>42285</v>
+        <v>42342</v>
       </c>
       <c r="I32" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G32,H32,AllTriggers)</f>
-        <v>4.2839036714768179E-4</v>
+        <v>4.2778488631434186E-4</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7834,15 +7834,15 @@
       </c>
       <c r="G33" s="302">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H33" s="297">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
-        <v>42317</v>
+        <v>42373</v>
       </c>
       <c r="I33" s="290">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G33,H33,AllTriggers)</f>
-        <v>4.5430778824257596E-4</v>
+        <v>4.2439538708664604E-4</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7851,15 +7851,15 @@
       </c>
       <c r="G34" s="303">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H34" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="I34" s="291">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G34,H34,AllTriggers)</f>
-        <v>4.8065290598658667E-4</v>
+        <v>4.2660256229695595E-4</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8054,21 +8054,21 @@
       </c>
       <c r="E3" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="F3" s="294">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="G3" s="258">
         <f>J3+$H$4</f>
-        <v>1.6784772997037419E-3</v>
+        <v>1.6590267223050242E-3</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
       <c r="J3" s="190">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>2.8859709757861327E-3</v>
+        <v>2.9852980539241281E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="239"/>
@@ -8083,7 +8083,7 @@
       </c>
       <c r="R3" s="190" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_00593#0000</v>
+        <v>obj_0058b#0000</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8103,35 +8103,35 @@
       </c>
       <c r="E4" s="294">
         <f>SettlementDate</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="F4" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E4)</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="G4" s="190">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>1.6200000000000001E-3</v>
+        <v>1.6699999999999998E-3</v>
       </c>
       <c r="H4" s="190">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E4),,AllTriggers)</f>
-        <v>-1.2074936760823908E-3</v>
+        <v>-1.3262713316191039E-3</v>
       </c>
       <c r="I4" s="258">
         <f t="shared" ref="I4:I14" si="0">G4-H4</f>
-        <v>2.827493676082391E-3</v>
+        <v>2.9962713316191037E-3</v>
       </c>
       <c r="J4" s="186">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>2.8859709757861327E-3</v>
+        <v>2.9852980539241281E-3</v>
       </c>
       <c r="K4" s="187">
         <f>L4*10000</f>
-        <v>-0.58477299703741781</v>
+        <v>0.10973277694975581</v>
       </c>
       <c r="L4" s="278">
         <f t="shared" ref="L4:L16" si="1">I4-J4</f>
-        <v>-5.847729970374178E-5</v>
+        <v>1.0973277694975581E-5</v>
       </c>
       <c r="M4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -8139,7 +8139,7 @@
       </c>
       <c r="N4" s="281">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000111112116115</v>
+        <v>1.0000113889931339</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>1</v>
@@ -8162,43 +8162,43 @@
       </c>
       <c r="E5" s="295">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="F5" s="295">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E5)</f>
-        <v>42559</v>
+        <v>42618</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>1.7499999999999998E-3</v>
+        <v>1.6499999999999998E-3</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E5),,AllTriggers)</f>
-        <v>-1.1921325587408748E-3</v>
+        <v>-1.3335988770322113E-3</v>
       </c>
       <c r="I5" s="280">
         <f t="shared" ref="I5:I13" si="3">G5-H5</f>
-        <v>2.9421325587408748E-3</v>
+        <v>2.9835988770322112E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>2.9021147022755562E-3</v>
+        <v>3.002307267100959E-3</v>
       </c>
       <c r="K5" s="240">
         <f t="shared" ref="K5:K16" si="4">L5*10000</f>
-        <v>0.40017856465318635</v>
+        <v>-0.18708390068747793</v>
       </c>
       <c r="L5" s="279">
         <f t="shared" si="1"/>
-        <v>4.0017856465318635E-5</v>
+        <v>-1.8708390068747794E-5</v>
       </c>
       <c r="M5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="N5" s="183">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001106648021887</v>
+        <v>1.0001169845965037</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -8226,43 +8226,43 @@
       </c>
       <c r="E6" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="F6" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E6)</f>
-        <v>42592</v>
+        <v>42648</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>1.8E-3</v>
+        <v>1.6899999999999999E-3</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E6),,AllTriggers)</f>
-        <v>-1.1620855295020765E-3</v>
+        <v>-1.3371112715297115E-3</v>
       </c>
       <c r="I6" s="265">
         <f t="shared" si="3"/>
-        <v>2.9620855295020765E-3</v>
+        <v>3.0271112715297113E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>2.9233449638555054E-3</v>
+        <v>3.0297515586161241E-3</v>
       </c>
       <c r="K6" s="188">
         <f t="shared" si="4"/>
-        <v>0.38740565646571029</v>
+        <v>-2.6402870864127362E-2</v>
       </c>
       <c r="L6" s="234">
         <f t="shared" si="1"/>
-        <v>3.874056564657103E-5</v>
+        <v>-2.6402870864127362E-6</v>
       </c>
       <c r="M6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.17260273972602741</v>
+        <v>0.16986301369863013</v>
       </c>
       <c r="N6" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002260583921088</v>
+        <v>1.0002255124833961</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -8272,7 +8272,7 @@
       </c>
       <c r="R6" s="282" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($M$4:$M$17,$O$4:$O$17),_xll.ohFilter($I$4:$I$17,$O$4:$O$17),_xll.ohFilter($N$4:$N$17,$O$4:$O$17),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_005df#0024</v>
+        <v>obj_005d7#0002</v>
       </c>
       <c r="T6" s="55"/>
     </row>
@@ -8294,35 +8294,35 @@
       </c>
       <c r="E7" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="F7" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E7)</f>
-        <v>42621</v>
+        <v>42678</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>1.8400000000000001E-3</v>
+        <v>1.7299999999999998E-3</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E7),,AllTriggers)</f>
-        <v>-1.1240884029558094E-3</v>
+        <v>-1.3378566755916834E-3</v>
       </c>
       <c r="I7" s="265">
         <f t="shared" si="3"/>
-        <v>2.9640884029558095E-3</v>
+        <v>3.0678566755916832E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>2.9447108336345439E-3</v>
+        <v>3.0652035505162227E-3</v>
       </c>
       <c r="K7" s="188">
         <f t="shared" si="4"/>
-        <v>0.19377569321265586</v>
+        <v>2.6531250754604357E-2</v>
       </c>
       <c r="L7" s="234">
         <f t="shared" si="1"/>
-        <v>1.9377569321265588E-5</v>
+        <v>2.6531250754604357E-6</v>
       </c>
       <c r="M7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
@@ -8330,7 +8330,7 @@
       </c>
       <c r="N7" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0003318671850669</v>
+        <v>1.0003328123674977</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -8362,35 +8362,35 @@
       </c>
       <c r="E8" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42285</v>
+        <v>42342</v>
       </c>
       <c r="F8" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E8)</f>
-        <v>42653</v>
+        <v>42709</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>1.9E-3</v>
+        <v>1.7799999999999999E-3</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E8),,AllTriggers)</f>
-        <v>-1.0784318452227667E-3</v>
+        <v>-1.3395296240891583E-3</v>
       </c>
       <c r="I8" s="265">
         <f t="shared" si="3"/>
-        <v>2.9784318452227669E-3</v>
+        <v>3.1195296240891582E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>2.9691909332129509E-3</v>
+        <v>3.1083884094856231E-3</v>
       </c>
       <c r="K8" s="188">
         <f t="shared" si="4"/>
-        <v>9.2409120098159603E-2</v>
+        <v>0.11141214603535132</v>
       </c>
       <c r="L8" s="234">
         <f t="shared" si="1"/>
-        <v>9.240912009815961E-6</v>
+        <v>1.1141214603535132E-5</v>
       </c>
       <c r="M8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
@@ -8398,7 +8398,7 @@
       </c>
       <c r="N8" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0004379104737688</v>
+        <v>1.000438651858331</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -8430,43 +8430,43 @@
       </c>
       <c r="E9" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42317</v>
+        <v>42373</v>
       </c>
       <c r="F9" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E9)</f>
-        <v>42683</v>
+        <v>42739</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>1.97E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E9),,AllTriggers)</f>
-        <v>-1.0235619473227329E-3</v>
+        <v>-1.3251169057044601E-3</v>
       </c>
       <c r="I9" s="265">
         <f t="shared" si="3"/>
-        <v>2.9935619473227329E-3</v>
+        <v>3.1651169057044602E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>2.9976471962306589E-3</v>
+        <v>3.1600709432257857E-3</v>
       </c>
       <c r="K9" s="188">
         <f t="shared" si="4"/>
-        <v>-4.0852489079259806E-2</v>
+        <v>5.0459624786744137E-2</v>
       </c>
       <c r="L9" s="234">
         <f t="shared" si="1"/>
-        <v>-4.0852489079259806E-6</v>
+        <v>5.0459624786744137E-6</v>
       </c>
       <c r="M9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.42191780821917807</v>
+        <v>0.41917808219178082</v>
       </c>
       <c r="N9" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0005545597248136</v>
+        <v>1.000553166796166</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="R9" s="190">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>1.2836471234633424E-4</v>
+        <v>7.9914719936361429E-6</v>
       </c>
       <c r="T9" s="55"/>
     </row>
@@ -8498,43 +8498,43 @@
       </c>
       <c r="E10" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="F10" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E10)</f>
-        <v>42712</v>
+        <v>42772</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>2.0299999999999997E-3</v>
+        <v>1.91E-3</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E10),,AllTriggers)</f>
-        <v>-9.6858868030299953E-4</v>
+        <v>-1.3100323715632147E-3</v>
       </c>
       <c r="I10" s="265">
         <f t="shared" si="3"/>
-        <v>2.9985886803029992E-3</v>
+        <v>3.2200323715632145E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>3.0252398075518937E-3</v>
+        <v>3.2178323658578352E-3</v>
       </c>
       <c r="K10" s="188">
         <f t="shared" si="4"/>
-        <v>-0.26651127248894513</v>
+        <v>2.2000057053792564E-2</v>
       </c>
       <c r="L10" s="234">
         <f t="shared" si="1"/>
-        <v>-2.6651127248894513E-5</v>
+        <v>2.2000057053792564E-6</v>
       </c>
       <c r="M10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.50136986301369868</v>
+        <v>0.50410958904109593</v>
       </c>
       <c r="N10" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0006590446429069</v>
+        <v>1.0006681640030839</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -8544,7 +8544,7 @@
       </c>
       <c r="R10" s="190">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>1.7883636286524906E-4</v>
+        <v>4.2383855144154884E-4</v>
       </c>
       <c r="T10" s="55"/>
     </row>
@@ -8566,43 +8566,43 @@
       </c>
       <c r="E11" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
-        <v>42377</v>
+        <v>42433</v>
       </c>
       <c r="F11" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E11)</f>
-        <v>42744</v>
+        <v>42800</v>
       </c>
       <c r="G11" s="62">
         <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
-        <v>2.1400000000000004E-3</v>
+        <v>1.98E-3</v>
       </c>
       <c r="H11" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E11),,AllTriggers)</f>
-        <v>-8.8567113191482573E-4</v>
+        <v>-1.2852024930533822E-3</v>
       </c>
       <c r="I11" s="265">
         <f t="shared" si="3"/>
-        <v>3.025671131914826E-3</v>
+        <v>3.265202493053382E-3</v>
       </c>
       <c r="J11" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>3.0563282654769283E-3</v>
+        <v>3.2763899709731597E-3</v>
       </c>
       <c r="K11" s="188">
         <f t="shared" si="4"/>
-        <v>-0.30657133562102257</v>
+        <v>-0.11187477919777714</v>
       </c>
       <c r="L11" s="234">
         <f t="shared" si="1"/>
-        <v>-3.0657133562102257E-5</v>
+        <v>-1.1187477919777714E-5</v>
       </c>
       <c r="M11" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>0.58630136986301373</v>
+        <v>0.58356164383561648</v>
       </c>
       <c r="N11" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0007557752387322</v>
+        <v>1.0007786154567391</v>
       </c>
       <c r="O11" s="237" t="b">
         <v>1</v>
@@ -8627,43 +8627,43 @@
       </c>
       <c r="E12" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
-        <v>42408</v>
+        <v>42464</v>
       </c>
       <c r="F12" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E12)</f>
-        <v>42774</v>
+        <v>42829</v>
       </c>
       <c r="G12" s="62">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>2.2599999999999999E-3</v>
+        <v>2.0899999999999998E-3</v>
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E12),,AllTriggers)</f>
-        <v>-8.1315138646498493E-4</v>
+        <v>-1.2496470199004162E-3</v>
       </c>
       <c r="I12" s="265">
         <f t="shared" si="3"/>
-        <v>3.0731513864649847E-3</v>
+        <v>3.3396470199004158E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>3.0887519870532588E-3</v>
+        <v>3.3427725119287953E-3</v>
       </c>
       <c r="K12" s="188">
         <f t="shared" si="4"/>
-        <v>-0.15600600588274155</v>
+        <v>-3.1254920283795007E-2</v>
       </c>
       <c r="L12" s="234">
         <f t="shared" si="1"/>
-        <v>-1.5600600588274154E-5</v>
+        <v>-3.1254920283795007E-6</v>
       </c>
       <c r="M12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
-        <v>0.67123287671232879</v>
+        <v>0.66849315068493154</v>
       </c>
       <c r="N12" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.000868725609952</v>
+        <v>1.0008972249676396</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -8697,35 +8697,35 @@
       </c>
       <c r="E13" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
-        <v>42437</v>
+        <v>42494</v>
       </c>
       <c r="F13" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E13)</f>
-        <v>42802</v>
+        <v>42859</v>
       </c>
       <c r="G13" s="62">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>2.3700000000000001E-3</v>
+        <v>2.2100000000000002E-3</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E13),,AllTriggers)</f>
-        <v>-7.432712396037201E-4</v>
+        <v>-1.2041069265325305E-3</v>
       </c>
       <c r="I13" s="265">
         <f t="shared" si="3"/>
-        <v>3.1132712396037205E-3</v>
+        <v>3.4141069265325305E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>3.1200113629694672E-3</v>
+        <v>3.4097191691621273E-3</v>
       </c>
       <c r="K13" s="188">
         <f t="shared" si="4"/>
-        <v>-6.7401233657467419E-2</v>
+        <v>4.3877573704031655E-2</v>
       </c>
       <c r="L13" s="234">
         <f t="shared" si="1"/>
-        <v>-6.7401233657467426E-6</v>
+        <v>4.3877573704031655E-6</v>
       </c>
       <c r="M13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="N13" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0009629862237717</v>
+        <v>1.0010125387078277</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -8743,7 +8743,7 @@
       </c>
       <c r="R13" s="190">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>2.8859709757861327E-3</v>
+        <v>2.9852980539241281E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -8770,43 +8770,43 @@
       </c>
       <c r="E14" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
-        <v>42468</v>
+        <v>42527</v>
       </c>
       <c r="F14" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E14)</f>
-        <v>42835</v>
+        <v>42892</v>
       </c>
       <c r="G14" s="62">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>2.5100000000000001E-3</v>
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E14),,AllTriggers)</f>
-        <v>-6.4979075058956915E-4</v>
+        <v>-1.1436917880533661E-3</v>
       </c>
       <c r="I14" s="265">
         <f t="shared" si="0"/>
-        <v>3.1597907505895692E-3</v>
+        <v>3.4836917880533662E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>3.154117314021257E-3</v>
+        <v>3.4852239115501478E-3</v>
       </c>
       <c r="K14" s="188">
         <f t="shared" si="4"/>
-        <v>5.6734365683121929E-2</v>
+        <v>-1.5321234967816469E-2</v>
       </c>
       <c r="L14" s="234">
         <f t="shared" si="1"/>
-        <v>5.6734365683121929E-6</v>
+        <v>-1.5321234967816469E-6</v>
       </c>
       <c r="M14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.83561643835616439</v>
+        <v>0.84109589041095889</v>
       </c>
       <c r="N14" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0010581666808025</v>
+        <v>1.0011401028591347</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -8815,7 +8815,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="190">
-        <v>1.7690198664969817E-4</v>
+        <v>1.3449316473623883E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -8842,43 +8842,43 @@
       </c>
       <c r="E15" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
-        <v>42499</v>
+        <v>42555</v>
       </c>
       <c r="F15" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E15)</f>
-        <v>42864</v>
+        <v>42920</v>
       </c>
       <c r="G15" s="62">
         <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>2.66E-3</v>
+        <v>2.4599999999999999E-3</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E15),,AllTriggers)</f>
-        <v>-5.4952239367591098E-4</v>
+        <v>-1.0861194924555219E-3</v>
       </c>
       <c r="I15" s="265">
         <f>G15-H15</f>
-        <v>3.2095223936759111E-3</v>
+        <v>3.546119492455522E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>3.1886263052130592E-3</v>
+        <v>3.5498569296971844E-3</v>
       </c>
       <c r="K15" s="188">
         <f t="shared" si="4"/>
-        <v>0.20896088462851908</v>
+        <v>-3.7374372416623322E-2</v>
       </c>
       <c r="L15" s="234">
         <f t="shared" si="1"/>
-        <v>2.089608846285191E-5</v>
+        <v>-3.7374372416623322E-6</v>
       </c>
       <c r="M15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.92054794520547945</v>
+        <v>0.9178082191780822</v>
       </c>
       <c r="N15" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0011497106221909</v>
+        <v>1.0012464308026101</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -8887,7 +8887,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="190">
-        <v>2.4451331394233434E-4</v>
+        <v>8.0004169805732574E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -8914,35 +8914,35 @@
       </c>
       <c r="E16" s="296">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="F16" s="296">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E16)</f>
-        <v>42894</v>
+        <v>42951</v>
       </c>
       <c r="G16" s="62">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>2.8000000000000004E-3</v>
+        <v>2.6099999999999999E-3</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E16),,AllTriggers)</f>
-        <v>-4.3199612796486318E-4</v>
+        <v>-1.0155901437094591E-3</v>
       </c>
       <c r="I16" s="265">
         <f>G16-H16</f>
-        <v>3.2319961279648635E-3</v>
+        <v>3.625590143709459E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>3.2221067327678449E-3</v>
+        <v>3.620981554051851E-3</v>
       </c>
       <c r="K16" s="188">
         <f t="shared" si="4"/>
-        <v>9.8893951970186772E-2</v>
+        <v>4.6085896576080268E-2</v>
       </c>
       <c r="L16" s="234">
         <f t="shared" si="1"/>
-        <v>9.8893951970186779E-6</v>
+        <v>4.6085896576080268E-6</v>
       </c>
       <c r="M16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
@@ -8950,7 +8950,7 @@
       </c>
       <c r="N16" s="184">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0012402523390991</v>
+        <v>1.0013616007965833</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -8959,7 +8959,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="190">
-        <v>-8.6393807601144336E-5</v>
+        <v>-3.0112782213438958E-4</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -8984,35 +8984,35 @@
       </c>
       <c r="E17" s="297">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A17&amp;"M","mf",,Trigger)</f>
-        <v>42894</v>
+        <v>42951</v>
       </c>
       <c r="F17" s="297">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E17)</f>
-        <v>43259</v>
+        <v>43318</v>
       </c>
       <c r="G17" s="65">
         <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>5.1700000000000001E-3</v>
+        <v>4.5499999999999994E-3</v>
       </c>
       <c r="H17" s="65">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E17),,AllTriggers)</f>
-        <v>1.6446242247501973E-3</v>
+        <v>5.054217085163718E-4</v>
       </c>
       <c r="I17" s="260">
         <f>G17-H17</f>
-        <v>3.5253757752498026E-3</v>
+        <v>4.0445782914836272E-3</v>
       </c>
       <c r="J17" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>3.526999603306082E-3</v>
+        <v>4.0446569976733387E-3</v>
       </c>
       <c r="K17" s="189">
         <f t="shared" ref="K17" si="7">L17*10000</f>
-        <v>-1.6238280562794367E-2</v>
+        <v>-7.8706189711452712E-4</v>
       </c>
       <c r="L17" s="235">
         <f t="shared" ref="L17" si="8">I17-J17</f>
-        <v>-1.6238280562794367E-6</v>
+        <v>-7.8706189711452712E-8</v>
       </c>
       <c r="M17" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="N17" s="185">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0016789838015994</v>
+        <v>1.0023937612042448</v>
       </c>
       <c r="O17" s="238" t="b">
         <v>1</v>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="R18" s="190" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_005e2#0024</v>
+        <v>obj_005dd#0002</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -9087,15 +9087,15 @@
       </c>
       <c r="G20" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H20" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F20,"Following",,Trigger)</f>
-        <v>42164</v>
+        <v>42221</v>
       </c>
       <c r="I20" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G20,H20,AllTriggers)</f>
-        <v>1.609122302923538E-3</v>
+        <v>1.811772918651755E-3</v>
       </c>
       <c r="T20" s="55"/>
     </row>
@@ -9105,15 +9105,15 @@
       </c>
       <c r="G21" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H21" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F21,"Following",,Trigger)</f>
-        <v>42170</v>
+        <v>42227</v>
       </c>
       <c r="I21" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G21,H21,AllTriggers)</f>
-        <v>1.6082451892161587E-3</v>
+        <v>1.8051836768595564E-3</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9122,15 +9122,15 @@
       </c>
       <c r="G22" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H22" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F22,"Following",,Trigger)</f>
-        <v>42177</v>
+        <v>42234</v>
       </c>
       <c r="I22" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G22,H22,AllTriggers)</f>
-        <v>1.6272938688897754E-3</v>
+        <v>1.7877603195826097E-3</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9139,15 +9139,15 @@
       </c>
       <c r="G23" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H23" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F23,"Following",,Trigger)</f>
-        <v>42184</v>
+        <v>42241</v>
       </c>
       <c r="I23" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G23,H23,AllTriggers)</f>
-        <v>1.6164289598753964E-3</v>
+        <v>1.7806353081198775E-3</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9156,15 +9156,15 @@
       </c>
       <c r="G24" s="272">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H24" s="273">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F24,"mf",TRUE,Trigger)</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="I24" s="289">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G24,H24,AllTriggers)</f>
-        <v>1.6009335986062467E-3</v>
+        <v>1.7548348702130815E-3</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9173,15 +9173,15 @@
       </c>
       <c r="G25" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H25" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"mf",TRUE,Trigger)</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="I25" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G25,H25,AllTriggers)</f>
-        <v>1.5650524683749217E-3</v>
+        <v>1.711685054132858E-3</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9190,15 +9190,15 @@
       </c>
       <c r="G26" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H26" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"mf",TRUE,Trigger)</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="I26" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G26,H26,AllTriggers)</f>
-        <v>1.5377312623009118E-3</v>
+        <v>1.6771221023443958E-3</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9207,15 +9207,15 @@
       </c>
       <c r="G27" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H27" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"mf",TRUE,Trigger)</f>
-        <v>42285</v>
+        <v>42342</v>
       </c>
       <c r="I27" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G27,H27,AllTriggers)</f>
-        <v>1.5344112658990528E-3</v>
+        <v>1.6588058450564137E-3</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9224,15 +9224,15 @@
       </c>
       <c r="G28" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H28" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"mf",TRUE,Trigger)</f>
-        <v>42317</v>
+        <v>42373</v>
       </c>
       <c r="I28" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G28,H28,AllTriggers)</f>
-        <v>1.5259618386373067E-3</v>
+        <v>1.6338304231896593E-3</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9241,15 +9241,15 @@
       </c>
       <c r="G29" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H29" s="271">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="I29" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G29,H29,AllTriggers)</f>
-        <v>1.5253302475532371E-3</v>
+        <v>1.6172537696443699E-3</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9258,15 +9258,15 @@
       </c>
       <c r="G30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H30" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42377</v>
+        <v>42433</v>
       </c>
       <c r="I30" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G30,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223050242E-3</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9275,15 +9275,15 @@
       </c>
       <c r="G31" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H31" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42408</v>
+        <v>42464</v>
       </c>
       <c r="I31" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G31,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223050242E-3</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9292,15 +9292,15 @@
       </c>
       <c r="G32" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H32" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
-        <v>42437</v>
+        <v>42494</v>
       </c>
       <c r="I32" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G32,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223050242E-3</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9309,15 +9309,15 @@
       </c>
       <c r="G33" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H33" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
-        <v>42468</v>
+        <v>42527</v>
       </c>
       <c r="I33" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G33,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223050242E-3</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9326,15 +9326,15 @@
       </c>
       <c r="G34" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H34" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
-        <v>42499</v>
+        <v>42555</v>
       </c>
       <c r="I34" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G34,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223050242E-3</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9343,15 +9343,15 @@
       </c>
       <c r="G35" s="303">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="H35" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F35,"mf",TRUE,Trigger)</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="I35" s="291">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G35,AllTriggers)</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223050242E-3</v>
       </c>
     </row>
     <row r="36" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9504,27 +9504,27 @@
       </c>
       <c r="B3" s="74">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C3)</f>
-        <v>42159</v>
+        <v>42216</v>
       </c>
       <c r="C3" s="74">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A3&amp;"M","mf")</f>
-        <v>42163</v>
+        <v>42220</v>
       </c>
       <c r="D3" s="74">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C3)</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="E3" s="75">
         <f>_xll.qlIndexFixing(ON_12M_index,B3,,AllTriggers)</f>
-        <v>-1.2074936760823908E-3</v>
+        <v>-1.3262713316191039E-3</v>
       </c>
       <c r="F3" s="76">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C3,TRUE,E3)</f>
-        <v>2.9249878924715112E-3</v>
+        <v>2.9400864825347111E-3</v>
       </c>
       <c r="G3" s="75">
         <f t="shared" ref="G3:G27" si="0">E3+F3</f>
-        <v>1.7174942163891203E-3</v>
+        <v>1.6138151509156073E-3</v>
       </c>
       <c r="Z3" s="71"/>
       <c r="AA3" s="71"/>
@@ -9536,27 +9536,27 @@
       </c>
       <c r="B4" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C4)</f>
-        <v>42191</v>
+        <v>42249</v>
       </c>
       <c r="C4" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A4&amp;"M","mf")</f>
-        <v>42193</v>
+        <v>42251</v>
       </c>
       <c r="D4" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C4)</f>
-        <v>42559</v>
+        <v>42618</v>
       </c>
       <c r="E4" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B4,,AllTriggers)</f>
-        <v>-1.1921325587408748E-3</v>
+        <v>-1.3335988770322113E-3</v>
       </c>
       <c r="F4" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C4,TRUE,E4)</f>
-        <v>2.9421325587408748E-3</v>
+        <v>2.9835988770322112E-3</v>
       </c>
       <c r="G4" s="79">
         <f t="shared" si="0"/>
-        <v>1.75E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="Z4" s="71"/>
       <c r="AA4" s="71"/>
@@ -9568,27 +9568,27 @@
       </c>
       <c r="B5" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C5)</f>
-        <v>42222</v>
+        <v>42278</v>
       </c>
       <c r="C5" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A5&amp;"M","mf")</f>
-        <v>42226</v>
+        <v>42282</v>
       </c>
       <c r="D5" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C5)</f>
-        <v>42592</v>
+        <v>42648</v>
       </c>
       <c r="E5" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B5,,AllTriggers)</f>
-        <v>-1.1620855295020765E-3</v>
+        <v>-1.3371112715297115E-3</v>
       </c>
       <c r="F5" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C5,TRUE,E5)</f>
-        <v>2.9620855295020765E-3</v>
+        <v>3.0271112715297113E-3</v>
       </c>
       <c r="G5" s="79">
         <f t="shared" si="0"/>
-        <v>1.8E-3</v>
+        <v>1.6899999999999999E-3</v>
       </c>
       <c r="Z5" s="71"/>
       <c r="AA5" s="71"/>
@@ -9600,27 +9600,27 @@
       </c>
       <c r="B6" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C6)</f>
-        <v>42251</v>
+        <v>42310</v>
       </c>
       <c r="C6" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A6&amp;"M","mf")</f>
-        <v>42255</v>
+        <v>42312</v>
       </c>
       <c r="D6" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C6)</f>
-        <v>42621</v>
+        <v>42678</v>
       </c>
       <c r="E6" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B6,,AllTriggers)</f>
-        <v>-1.1240884029558094E-3</v>
+        <v>-1.3378566755916834E-3</v>
       </c>
       <c r="F6" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C6,TRUE,E6)</f>
-        <v>2.9640884029558095E-3</v>
+        <v>3.0678566755916832E-3</v>
       </c>
       <c r="G6" s="79">
         <f t="shared" si="0"/>
-        <v>1.8400000000000001E-3</v>
+        <v>1.7299999999999998E-3</v>
       </c>
       <c r="Z6" s="71"/>
       <c r="AA6" s="71"/>
@@ -9632,27 +9632,27 @@
       </c>
       <c r="B7" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C7)</f>
-        <v>42283</v>
+        <v>42340</v>
       </c>
       <c r="C7" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A7&amp;"M","mf")</f>
-        <v>42285</v>
+        <v>42342</v>
       </c>
       <c r="D7" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C7)</f>
-        <v>42653</v>
+        <v>42709</v>
       </c>
       <c r="E7" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B7,,AllTriggers)</f>
-        <v>-1.0784318452227667E-3</v>
+        <v>-1.3395296240891583E-3</v>
       </c>
       <c r="F7" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C7,TRUE,E7)</f>
-        <v>2.9784318452227669E-3</v>
+        <v>3.1195296240891582E-3</v>
       </c>
       <c r="G7" s="79">
         <f t="shared" si="0"/>
-        <v>1.9000000000000002E-3</v>
+        <v>1.7799999999999999E-3</v>
       </c>
       <c r="Z7" s="71"/>
       <c r="AA7" s="71"/>
@@ -9664,27 +9664,27 @@
       </c>
       <c r="B8" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C8)</f>
-        <v>42313</v>
+        <v>42368</v>
       </c>
       <c r="C8" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A8&amp;"M","mf")</f>
-        <v>42317</v>
+        <v>42373</v>
       </c>
       <c r="D8" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C8)</f>
-        <v>42683</v>
+        <v>42739</v>
       </c>
       <c r="E8" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B8,,AllTriggers)</f>
-        <v>-1.0235619473227329E-3</v>
+        <v>-1.3251169057044601E-3</v>
       </c>
       <c r="F8" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C8,TRUE,E8)</f>
-        <v>2.9935619473227329E-3</v>
+        <v>3.1651169057044602E-3</v>
       </c>
       <c r="G8" s="79">
         <f t="shared" si="0"/>
-        <v>1.97E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="Z8" s="71"/>
       <c r="AA8" s="71"/>
@@ -9696,27 +9696,27 @@
       </c>
       <c r="B9" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C9)</f>
-        <v>42342</v>
+        <v>42402</v>
       </c>
       <c r="C9" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A9&amp;"M","mf")</f>
-        <v>42346</v>
+        <v>42404</v>
       </c>
       <c r="D9" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C9)</f>
-        <v>42712</v>
+        <v>42772</v>
       </c>
       <c r="E9" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B9,,AllTriggers)</f>
-        <v>-9.6858868030299953E-4</v>
+        <v>-1.3100323715632147E-3</v>
       </c>
       <c r="F9" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C9,TRUE,E9)</f>
-        <v>2.9985886803029992E-3</v>
+        <v>3.2200323715632145E-3</v>
       </c>
       <c r="G9" s="79">
         <f t="shared" si="0"/>
-        <v>2.0299999999999997E-3</v>
+        <v>1.9099999999999998E-3</v>
       </c>
       <c r="Z9" s="71"/>
       <c r="AA9" s="71"/>
@@ -9728,27 +9728,27 @@
       </c>
       <c r="B10" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C10)</f>
-        <v>42375</v>
+        <v>42431</v>
       </c>
       <c r="C10" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A10&amp;"M","mf")</f>
-        <v>42377</v>
+        <v>42433</v>
       </c>
       <c r="D10" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C10)</f>
-        <v>42744</v>
+        <v>42800</v>
       </c>
       <c r="E10" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B10,,AllTriggers)</f>
-        <v>-8.8567113191482573E-4</v>
+        <v>-1.2852024930533822E-3</v>
       </c>
       <c r="F10" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C10,TRUE,E10)</f>
-        <v>3.025671131914826E-3</v>
+        <v>3.265202493053382E-3</v>
       </c>
       <c r="G10" s="79">
         <f t="shared" si="0"/>
-        <v>2.1400000000000004E-3</v>
+        <v>1.98E-3</v>
       </c>
       <c r="H10" s="72"/>
       <c r="Z10" s="71"/>
@@ -9761,27 +9761,27 @@
       </c>
       <c r="B11" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C11)</f>
-        <v>42404</v>
+        <v>42460</v>
       </c>
       <c r="C11" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A11&amp;"M","mf")</f>
-        <v>42408</v>
+        <v>42464</v>
       </c>
       <c r="D11" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C11)</f>
-        <v>42774</v>
+        <v>42829</v>
       </c>
       <c r="E11" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B11,,AllTriggers)</f>
-        <v>-8.1315138646498493E-4</v>
+        <v>-1.2496470199004162E-3</v>
       </c>
       <c r="F11" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C11,TRUE,E11)</f>
-        <v>3.0731513864649847E-3</v>
+        <v>3.3396470199004158E-3</v>
       </c>
       <c r="G11" s="79">
         <f t="shared" si="0"/>
-        <v>2.2599999999999999E-3</v>
+        <v>2.0899999999999998E-3</v>
       </c>
       <c r="H11" s="72"/>
       <c r="Z11" s="71"/>
@@ -9794,27 +9794,27 @@
       </c>
       <c r="B12" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C12)</f>
-        <v>42433</v>
+        <v>42492</v>
       </c>
       <c r="C12" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>42437</v>
+        <v>42494</v>
       </c>
       <c r="D12" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C12)</f>
-        <v>42802</v>
+        <v>42859</v>
       </c>
       <c r="E12" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B12,,AllTriggers)</f>
-        <v>-7.432712396037201E-4</v>
+        <v>-1.2041069265325305E-3</v>
       </c>
       <c r="F12" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C12,TRUE,E12)</f>
-        <v>3.1132712396037205E-3</v>
+        <v>3.4141069265325305E-3</v>
       </c>
       <c r="G12" s="79">
         <f t="shared" si="0"/>
-        <v>2.3700000000000006E-3</v>
+        <v>2.2100000000000002E-3</v>
       </c>
       <c r="H12" s="72"/>
       <c r="Z12" s="71"/>
@@ -9827,27 +9827,27 @@
       </c>
       <c r="B13" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C13)</f>
-        <v>42466</v>
+        <v>42523</v>
       </c>
       <c r="C13" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>42468</v>
+        <v>42527</v>
       </c>
       <c r="D13" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C13)</f>
-        <v>42835</v>
+        <v>42892</v>
       </c>
       <c r="E13" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B13,,AllTriggers)</f>
-        <v>-6.4979075058956915E-4</v>
+        <v>-1.1436917880533661E-3</v>
       </c>
       <c r="F13" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C13,TRUE,E13)</f>
-        <v>3.1597907505895692E-3</v>
+        <v>3.4836917880533662E-3</v>
       </c>
       <c r="G13" s="79">
         <f t="shared" si="0"/>
-        <v>2.5100000000000001E-3</v>
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="H13" s="72"/>
       <c r="Z13" s="71"/>
@@ -9860,27 +9860,27 @@
       </c>
       <c r="B14" s="82">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C14)</f>
-        <v>42495</v>
+        <v>42551</v>
       </c>
       <c r="C14" s="82">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>42499</v>
+        <v>42555</v>
       </c>
       <c r="D14" s="82">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C14)</f>
-        <v>42864</v>
+        <v>42920</v>
       </c>
       <c r="E14" s="83">
         <f>_xll.qlIndexFixing(ON_12M_index,B14,,AllTriggers)</f>
-        <v>-5.4952239367591098E-4</v>
+        <v>-1.0861194924555219E-3</v>
       </c>
       <c r="F14" s="84">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C14,TRUE,E14)</f>
-        <v>3.2095223936759111E-3</v>
+        <v>3.546119492455522E-3</v>
       </c>
       <c r="G14" s="83">
         <f t="shared" si="0"/>
-        <v>2.66E-3</v>
+        <v>2.4600000000000004E-3</v>
       </c>
       <c r="H14" s="72"/>
       <c r="Z14" s="71"/>
@@ -9893,27 +9893,27 @@
       </c>
       <c r="B15" s="74">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C15)</f>
-        <v>42527</v>
+        <v>42584</v>
       </c>
       <c r="C15" s="74">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A15&amp;"M","mf")</f>
-        <v>42529</v>
+        <v>42586</v>
       </c>
       <c r="D15" s="74">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C15)</f>
-        <v>42894</v>
+        <v>42951</v>
       </c>
       <c r="E15" s="75">
         <f>_xll.qlIndexFixing(ON_12M_index,B15,,AllTriggers)</f>
-        <v>-4.3199612796486318E-4</v>
+        <v>-1.0155901437094591E-3</v>
       </c>
       <c r="F15" s="76">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C15,TRUE,E15)</f>
-        <v>3.2319961279648635E-3</v>
+        <v>3.625590143709459E-3</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" si="0"/>
-        <v>2.8000000000000004E-3</v>
+        <v>2.6099999999999999E-3</v>
       </c>
       <c r="H15" s="72"/>
       <c r="Z15" s="71"/>
@@ -9926,27 +9926,27 @@
       </c>
       <c r="B16" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C16)</f>
-        <v>42557</v>
+        <v>42614</v>
       </c>
       <c r="C16" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A16&amp;"M","mf")</f>
-        <v>42559</v>
+        <v>42618</v>
       </c>
       <c r="D16" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C16)</f>
-        <v>42926</v>
+        <v>42983</v>
       </c>
       <c r="E16" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B16,,AllTriggers)</f>
-        <v>-3.034970565257806E-4</v>
+        <v>-9.3383932061016049E-4</v>
       </c>
       <c r="F16" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C16,TRUE,E16)</f>
-        <v>3.2491099821507236E-3</v>
+        <v>3.7011925799717862E-3</v>
       </c>
       <c r="G16" s="79">
         <f t="shared" si="0"/>
-        <v>2.9456129256249432E-3</v>
+        <v>2.7673532593616257E-3</v>
       </c>
       <c r="H16" s="72"/>
       <c r="Z16" s="71"/>
@@ -9959,27 +9959,27 @@
       </c>
       <c r="B17" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C17)</f>
-        <v>42586</v>
+        <v>42643</v>
       </c>
       <c r="C17" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A17&amp;"M","mf")</f>
-        <v>42590</v>
+        <v>42647</v>
       </c>
       <c r="D17" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C17)</f>
-        <v>42955</v>
+        <v>43012</v>
       </c>
       <c r="E17" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B17,,AllTriggers)</f>
-        <v>-1.7353360523490223E-4</v>
+        <v>-8.5050078717406933E-4</v>
       </c>
       <c r="F17" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C17,TRUE,E17)</f>
-        <v>3.2686832928084629E-3</v>
+        <v>3.7604442840014031E-3</v>
       </c>
       <c r="G17" s="79">
         <f t="shared" si="0"/>
-        <v>3.0951496875735608E-3</v>
+        <v>2.9099434968273335E-3</v>
       </c>
       <c r="H17" s="72"/>
       <c r="Z17" s="71"/>
@@ -9992,27 +9992,27 @@
       </c>
       <c r="B18" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C18)</f>
-        <v>42619</v>
+        <v>42676</v>
       </c>
       <c r="C18" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A18&amp;"M","mf")</f>
-        <v>42621</v>
+        <v>42678</v>
       </c>
       <c r="D18" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C18)</f>
-        <v>42986</v>
+        <v>43045</v>
       </c>
       <c r="E18" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B18,,AllTriggers)</f>
-        <v>-3.1316881745381079E-5</v>
+        <v>-7.4627361988028099E-4</v>
       </c>
       <c r="F18" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C18,TRUE,E18)</f>
-        <v>3.2900006325037633E-3</v>
+        <v>3.8149370519853397E-3</v>
       </c>
       <c r="G18" s="79">
         <f t="shared" si="0"/>
-        <v>3.2586837507583822E-3</v>
+        <v>3.0686634321050585E-3</v>
       </c>
       <c r="H18" s="72"/>
       <c r="Z18" s="71"/>
@@ -10025,27 +10025,27 @@
       </c>
       <c r="B19" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C19)</f>
-        <v>42649</v>
+        <v>42705</v>
       </c>
       <c r="C19" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>42653</v>
+        <v>42709</v>
       </c>
       <c r="D19" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C19)</f>
-        <v>43018</v>
+        <v>43074</v>
       </c>
       <c r="E19" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B19,,AllTriggers)</f>
-        <v>1.2407591610514126E-4</v>
+        <v>-6.3742077290916861E-4</v>
       </c>
       <c r="F19" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C19,TRUE,E19)</f>
-        <v>3.3136464044181205E-3</v>
+        <v>3.8612037277400667E-3</v>
       </c>
       <c r="G19" s="79">
         <f t="shared" si="0"/>
-        <v>3.4377223205232618E-3</v>
+        <v>3.2237829548308981E-3</v>
       </c>
       <c r="H19" s="72"/>
       <c r="Z19" s="71"/>
@@ -10058,27 +10058,27 @@
       </c>
       <c r="B20" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C20)</f>
-        <v>42678</v>
+        <v>42737</v>
       </c>
       <c r="C20" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>42682</v>
+        <v>42739</v>
       </c>
       <c r="D20" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C20)</f>
-        <v>43047</v>
+        <v>43104</v>
       </c>
       <c r="E20" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B20,,AllTriggers)</f>
-        <v>2.7488306561570971E-4</v>
+        <v>-5.2673377673731904E-4</v>
       </c>
       <c r="F20" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C20,TRUE,E20)</f>
-        <v>3.336353205986979E-3</v>
+        <v>3.8990254173983658E-3</v>
       </c>
       <c r="G20" s="79">
         <f t="shared" si="0"/>
-        <v>3.6112362716026886E-3</v>
+        <v>3.3722916406610467E-3</v>
       </c>
       <c r="H20" s="72"/>
       <c r="Z20" s="71"/>
@@ -10091,27 +10091,27 @@
       </c>
       <c r="B21" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C21)</f>
-        <v>42710</v>
+        <v>42768</v>
       </c>
       <c r="C21" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>42712</v>
+        <v>42772</v>
       </c>
       <c r="D21" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C21)</f>
-        <v>43077</v>
+        <v>43137</v>
       </c>
       <c r="E21" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B21,,AllTriggers)</f>
-        <v>4.4373441001084954E-4</v>
+        <v>-3.8812704118027294E-4</v>
       </c>
       <c r="F21" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C21,TRUE,E21)</f>
-        <v>3.3609612856669046E-3</v>
+        <v>3.9337520311423244E-3</v>
       </c>
       <c r="G21" s="79">
         <f t="shared" si="0"/>
-        <v>3.804695695677754E-3</v>
+        <v>3.5456249899620514E-3</v>
       </c>
       <c r="H21" s="72"/>
       <c r="Z21" s="71"/>
@@ -10124,27 +10124,27 @@
       </c>
       <c r="B22" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C22)</f>
-        <v>42740</v>
+        <v>42796</v>
       </c>
       <c r="C22" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>42744</v>
+        <v>42800</v>
       </c>
       <c r="D22" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C22)</f>
-        <v>43109</v>
+        <v>43165</v>
       </c>
       <c r="E22" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B22,,AllTriggers)</f>
-        <v>6.0629936131333356E-4</v>
+        <v>-2.660683321810329E-4</v>
       </c>
       <c r="F22" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C22,TRUE,E22)</f>
-        <v>3.3882837600152861E-3</v>
+        <v>3.9583792865136693E-3</v>
       </c>
       <c r="G22" s="79">
         <f t="shared" si="0"/>
-        <v>3.9945831213286194E-3</v>
+        <v>3.6923109543326362E-3</v>
       </c>
       <c r="H22" s="72"/>
       <c r="Z22" s="71"/>
@@ -10157,27 +10157,27 @@
       </c>
       <c r="B23" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C23)</f>
-        <v>42772</v>
+        <v>42825</v>
       </c>
       <c r="C23" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>42774</v>
+        <v>42829</v>
       </c>
       <c r="D23" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C23)</f>
-        <v>43139</v>
+        <v>43194</v>
       </c>
       <c r="E23" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B23,,AllTriggers)</f>
-        <v>8.018408858130869E-4</v>
+        <v>-1.3467906780710524E-4</v>
       </c>
       <c r="F23" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C23,TRUE,E23)</f>
-        <v>3.4147350622349094E-3</v>
+        <v>3.979981567385318E-3</v>
       </c>
       <c r="G23" s="79">
         <f t="shared" si="0"/>
-        <v>4.2165759480479962E-3</v>
+        <v>3.8453024995782127E-3</v>
       </c>
       <c r="H23" s="72"/>
       <c r="Z23" s="71"/>
@@ -10190,27 +10190,27 @@
       </c>
       <c r="B24" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C24)</f>
-        <v>42800</v>
+        <v>42857</v>
       </c>
       <c r="C24" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>42802</v>
+        <v>42859</v>
       </c>
       <c r="D24" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C24)</f>
-        <v>43167</v>
+        <v>43224</v>
       </c>
       <c r="E24" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B24,,AllTriggers)</f>
-        <v>9.9041708585097775E-4</v>
+        <v>8.0500664562825724E-6</v>
       </c>
       <c r="F24" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C24,TRUE,E24)</f>
-        <v>3.4400078691739938E-3</v>
+        <v>3.9989525991582465E-3</v>
       </c>
       <c r="G24" s="79">
         <f t="shared" si="0"/>
-        <v>4.4304249550249711E-3</v>
+        <v>4.0070026656145287E-3</v>
       </c>
       <c r="H24" s="72"/>
       <c r="Z24" s="71"/>
@@ -10223,27 +10223,27 @@
       </c>
       <c r="B25" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C25)</f>
-        <v>42831</v>
+        <v>42887</v>
       </c>
       <c r="C25" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A25&amp;"M","mf")</f>
-        <v>42835</v>
+        <v>42891</v>
       </c>
       <c r="D25" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C25)</f>
-        <v>43200</v>
+        <v>43256</v>
       </c>
       <c r="E25" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B25,,AllTriggers)</f>
-        <v>1.216924080933587E-3</v>
+        <v>1.6940497157584195E-4</v>
       </c>
       <c r="F25" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C25,TRUE,E25)</f>
-        <v>3.4703364507519953E-3</v>
+        <v>4.0163475149641468E-3</v>
       </c>
       <c r="G25" s="79">
         <f t="shared" si="0"/>
-        <v>4.6872605316855822E-3</v>
+        <v>4.1857524865399889E-3</v>
       </c>
       <c r="H25" s="72"/>
       <c r="Z25" s="71"/>
@@ -10256,27 +10256,27 @@
       </c>
       <c r="B26" s="82">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C26)</f>
-        <v>42859</v>
+        <v>42916</v>
       </c>
       <c r="C26" s="82">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A26&amp;"M","mf")</f>
-        <v>42863</v>
+        <v>42920</v>
       </c>
       <c r="D26" s="82">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C26)</f>
-        <v>43228</v>
+        <v>43285</v>
       </c>
       <c r="E26" s="83">
         <f>_xll.qlIndexFixing(ON_12M_index,B26,,AllTriggers)</f>
-        <v>1.4150636088540642E-3</v>
+        <v>3.2421565319651498E-4</v>
       </c>
       <c r="F26" s="84">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C26,TRUE,E26)</f>
-        <v>3.4963790818891114E-3</v>
+        <v>4.0304199112042027E-3</v>
       </c>
       <c r="G26" s="83">
         <f t="shared" si="0"/>
-        <v>4.9114426907431756E-3</v>
+        <v>4.3546355644007179E-3</v>
       </c>
       <c r="H26" s="72"/>
       <c r="Z26" s="71"/>
@@ -10289,27 +10289,27 @@
       </c>
       <c r="B27" s="340">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C27)</f>
-        <v>42892</v>
+        <v>42949</v>
       </c>
       <c r="C27" s="340">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A27&amp;"M","mf")</f>
-        <v>42894</v>
+        <v>42951</v>
       </c>
       <c r="D27" s="340">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C27)</f>
-        <v>43259</v>
+        <v>43318</v>
       </c>
       <c r="E27" s="341">
         <f>_xll.qlIndexFixing(ON_12M_index,B27,,AllTriggers)</f>
-        <v>1.6446242247501973E-3</v>
+        <v>5.054217085163718E-4</v>
       </c>
       <c r="F27" s="342">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C27,TRUE,E27)</f>
-        <v>3.5253757752498026E-3</v>
+        <v>4.0445782914836272E-3</v>
       </c>
       <c r="G27" s="341">
         <f t="shared" si="0"/>
-        <v>5.1700000000000001E-3</v>
+        <v>4.5499999999999994E-3</v>
       </c>
       <c r="H27" s="72"/>
       <c r="Z27" s="71"/>
@@ -10350,7 +10350,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10448,22 +10448,22 @@
       </c>
       <c r="H3" s="139">
         <f>'1MSynthDepo'!V11</f>
-        <v>-5.9043666484015489E-4</v>
+        <v>-6.5251058204651713E-4</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J3" s="132">
-        <v>-5.3379496031347173E-4</v>
+        <v>-6.5251058204651713E-4</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="120">
-        <f t="array" ref="L3:L63">QuoteLive</f>
-        <v>-5.9043666484015489E-4</v>
-      </c>
-      <c r="M3" s="121">
+        <f t="array" ref="L3:L63">QuoteStatic</f>
+        <v>-6.5251058204651713E-4</v>
+      </c>
+      <c r="M3" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND($L3,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N3" s="104"/>
     </row>
@@ -10493,21 +10493,21 @@
       </c>
       <c r="H4" s="139">
         <f>'1MSynthDepo'!V12</f>
-        <v>-5.9885151029488118E-4</v>
+        <v>-6.7529624861149633E-4</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J4" s="132">
-        <v>-3.9059723107914834E-4</v>
+        <v>-6.7529624861149633E-4</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="120">
-        <v>-5.9885151029488118E-4</v>
-      </c>
-      <c r="M4" s="121">
+        <v>-6.7529624861149633E-4</v>
+      </c>
+      <c r="M4" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND($L4,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N4" s="104"/>
     </row>
@@ -10534,21 +10534,21 @@
       </c>
       <c r="H5" s="139">
         <f>'1MSynthDepo'!V13</f>
-        <v>-5.8752678013267764E-4</v>
+        <v>-7.068308441948723E-4</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="132">
-        <v>-2.022527404326497E-4</v>
+        <v>-7.068308441948723E-4</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="120">
-        <v>-5.8752678013267764E-4</v>
-      </c>
-      <c r="M5" s="121">
+        <v>-7.068308441948723E-4</v>
+      </c>
+      <c r="M5" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND($L5,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N5" s="104"/>
     </row>
@@ -10575,21 +10575,21 @@
       </c>
       <c r="H6" s="139">
         <f>'1MSynthDepo'!V14</f>
-        <v>-6.0502935140022932E-4</v>
+        <v>-7.2346852341301617E-4</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J6" s="133">
-        <v>-2.8647777488328377E-4</v>
+        <v>-7.2346852341301617E-4</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="122">
-        <v>-6.0502935140022932E-4</v>
-      </c>
-      <c r="M6" s="123">
+        <v>-7.2346852341301617E-4</v>
+      </c>
+      <c r="M6" s="123" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND($L6,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N6" s="104"/>
     </row>
@@ -10616,21 +10616,21 @@
       </c>
       <c r="H7" s="142">
         <f>'1MSynthDepo'!V15</f>
-        <v>-6.2758270029439345E-4</v>
+        <v>-7.5602720849914584E-4</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="134">
-        <v>-3.3999999999956287E-4</v>
+        <v>-7.5602720849914584E-4</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="124">
-        <v>-6.2758270029439345E-4</v>
-      </c>
-      <c r="M7" s="125">
+        <v>-7.5602720849914584E-4</v>
+      </c>
+      <c r="M7" s="125" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND($L7,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N7" s="107"/>
     </row>
@@ -10656,19 +10656,19 @@
       </c>
       <c r="H8" s="144">
         <f>'3MSynthDepo'!I25</f>
-        <v>-1.5235886164699508E-4</v>
+        <v>-2.0569278220694542E-4</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="132">
-        <v>-6.5904013166750985E-5</v>
+        <v>-2.0569278340598629E-4</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="120">
-        <v>-1.5235886164699508E-4</v>
-      </c>
-      <c r="M8" s="121">
+        <v>-2.0569278340598629E-4</v>
+      </c>
+      <c r="M8" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND($L8,6),EvaluationDate)</f>
-        <v>6.9999999999999804E-6</v>
+        <v>#N/A</v>
       </c>
       <c r="N8" s="108">
         <f>_xll.ohTrigger(M8:M14)</f>
@@ -10698,19 +10698,19 @@
       </c>
       <c r="H9" s="139">
         <f>'3MSynthDepo'!I26</f>
-        <v>-1.4615060688529167E-4</v>
+        <v>-2.0463436774801176E-4</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="132">
-        <v>6.7527620855045711E-5</v>
+        <v>-2.0463436884427769E-4</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="120">
-        <v>-1.4615060688529167E-4</v>
-      </c>
-      <c r="M9" s="121">
+        <v>-2.0463436884427769E-4</v>
+      </c>
+      <c r="M9" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND($L9,6),EvaluationDate)</f>
-        <v>6.0000000000000103E-6</v>
+        <v>#N/A</v>
       </c>
       <c r="N9" s="104"/>
     </row>
@@ -10734,19 +10734,19 @@
       </c>
       <c r="H10" s="139">
         <f>'3MSynthDepo'!I27</f>
-        <v>-1.1905590967087321E-4</v>
+        <v>-2.1337748068736166E-4</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="132">
-        <v>2.4652230037336409E-4</v>
+        <v>-2.1337748172082068E-4</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="120">
-        <v>-1.1905590967087321E-4</v>
-      </c>
-      <c r="M10" s="121">
+        <v>-2.1337748172082068E-4</v>
+      </c>
+      <c r="M10" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND($L10,6),EvaluationDate)</f>
-        <v>5.9999999999999968E-6</v>
+        <v>#N/A</v>
       </c>
       <c r="N10" s="104"/>
     </row>
@@ -10770,19 +10770,19 @@
       </c>
       <c r="H11" s="147">
         <f>'3MSynthDepo'!I28</f>
-        <v>-1.2210649579267953E-4</v>
+        <v>-2.120815898289306E-4</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="133">
-        <v>1.5514146245010352E-4</v>
+        <v>-2.1208159080338921E-4</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="122">
-        <v>-1.2210649579267953E-4</v>
-      </c>
-      <c r="M11" s="123">
+        <v>-2.1208159080338921E-4</v>
+      </c>
+      <c r="M11" s="123" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND($L11,6),EvaluationDate)</f>
-        <v>5.9999999999999968E-6</v>
+        <v>#N/A</v>
       </c>
       <c r="N11" s="104"/>
     </row>
@@ -10806,19 +10806,19 @@
       </c>
       <c r="H12" s="139">
         <f>'3MSynthDepo'!I29</f>
-        <v>-1.2789266630397478E-4</v>
+        <v>-2.2629335085015107E-4</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="132">
-        <v>9.5648429845773819E-5</v>
+        <v>-2.2629335174491921E-4</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="120">
-        <v>-1.2789266630397478E-4</v>
-      </c>
-      <c r="M12" s="121">
+        <v>-2.2629335174491921E-4</v>
+      </c>
+      <c r="M12" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND($L12,6),EvaluationDate)</f>
-        <v>5.0000000000000131E-6</v>
+        <v>#N/A</v>
       </c>
       <c r="N12" s="104"/>
     </row>
@@ -10842,19 +10842,19 @@
       </c>
       <c r="H13" s="139">
         <f>'3MSynthDepo'!I30</f>
-        <v>-1.3135129780675724E-4</v>
+        <v>-2.3675874691667545E-4</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="132">
-        <v>5.4506305091701146E-5</v>
+        <v>-2.3675874757099076E-4</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="120">
-        <v>-1.3135129780675724E-4</v>
-      </c>
-      <c r="M13" s="121">
+        <v>-2.3675874757099076E-4</v>
+      </c>
+      <c r="M13" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND($L13,6),EvaluationDate)</f>
-        <v>3.9999999999999888E-6</v>
+        <v>#N/A</v>
       </c>
       <c r="N13" s="104"/>
     </row>
@@ -10878,19 +10878,19 @@
       </c>
       <c r="H14" s="147">
         <f>'3MSynthDepo'!I31</f>
-        <v>-1.3414978244339639E-4</v>
+        <v>-2.4418495743025822E-4</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="133">
-        <v>2.1169088631484696E-5</v>
+        <v>-2.4418495786295561E-4</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="122">
-        <v>-1.3414978244339639E-4</v>
-      </c>
-      <c r="M14" s="123">
+        <v>-2.4418495786295561E-4</v>
+      </c>
+      <c r="M14" s="123" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND($L14,6),EvaluationDate)</f>
-        <v>2.9999999999999916E-6</v>
+        <v>#N/A</v>
       </c>
       <c r="N14" s="104"/>
     </row>
@@ -10919,19 +10919,19 @@
       </c>
       <c r="H15" s="144">
         <f>'6MSynthDepo'!I25</f>
-        <v>3.241783158713929E-4</v>
+        <v>4.6795698028567756E-4</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="132">
-        <v>9.1273369742239652E-4</v>
+        <v>4.6795697852708429E-4</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="120">
-        <v>3.241783158713929E-4</v>
-      </c>
-      <c r="M15" s="121">
+        <v>4.6795697852708429E-4</v>
+      </c>
+      <c r="M15" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND($L15,6),EvaluationDate)</f>
-        <v>2.6000000000000036E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N15" s="110">
         <f>_xll.ohTrigger(M15:M24)</f>
@@ -10964,19 +10964,19 @@
       </c>
       <c r="H16" s="139">
         <f>'6MSynthDepo'!I26</f>
-        <v>3.3416013810873475E-4</v>
+        <v>4.6808351169959545E-4</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="132">
-        <v>1.0323016171362046E-3</v>
+        <v>4.6808350997526053E-4</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="120">
-        <v>3.3416013810873475E-4</v>
-      </c>
-      <c r="M16" s="121">
+        <v>4.6808350997526053E-4</v>
+      </c>
+      <c r="M16" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND($L16,6),EvaluationDate)</f>
-        <v>2.5000000000000011E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N16" s="111"/>
     </row>
@@ -11003,19 +11003,19 @@
       </c>
       <c r="H17" s="139">
         <f>'6MSynthDepo'!I27</f>
-        <v>3.6559869292534283E-4</v>
+        <v>4.5834244227993537E-4</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="132">
-        <v>1.1954497369843459E-3</v>
+        <v>4.5834244062411704E-4</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="120">
-        <v>3.6559869292534283E-4</v>
-      </c>
-      <c r="M17" s="121">
+        <v>4.5834244062411704E-4</v>
+      </c>
+      <c r="M17" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND($L17,6),EvaluationDate)</f>
-        <v>2.5000000000000011E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N17" s="111"/>
     </row>
@@ -11042,19 +11042,19 @@
       </c>
       <c r="H18" s="139">
         <f>'6MSynthDepo'!I28</f>
-        <v>3.6682874906799966E-4</v>
+        <v>4.5873537531651972E-4</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="132">
-        <v>1.0885602616905743E-3</v>
+        <v>4.587353737330245E-4</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="120">
-        <v>3.6682874906799966E-4</v>
-      </c>
-      <c r="M18" s="121">
+        <v>4.587353737330245E-4</v>
+      </c>
+      <c r="M18" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND($L18,6),EvaluationDate)</f>
-        <v>2.2999999999999963E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N18" s="111"/>
     </row>
@@ -11081,19 +11081,19 @@
       </c>
       <c r="H19" s="144">
         <f>'6MSynthDepo'!I29</f>
-        <v>3.6645507358468166E-4</v>
+        <v>4.4339414888070903E-4</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="135">
-        <v>1.0096362776810253E-3</v>
+        <v>4.4339414739544552E-4</v>
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="126">
-        <v>3.6645507358468166E-4</v>
-      </c>
-      <c r="M19" s="127">
+        <v>4.4339414739544552E-4</v>
+      </c>
+      <c r="M19" s="127" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND($L19,6),EvaluationDate)</f>
-        <v>2.1000000000000023E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N19" s="111"/>
     </row>
@@ -11120,19 +11120,19 @@
       </c>
       <c r="H20" s="139">
         <f>'6MSynthDepo'!I30</f>
-        <v>3.81994436043444E-4</v>
+        <v>4.3058687618027872E-4</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="132">
-        <v>9.0595425058635152E-4</v>
+        <v>4.3058687499026286E-4</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="120">
-        <v>3.81994436043444E-4</v>
-      </c>
-      <c r="M20" s="121">
+        <v>4.3058687499026286E-4</v>
+      </c>
+      <c r="M20" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND($L20,6),EvaluationDate)</f>
-        <v>1.7000000000000034E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N20" s="111"/>
     </row>
@@ -11159,19 +11159,19 @@
       </c>
       <c r="H21" s="139">
         <f>'6MSynthDepo'!I31</f>
-        <v>3.9484329466596776E-4</v>
+        <v>4.224615017985347E-4</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="132">
-        <v>8.1856251305365826E-4</v>
+        <v>4.2246150087927003E-4</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="120">
-        <v>3.9484329466596776E-4</v>
-      </c>
-      <c r="M21" s="121">
+        <v>4.2246150087927003E-4</v>
+      </c>
+      <c r="M21" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND($L21,6),EvaluationDate)</f>
-        <v>1.4000000000000015E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N21" s="111"/>
     </row>
@@ -11198,19 +11198,19 @@
       </c>
       <c r="H22" s="139">
         <f>'6MSynthDepo'!I32</f>
-        <v>4.2839036714768179E-4</v>
+        <v>4.2778488631434186E-4</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="132">
-        <v>7.7358926811860727E-4</v>
+        <v>4.2778488565454174E-4</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="120">
-        <v>4.2839036714768179E-4</v>
-      </c>
-      <c r="M22" s="121">
+        <v>4.2778488565454174E-4</v>
+      </c>
+      <c r="M22" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND($L22,6),EvaluationDate)</f>
-        <v>1.0999999999999996E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N22" s="111"/>
     </row>
@@ -11237,19 +11237,19 @@
       </c>
       <c r="H23" s="139">
         <f>'6MSynthDepo'!I33</f>
-        <v>4.5430778824257596E-4</v>
+        <v>4.2439538708664604E-4</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="132">
-        <v>7.535141655863201E-4</v>
+        <v>4.2439538667912887E-4</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="120">
-        <v>4.5430778824257596E-4</v>
-      </c>
-      <c r="M23" s="121">
+        <v>4.2439538667912887E-4</v>
+      </c>
+      <c r="M23" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND($L23,6),EvaluationDate)</f>
-        <v>7.9999999999999776E-6</v>
+        <v>#N/A</v>
       </c>
       <c r="N23" s="111"/>
     </row>
@@ -11276,19 +11276,19 @@
       </c>
       <c r="H24" s="147">
         <f>'6MSynthDepo'!I34</f>
-        <v>4.8065290598658667E-4</v>
+        <v>4.2660256229695595E-4</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="133">
-        <v>7.1336998314508644E-4</v>
+        <v>4.2660256202847508E-4</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="122">
-        <v>4.8065290598658667E-4</v>
-      </c>
-      <c r="M24" s="123">
+        <v>4.2660256202847508E-4</v>
+      </c>
+      <c r="M24" s="123" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND($L24,6),EvaluationDate)</f>
-        <v>7.0000000000000075E-6</v>
+        <v>#N/A</v>
       </c>
       <c r="N24" s="111"/>
     </row>
@@ -11317,19 +11317,19 @@
       </c>
       <c r="H25" s="144">
         <f>'1YSynthDepo'!I20</f>
-        <v>1.609122302923538E-3</v>
+        <v>1.811772918651755E-3</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="132">
-        <v>1.9786760234286049E-3</v>
+        <v>1.8117729168931618E-3</v>
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="120">
-        <v>1.609122302923538E-3</v>
-      </c>
-      <c r="M25" s="121">
+        <v>1.8117729168931618E-3</v>
+      </c>
+      <c r="M25" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND($L25,6),EvaluationDate)</f>
-        <v>-3.6000000000000008E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N25" s="110">
         <f>_xll.ohTrigger(M25:M40)</f>
@@ -11362,19 +11362,19 @@
       </c>
       <c r="H26" s="139">
         <f>'1YSynthDepo'!I21</f>
-        <v>1.6082451892161587E-3</v>
+        <v>1.8051836768595564E-3</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="132">
-        <v>2.0973449061261512E-3</v>
+        <v>1.8051836752151574E-3</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="120">
-        <v>1.6082451892161587E-3</v>
-      </c>
-      <c r="M26" s="121">
+        <v>1.8051836752151574E-3</v>
+      </c>
+      <c r="M26" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND($L26,6),EvaluationDate)</f>
-        <v>-3.4999999999999875E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N26" s="111"/>
     </row>
@@ -11401,19 +11401,19 @@
       </c>
       <c r="H27" s="139">
         <f>'1YSynthDepo'!I22</f>
-        <v>1.6272938688897754E-3</v>
+        <v>1.7877603195826097E-3</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="132">
-        <v>2.2594679994477774E-3</v>
+        <v>1.7877603180238566E-3</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="120">
-        <v>1.6272938688897754E-3</v>
-      </c>
-      <c r="M27" s="121">
+        <v>1.7877603180238566E-3</v>
+      </c>
+      <c r="M27" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND($L27,6),EvaluationDate)</f>
-        <v>-3.3999999999999959E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N27" s="111"/>
     </row>
@@ -11440,19 +11440,19 @@
       </c>
       <c r="H28" s="139">
         <f>'1YSynthDepo'!I23</f>
-        <v>1.6164289598753964E-3</v>
+        <v>1.7806353081198775E-3</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="132">
-        <v>2.1515623467774753E-3</v>
+        <v>1.7806353066391572E-3</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="120">
-        <v>1.6164289598753964E-3</v>
-      </c>
-      <c r="M28" s="121">
+        <v>1.7806353066391572E-3</v>
+      </c>
+      <c r="M28" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND($L28,6),EvaluationDate)</f>
-        <v>-3.3000000000000043E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N28" s="111"/>
     </row>
@@ -11479,19 +11479,19 @@
       </c>
       <c r="H29" s="147">
         <f>'1YSynthDepo'!I24</f>
-        <v>1.6009335986062467E-3</v>
+        <v>1.7548348702130815E-3</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="133">
-        <v>2.0713582690561338E-3</v>
+        <v>1.7548348688515901E-3</v>
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="122">
-        <v>1.6009335986062467E-3</v>
-      </c>
-      <c r="M29" s="123">
+        <v>1.7548348688515901E-3</v>
+      </c>
+      <c r="M29" s="123" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND($L29,6),EvaluationDate)</f>
-        <v>-3.0999999999999995E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N29" s="111"/>
     </row>
@@ -11518,19 +11518,19 @@
       </c>
       <c r="H30" s="139">
         <f>'1YSynthDepo'!I25</f>
-        <v>1.5650524683749217E-3</v>
+        <v>1.711685054132858E-3</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="132">
-        <v>1.9635040805632822E-3</v>
+        <v>1.7116850531168966E-3</v>
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="120">
-        <v>1.5650524683749217E-3</v>
-      </c>
-      <c r="M30" s="121">
+        <v>1.7116850531168966E-3</v>
+      </c>
+      <c r="M30" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND($L30,6),EvaluationDate)</f>
-        <v>-2.5999999999999981E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N30" s="110"/>
     </row>
@@ -11557,19 +11557,19 @@
       </c>
       <c r="H31" s="139">
         <f>'1YSynthDepo'!I26</f>
-        <v>1.5377312623009118E-3</v>
+        <v>1.6771221023443958E-3</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="132">
-        <v>1.8724129563418969E-3</v>
+        <v>1.6771221016362668E-3</v>
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="120">
-        <v>1.5377312623009118E-3</v>
-      </c>
-      <c r="M31" s="121">
+        <v>1.6771221016362668E-3</v>
+      </c>
+      <c r="M31" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND($L31,6),EvaluationDate)</f>
-        <v>-2.1999999999999884E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N31" s="111"/>
     </row>
@@ -11596,19 +11596,19 @@
       </c>
       <c r="H32" s="139">
         <f>'1YSynthDepo'!I27</f>
-        <v>1.5344112658990528E-3</v>
+        <v>1.6588058450564137E-3</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="132">
-        <v>1.8237721684577848E-3</v>
+        <v>1.6588058446318351E-3</v>
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="120">
-        <v>1.5344112658990528E-3</v>
-      </c>
-      <c r="M32" s="121">
+        <v>1.6588058446318351E-3</v>
+      </c>
+      <c r="M32" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND($L32,6),EvaluationDate)</f>
-        <v>-1.899999999999992E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N32" s="111"/>
     </row>
@@ -11635,19 +11635,19 @@
       </c>
       <c r="H33" s="139">
         <f>'1YSynthDepo'!I28</f>
-        <v>1.5259618386373067E-3</v>
+        <v>1.6338304231896593E-3</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="132">
-        <v>1.8008225006785829E-3</v>
+        <v>1.633830423033967E-3</v>
       </c>
       <c r="K33" s="16"/>
       <c r="L33" s="120">
-        <v>1.5259618386373067E-3</v>
-      </c>
-      <c r="M33" s="121">
+        <v>1.633830423033967E-3</v>
+      </c>
+      <c r="M33" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND($L33,6),EvaluationDate)</f>
-        <v>-1.5000000000000039E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N33" s="111"/>
     </row>
@@ -11674,19 +11674,19 @@
       </c>
       <c r="H34" s="139">
         <f>'1YSynthDepo'!I29</f>
-        <v>1.5253302475532371E-3</v>
+        <v>1.6172537696443699E-3</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="132">
-        <v>1.7580324292638017E-3</v>
+        <v>1.6172537696317712E-3</v>
       </c>
       <c r="K34" s="16"/>
       <c r="L34" s="120">
-        <v>1.5253302475532371E-3</v>
-      </c>
-      <c r="M34" s="121">
+        <v>1.6172537696317712E-3</v>
+      </c>
+      <c r="M34" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND($L34,6),EvaluationDate)</f>
-        <v>-1.1999999999999858E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N34" s="111"/>
     </row>
@@ -11713,19 +11713,19 @@
       </c>
       <c r="H35" s="139">
         <f>'1YSynthDepo'!I30</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223050242E-3</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="132">
-        <v>1.7605253080593816E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="120">
-        <v>1.6784772998424289E-3</v>
-      </c>
-      <c r="M35" s="121">
+        <v>1.6590267223403109E-3</v>
+      </c>
+      <c r="M35" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND($L35,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>#N/A</v>
       </c>
       <c r="N35" s="111"/>
     </row>
@@ -11752,19 +11752,19 @@
       </c>
       <c r="H36" s="139">
         <f>'1YSynthDepo'!I31</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223050242E-3</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="132">
-        <v>1.7377762759480189E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="120">
-        <v>1.6784772998424289E-3</v>
-      </c>
-      <c r="M36" s="121">
+        <v>1.6590267223403109E-3</v>
+      </c>
+      <c r="M36" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND($L36,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>#N/A</v>
       </c>
       <c r="N36" s="111"/>
     </row>
@@ -11791,19 +11791,19 @@
       </c>
       <c r="H37" s="139">
         <f>'1YSynthDepo'!I32</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223050242E-3</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="132">
-        <v>1.7481493380464806E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="120">
-        <v>1.6784772998424289E-3</v>
-      </c>
-      <c r="M37" s="121">
+        <v>1.6590267223403109E-3</v>
+      </c>
+      <c r="M37" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND($L37,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>#N/A</v>
       </c>
       <c r="N37" s="111"/>
     </row>
@@ -11830,19 +11830,19 @@
       </c>
       <c r="H38" s="139">
         <f>'1YSynthDepo'!I33</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223050242E-3</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="132">
-        <v>1.7372768337085925E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="120">
-        <v>1.6784772998424289E-3</v>
-      </c>
-      <c r="M38" s="121">
+        <v>1.6590267223403109E-3</v>
+      </c>
+      <c r="M38" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND($L38,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>#N/A</v>
       </c>
       <c r="N38" s="111"/>
     </row>
@@ -11869,19 +11869,19 @@
       </c>
       <c r="H39" s="139">
         <f>'1YSynthDepo'!I34</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223050242E-3</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="132">
-        <v>1.7247550505565812E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="K39" s="16"/>
       <c r="L39" s="120">
-        <v>1.6784772998424289E-3</v>
-      </c>
-      <c r="M39" s="121">
+        <v>1.6590267223403109E-3</v>
+      </c>
+      <c r="M39" s="121" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND($L39,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>#N/A</v>
       </c>
       <c r="N39" s="111"/>
     </row>
@@ -11908,19 +11908,19 @@
       </c>
       <c r="H40" s="147">
         <f>'1YSynthDepo'!I35</f>
-        <v>1.6784772998424289E-3</v>
+        <v>1.6590267223050242E-3</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="133">
-        <v>1.7100000000000858E-3</v>
+        <v>1.6590267223403109E-3</v>
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="122">
-        <v>1.6784772998424289E-3</v>
-      </c>
-      <c r="M40" s="123">
+        <v>1.6590267223403109E-3</v>
+      </c>
+      <c r="M40" s="123" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND($L40,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>#N/A</v>
       </c>
       <c r="N40" s="110"/>
     </row>
@@ -11953,19 +11953,19 @@
       </c>
       <c r="H41" s="152">
         <f>SynthFra!G4</f>
-        <v>1.75E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="136">
-        <v>1.6605416176082449E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="128">
-        <v>1.75E-3</v>
-      </c>
-      <c r="M41" s="129">
+        <v>1.65E-3</v>
+      </c>
+      <c r="M41" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(L41,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N41" s="110">
         <f>_xll.ohTrigger(M41:M63)</f>
@@ -12001,19 +12001,19 @@
       </c>
       <c r="H42" s="154">
         <f>SynthFra!G5</f>
-        <v>1.8E-3</v>
+        <v>1.6899999999999999E-3</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="136">
-        <v>1.6383825167237793E-3</v>
+        <v>1.6900000000000001E-3</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="128">
-        <v>1.8E-3</v>
-      </c>
-      <c r="M42" s="129">
+        <v>1.6900000000000001E-3</v>
+      </c>
+      <c r="M42" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D42,ROUND(L42,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N42" s="111"/>
     </row>
@@ -12046,19 +12046,19 @@
       </c>
       <c r="H43" s="154">
         <f>SynthFra!G6</f>
-        <v>1.8400000000000001E-3</v>
+        <v>1.7299999999999998E-3</v>
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="136">
-        <v>1.6315359165180374E-3</v>
+        <v>1.73E-3</v>
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="128">
-        <v>1.8400000000000001E-3</v>
-      </c>
-      <c r="M43" s="129">
+        <v>1.73E-3</v>
+      </c>
+      <c r="M43" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D43,ROUND(L43,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N43" s="111"/>
     </row>
@@ -12091,19 +12091,19 @@
       </c>
       <c r="H44" s="154">
         <f>SynthFra!G7</f>
-        <v>1.9000000000000002E-3</v>
+        <v>1.7799999999999999E-3</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="136">
-        <v>1.6217354128587164E-3</v>
+        <v>1.7799999999999997E-3</v>
       </c>
       <c r="K44" s="19"/>
       <c r="L44" s="128">
-        <v>1.9000000000000002E-3</v>
-      </c>
-      <c r="M44" s="129">
+        <v>1.7799999999999997E-3</v>
+      </c>
+      <c r="M44" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(L44,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N44" s="111"/>
     </row>
@@ -12136,19 +12136,19 @@
       </c>
       <c r="H45" s="154">
         <f>SynthFra!G8</f>
-        <v>1.97E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="136">
-        <v>1.611490590887736E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="128">
-        <v>1.97E-3</v>
-      </c>
-      <c r="M45" s="129">
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="M45" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D45,ROUND(L45,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N45" s="111"/>
     </row>
@@ -12181,19 +12181,19 @@
       </c>
       <c r="H46" s="154">
         <f>SynthFra!G9</f>
-        <v>2.0299999999999997E-3</v>
+        <v>1.9099999999999998E-3</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="136">
-        <v>1.6152355880216236E-3</v>
+        <v>1.9100000000000002E-3</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="128">
-        <v>2.0299999999999997E-3</v>
-      </c>
-      <c r="M46" s="129">
+        <v>1.9100000000000002E-3</v>
+      </c>
+      <c r="M46" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(L46,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N46" s="111"/>
     </row>
@@ -12226,19 +12226,19 @@
       </c>
       <c r="H47" s="154">
         <f>SynthFra!G10</f>
-        <v>2.1400000000000004E-3</v>
+        <v>1.98E-3</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="136">
-        <v>1.6027837766431675E-3</v>
+        <v>1.98E-3</v>
       </c>
       <c r="K47" s="19"/>
       <c r="L47" s="128">
-        <v>2.1400000000000004E-3</v>
-      </c>
-      <c r="M47" s="129">
+        <v>1.98E-3</v>
+      </c>
+      <c r="M47" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D47,ROUND(L47,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N47" s="111"/>
     </row>
@@ -12271,19 +12271,19 @@
       </c>
       <c r="H48" s="154">
         <f>SynthFra!G11</f>
-        <v>2.2599999999999999E-3</v>
+        <v>2.0899999999999998E-3</v>
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="136">
-        <v>1.6116373612167782E-3</v>
+        <v>2.0899999999999998E-3</v>
       </c>
       <c r="K48" s="19"/>
       <c r="L48" s="128">
-        <v>2.2599999999999999E-3</v>
-      </c>
-      <c r="M48" s="129">
+        <v>2.0899999999999998E-3</v>
+      </c>
+      <c r="M48" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D48,ROUND(L48,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N48" s="111"/>
     </row>
@@ -12316,19 +12316,19 @@
       </c>
       <c r="H49" s="154">
         <f>SynthFra!G12</f>
-        <v>2.3700000000000006E-3</v>
+        <v>2.2100000000000002E-3</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="136">
-        <v>1.6110335582855382E-3</v>
+        <v>2.2100000000000002E-3</v>
       </c>
       <c r="K49" s="19"/>
       <c r="L49" s="128">
-        <v>2.3700000000000006E-3</v>
-      </c>
-      <c r="M49" s="129">
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="M49" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(L49,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N49" s="111"/>
     </row>
@@ -12361,19 +12361,19 @@
       </c>
       <c r="H50" s="154">
         <f>SynthFra!G13</f>
-        <v>2.5100000000000001E-3</v>
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="136">
-        <v>1.6260050614706461E-3</v>
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="128">
-        <v>2.5100000000000001E-3</v>
-      </c>
-      <c r="M50" s="129">
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="M50" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D50,ROUND(L50,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N50" s="111"/>
     </row>
@@ -12406,19 +12406,19 @@
       </c>
       <c r="H51" s="154">
         <f>SynthFra!G14</f>
-        <v>2.66E-3</v>
+        <v>2.4600000000000004E-3</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="136">
-        <v>1.6510956425379811E-3</v>
+        <v>2.4599999999999999E-3</v>
       </c>
       <c r="K51" s="19"/>
       <c r="L51" s="128">
-        <v>2.66E-3</v>
-      </c>
-      <c r="M51" s="129">
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="M51" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(L51,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N51" s="111"/>
     </row>
@@ -12451,19 +12451,19 @@
       </c>
       <c r="H52" s="154">
         <f>SynthFra!G16</f>
-        <v>2.9456129256249432E-3</v>
+        <v>2.7673532593616257E-3</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="136">
-        <v>1.7293198715218703E-3</v>
+        <v>2.7673532594459697E-3</v>
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="128">
-        <v>2.9456129256249432E-3</v>
-      </c>
-      <c r="M52" s="129">
+        <v>2.7673532594459697E-3</v>
+      </c>
+      <c r="M52" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(L52,6),EvaluationDate)</f>
-        <v>-1.2000000000000292E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N52" s="111"/>
     </row>
@@ -12496,19 +12496,19 @@
       </c>
       <c r="H53" s="154">
         <f>SynthFra!G17</f>
-        <v>3.0951496875735608E-3</v>
+        <v>2.9099434968273335E-3</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="136">
-        <v>1.7685177753047356E-3</v>
+        <v>2.9099434970436097E-3</v>
       </c>
       <c r="K53" s="19"/>
       <c r="L53" s="128">
-        <v>3.0951496875735608E-3</v>
-      </c>
-      <c r="M53" s="129">
+        <v>2.9099434970436097E-3</v>
+      </c>
+      <c r="M53" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(L53,6),EvaluationDate)</f>
-        <v>-2.1999999999999884E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N53" s="111"/>
     </row>
@@ -12541,19 +12541,19 @@
       </c>
       <c r="H54" s="154">
         <f>SynthFra!G18</f>
-        <v>3.2586837507583822E-3</v>
+        <v>3.0686634321050585E-3</v>
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="136">
-        <v>1.8203716252033035E-3</v>
+        <v>3.0686634324651723E-3</v>
       </c>
       <c r="K54" s="19"/>
       <c r="L54" s="128">
-        <v>3.2586837507583822E-3</v>
-      </c>
-      <c r="M54" s="129">
+        <v>3.0686634324651723E-3</v>
+      </c>
+      <c r="M54" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(L54,6),EvaluationDate)</f>
-        <v>-2.6999999999999681E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N54" s="111"/>
     </row>
@@ -12586,19 +12586,19 @@
       </c>
       <c r="H55" s="154">
         <f>SynthFra!G19</f>
-        <v>3.4377223205232618E-3</v>
+        <v>3.2237829548308981E-3</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="136">
-        <v>1.8842824044602055E-3</v>
+        <v>3.2237829552436825E-3</v>
       </c>
       <c r="K55" s="19"/>
       <c r="L55" s="128">
-        <v>3.4377223205232618E-3</v>
-      </c>
-      <c r="M55" s="129">
+        <v>3.2237829552436825E-3</v>
+      </c>
+      <c r="M55" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(L55,6),EvaluationDate)</f>
-        <v>-3.0999999999999778E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N55" s="111"/>
     </row>
@@ -12631,19 +12631,19 @@
       </c>
       <c r="H56" s="154">
         <f>SynthFra!G20</f>
-        <v>3.6112362716026886E-3</v>
+        <v>3.3722916406610467E-3</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="136">
-        <v>1.9620591824041763E-3</v>
+        <v>3.3722916410829258E-3</v>
       </c>
       <c r="K56" s="19"/>
       <c r="L56" s="128">
-        <v>3.6112362716026886E-3</v>
-      </c>
-      <c r="M56" s="129">
+        <v>3.3722916410829258E-3</v>
+      </c>
+      <c r="M56" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D56,ROUND(L56,6),EvaluationDate)</f>
-        <v>-3.199999999999991E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N56" s="111"/>
     </row>
@@ -12676,19 +12676,19 @@
       </c>
       <c r="H57" s="154">
         <f>SynthFra!G21</f>
-        <v>3.804695695677754E-3</v>
+        <v>3.5456249899620514E-3</v>
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="136">
-        <v>2.0525920677748541E-3</v>
+        <v>3.5456249903564859E-3</v>
       </c>
       <c r="K57" s="19"/>
       <c r="L57" s="128">
-        <v>3.804695695677754E-3</v>
-      </c>
-      <c r="M57" s="129">
+        <v>3.5456249903564859E-3</v>
+      </c>
+      <c r="M57" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D57,ROUND(L57,6),EvaluationDate)</f>
-        <v>-3.0000000000000079E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N57" s="111"/>
     </row>
@@ -12721,19 +12721,19 @@
       </c>
       <c r="H58" s="154">
         <f>SynthFra!G22</f>
-        <v>3.9945831213286194E-3</v>
+        <v>3.6923109543326362E-3</v>
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="136">
-        <v>2.1415420157302706E-3</v>
+        <v>3.6923109546895799E-3</v>
       </c>
       <c r="K58" s="19"/>
       <c r="L58" s="128">
-        <v>3.9945831213286194E-3</v>
-      </c>
-      <c r="M58" s="129">
+        <v>3.6923109546895799E-3</v>
+      </c>
+      <c r="M58" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D58,ROUND(L58,6),EvaluationDate)</f>
-        <v>-2.3999999999999716E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N58" s="111"/>
     </row>
@@ -12766,19 +12766,19 @@
       </c>
       <c r="H59" s="154">
         <f>SynthFra!G23</f>
-        <v>4.2165759480479962E-3</v>
+        <v>3.8453024995782127E-3</v>
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="136">
-        <v>2.239062995801116E-3</v>
+        <v>3.845302499894961E-3</v>
       </c>
       <c r="K59" s="19"/>
       <c r="L59" s="128">
-        <v>4.2165759480479962E-3</v>
-      </c>
-      <c r="M59" s="129">
+        <v>3.845302499894961E-3</v>
+      </c>
+      <c r="M59" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D59,ROUND(L59,6),EvaluationDate)</f>
-        <v>-1.7999999999999787E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N59" s="111"/>
     </row>
@@ -12811,19 +12811,19 @@
       </c>
       <c r="H60" s="154">
         <f>SynthFra!G24</f>
-        <v>4.4304249550249711E-3</v>
+        <v>4.0070026656145287E-3</v>
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="136">
-        <v>2.3413834432000026E-3</v>
+        <v>4.0070026658950916E-3</v>
       </c>
       <c r="K60" s="19"/>
       <c r="L60" s="128">
-        <v>4.4304249550249711E-3</v>
-      </c>
-      <c r="M60" s="129">
+        <v>4.0070026658950916E-3</v>
+      </c>
+      <c r="M60" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D60,ROUND(L60,6),EvaluationDate)</f>
-        <v>-1.2999999999999991E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="N60" s="111"/>
     </row>
@@ -12856,19 +12856,19 @@
       </c>
       <c r="H61" s="154">
         <f>SynthFra!G25</f>
-        <v>4.6872605316855822E-3</v>
+        <v>4.1857524865399889E-3</v>
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="136">
-        <v>2.4430084796921575E-3</v>
+        <v>4.1857524867856995E-3</v>
       </c>
       <c r="K61" s="19"/>
       <c r="L61" s="128">
-        <v>4.6872605316855822E-3</v>
-      </c>
-      <c r="M61" s="129">
+        <v>4.1857524867856995E-3</v>
+      </c>
+      <c r="M61" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D61,ROUND(L61,6),EvaluationDate)</f>
-        <v>-8.0000000000001945E-6</v>
+        <v>#N/A</v>
       </c>
       <c r="N61" s="111"/>
     </row>
@@ -12901,19 +12901,19 @@
       </c>
       <c r="H62" s="154">
         <f>SynthFra!G26</f>
-        <v>4.9114426907431756E-3</v>
+        <v>4.3546355644007179E-3</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="136">
-        <v>2.5460698839072883E-3</v>
+        <v>4.3546355645762095E-3</v>
       </c>
       <c r="K62" s="19"/>
       <c r="L62" s="128">
-        <v>4.9114426907431756E-3</v>
-      </c>
-      <c r="M62" s="129">
+        <v>4.3546355645762095E-3</v>
+      </c>
+      <c r="M62" s="129" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D62,ROUND(L62,6),EvaluationDate)</f>
-        <v>-5.0000000000006636E-6</v>
+        <v>#N/A</v>
       </c>
       <c r="N62" s="111"/>
     </row>
@@ -12946,19 +12946,19 @@
       </c>
       <c r="H63" s="156">
         <f>SynthFra!G27</f>
-        <v>5.1700000000000001E-3</v>
+        <v>4.5499999999999994E-3</v>
       </c>
       <c r="I63" s="19"/>
       <c r="J63" s="137">
-        <v>2.5460698839072883E-3</v>
+        <v>4.5499999999999994E-3</v>
       </c>
       <c r="K63" s="19"/>
       <c r="L63" s="130">
-        <v>5.1700000000000001E-3</v>
-      </c>
-      <c r="M63" s="131">
+        <v>4.5499999999999994E-3</v>
+      </c>
+      <c r="M63" s="131" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D63,ROUND(L63,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="N63" s="111"/>
     </row>
